--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\com.PMRCQA\src\test\resources\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -19,9 +14,9 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="821">
   <si>
     <t>TestCases</t>
   </si>
@@ -2785,12 +2780,24 @@
   <si>
     <t>NoCode</t>
   </si>
+  <si>
+    <t>D:/workspace/bizligo-Automation/src/test/resources/testImages/Files/ChromePDF1.pdf</t>
+  </si>
+  <si>
+    <t>D:\workspace\bizligo-Automation\src\test\resources\testImages\Files\ChromeImage8.jpg</t>
+  </si>
+  <si>
+    <t>D:\workspace\bizligo-Automation\src\test\resources\testImages\Files\ChromeImage6.jpg</t>
+  </si>
+  <si>
+    <t>D:\workspace\bizligo-Automation\src\test\resources\testImages\Files\ChromePDF1.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3274,28 +3281,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3306,7 +3313,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3314,7 +3321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3322,7 +3329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -3330,7 +3337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>480</v>
       </c>
@@ -3341,7 +3348,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>616</v>
       </c>
@@ -3349,7 +3356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>617</v>
       </c>
@@ -3357,7 +3364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>605</v>
       </c>
@@ -3365,7 +3372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>606</v>
       </c>
@@ -3373,7 +3380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>607</v>
       </c>
@@ -3381,7 +3388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>608</v>
       </c>
@@ -3389,7 +3396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>609</v>
       </c>
@@ -3397,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>610</v>
       </c>
@@ -3405,7 +3412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>611</v>
       </c>
@@ -3413,7 +3420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>612</v>
       </c>
@@ -3421,7 +3428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>613</v>
       </c>
@@ -3429,7 +3436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>614</v>
       </c>
@@ -3437,7 +3444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>615</v>
       </c>
@@ -3445,7 +3452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>453</v>
       </c>
@@ -3453,7 +3460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>440</v>
       </c>
@@ -3461,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>441</v>
       </c>
@@ -3469,7 +3476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>442</v>
       </c>
@@ -3477,7 +3484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>443</v>
       </c>
@@ -3485,7 +3492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>444</v>
       </c>
@@ -3493,7 +3500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>445</v>
       </c>
@@ -3501,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>446</v>
       </c>
@@ -3509,7 +3516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>447</v>
       </c>
@@ -3517,7 +3524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>448</v>
       </c>
@@ -3525,7 +3532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>449</v>
       </c>
@@ -3533,7 +3540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>450</v>
       </c>
@@ -3541,7 +3548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>451</v>
       </c>
@@ -3549,7 +3556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>452</v>
       </c>
@@ -3557,7 +3564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>373</v>
       </c>
@@ -3568,7 +3575,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>372</v>
       </c>
@@ -3579,7 +3586,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -3590,7 +3597,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -3601,7 +3608,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -3612,7 +3619,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -3620,7 +3627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -3631,7 +3638,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -3642,7 +3649,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -3653,7 +3660,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -3670,7 +3677,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -3681,7 +3688,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -3690,7 +3697,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -3698,7 +3705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -3706,7 +3713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -3714,7 +3721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -3722,7 +3729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>298</v>
       </c>
@@ -3730,7 +3737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -3738,7 +3745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -3749,7 +3756,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -3757,7 +3764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -3765,7 +3772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -3781,7 +3788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -3792,7 +3799,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -3803,7 +3810,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -3811,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -3819,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -3827,7 +3834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -3835,7 +3842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -3846,7 +3853,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -3854,7 +3861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -3862,7 +3869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -3870,7 +3877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -3878,7 +3885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="30">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -3889,7 +3896,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="30">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -3900,7 +3907,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -3908,7 +3915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -3916,7 +3923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="30">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -3927,7 +3934,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -3935,7 +3942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -3943,7 +3950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -3951,7 +3958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>128</v>
       </c>
@@ -3959,7 +3966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="30">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -3970,7 +3977,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>130</v>
       </c>
@@ -3978,7 +3985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>131</v>
       </c>
@@ -3986,7 +3993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="30">
       <c r="A79" t="s">
         <v>132</v>
       </c>
@@ -3997,7 +4004,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>133</v>
       </c>
@@ -4005,7 +4012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="30">
       <c r="A81" t="s">
         <v>134</v>
       </c>
@@ -4016,7 +4023,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>135</v>
       </c>
@@ -4024,7 +4031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>136</v>
       </c>
@@ -4035,7 +4042,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>137</v>
       </c>
@@ -4043,7 +4050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="30">
       <c r="A85" t="s">
         <v>138</v>
       </c>
@@ -4054,7 +4061,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>139</v>
       </c>
@@ -4062,7 +4069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>140</v>
       </c>
@@ -4070,7 +4077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="30">
       <c r="A88" t="s">
         <v>141</v>
       </c>
@@ -4081,7 +4088,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>142</v>
       </c>
@@ -4089,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>143</v>
       </c>
@@ -4097,7 +4104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>144</v>
       </c>
@@ -4108,7 +4115,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>145</v>
       </c>
@@ -4119,7 +4126,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>146</v>
       </c>
@@ -4130,7 +4137,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>147</v>
       </c>
@@ -4141,7 +4148,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>148</v>
       </c>
@@ -4149,7 +4156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>149</v>
       </c>
@@ -4163,7 +4170,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>150</v>
       </c>
@@ -4171,7 +4178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>151</v>
       </c>
@@ -4185,7 +4192,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -4193,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -4201,7 +4208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>154</v>
       </c>
@@ -4209,7 +4216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>155</v>
       </c>
@@ -4217,7 +4224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="30">
       <c r="A103" t="s">
         <v>156</v>
       </c>
@@ -4228,7 +4235,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>157</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>158</v>
       </c>
@@ -4244,7 +4251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>159</v>
       </c>
@@ -4252,7 +4259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>160</v>
       </c>
@@ -4261,7 +4268,7 @@
       </c>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>161</v>
       </c>
@@ -4269,7 +4276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="30">
       <c r="A109" s="8" t="s">
         <v>162</v>
       </c>
@@ -4280,7 +4287,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="30">
       <c r="A110" s="8" t="s">
         <v>163</v>
       </c>
@@ -4291,7 +4298,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="8" t="s">
         <v>164</v>
       </c>
@@ -4302,7 +4309,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="8" t="s">
         <v>165</v>
       </c>
@@ -4313,7 +4320,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>166</v>
       </c>
@@ -4321,7 +4328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>167</v>
       </c>
@@ -4329,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>168</v>
       </c>
@@ -4337,7 +4344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>169</v>
       </c>
@@ -4345,7 +4352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>170</v>
       </c>
@@ -4353,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>171</v>
       </c>
@@ -4361,7 +4368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>172</v>
       </c>
@@ -4372,7 +4379,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>173</v>
       </c>
@@ -4380,7 +4387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>174</v>
       </c>
@@ -4391,7 +4398,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="30">
       <c r="A122" t="s">
         <v>175</v>
       </c>
@@ -4402,7 +4409,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>176</v>
       </c>
@@ -4413,7 +4420,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>177</v>
       </c>
@@ -4424,7 +4431,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="30">
       <c r="A125" t="s">
         <v>178</v>
       </c>
@@ -4435,7 +4442,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="30">
       <c r="A126" t="s">
         <v>179</v>
       </c>
@@ -4446,7 +4453,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="30">
       <c r="A127" t="s">
         <v>180</v>
       </c>
@@ -4457,7 +4464,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="45">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -4468,7 +4475,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="30">
       <c r="A129" t="s">
         <v>182</v>
       </c>
@@ -4479,7 +4486,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>183</v>
       </c>
@@ -4487,7 +4494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -4498,7 +4505,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>185</v>
       </c>
@@ -4509,7 +4516,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="30">
       <c r="A133" t="s">
         <v>186</v>
       </c>
@@ -4520,7 +4527,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>187</v>
       </c>
@@ -4531,7 +4538,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="30">
       <c r="A135" t="s">
         <v>188</v>
       </c>
@@ -4542,7 +4549,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>189</v>
       </c>
@@ -4553,7 +4560,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>190</v>
       </c>
@@ -4561,7 +4568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>191</v>
       </c>
@@ -4572,7 +4579,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>192</v>
       </c>
@@ -4583,7 +4590,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>193</v>
       </c>
@@ -4591,7 +4598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>194</v>
       </c>
@@ -4599,7 +4606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>195</v>
       </c>
@@ -4607,7 +4614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>196</v>
       </c>
@@ -4615,7 +4622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>197</v>
       </c>
@@ -4623,7 +4630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>520</v>
       </c>
@@ -4634,7 +4641,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>579</v>
       </c>
@@ -4645,7 +4652,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>583</v>
       </c>
@@ -4653,7 +4660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>585</v>
       </c>
@@ -4664,7 +4671,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>584</v>
       </c>
@@ -4672,7 +4679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>594</v>
       </c>
@@ -4680,7 +4687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>595</v>
       </c>
@@ -4688,7 +4695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>596</v>
       </c>
@@ -4699,7 +4706,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>598</v>
       </c>
@@ -4707,7 +4714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>265</v>
       </c>
@@ -4715,7 +4722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>266</v>
       </c>
@@ -4723,7 +4730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>267</v>
       </c>
@@ -4731,7 +4738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>599</v>
       </c>
@@ -4739,7 +4746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>429</v>
       </c>
@@ -4750,7 +4757,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="45">
       <c r="A162" t="s">
         <v>602</v>
       </c>
@@ -4761,7 +4768,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>656</v>
       </c>
@@ -4769,7 +4776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="45">
       <c r="A164" t="s">
         <v>650</v>
       </c>
@@ -4780,7 +4787,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>655</v>
       </c>
@@ -4791,7 +4798,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="30">
       <c r="A166" t="s">
         <v>658</v>
       </c>
@@ -4802,7 +4809,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>663</v>
       </c>
@@ -4810,7 +4817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>665</v>
       </c>
@@ -4818,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>667</v>
       </c>
@@ -4826,7 +4833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>668</v>
       </c>
@@ -4834,7 +4841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>669</v>
       </c>
@@ -4842,7 +4849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>670</v>
       </c>
@@ -4850,7 +4857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>671</v>
       </c>
@@ -4858,7 +4865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>672</v>
       </c>
@@ -4866,7 +4873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>673</v>
       </c>
@@ -4874,7 +4881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>682</v>
       </c>
@@ -4882,7 +4889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>683</v>
       </c>
@@ -4890,7 +4897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>684</v>
       </c>
@@ -4898,7 +4905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>685</v>
       </c>
@@ -4906,7 +4913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>686</v>
       </c>
@@ -4914,7 +4921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>687</v>
       </c>
@@ -4922,7 +4929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>688</v>
       </c>
@@ -4930,7 +4937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>689</v>
       </c>
@@ -4938,7 +4945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>690</v>
       </c>
@@ -4946,7 +4953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>691</v>
       </c>
@@ -4954,7 +4961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>692</v>
       </c>
@@ -4962,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>693</v>
       </c>
@@ -4970,7 +4977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>694</v>
       </c>
@@ -4978,7 +4985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>695</v>
       </c>
@@ -4986,7 +4993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>696</v>
       </c>
@@ -4994,7 +5001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>714</v>
       </c>
@@ -5002,7 +5009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>715</v>
       </c>
@@ -5010,7 +5017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>716</v>
       </c>
@@ -5018,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>717</v>
       </c>
@@ -5026,7 +5033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>718</v>
       </c>
@@ -5034,7 +5041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>719</v>
       </c>
@@ -5042,7 +5049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>720</v>
       </c>
@@ -5050,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>721</v>
       </c>
@@ -5058,7 +5065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>722</v>
       </c>
@@ -5066,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>723</v>
       </c>
@@ -5081,14 +5088,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV1066"/>
   <sheetViews>
-    <sheetView topLeftCell="A812" workbookViewId="0">
-      <selection activeCell="E823" sqref="E823"/>
+    <sheetView tabSelected="1" topLeftCell="A889" workbookViewId="0">
+      <selection activeCell="A895" sqref="A895"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="6" customWidth="1"/>
@@ -5103,15 +5110,15 @@
     <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="C1" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5137,7 +5144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5163,12 +5170,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -5215,7 +5222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="30">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5262,12 +5269,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -5287,7 +5294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5307,12 +5314,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -5329,7 +5336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -5346,12 +5353,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -5371,7 +5378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -5391,12 +5398,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -5413,7 +5420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="30">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -5430,12 +5437,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -5455,7 +5462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -5475,12 +5482,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -5500,7 +5507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -5520,12 +5527,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -5548,7 +5555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -5571,12 +5578,12 @@
         <v>472</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -5599,7 +5606,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -5622,12 +5629,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -5650,7 +5657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -5673,12 +5680,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -5695,7 +5702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="30">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -5712,12 +5719,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -5737,7 +5744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="30">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -5757,12 +5764,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -5782,7 +5789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="30">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -5802,12 +5809,12 @@
         <v>474</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -5824,7 +5831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="30">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -5841,12 +5848,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -5866,7 +5873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -5886,12 +5893,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -5944,7 +5951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="30">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -5997,12 +6004,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -6025,7 +6032,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="30">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -6048,12 +6055,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -6106,7 +6113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" ht="30">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -6159,12 +6166,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -6184,7 +6191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="30">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -6204,12 +6211,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -6262,7 +6269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="30">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -6315,12 +6322,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -6340,7 +6347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="30">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -6360,12 +6367,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -6391,7 +6398,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="30">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -6417,12 +6424,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -6460,7 +6467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="30">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -6498,14 +6505,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
         <v>97</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -6546,7 +6553,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="30">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -6587,7 +6594,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
         <v>184</v>
       </c>
@@ -6595,7 +6602,7 @@
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -6624,7 +6631,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -6653,32 +6660,32 @@
         <v>385</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13">
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13">
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13">
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13">
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13">
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -6719,7 +6726,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="30">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -6760,7 +6767,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="30">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -6801,16 +6808,16 @@
         <v>765</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13">
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -6833,7 +6840,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="45">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -6856,16 +6863,16 @@
         <v>207</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -6885,7 +6892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="30">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -6905,16 +6912,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -6934,7 +6941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="30">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -6954,12 +6961,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -6994,7 +7001,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="30">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -7029,12 +7036,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="A165" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -7054,7 +7061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="30">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -7092,16 +7099,16 @@
         <v>811</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -7139,7 +7146,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -7177,24 +7184,24 @@
         <v>340</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12">
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12">
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12">
       <c r="A180" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -7232,7 +7239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="30">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -7270,12 +7277,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12">
       <c r="A185" t="s">
         <v>1</v>
       </c>
@@ -7304,7 +7311,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="45">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -7333,12 +7340,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12">
       <c r="A190" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12">
       <c r="A191" t="s">
         <v>1</v>
       </c>
@@ -7361,7 +7368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="45">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -7384,12 +7391,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>1</v>
       </c>
@@ -7418,7 +7425,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="30">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -7447,12 +7454,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>1</v>
       </c>
@@ -7475,7 +7482,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="45">
       <c r="A203" t="s">
         <v>2</v>
       </c>
@@ -7498,12 +7505,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13">
       <c r="A209" t="s">
         <v>1</v>
       </c>
@@ -7526,7 +7533,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13">
       <c r="A210" t="s">
         <v>2</v>
       </c>
@@ -7549,12 +7556,12 @@
         <v>306</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13">
       <c r="A216" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13">
       <c r="A217" t="s">
         <v>1</v>
       </c>
@@ -7595,7 +7602,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13">
       <c r="A218" t="s">
         <v>2</v>
       </c>
@@ -7636,72 +7643,72 @@
         <v>340</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13">
       <c r="A224" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1">
       <c r="A225" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1">
       <c r="A226" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1">
       <c r="A231" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1">
       <c r="A232" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1">
       <c r="A233" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1">
       <c r="A238" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1">
       <c r="A239" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1">
       <c r="A240" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1">
       <c r="A245" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1">
       <c r="A246" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1">
       <c r="A247" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -7727,7 +7734,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="30">
       <c r="A262" t="s">
         <v>2</v>
       </c>
@@ -7753,72 +7760,72 @@
         <v>262</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1">
       <c r="A274" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1">
       <c r="A275" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1">
       <c r="A276" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1">
       <c r="A280" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1">
       <c r="A281" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1">
       <c r="A282" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1">
       <c r="A286" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1">
       <c r="A287" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1">
       <c r="A288" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>1</v>
       </c>
@@ -7844,7 +7851,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="30">
       <c r="A294" t="s">
         <v>2</v>
       </c>
@@ -7870,102 +7877,102 @@
         <v>365</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1">
       <c r="A305" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1">
       <c r="A306" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1">
       <c r="A307" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1">
       <c r="A312" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1">
       <c r="A313" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1">
       <c r="A314" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1">
       <c r="A319" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1">
       <c r="A320" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1">
       <c r="A321" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1">
       <c r="A339" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1">
       <c r="A340" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1">
       <c r="A341" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1">
       <c r="A346" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1">
       <c r="A347" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1">
       <c r="A348" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1">
       <c r="A352" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8">
       <c r="A353" t="s">
         <v>1</v>
       </c>
@@ -7991,7 +7998,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" ht="45">
       <c r="A354" t="s">
         <v>2</v>
       </c>
@@ -8017,79 +8024,79 @@
         <v>766</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8">
       <c r="A358" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8">
       <c r="A359" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8">
       <c r="A360" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8">
       <c r="A364" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8">
       <c r="A365" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8">
       <c r="A366" t="s">
         <v>2</v>
       </c>
       <c r="B366"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10">
       <c r="A370" t="s">
         <v>127</v>
       </c>
       <c r="B370"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10">
       <c r="A371" t="s">
         <v>1</v>
       </c>
       <c r="B371"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10">
       <c r="A372" t="s">
         <v>2</v>
       </c>
       <c r="B372"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10">
       <c r="A376" t="s">
         <v>128</v>
       </c>
       <c r="B376"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10">
       <c r="A377" t="s">
         <v>1</v>
       </c>
       <c r="B377"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10">
       <c r="A378" t="s">
         <v>2</v>
       </c>
       <c r="B378"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10">
       <c r="A383" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10">
       <c r="A384" t="s">
         <v>1</v>
       </c>
@@ -8121,7 +8128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" ht="45">
       <c r="A385" t="s">
         <v>2</v>
       </c>
@@ -8153,42 +8160,42 @@
         <v>316</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10">
       <c r="A389" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10">
       <c r="A390" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10">
       <c r="A391" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10">
       <c r="A395" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10">
       <c r="A396" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10">
       <c r="A397" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6">
       <c r="A401" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6">
       <c r="A402" t="s">
         <v>1</v>
       </c>
@@ -8208,7 +8215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="45">
       <c r="A403" t="s">
         <v>2</v>
       </c>
@@ -8228,27 +8235,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6">
       <c r="A408" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6">
       <c r="A409" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6">
       <c r="A410" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6">
       <c r="A415" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6">
       <c r="A416" t="s">
         <v>1</v>
       </c>
@@ -8268,7 +8275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="45">
       <c r="A417" t="s">
         <v>2</v>
       </c>
@@ -8288,42 +8295,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6">
       <c r="A422" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6">
       <c r="A423" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6">
       <c r="A424" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6">
       <c r="A435" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6">
       <c r="A436" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6">
       <c r="A437" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6">
       <c r="A441" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6">
       <c r="A442" t="s">
         <v>1</v>
       </c>
@@ -8343,7 +8350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" ht="45">
       <c r="A443" t="s">
         <v>2</v>
       </c>
@@ -8363,49 +8370,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6">
       <c r="A448" t="s">
         <v>139</v>
       </c>
       <c r="B448"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6">
       <c r="A449" t="s">
         <v>1</v>
       </c>
       <c r="B449"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6">
       <c r="A450" t="s">
         <v>2</v>
       </c>
       <c r="B450"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6">
       <c r="A454" t="s">
         <v>140</v>
       </c>
       <c r="B454"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6">
       <c r="A455" t="s">
         <v>1</v>
       </c>
       <c r="B455"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6">
       <c r="A456" t="s">
         <v>2</v>
       </c>
       <c r="B456"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6">
       <c r="A460" t="s">
         <v>141</v>
       </c>
       <c r="B460"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6">
       <c r="A461" t="s">
         <v>1</v>
       </c>
@@ -8425,7 +8432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" ht="45">
       <c r="A462" s="2" t="s">
         <v>2</v>
       </c>
@@ -8445,57 +8452,57 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1">
       <c r="A466" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1">
       <c r="A467" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1">
       <c r="A468" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1">
       <c r="A472" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1">
       <c r="A473" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1">
       <c r="A474" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7">
       <c r="A503" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7">
       <c r="A504" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7">
       <c r="A505" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7">
       <c r="A511" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7">
       <c r="A512" t="s">
         <v>1</v>
       </c>
@@ -8518,7 +8525,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7">
       <c r="A513" t="s">
         <v>2</v>
       </c>
@@ -8541,27 +8548,27 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7">
       <c r="A518" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7">
       <c r="A519" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7">
       <c r="A520" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7">
       <c r="A525" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7">
       <c r="A526" t="s">
         <v>1</v>
       </c>
@@ -8584,7 +8591,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" ht="30">
       <c r="A527" t="s">
         <v>2</v>
       </c>
@@ -8607,79 +8614,79 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2">
       <c r="A532" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2">
       <c r="A533" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2">
       <c r="A534" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2">
       <c r="A539" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2">
       <c r="A540" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2">
       <c r="A541" t="s">
         <v>2</v>
       </c>
       <c r="B541"/>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2">
       <c r="A546" t="s">
         <v>154</v>
       </c>
       <c r="B546"/>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2">
       <c r="A547" t="s">
         <v>1</v>
       </c>
       <c r="B547"/>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2">
       <c r="A548" t="s">
         <v>2</v>
       </c>
       <c r="B548"/>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2">
       <c r="A553" t="s">
         <v>155</v>
       </c>
       <c r="B553"/>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2">
       <c r="A554" t="s">
         <v>1</v>
       </c>
       <c r="B554"/>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2">
       <c r="A555" t="s">
         <v>2</v>
       </c>
       <c r="B555"/>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2">
       <c r="A560" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6">
       <c r="A561" t="s">
         <v>1</v>
       </c>
@@ -8699,7 +8706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" ht="45">
       <c r="A562" t="s">
         <v>2</v>
       </c>
@@ -8719,47 +8726,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6">
       <c r="A567" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6">
       <c r="A568" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6">
       <c r="A569" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6">
       <c r="A574" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6">
       <c r="A575" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6">
       <c r="A576" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="584" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:26">
       <c r="D584" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="587" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:26">
       <c r="A587" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="588" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:26">
       <c r="A588" t="s">
         <v>1</v>
       </c>
@@ -8839,7 +8846,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="589" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:26">
       <c r="A589" t="s">
         <v>2</v>
       </c>
@@ -8913,7 +8920,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="595" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:26">
       <c r="A595" t="s">
         <v>161</v>
       </c>
@@ -8954,7 +8961,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="596" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:26">
       <c r="A596" t="s">
         <v>1</v>
       </c>
@@ -8995,119 +9002,119 @@
         <v>224</v>
       </c>
     </row>
-    <row r="597" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:26">
       <c r="A597" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2">
       <c r="A633" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2">
       <c r="A634" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2">
       <c r="A635" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2">
       <c r="A640" t="s">
         <v>167</v>
       </c>
       <c r="B640"/>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2">
       <c r="A641" t="s">
         <v>1</v>
       </c>
       <c r="B641"/>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2">
       <c r="A642" t="s">
         <v>2</v>
       </c>
       <c r="B642"/>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2">
       <c r="A647" t="s">
         <v>168</v>
       </c>
       <c r="B647"/>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2">
       <c r="A648" t="s">
         <v>1</v>
       </c>
       <c r="B648"/>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2">
       <c r="A649" t="s">
         <v>2</v>
       </c>
       <c r="B649"/>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2">
       <c r="A654" t="s">
         <v>169</v>
       </c>
       <c r="B654"/>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2">
       <c r="A655" t="s">
         <v>1</v>
       </c>
       <c r="B655"/>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2">
       <c r="A656" t="s">
         <v>2</v>
       </c>
       <c r="B656"/>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2">
       <c r="A661" t="s">
         <v>170</v>
       </c>
       <c r="B661"/>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2">
       <c r="A662" t="s">
         <v>1</v>
       </c>
       <c r="B662"/>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2">
       <c r="A663" t="s">
         <v>2</v>
       </c>
       <c r="B663"/>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2">
       <c r="A669" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2">
       <c r="A670" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2">
       <c r="A671" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8">
       <c r="A676" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8">
       <c r="A677" t="s">
         <v>1</v>
       </c>
@@ -9133,7 +9140,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8">
       <c r="A678" t="s">
         <v>2</v>
       </c>
@@ -9159,27 +9166,27 @@
         <v>349</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8">
       <c r="A683" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8">
       <c r="A684" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8">
       <c r="A685" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7">
       <c r="A689" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7">
       <c r="A690" t="s">
         <v>1</v>
       </c>
@@ -9196,7 +9203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" ht="30">
       <c r="A691" t="s">
         <v>2</v>
       </c>
@@ -9213,12 +9220,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7">
       <c r="A695" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7">
       <c r="A696" t="s">
         <v>1</v>
       </c>
@@ -9238,7 +9245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" ht="30">
       <c r="A697" t="s">
         <v>2</v>
       </c>
@@ -9258,12 +9265,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7">
       <c r="A702" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7">
       <c r="A703" t="s">
         <v>1</v>
       </c>
@@ -9286,7 +9293,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" ht="30">
       <c r="A704" t="s">
         <v>2</v>
       </c>
@@ -9309,12 +9316,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7">
       <c r="A709" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7">
       <c r="A710" t="s">
         <v>1</v>
       </c>
@@ -9337,7 +9344,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" ht="30">
       <c r="A711" t="s">
         <v>2</v>
       </c>
@@ -9360,23 +9367,23 @@
         <v>364</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7">
       <c r="A717" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7">
       <c r="A718" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7">
       <c r="A723" t="s">
         <v>179</v>
       </c>
       <c r="B723"/>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7">
       <c r="A724" t="s">
         <v>1</v>
       </c>
@@ -9399,7 +9406,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="725" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" ht="45">
       <c r="A725" t="s">
         <v>769</v>
       </c>
@@ -9422,13 +9429,13 @@
         <v>364</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7">
       <c r="A730" t="s">
         <v>180</v>
       </c>
       <c r="B730"/>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7">
       <c r="A731" t="s">
         <v>1</v>
       </c>
@@ -9451,7 +9458,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="732" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" ht="45">
       <c r="A732" t="s">
         <v>2</v>
       </c>
@@ -9474,13 +9481,13 @@
         <v>364</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7">
       <c r="A737" t="s">
         <v>181</v>
       </c>
       <c r="B737"/>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7">
       <c r="A738" t="s">
         <v>1</v>
       </c>
@@ -9503,7 +9510,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" ht="60">
       <c r="A739" t="s">
         <v>2</v>
       </c>
@@ -9526,31 +9533,31 @@
         <v>364</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7">
       <c r="A745" t="s">
         <v>182</v>
       </c>
       <c r="B745"/>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7">
       <c r="A746" t="s">
         <v>1</v>
       </c>
       <c r="B746"/>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7">
       <c r="A747" t="s">
         <v>2</v>
       </c>
       <c r="B747"/>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7">
       <c r="A752" t="s">
         <v>178</v>
       </c>
       <c r="B752"/>
     </row>
-    <row r="753" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:16">
       <c r="A753" t="s">
         <v>1</v>
       </c>
@@ -9591,7 +9598,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="754" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:16" ht="45">
       <c r="A754" t="s">
         <v>2</v>
       </c>
@@ -9632,14 +9639,14 @@
         <v>369</v>
       </c>
     </row>
-    <row r="756" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:16">
       <c r="A756" t="s">
         <v>189</v>
       </c>
       <c r="D756" s="3"/>
       <c r="E756" s="3"/>
     </row>
-    <row r="757" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:16">
       <c r="A757" t="s">
         <v>1</v>
       </c>
@@ -9689,7 +9696,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="758" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:16" ht="30">
       <c r="A758" t="s">
         <v>2</v>
       </c>
@@ -9739,26 +9746,26 @@
         <v>501</v>
       </c>
     </row>
-    <row r="759" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:16">
       <c r="H759" s="3"/>
       <c r="J759" s="3"/>
     </row>
-    <row r="760" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:16">
       <c r="H760" s="3"/>
       <c r="J760" s="3"/>
     </row>
-    <row r="761" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:16">
       <c r="H761" s="3"/>
       <c r="J761" s="3"/>
     </row>
-    <row r="762" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:16">
       <c r="A762" t="s">
         <v>190</v>
       </c>
       <c r="H762" s="3"/>
       <c r="J762" s="3"/>
     </row>
-    <row r="763" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:16">
       <c r="A763" t="s">
         <v>1</v>
       </c>
@@ -9808,7 +9815,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="764" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:16" ht="45">
       <c r="A764" t="s">
         <v>2</v>
       </c>
@@ -9858,26 +9865,26 @@
         <v>501</v>
       </c>
     </row>
-    <row r="765" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:16">
       <c r="H765" s="3"/>
       <c r="J765" s="3"/>
     </row>
-    <row r="766" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:16">
       <c r="H766" s="3"/>
       <c r="J766" s="3"/>
     </row>
-    <row r="767" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:16">
       <c r="H767" s="3"/>
       <c r="J767" s="3"/>
     </row>
-    <row r="768" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:16">
       <c r="A768" t="s">
         <v>191</v>
       </c>
       <c r="H768" s="3"/>
       <c r="J768" s="3"/>
     </row>
-    <row r="769" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:15">
       <c r="A769" t="s">
         <v>1</v>
       </c>
@@ -9924,7 +9931,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="770" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:15">
       <c r="A770" t="s">
         <v>2</v>
       </c>
@@ -9968,26 +9975,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="771" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:15">
       <c r="H771" s="3"/>
       <c r="J771" s="3"/>
     </row>
-    <row r="772" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:15">
       <c r="H772" s="3"/>
       <c r="J772" s="3"/>
     </row>
-    <row r="773" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:15">
       <c r="H773" s="3"/>
       <c r="J773" s="3"/>
     </row>
-    <row r="774" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:15">
       <c r="A774" t="s">
         <v>192</v>
       </c>
       <c r="D774" s="3"/>
       <c r="E774" s="3"/>
     </row>
-    <row r="775" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:15">
       <c r="A775" t="s">
         <v>1</v>
       </c>
@@ -10034,7 +10041,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="776" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:15">
       <c r="A776" t="s">
         <v>2</v>
       </c>
@@ -10078,12 +10085,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="779" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:15">
       <c r="A779" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="780" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:15">
       <c r="A780" t="s">
         <v>1</v>
       </c>
@@ -10124,7 +10131,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="781" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:15" ht="75">
       <c r="A781" t="s">
         <v>2</v>
       </c>
@@ -10162,18 +10169,18 @@
         <v>771</v>
       </c>
     </row>
-    <row r="782" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:15">
       <c r="H782" s="3"/>
       <c r="L782" s="3"/>
     </row>
-    <row r="783" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:15">
       <c r="A783" t="s">
         <v>693</v>
       </c>
       <c r="H783" s="3"/>
       <c r="L783" s="3"/>
     </row>
-    <row r="784" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:15">
       <c r="A784" t="s">
         <v>1</v>
       </c>
@@ -10214,7 +10221,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="785" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:13" ht="45">
       <c r="A785" t="s">
         <v>2</v>
       </c>
@@ -10255,18 +10262,18 @@
         <v>756</v>
       </c>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:13">
       <c r="H786" s="3"/>
       <c r="L786" s="3"/>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:13">
       <c r="A787" t="s">
         <v>694</v>
       </c>
       <c r="H787" s="3"/>
       <c r="L787" s="3"/>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:13">
       <c r="A788" t="s">
         <v>1</v>
       </c>
@@ -10307,7 +10314,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="789" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:13" ht="45">
       <c r="A789" t="s">
         <v>2</v>
       </c>
@@ -10348,15 +10355,15 @@
         <v>756</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:13">
       <c r="H790" s="3"/>
       <c r="L790" s="3"/>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:13">
       <c r="H791" s="3"/>
       <c r="L791" s="3"/>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:13">
       <c r="A792" t="s">
         <v>695</v>
       </c>
@@ -10397,7 +10404,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:13">
       <c r="A793" t="s">
         <v>1</v>
       </c>
@@ -10407,25 +10414,25 @@
       <c r="H793" s="3"/>
       <c r="L793" s="3"/>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:13">
       <c r="A794" t="s">
         <v>2</v>
       </c>
       <c r="H794" s="3"/>
       <c r="L794" s="3"/>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:13">
       <c r="H795" s="3"/>
       <c r="L795" s="3"/>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:13">
       <c r="A796" t="s">
         <v>696</v>
       </c>
       <c r="H796" s="3"/>
       <c r="L796" s="3"/>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:13">
       <c r="A797" t="s">
         <v>1</v>
       </c>
@@ -10447,7 +10454,7 @@
       <c r="H797" s="3"/>
       <c r="L797" s="3"/>
     </row>
-    <row r="798" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:13" ht="30">
       <c r="A798" t="s">
         <v>2</v>
       </c>
@@ -10469,18 +10476,18 @@
       <c r="H798" s="3"/>
       <c r="L798" s="3"/>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:13">
       <c r="H799" s="3"/>
       <c r="L799" s="3"/>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:13">
       <c r="A800" t="s">
         <v>714</v>
       </c>
       <c r="H800" s="3"/>
       <c r="L800" s="3"/>
     </row>
-    <row r="801" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:14">
       <c r="A801" t="s">
         <v>1</v>
       </c>
@@ -10502,7 +10509,7 @@
       <c r="H801" s="3"/>
       <c r="L801" s="3"/>
     </row>
-    <row r="802" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:14" ht="45">
       <c r="A802" t="s">
         <v>2</v>
       </c>
@@ -10524,22 +10531,22 @@
       <c r="H802" s="3"/>
       <c r="L802" s="3"/>
     </row>
-    <row r="803" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:14">
       <c r="H803" s="3"/>
       <c r="L803" s="3"/>
     </row>
-    <row r="804" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:14">
       <c r="H804" s="3"/>
       <c r="L804" s="3"/>
     </row>
-    <row r="805" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:14">
       <c r="A805" t="s">
         <v>715</v>
       </c>
       <c r="H805" s="3"/>
       <c r="L805" s="3"/>
     </row>
-    <row r="806" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:14">
       <c r="A806" t="s">
         <v>1</v>
       </c>
@@ -10577,7 +10584,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="807" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:14" ht="30">
       <c r="A807" t="s">
         <v>2</v>
       </c>
@@ -10615,18 +10622,18 @@
         <v>765</v>
       </c>
     </row>
-    <row r="808" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:14">
       <c r="H808" s="3"/>
       <c r="L808" s="3"/>
     </row>
-    <row r="809" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:14">
       <c r="A809" t="s">
         <v>716</v>
       </c>
       <c r="H809" s="3"/>
       <c r="L809" s="3"/>
     </row>
-    <row r="810" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:14">
       <c r="A810" t="s">
         <v>1</v>
       </c>
@@ -10651,7 +10658,7 @@
       <c r="H810" s="3"/>
       <c r="L810" s="3"/>
     </row>
-    <row r="811" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:14" ht="60">
       <c r="A811" t="s">
         <v>2</v>
       </c>
@@ -10676,20 +10683,20 @@
       <c r="H811" s="3"/>
       <c r="L811" s="3"/>
     </row>
-    <row r="812" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:14">
       <c r="H812" s="3"/>
       <c r="L812" s="3"/>
     </row>
-    <row r="813" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:14">
       <c r="H813" s="3"/>
       <c r="L813" s="3"/>
     </row>
-    <row r="815" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:14">
       <c r="A815" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="816" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:14">
       <c r="A816" t="s">
         <v>1</v>
       </c>
@@ -10733,7 +10740,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="817" spans="1:48" ht="60" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:48" ht="60">
       <c r="A817" t="s">
         <v>2</v>
       </c>
@@ -10774,12 +10781,12 @@
         <v>815</v>
       </c>
     </row>
-    <row r="821" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:48">
       <c r="A821" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="822" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:48">
       <c r="A822" t="s">
         <v>1</v>
       </c>
@@ -10820,7 +10827,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="823" spans="1:48" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:48" s="5" customFormat="1" ht="60">
       <c r="A823" s="5" t="s">
         <v>2</v>
       </c>
@@ -10861,12 +10868,12 @@
         <v>816</v>
       </c>
     </row>
-    <row r="826" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:48">
       <c r="A826" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="827" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:48">
       <c r="A827" t="s">
         <v>1</v>
       </c>
@@ -10889,7 +10896,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="828" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:48" ht="30">
       <c r="A828" s="5" t="s">
         <v>2</v>
       </c>
@@ -10912,13 +10919,13 @@
         <v>508</v>
       </c>
     </row>
-    <row r="830" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="831" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:48" s="5" customFormat="1"/>
+    <row r="831" spans="1:48">
       <c r="A831" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="832" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:48">
       <c r="A832" s="5" t="s">
         <v>1</v>
       </c>
@@ -11064,7 +11071,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="833" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:48">
       <c r="A833" s="5" t="s">
         <v>2</v>
       </c>
@@ -11150,7 +11157,7 @@
         <v>562</v>
       </c>
       <c r="AC833" t="s">
-        <v>571</v>
+        <v>818</v>
       </c>
       <c r="AD833" s="3" t="s">
         <v>564</v>
@@ -11168,7 +11175,7 @@
         <v>240</v>
       </c>
       <c r="AI833" t="s">
-        <v>571</v>
+        <v>819</v>
       </c>
       <c r="AJ833" s="3" t="s">
         <v>620</v>
@@ -11198,7 +11205,7 @@
         <v>568</v>
       </c>
       <c r="AS833" t="s">
-        <v>572</v>
+        <v>817</v>
       </c>
       <c r="AT833" t="s">
         <v>569</v>
@@ -11210,7 +11217,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="837" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:48">
       <c r="A837" s="5" t="s">
         <v>1</v>
       </c>
@@ -11356,7 +11363,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="838" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:48">
       <c r="A838" s="5" t="s">
         <v>2</v>
       </c>
@@ -11442,7 +11449,7 @@
         <v>562</v>
       </c>
       <c r="AC838" t="s">
-        <v>571</v>
+        <v>818</v>
       </c>
       <c r="AD838" s="3" t="s">
         <v>564</v>
@@ -11460,7 +11467,7 @@
         <v>240</v>
       </c>
       <c r="AI838" t="s">
-        <v>571</v>
+        <v>819</v>
       </c>
       <c r="AJ838" s="3" t="s">
         <v>620</v>
@@ -11490,7 +11497,7 @@
         <v>568</v>
       </c>
       <c r="AS838" t="s">
-        <v>572</v>
+        <v>817</v>
       </c>
       <c r="AT838" t="s">
         <v>569</v>
@@ -11502,12 +11509,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="844" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:48">
       <c r="A844" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="845" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:48">
       <c r="A845" s="5" t="s">
         <v>1</v>
       </c>
@@ -11653,7 +11660,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="846" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:48">
       <c r="A846" s="5" t="s">
         <v>2</v>
       </c>
@@ -11799,12 +11806,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="848" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:48">
       <c r="A848" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:13">
       <c r="A849" s="5" t="s">
         <v>1</v>
       </c>
@@ -11842,7 +11849,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="850" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:13" ht="45">
       <c r="A850" s="5" t="s">
         <v>2</v>
       </c>
@@ -11877,12 +11884,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:13">
       <c r="A852" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:13">
       <c r="A853" s="5" t="s">
         <v>1</v>
       </c>
@@ -11920,7 +11927,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="854" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:13" ht="45">
       <c r="A854" s="5" t="s">
         <v>2</v>
       </c>
@@ -11955,15 +11962,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:13">
       <c r="A855" s="5"/>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:13">
       <c r="A856" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:13">
       <c r="A857" s="5" t="s">
         <v>1</v>
       </c>
@@ -12004,7 +12011,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="858" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:13" ht="45">
       <c r="A858" s="5" t="s">
         <v>2</v>
       </c>
@@ -12036,12 +12043,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:13">
       <c r="A860" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:13">
       <c r="A861" s="5" t="s">
         <v>1</v>
       </c>
@@ -12082,7 +12089,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="862" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:13" ht="45">
       <c r="A862" s="5" t="s">
         <v>2</v>
       </c>
@@ -12114,12 +12121,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:13">
       <c r="A864" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="865" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:14">
       <c r="A865" s="5" t="s">
         <v>1</v>
       </c>
@@ -12160,7 +12167,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="866" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:14" ht="45">
       <c r="A866" s="5" t="s">
         <v>2</v>
       </c>
@@ -12192,12 +12199,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="868" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:14">
       <c r="A868" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="869" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:14">
       <c r="A869" s="5" t="s">
         <v>1</v>
       </c>
@@ -12232,7 +12239,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="870" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:14" ht="30">
       <c r="A870" s="5" t="s">
         <v>2</v>
       </c>
@@ -12267,12 +12274,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="873" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:14">
       <c r="A873" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="874" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:14">
       <c r="A874" t="s">
         <v>1</v>
       </c>
@@ -12316,7 +12323,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="875" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:14" ht="30">
       <c r="A875" t="s">
         <v>2</v>
       </c>
@@ -12360,13 +12367,13 @@
         <v>394</v>
       </c>
     </row>
-    <row r="883" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:45">
       <c r="A883" t="s">
         <v>186</v>
       </c>
       <c r="B883"/>
     </row>
-    <row r="884" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:45">
       <c r="A884" t="s">
         <v>1</v>
       </c>
@@ -12395,7 +12402,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="885" spans="1:45" ht="45" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:45" ht="45">
       <c r="A885" t="s">
         <v>2</v>
       </c>
@@ -12424,12 +12431,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="888" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:45">
       <c r="A888" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="889" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:45">
       <c r="A889" t="s">
         <v>1</v>
       </c>
@@ -12458,7 +12465,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="890" spans="1:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:45" ht="30">
       <c r="A890" t="s">
         <v>2</v>
       </c>
@@ -12487,15 +12494,15 @@
         <v>405</v>
       </c>
     </row>
-    <row r="892" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:45">
       <c r="B892"/>
     </row>
-    <row r="893" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:45">
       <c r="A893" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="894" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:45">
       <c r="A894" t="s">
         <v>1</v>
       </c>
@@ -12632,7 +12639,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="895" spans="1:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:45" ht="30">
       <c r="A895" t="s">
         <v>2</v>
       </c>
@@ -12733,7 +12740,7 @@
         <v>394</v>
       </c>
       <c r="AH895" t="s">
-        <v>407</v>
+        <v>820</v>
       </c>
       <c r="AI895" t="s">
         <v>405</v>
@@ -12757,7 +12764,7 @@
         <v>71</v>
       </c>
       <c r="AP895" t="s">
-        <v>223</v>
+        <v>765</v>
       </c>
       <c r="AQ895" t="s">
         <v>262</v>
@@ -12769,13 +12776,13 @@
         <v>427</v>
       </c>
     </row>
-    <row r="900" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:45">
       <c r="A900" t="s">
         <v>480</v>
       </c>
       <c r="B900"/>
     </row>
-    <row r="901" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:45">
       <c r="A901" t="s">
         <v>1</v>
       </c>
@@ -12912,7 +12919,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="902" spans="1:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:45" ht="30">
       <c r="A902" t="s">
         <v>2</v>
       </c>
@@ -13013,7 +13020,7 @@
         <v>394</v>
       </c>
       <c r="AH902" t="s">
-        <v>407</v>
+        <v>820</v>
       </c>
       <c r="AI902" t="s">
         <v>405</v>
@@ -13049,12 +13056,12 @@
         <v>427</v>
       </c>
     </row>
-    <row r="905" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:45">
       <c r="A905" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="906" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:45">
       <c r="A906" t="s">
         <v>1</v>
       </c>
@@ -13140,7 +13147,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="907" spans="1:45" ht="60" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:45" ht="60">
       <c r="A907" t="s">
         <v>2</v>
       </c>
@@ -13220,13 +13227,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6">
       <c r="A913" t="s">
         <v>668</v>
       </c>
       <c r="B913"/>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6">
       <c r="A914" t="s">
         <v>1</v>
       </c>
@@ -13246,7 +13253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6">
       <c r="A915" t="s">
         <v>2</v>
       </c>
@@ -13266,12 +13273,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6">
       <c r="A918" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6">
       <c r="A919" t="s">
         <v>1</v>
       </c>
@@ -13291,7 +13298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" ht="75">
       <c r="A920" t="s">
         <v>748</v>
       </c>
@@ -13311,16 +13318,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6">
       <c r="B921"/>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6">
       <c r="A925" t="s">
         <v>670</v>
       </c>
       <c r="B925"/>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6">
       <c r="A926" t="s">
         <v>1</v>
       </c>
@@ -13340,7 +13347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" ht="45">
       <c r="A927" t="s">
         <v>2</v>
       </c>
@@ -13360,12 +13367,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:11">
       <c r="A930" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:11">
       <c r="A931" t="s">
         <v>1</v>
       </c>
@@ -13385,7 +13392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="932" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:11" ht="45">
       <c r="A932" t="s">
         <v>2</v>
       </c>
@@ -13405,15 +13412,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:11">
       <c r="B933"/>
     </row>
-    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:11">
       <c r="A934" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:11">
       <c r="A935" t="s">
         <v>1</v>
       </c>
@@ -13433,7 +13440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="936" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:11" ht="45">
       <c r="A936" t="s">
         <v>2</v>
       </c>
@@ -13453,12 +13460,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:11">
       <c r="A938" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:11">
       <c r="A939" t="s">
         <v>1</v>
       </c>
@@ -13481,7 +13488,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="940" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:11" ht="45">
       <c r="A940" t="s">
         <v>2</v>
       </c>
@@ -13504,12 +13511,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:11">
       <c r="A942" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="943" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:11">
       <c r="A943" t="s">
         <v>1</v>
       </c>
@@ -13544,7 +13551,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="944" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:11" ht="60">
       <c r="A944" t="s">
         <v>2</v>
       </c>
@@ -13579,13 +13586,13 @@
         <v>410</v>
       </c>
     </row>
-    <row r="946" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:45">
       <c r="A946" t="s">
         <v>683</v>
       </c>
       <c r="B946"/>
     </row>
-    <row r="947" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:45">
       <c r="A947" t="s">
         <v>1</v>
       </c>
@@ -13722,7 +13729,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="948" spans="1:45" ht="60" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:45" ht="60">
       <c r="A948" t="s">
         <v>2</v>
       </c>
@@ -13859,13 +13866,13 @@
         <v>427</v>
       </c>
     </row>
-    <row r="953" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:45">
       <c r="A953" t="s">
         <v>684</v>
       </c>
       <c r="B953"/>
     </row>
-    <row r="954" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:45">
       <c r="A954" t="s">
         <v>1</v>
       </c>
@@ -13900,7 +13907,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="955" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:45">
       <c r="A955" t="s">
         <v>2</v>
       </c>
@@ -13935,13 +13942,13 @@
         <v>410</v>
       </c>
     </row>
-    <row r="960" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:45">
       <c r="A960" t="s">
         <v>685</v>
       </c>
       <c r="B960"/>
     </row>
-    <row r="961" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:11">
       <c r="A961" t="s">
         <v>1</v>
       </c>
@@ -13976,7 +13983,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="962" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:11">
       <c r="A962" t="s">
         <v>2</v>
       </c>
@@ -14011,13 +14018,13 @@
         <v>410</v>
       </c>
     </row>
-    <row r="966" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:11">
       <c r="A966" t="s">
         <v>687</v>
       </c>
       <c r="B966"/>
     </row>
-    <row r="967" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:11">
       <c r="A967" t="s">
         <v>1</v>
       </c>
@@ -14040,7 +14047,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="968" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:11">
       <c r="A968" t="s">
         <v>2</v>
       </c>
@@ -14063,19 +14070,19 @@
         <v>271</v>
       </c>
     </row>
-    <row r="969" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:11">
       <c r="B969"/>
     </row>
-    <row r="970" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:11">
       <c r="B970"/>
     </row>
-    <row r="971" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:11">
       <c r="A971" t="s">
         <v>686</v>
       </c>
       <c r="B971"/>
     </row>
-    <row r="972" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:11">
       <c r="A972" t="s">
         <v>1</v>
       </c>
@@ -14098,7 +14105,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="973" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:11">
       <c r="A973" t="s">
         <v>2</v>
       </c>
@@ -14121,19 +14128,19 @@
         <v>320</v>
       </c>
     </row>
-    <row r="974" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:11">
       <c r="B974"/>
     </row>
-    <row r="975" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:11">
       <c r="B975"/>
     </row>
-    <row r="976" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:11">
       <c r="A976" t="s">
         <v>690</v>
       </c>
       <c r="B976"/>
     </row>
-    <row r="977" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:23">
       <c r="A977" t="s">
         <v>1</v>
       </c>
@@ -14168,7 +14175,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="978" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:23">
       <c r="A978" t="s">
         <v>2</v>
       </c>
@@ -14203,19 +14210,19 @@
         <v>709</v>
       </c>
     </row>
-    <row r="979" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:23">
       <c r="B979"/>
     </row>
-    <row r="980" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:23">
       <c r="B980"/>
     </row>
-    <row r="981" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:23">
       <c r="A981" t="s">
         <v>691</v>
       </c>
       <c r="B981"/>
     </row>
-    <row r="982" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:23">
       <c r="A982" t="s">
         <v>1</v>
       </c>
@@ -14235,7 +14242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="983" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:23">
       <c r="A983" t="s">
         <v>2</v>
       </c>
@@ -14255,19 +14262,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="984" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:23">
       <c r="B984"/>
     </row>
-    <row r="985" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:23">
       <c r="B985"/>
     </row>
-    <row r="986" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:23">
       <c r="A986" t="s">
         <v>692</v>
       </c>
       <c r="B986"/>
     </row>
-    <row r="987" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:23">
       <c r="A987" t="s">
         <v>1</v>
       </c>
@@ -14338,7 +14345,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="988" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:23">
       <c r="A988" t="s">
         <v>2</v>
       </c>
@@ -14409,13 +14416,13 @@
         <v>576</v>
       </c>
     </row>
-    <row r="989" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:23">
       <c r="B989"/>
     </row>
-    <row r="990" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:23">
       <c r="B990"/>
     </row>
-    <row r="992" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:23">
       <c r="B992"/>
       <c r="J992" s="3"/>
       <c r="K992" s="3"/>
@@ -14430,19 +14437,19 @@
       <c r="T992" s="3"/>
       <c r="U992" s="3"/>
     </row>
-    <row r="993" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:12">
       <c r="B993"/>
     </row>
-    <row r="994" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:12">
       <c r="B994"/>
     </row>
-    <row r="997" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:12">
       <c r="A997" t="s">
         <v>598</v>
       </c>
       <c r="B997"/>
     </row>
-    <row r="998" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:12">
       <c r="A998" t="s">
         <v>1</v>
       </c>
@@ -14480,7 +14487,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="999" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:12" ht="45">
       <c r="A999" t="s">
         <v>2</v>
       </c>
@@ -14518,12 +14525,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1002" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:12">
       <c r="A1002" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="1003" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:12">
       <c r="A1003" t="s">
         <v>1</v>
       </c>
@@ -14561,7 +14568,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="1004" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:12" ht="45">
       <c r="A1004" t="s">
         <v>2</v>
       </c>
@@ -14599,12 +14606,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1007" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:12">
       <c r="A1007" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="1008" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:12">
       <c r="A1008" t="s">
         <v>1</v>
       </c>
@@ -14642,7 +14649,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="1009" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:22" ht="45">
       <c r="A1009" t="s">
         <v>2</v>
       </c>
@@ -14680,12 +14687,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1011" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:22">
       <c r="A1011" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="1012" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:22">
       <c r="A1012" t="s">
         <v>1</v>
       </c>
@@ -14723,7 +14730,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="1013" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:22" ht="45">
       <c r="A1013" t="s">
         <v>2</v>
       </c>
@@ -14761,12 +14768,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1015" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:22">
       <c r="A1015" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="1016" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:22">
       <c r="A1016" t="s">
         <v>1</v>
       </c>
@@ -14834,7 +14841,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="1017" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:22">
       <c r="A1017" t="s">
         <v>2</v>
       </c>
@@ -14902,12 +14909,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="1019" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:22">
       <c r="A1019" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="1020" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:22">
       <c r="A1020" t="s">
         <v>1</v>
       </c>
@@ -14942,7 +14949,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="1021" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:22" ht="30">
       <c r="A1021" t="s">
         <v>2</v>
       </c>
@@ -14977,12 +14984,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1024" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:22">
       <c r="A1024" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:7">
       <c r="A1025" t="s">
         <v>1</v>
       </c>
@@ -15002,7 +15009,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:7">
       <c r="A1026" t="s">
         <v>2</v>
       </c>
@@ -15022,12 +15029,12 @@
         <v>651</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:7">
       <c r="A1028" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:7">
       <c r="A1029" t="s">
         <v>1</v>
       </c>
@@ -15050,7 +15057,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:7" ht="60">
       <c r="A1030" t="s">
         <v>2</v>
       </c>
@@ -15073,12 +15080,12 @@
         <v>768</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:7">
       <c r="A1032" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:7">
       <c r="A1033" t="s">
         <v>1</v>
       </c>
@@ -15101,7 +15108,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:7" ht="30">
       <c r="A1034" t="s">
         <v>2</v>
       </c>
@@ -15124,12 +15131,12 @@
         <v>653</v>
       </c>
     </row>
-    <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:7">
       <c r="A1036" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:7">
       <c r="A1037" t="s">
         <v>1</v>
       </c>
@@ -15152,7 +15159,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:7" ht="30">
       <c r="A1038" t="s">
         <v>2</v>
       </c>
@@ -15175,12 +15182,12 @@
         <v>644</v>
       </c>
     </row>
-    <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:7">
       <c r="A1040" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:8">
       <c r="A1041" t="s">
         <v>1</v>
       </c>
@@ -15200,7 +15207,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1042" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:8" ht="45">
       <c r="A1042" t="s">
         <v>2</v>
       </c>
@@ -15220,12 +15227,12 @@
         <v>651</v>
       </c>
     </row>
-    <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:8">
       <c r="A1045" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:8">
       <c r="A1046" t="s">
         <v>1</v>
       </c>
@@ -15245,7 +15252,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1047" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:8" ht="45">
       <c r="A1047" t="s">
         <v>2</v>
       </c>
@@ -15265,12 +15272,12 @@
         <v>666</v>
       </c>
     </row>
-    <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:8">
       <c r="A1052" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="1053" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:8">
       <c r="A1053" t="s">
         <v>1</v>
       </c>
@@ -15296,7 +15303,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="1054" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:8">
       <c r="A1054" t="s">
         <v>2</v>
       </c>
@@ -15322,12 +15329,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:8">
       <c r="A1056" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="1057" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:10">
       <c r="A1057" t="s">
         <v>1</v>
       </c>
@@ -15353,7 +15360,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="1058" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:10">
       <c r="A1058" t="s">
         <v>2</v>
       </c>
@@ -15379,12 +15386,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="1060" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:10">
       <c r="A1060" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="1061" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:10">
       <c r="A1061" t="s">
         <v>1</v>
       </c>
@@ -15416,7 +15423,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="1062" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:10">
       <c r="A1062" t="s">
         <v>2</v>
       </c>
@@ -15448,12 +15455,12 @@
         <v>785</v>
       </c>
     </row>
-    <row r="1064" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:10">
       <c r="A1064" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="1065" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:10">
       <c r="A1065" t="s">
         <v>1</v>
       </c>
@@ -15476,7 +15483,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="1066" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:10">
       <c r="A1066" t="s">
         <v>2</v>
       </c>
@@ -15509,21 +15516,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T774"/>
   <sheetViews>
     <sheetView topLeftCell="A154" workbookViewId="0">
       <selection sqref="A1:T784"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15570,7 +15577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15617,15 +15624,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -15633,7 +15640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -15641,12 +15648,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -15672,7 +15679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -15698,12 +15705,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -15723,7 +15730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -15743,12 +15750,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -15798,7 +15805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -15848,12 +15855,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -15864,7 +15871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -15875,17 +15882,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -15929,7 +15936,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -15973,12 +15980,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -15989,7 +15996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -16000,12 +16007,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -16034,7 +16041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -16063,7 +16070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -16092,7 +16099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -16106,7 +16113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -16120,17 +16127,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -16141,7 +16148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -16152,7 +16159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -16163,12 +16170,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -16191,7 +16198,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -16211,12 +16218,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -16278,7 +16285,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -16340,12 +16347,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -16374,7 +16381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -16403,12 +16410,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -16428,7 +16435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -16448,1547 +16455,1547 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1">
       <c r="A168" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1">
       <c r="A174" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1">
       <c r="A181" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1">
       <c r="A182" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1">
       <c r="A183" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1">
       <c r="A188" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1">
       <c r="A189" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1">
       <c r="A190" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1">
       <c r="A195" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1">
       <c r="A196" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1">
       <c r="A197" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1">
       <c r="A201" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1">
       <c r="A202" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1">
       <c r="A203" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1">
       <c r="A207" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1">
       <c r="A208" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1">
       <c r="A209" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1">
       <c r="A213" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1">
       <c r="A214" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1">
       <c r="A215" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1">
       <c r="A219" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1">
       <c r="A220" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1">
       <c r="A221" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1">
       <c r="A226" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1">
       <c r="A227" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1">
       <c r="A228" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1">
       <c r="A233" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1">
       <c r="A234" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1">
       <c r="A235" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1">
       <c r="A240" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1">
       <c r="A241" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1">
       <c r="A242" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1">
       <c r="A247" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1">
       <c r="A248" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1">
       <c r="A249" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1">
       <c r="A254" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1">
       <c r="A255" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1">
       <c r="A256" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1">
       <c r="A261" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1">
       <c r="A262" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1">
       <c r="A263" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1">
       <c r="A268" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1">
       <c r="A269" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1">
       <c r="A270" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1">
       <c r="A274" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1">
       <c r="A275" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1">
       <c r="A276" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1">
       <c r="A280" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1">
       <c r="A281" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1">
       <c r="A282" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1">
       <c r="A286" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1">
       <c r="A287" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1">
       <c r="A288" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1">
       <c r="A292" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1">
       <c r="A293" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1">
       <c r="A294" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1">
       <c r="A298" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1">
       <c r="A299" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1">
       <c r="A300" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1">
       <c r="A305" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1">
       <c r="A306" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1">
       <c r="A307" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1">
       <c r="A311" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1">
       <c r="A312" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1">
       <c r="A313" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1">
       <c r="A317" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1">
       <c r="A318" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1">
       <c r="A319" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1">
       <c r="A323" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1">
       <c r="A324" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1">
       <c r="A325" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1">
       <c r="A330" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1">
       <c r="A331" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1">
       <c r="A332" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1">
       <c r="A337" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1">
       <c r="A338" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1">
       <c r="A339" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1">
       <c r="A344" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1">
       <c r="A345" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1">
       <c r="A346" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1">
       <c r="A351" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1">
       <c r="A352" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1">
       <c r="A353" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1">
       <c r="A358" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1">
       <c r="A359" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1">
       <c r="A360" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1">
       <c r="A364" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1">
       <c r="A365" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1">
       <c r="A366" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1">
       <c r="A371" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1">
       <c r="A372" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1">
       <c r="A373" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1">
       <c r="A377" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1">
       <c r="A378" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1">
       <c r="A379" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1">
       <c r="A383" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1">
       <c r="A384" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1">
       <c r="A385" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1">
       <c r="A389" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1">
       <c r="A390" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1">
       <c r="A391" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1">
       <c r="A395" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1">
       <c r="A396" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1">
       <c r="A397" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1">
       <c r="A401" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1">
       <c r="A402" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1">
       <c r="A403" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1">
       <c r="A407" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1">
       <c r="A408" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1">
       <c r="A409" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1">
       <c r="A413" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1">
       <c r="A414" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1">
       <c r="A415" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1">
       <c r="A419" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1">
       <c r="A420" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1">
       <c r="A421" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1">
       <c r="A426" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1">
       <c r="A427" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1">
       <c r="A428" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1">
       <c r="A434" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1">
       <c r="A435" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1">
       <c r="A436" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1">
       <c r="A441" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1">
       <c r="A442" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1">
       <c r="A443" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1">
       <c r="A448" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1">
       <c r="A449" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1">
       <c r="A450" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1">
       <c r="A455" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1">
       <c r="A456" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1">
       <c r="A457" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1">
       <c r="A462" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1">
       <c r="A463" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1">
       <c r="A464" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1">
       <c r="A469" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1">
       <c r="A470" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1">
       <c r="A471" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1">
       <c r="A476" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1">
       <c r="A477" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1">
       <c r="A478" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1">
       <c r="A483" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1">
       <c r="A484" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1">
       <c r="A485" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1">
       <c r="A490" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1">
       <c r="A491" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1">
       <c r="A492" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1">
       <c r="A497" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1">
       <c r="A498" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1">
       <c r="A499" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1">
       <c r="A503" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1">
       <c r="A504" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1">
       <c r="A505" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1">
       <c r="A510" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1">
       <c r="A511" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1">
       <c r="A512" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1">
       <c r="A518" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1">
       <c r="A519" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1">
       <c r="A520" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1">
       <c r="A526" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1">
       <c r="A527" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1">
       <c r="A528" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1">
       <c r="A533" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1">
       <c r="A534" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1">
       <c r="A535" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1">
       <c r="A540" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1">
       <c r="A541" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1">
       <c r="A542" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1">
       <c r="A548" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1">
       <c r="A549" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1">
       <c r="A550" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1">
       <c r="A556" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1">
       <c r="A557" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1">
       <c r="A558" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1">
       <c r="A563" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1">
       <c r="A564" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1">
       <c r="A565" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1">
       <c r="A570" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1">
       <c r="A571" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1">
       <c r="A572" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1">
       <c r="A577" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1">
       <c r="A578" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1">
       <c r="A579" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1">
       <c r="A584" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1">
       <c r="A585" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1">
       <c r="A586" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1">
       <c r="A592" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1">
       <c r="A593" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1">
       <c r="A594" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1">
       <c r="A599" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1">
       <c r="A600" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1">
       <c r="A601" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1">
       <c r="A606" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1">
       <c r="A607" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1">
       <c r="A608" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1">
       <c r="A612" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1">
       <c r="A613" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1">
       <c r="A614" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1">
       <c r="A618" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1">
       <c r="A619" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1">
       <c r="A620" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1">
       <c r="A625" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1">
       <c r="A626" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1">
       <c r="A627" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1">
       <c r="A632" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1">
       <c r="A633" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1">
       <c r="A634" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1">
       <c r="A639" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1">
       <c r="A640" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1">
       <c r="A641" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1">
       <c r="A646" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1">
       <c r="A647" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1">
       <c r="A648" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1">
       <c r="A653" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1">
       <c r="A654" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1">
       <c r="A655" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1">
       <c r="A660" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1">
       <c r="A661" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1">
       <c r="A662" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1">
       <c r="A668" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1">
       <c r="A669" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1">
       <c r="A670" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1">
       <c r="A675" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1">
       <c r="A676" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1">
       <c r="A677" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1">
       <c r="A682" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1">
       <c r="A683" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1">
       <c r="A684" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1">
       <c r="A689" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1">
       <c r="A690" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1">
       <c r="A691" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1">
       <c r="A697" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1">
       <c r="A698" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1">
       <c r="A699" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1">
       <c r="A706" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1">
       <c r="A707" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1">
       <c r="A708" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1">
       <c r="A714" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1">
       <c r="A715" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1">
       <c r="A716" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1">
       <c r="A721" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1">
       <c r="A722" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1">
       <c r="A723" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1">
       <c r="A727" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1">
       <c r="A728" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1">
       <c r="A729" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1">
       <c r="A733" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1">
       <c r="A734" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1">
       <c r="A735" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1">
       <c r="A741" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1">
       <c r="A742" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1">
       <c r="A743" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1">
       <c r="A747" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1">
       <c r="A748" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1">
       <c r="A749" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1">
       <c r="A754" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1">
       <c r="A755" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1">
       <c r="A756" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1">
       <c r="A761" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1">
       <c r="A762" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1">
       <c r="A763" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1">
       <c r="A767" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1">
       <c r="A768" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1">
       <c r="A769" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1">
       <c r="A772" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1">
       <c r="A773" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1">
       <c r="A774" t="s">
         <v>2</v>
       </c>
@@ -17999,56 +18006,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
         <v>297</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
         <v>300</v>
       </c>
@@ -18056,7 +18063,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
         <v>293</v>
       </c>
@@ -18064,7 +18071,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
         <v>206</v>
       </c>
@@ -18072,7 +18079,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -18080,7 +18087,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
         <v>356</v>
       </c>
@@ -18088,7 +18095,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
         <v>355</v>
       </c>
@@ -18096,7 +18103,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>320</v>
       </c>
@@ -18104,7 +18111,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>366</v>
       </c>
@@ -18112,7 +18119,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
         <v>292</v>
       </c>
@@ -18120,7 +18127,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
         <v>365</v>
       </c>
@@ -18128,7 +18135,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>295</v>
       </c>
@@ -18136,7 +18143,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
         <v>367</v>
       </c>
@@ -18144,7 +18151,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>368</v>
       </c>
@@ -18152,7 +18159,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>369</v>
       </c>
@@ -18160,7 +18167,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>296</v>
       </c>
@@ -18168,7 +18175,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>294</v>
       </c>
@@ -18176,7 +18183,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>385</v>
       </c>
@@ -18184,17 +18191,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="H25" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="H26" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="G28" s="21" t="s">
         <v>792</v>
       </c>
@@ -18202,7 +18209,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="G29" s="5" t="s">
         <v>793</v>
       </c>
@@ -18210,7 +18217,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="G30" s="5" t="s">
         <v>794</v>
       </c>
@@ -18218,7 +18225,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="G31" s="22" t="s">
         <v>795</v>
       </c>
@@ -18226,7 +18233,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="G32" s="23" t="s">
         <v>796</v>
       </c>
@@ -18234,7 +18241,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:8" ht="15.75" thickBot="1">
       <c r="G33" s="22" t="s">
         <v>797</v>
       </c>
@@ -18242,7 +18249,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:8" ht="15.75" thickBot="1">
       <c r="G34" s="23" t="s">
         <v>798</v>
       </c>
@@ -18250,7 +18257,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:8" ht="15.75" thickBot="1">
       <c r="G35" s="22" t="s">
         <v>799</v>
       </c>
@@ -18258,7 +18265,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="36" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:8" ht="15.75" thickBot="1">
       <c r="G36" s="23" t="s">
         <v>800</v>
       </c>
@@ -18266,7 +18273,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="37" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:8" ht="15.75" thickBot="1">
       <c r="G37" s="22" t="s">
         <v>801</v>
       </c>
@@ -18274,7 +18281,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="38" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:8" ht="15.75" thickBot="1">
       <c r="G38" s="22" t="s">
         <v>802</v>
       </c>
@@ -18282,7 +18289,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:8" ht="15.75" thickBot="1">
       <c r="G39" s="22" t="s">
         <v>803</v>
       </c>
@@ -18290,7 +18297,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="40" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:8" ht="15.75" thickBot="1">
       <c r="G40" s="23" t="s">
         <v>804</v>
       </c>
@@ -18298,7 +18305,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="41" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:8" ht="15.75" thickBot="1">
       <c r="G41" s="22" t="s">
         <v>805</v>
       </c>
@@ -18306,7 +18313,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:8" ht="15.75" thickBot="1">
       <c r="G42" s="23" t="s">
         <v>806</v>
       </c>
@@ -18314,7 +18321,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:8" ht="15.75" thickBot="1">
       <c r="G43" s="22" t="s">
         <v>357</v>
       </c>
@@ -18322,7 +18329,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:8" ht="15.75" thickBot="1">
       <c r="G44" s="23" t="s">
         <v>807</v>
       </c>
@@ -18330,7 +18337,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:8" ht="15.75" thickBot="1">
       <c r="G45" s="23" t="s">
         <v>808</v>
       </c>
@@ -18338,7 +18345,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:8" ht="15.75" thickBot="1">
       <c r="G46" s="22" t="s">
         <v>809</v>
       </c>
@@ -18356,20 +18363,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>1</v>
       </c>
@@ -18381,7 +18388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>29</v>
       </c>
@@ -18397,7 +18404,7 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>30</v>
       </c>
@@ -18413,7 +18420,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>31</v>
       </c>
@@ -18429,7 +18436,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>32</v>
       </c>
@@ -18444,7 +18451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>33</v>
       </c>
@@ -18459,7 +18466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>35</v>
       </c>
@@ -18474,7 +18481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>38</v>
       </c>
@@ -18486,7 +18493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>39</v>
       </c>
@@ -18501,7 +18508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>40</v>
       </c>
@@ -18516,7 +18523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>41</v>
       </c>
@@ -18531,7 +18538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>42</v>
       </c>
@@ -18546,7 +18553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>43</v>
       </c>
@@ -18561,7 +18568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>44</v>
       </c>
@@ -18576,7 +18583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>45</v>
       </c>
@@ -18591,7 +18598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>46</v>
       </c>
@@ -18603,7 +18610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>46</v>
       </c>
@@ -18612,7 +18619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>47</v>
       </c>
@@ -18624,7 +18631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>52</v>
       </c>
@@ -18636,7 +18643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>53</v>
       </c>
@@ -18648,7 +18655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>58</v>
       </c>
@@ -18660,7 +18667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>63</v>
       </c>
@@ -18672,7 +18679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>64</v>
       </c>
@@ -18684,7 +18691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>67</v>
       </c>
@@ -18696,7 +18703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>72</v>
       </c>
@@ -18708,7 +18715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>75</v>
       </c>
@@ -18720,7 +18727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>77</v>
       </c>
@@ -18732,7 +18739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>79</v>
       </c>
@@ -18744,7 +18751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>81</v>
       </c>
@@ -18756,7 +18763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>84</v>
       </c>
@@ -18768,7 +18775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>87</v>
       </c>
@@ -18780,7 +18787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>88</v>
       </c>
@@ -18792,7 +18799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>89</v>
       </c>
@@ -18804,7 +18811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>90</v>
       </c>
@@ -18816,7 +18823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>92</v>
       </c>
@@ -18828,7 +18835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>94</v>
       </c>
@@ -18840,7 +18847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>99</v>
       </c>
@@ -18852,7 +18859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>100</v>
       </c>
@@ -18864,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>104</v>
       </c>
@@ -18876,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>105</v>
       </c>
@@ -18888,7 +18895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>106</v>
       </c>
@@ -18900,7 +18907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>107</v>
       </c>
@@ -18912,7 +18919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>108</v>
       </c>
@@ -18924,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>115</v>
       </c>
@@ -18936,7 +18943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>116</v>
       </c>
@@ -18948,7 +18955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>117</v>
       </c>
@@ -18960,7 +18967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>118</v>
       </c>
@@ -18972,7 +18979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>119</v>
       </c>
@@ -18984,7 +18991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>120</v>
       </c>
@@ -18996,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>120</v>
       </c>
@@ -19008,7 +19015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>120</v>
       </c>
@@ -19020,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>121</v>
       </c>
@@ -19032,7 +19039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>122</v>
       </c>
@@ -19044,7 +19051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>123</v>
       </c>
@@ -19056,7 +19063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>124</v>
       </c>
@@ -19068,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>125</v>
       </c>
@@ -19080,7 +19087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>127</v>
       </c>
@@ -19092,7 +19099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>128</v>
       </c>
@@ -19104,7 +19111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>129</v>
       </c>
@@ -19116,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>130</v>
       </c>
@@ -19128,7 +19135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>131</v>
       </c>
@@ -19140,7 +19147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>131</v>
       </c>
@@ -19152,7 +19159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>131</v>
       </c>
@@ -19164,7 +19171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>160</v>
       </c>
@@ -19176,7 +19183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>161</v>
       </c>
@@ -19188,7 +19195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>162</v>
       </c>
@@ -19200,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>163</v>
       </c>
@@ -19212,7 +19219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>164</v>
       </c>
@@ -19224,7 +19231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>165</v>
       </c>
@@ -19233,7 +19240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>166</v>
       </c>
@@ -19242,7 +19249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>167</v>
       </c>
@@ -19251,7 +19258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>168</v>
       </c>
@@ -19260,7 +19267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>169</v>
       </c>
@@ -19269,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>170</v>
       </c>
@@ -19278,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>171</v>
       </c>
@@ -19287,7 +19294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>172</v>
       </c>
@@ -19296,7 +19303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>173</v>
       </c>
@@ -19305,7 +19312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>174</v>
       </c>
@@ -19314,7 +19321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>175</v>
       </c>
@@ -19323,13 +19330,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="C80" s="19" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" ht="16.5">
       <c r="B81" s="20"/>
     </row>
   </sheetData>
@@ -19342,28 +19349,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="101" style="6" customWidth="1"/>
     <col min="2" max="2" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45">
       <c r="A1" s="16" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="15"/>
     </row>
-    <row r="3" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="345">
       <c r="A3" s="17" t="s">
         <v>625</v>
       </c>
@@ -19371,26 +19378,26 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="15"/>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="45">
       <c r="A5" s="17" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="15"/>
     </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="90">
       <c r="A7" s="16" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="15"/>
     </row>
-    <row r="9" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="210">
       <c r="A9" s="17" t="s">
         <v>628</v>
       </c>
@@ -19398,26 +19405,26 @@
         <v>641</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="15"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="17" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="15"/>
     </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="45">
       <c r="A13" s="16" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="15"/>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="30">
       <c r="A15" s="18" t="s">
         <v>631</v>
       </c>
@@ -19425,55 +19432,55 @@
         <v>642</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="15"/>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="30">
       <c r="A17" s="17" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="14" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="120">
       <c r="A20" s="16" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="15"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="17" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="15"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="15"/>
     </row>
-    <row r="26" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="150">
       <c r="A26" s="16" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="15"/>
     </row>
-    <row r="28" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="105">
       <c r="A28" s="17" t="s">
         <v>638</v>
       </c>
@@ -19481,10 +19488,10 @@
         <v>643</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="15"/>
     </row>
-    <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="60">
       <c r="A30" s="17" t="s">
         <v>639</v>
       </c>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -3281,7 +3281,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5091,8 +5091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A889" workbookViewId="0">
-      <selection activeCell="A895" sqref="A895"/>
+    <sheetView tabSelected="1" topLeftCell="S831" workbookViewId="0">
+      <selection activeCell="T833" sqref="T833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11130,7 +11130,7 @@
         <v>556</v>
       </c>
       <c r="T833" t="s">
-        <v>571</v>
+        <v>818</v>
       </c>
       <c r="U833" t="s">
         <v>557</v>
@@ -11422,7 +11422,7 @@
         <v>556</v>
       </c>
       <c r="T838" t="s">
-        <v>571</v>
+        <v>818</v>
       </c>
       <c r="U838" t="s">
         <v>557</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="819">
   <si>
     <t>TestCases</t>
   </si>
@@ -1763,12 +1763,6 @@
   </si>
   <si>
     <t>Video Re-discovery our passion to play the game professionally.</t>
-  </si>
-  <si>
-    <t>D:\workspace\CPCommunityQA\src\main\resources\configfile\Files\ChromeImage8.jpg</t>
-  </si>
-  <si>
-    <t>D:/workspace/CPCommunityQA/src/main/resources/configfile/Files/ChromePDF1.pdf</t>
   </si>
   <si>
     <t>agendaVenue</t>
@@ -3281,7 +3275,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3350,7 +3344,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -3358,7 +3352,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -3366,7 +3360,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -3374,7 +3368,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -3382,7 +3376,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -3390,7 +3384,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -3398,7 +3392,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -3406,7 +3400,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -3414,7 +3408,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -3422,7 +3416,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -3430,7 +3424,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -3438,7 +3432,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -3446,7 +3440,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -4546,7 +4540,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4638,23 +4632,23 @@
         <v>2</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B147" t="s">
         <v>2</v>
@@ -4662,18 +4656,18 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
+        <v>583</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
         <v>585</v>
-      </c>
-      <c r="B148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C148" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B149" t="s">
         <v>2</v>
@@ -4681,7 +4675,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B150" t="s">
         <v>2</v>
@@ -4689,7 +4683,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B151" t="s">
         <v>2</v>
@@ -4697,18 +4691,18 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B152" t="s">
         <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B153" t="s">
         <v>2</v>
@@ -4740,7 +4734,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B157" t="s">
         <v>2</v>
@@ -4759,18 +4753,18 @@
     </row>
     <row r="162" spans="1:3" ht="45">
       <c r="A162" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B162" t="s">
         <v>2</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B163" t="s">
         <v>2</v>
@@ -4778,40 +4772,40 @@
     </row>
     <row r="164" spans="1:3" ht="45">
       <c r="A164" t="s">
+        <v>648</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>650</v>
-      </c>
-      <c r="B164" t="s">
-        <v>2</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="30">
       <c r="A166" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B166" t="s">
         <v>2</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B167" t="s">
         <v>2</v>
@@ -4819,7 +4813,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B168" t="s">
         <v>2</v>
@@ -4827,7 +4821,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B169" t="s">
         <v>2</v>
@@ -4835,7 +4829,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B170" t="s">
         <v>2</v>
@@ -4843,7 +4837,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B171" t="s">
         <v>2</v>
@@ -4851,7 +4845,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B172" t="s">
         <v>2</v>
@@ -4859,7 +4853,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B173" t="s">
         <v>2</v>
@@ -4867,7 +4861,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B174" t="s">
         <v>2</v>
@@ -4875,7 +4869,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B175" t="s">
         <v>2</v>
@@ -4883,7 +4877,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B176" t="s">
         <v>2</v>
@@ -4891,7 +4885,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B177" t="s">
         <v>2</v>
@@ -4899,7 +4893,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B178" t="s">
         <v>2</v>
@@ -4907,7 +4901,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
@@ -4915,7 +4909,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B180" t="s">
         <v>2</v>
@@ -4923,7 +4917,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B181" t="s">
         <v>2</v>
@@ -4931,7 +4925,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B182" t="s">
         <v>2</v>
@@ -4939,7 +4933,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B183" t="s">
         <v>2</v>
@@ -4947,7 +4941,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B184" t="s">
         <v>2</v>
@@ -4955,7 +4949,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
@@ -4963,7 +4957,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
@@ -4971,7 +4965,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
@@ -4979,7 +4973,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B188" t="s">
         <v>2</v>
@@ -4987,7 +4981,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B189" t="s">
         <v>2</v>
@@ -4995,7 +4989,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B190" t="s">
         <v>2</v>
@@ -5003,7 +4997,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B191" t="s">
         <v>2</v>
@@ -5011,7 +5005,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B192" t="s">
         <v>2</v>
@@ -5019,7 +5013,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B193" t="s">
         <v>2</v>
@@ -5027,7 +5021,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B194" t="s">
         <v>2</v>
@@ -5035,7 +5029,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B195" t="s">
         <v>2</v>
@@ -5043,7 +5037,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B196" t="s">
         <v>2</v>
@@ -5051,7 +5045,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B197" t="s">
         <v>2</v>
@@ -5059,7 +5053,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B198" t="s">
         <v>2</v>
@@ -5067,7 +5061,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B199" t="s">
         <v>2</v>
@@ -5075,7 +5069,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B200" t="s">
         <v>2</v>
@@ -5091,8 +5085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S831" workbookViewId="0">
-      <selection activeCell="T833" sqref="T833"/>
+    <sheetView tabSelected="1" topLeftCell="AH831" workbookViewId="0">
+      <selection activeCell="AZ833" sqref="AZ833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5959,7 +5953,7 @@
         <v>374</v>
       </c>
       <c r="C88" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D88" t="s">
         <v>262</v>
@@ -6040,7 +6034,7 @@
         <v>375</v>
       </c>
       <c r="C92" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D92" t="s">
         <v>261</v>
@@ -6121,7 +6115,7 @@
         <v>376</v>
       </c>
       <c r="C97" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D97" t="s">
         <v>262</v>
@@ -6199,7 +6193,7 @@
         <v>377</v>
       </c>
       <c r="C101" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D101" t="s">
         <v>262</v>
@@ -6277,7 +6271,7 @@
         <v>258</v>
       </c>
       <c r="C106" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D106" t="s">
         <v>16</v>
@@ -6355,7 +6349,7 @@
         <v>257</v>
       </c>
       <c r="C110" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D110" t="s">
         <v>261</v>
@@ -6406,7 +6400,7 @@
         <v>268</v>
       </c>
       <c r="C115" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D115" t="s">
         <v>16</v>
@@ -6418,7 +6412,7 @@
         <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H115" t="s">
         <v>271</v>
@@ -6564,7 +6558,7 @@
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -6642,7 +6636,7 @@
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E134" t="s">
         <v>16</v>
@@ -6737,7 +6731,7 @@
         <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E142" t="s">
         <v>16</v>
@@ -6764,7 +6758,7 @@
         <v>71</v>
       </c>
       <c r="M142" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="30">
@@ -6778,7 +6772,7 @@
         <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E143" t="s">
         <v>16</v>
@@ -6805,7 +6799,7 @@
         <v>65</v>
       </c>
       <c r="M143" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6851,7 +6845,7 @@
         <v>4</v>
       </c>
       <c r="D147" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E147" t="s">
         <v>206</v>
@@ -6903,7 +6897,7 @@
         <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E151" t="s">
         <v>16</v>
@@ -6952,7 +6946,7 @@
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E155" t="s">
         <v>16</v>
@@ -7012,7 +7006,7 @@
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E161" t="s">
         <v>16</v>
@@ -7072,7 +7066,7 @@
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -7081,22 +7075,22 @@
         <v>10</v>
       </c>
       <c r="G167" t="s">
+        <v>776</v>
+      </c>
+      <c r="H167" t="s">
+        <v>777</v>
+      </c>
+      <c r="I167" t="s">
         <v>778</v>
       </c>
-      <c r="H167" t="s">
+      <c r="J167" t="s">
         <v>779</v>
       </c>
-      <c r="I167" t="s">
+      <c r="K167" t="s">
         <v>780</v>
       </c>
-      <c r="J167" t="s">
-        <v>781</v>
-      </c>
-      <c r="K167" t="s">
-        <v>782</v>
-      </c>
       <c r="L167" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7157,7 +7151,7 @@
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E171" t="s">
         <v>16</v>
@@ -7250,7 +7244,7 @@
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E182" t="s">
         <v>262</v>
@@ -7322,7 +7316,7 @@
         <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E186" t="s">
         <v>16</v>
@@ -7379,7 +7373,7 @@
         <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E192" t="s">
         <v>16</v>
@@ -7436,7 +7430,7 @@
         <v>4</v>
       </c>
       <c r="D196" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E196" t="s">
         <v>16</v>
@@ -7493,7 +7487,7 @@
         <v>4</v>
       </c>
       <c r="D203" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E203" t="s">
         <v>262</v>
@@ -7544,7 +7538,7 @@
         <v>4</v>
       </c>
       <c r="D210" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E210" t="s">
         <v>292</v>
@@ -7613,7 +7607,7 @@
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E218" t="s">
         <v>16</v>
@@ -7745,7 +7739,7 @@
         <v>4</v>
       </c>
       <c r="D262" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E262" t="s">
         <v>16</v>
@@ -7862,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D294" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E294" t="s">
         <v>16</v>
@@ -8009,7 +8003,7 @@
         <v>4</v>
       </c>
       <c r="D354" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E354" t="s">
         <v>292</v>
@@ -8021,7 +8015,7 @@
         <v>303</v>
       </c>
       <c r="H354" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -8139,7 +8133,7 @@
         <v>4</v>
       </c>
       <c r="D385" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E385" t="s">
         <v>16</v>
@@ -8226,7 +8220,7 @@
         <v>4</v>
       </c>
       <c r="D403" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E403" t="s">
         <v>356</v>
@@ -8286,7 +8280,7 @@
         <v>4</v>
       </c>
       <c r="D417" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E417" t="s">
         <v>355</v>
@@ -8717,7 +8711,7 @@
         <v>4</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E562" t="s">
         <v>16</v>
@@ -8843,7 +8837,7 @@
         <v>217</v>
       </c>
       <c r="Z588" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="589" spans="1:26">
@@ -8857,7 +8851,7 @@
         <v>4</v>
       </c>
       <c r="D589" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E589" t="s">
         <v>16</v>
@@ -8899,7 +8893,7 @@
         <v>65</v>
       </c>
       <c r="R589" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="S589" t="s">
         <v>219</v>
@@ -8914,7 +8908,7 @@
         <v>24</v>
       </c>
       <c r="Y589" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="Z589" t="s">
         <v>240</v>
@@ -9256,7 +9250,7 @@
         <v>4</v>
       </c>
       <c r="D697" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E697" t="s">
         <v>16</v>
@@ -9304,7 +9298,7 @@
         <v>4</v>
       </c>
       <c r="D704" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E704" t="s">
         <v>16</v>
@@ -9355,7 +9349,7 @@
         <v>4</v>
       </c>
       <c r="D711" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E711" t="s">
         <v>16</v>
@@ -9408,7 +9402,7 @@
     </row>
     <row r="725" spans="1:7" ht="45">
       <c r="A725" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B725" s="6" t="s">
         <v>370</v>
@@ -9417,7 +9411,7 @@
         <v>4</v>
       </c>
       <c r="D725" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E725" t="s">
         <v>356</v>
@@ -9469,7 +9463,7 @@
         <v>4</v>
       </c>
       <c r="D732" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E732" t="s">
         <v>365</v>
@@ -9521,7 +9515,7 @@
         <v>4</v>
       </c>
       <c r="D739" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E739" t="s">
         <v>355</v>
@@ -9609,7 +9603,7 @@
         <v>4</v>
       </c>
       <c r="D754" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E754" t="s">
         <v>16</v>
@@ -9681,7 +9675,7 @@
         <v>274</v>
       </c>
       <c r="L757" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M757" t="s">
         <v>485</v>
@@ -9693,7 +9687,7 @@
         <v>314</v>
       </c>
       <c r="P757" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="758" spans="1:16" ht="30">
@@ -9707,7 +9701,7 @@
         <v>4</v>
       </c>
       <c r="D758" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E758" t="s">
         <v>16</v>
@@ -9800,7 +9794,7 @@
         <v>274</v>
       </c>
       <c r="L763" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M763" t="s">
         <v>485</v>
@@ -9812,7 +9806,7 @@
         <v>314</v>
       </c>
       <c r="P763" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="764" spans="1:16" ht="45">
@@ -9826,7 +9820,7 @@
         <v>4</v>
       </c>
       <c r="D764" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E764" t="s">
         <v>16</v>
@@ -9928,7 +9922,7 @@
         <v>286</v>
       </c>
       <c r="O769" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="770" spans="1:15">
@@ -9942,7 +9936,7 @@
         <v>4</v>
       </c>
       <c r="D770" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E770" t="s">
         <v>262</v>
@@ -9957,7 +9951,7 @@
         <v>493</v>
       </c>
       <c r="I770" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J770" t="s">
         <v>38</v>
@@ -10038,7 +10032,7 @@
         <v>286</v>
       </c>
       <c r="O775" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="776" spans="1:15">
@@ -10052,7 +10046,7 @@
         <v>4</v>
       </c>
       <c r="D776" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E776" t="s">
         <v>262</v>
@@ -10067,7 +10061,7 @@
         <v>493</v>
       </c>
       <c r="I776" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J776" t="s">
         <v>38</v>
@@ -10125,10 +10119,10 @@
         <v>417</v>
       </c>
       <c r="L780" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="M780" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="781" spans="1:15" ht="75">
@@ -10142,7 +10136,7 @@
         <v>4</v>
       </c>
       <c r="D781" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E781" t="s">
         <v>262</v>
@@ -10154,7 +10148,7 @@
         <v>505</v>
       </c>
       <c r="H781" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I781" t="s">
         <v>38</v>
@@ -10166,7 +10160,7 @@
         <v>495</v>
       </c>
       <c r="L781" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="782" spans="1:15">
@@ -10175,7 +10169,7 @@
     </row>
     <row r="783" spans="1:15">
       <c r="A783" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H783" s="3"/>
       <c r="L783" s="3"/>
@@ -10215,10 +10209,10 @@
         <v>417</v>
       </c>
       <c r="L784" t="s">
+        <v>751</v>
+      </c>
+      <c r="M784" t="s">
         <v>753</v>
-      </c>
-      <c r="M784" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="785" spans="1:13" ht="45">
@@ -10226,13 +10220,13 @@
         <v>2</v>
       </c>
       <c r="B785" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C785" t="s">
         <v>4</v>
       </c>
       <c r="D785" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E785" t="s">
         <v>262</v>
@@ -10244,7 +10238,7 @@
         <v>505</v>
       </c>
       <c r="H785" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I785" t="s">
         <v>38</v>
@@ -10256,10 +10250,10 @@
         <v>495</v>
       </c>
       <c r="L785" t="s">
+        <v>752</v>
+      </c>
+      <c r="M785" t="s">
         <v>754</v>
-      </c>
-      <c r="M785" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="786" spans="1:13">
@@ -10268,7 +10262,7 @@
     </row>
     <row r="787" spans="1:13">
       <c r="A787" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H787" s="3"/>
       <c r="L787" s="3"/>
@@ -10308,10 +10302,10 @@
         <v>417</v>
       </c>
       <c r="L788" t="s">
+        <v>751</v>
+      </c>
+      <c r="M788" t="s">
         <v>753</v>
-      </c>
-      <c r="M788" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="789" spans="1:13" ht="45">
@@ -10319,13 +10313,13 @@
         <v>2</v>
       </c>
       <c r="B789" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C789" t="s">
         <v>4</v>
       </c>
       <c r="D789" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E789" t="s">
         <v>262</v>
@@ -10337,7 +10331,7 @@
         <v>505</v>
       </c>
       <c r="H789" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I789" t="s">
         <v>38</v>
@@ -10349,10 +10343,10 @@
         <v>495</v>
       </c>
       <c r="L789" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M789" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="790" spans="1:13">
@@ -10365,7 +10359,7 @@
     </row>
     <row r="792" spans="1:13">
       <c r="A792" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B792" s="6" t="s">
         <v>263</v>
@@ -10398,10 +10392,10 @@
         <v>417</v>
       </c>
       <c r="L792" t="s">
+        <v>751</v>
+      </c>
+      <c r="M792" t="s">
         <v>753</v>
-      </c>
-      <c r="M792" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="793" spans="1:13">
@@ -10427,7 +10421,7 @@
     </row>
     <row r="796" spans="1:13">
       <c r="A796" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H796" s="3"/>
       <c r="L796" s="3"/>
@@ -10459,7 +10453,7 @@
         <v>2</v>
       </c>
       <c r="B798" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C798" t="s">
         <v>4</v>
@@ -10471,7 +10465,7 @@
         <v>10</v>
       </c>
       <c r="F798" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H798" s="3"/>
       <c r="L798" s="3"/>
@@ -10482,7 +10476,7 @@
     </row>
     <row r="800" spans="1:13">
       <c r="A800" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H800" s="3"/>
       <c r="L800" s="3"/>
@@ -10514,7 +10508,7 @@
         <v>2</v>
       </c>
       <c r="B802" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C802" t="s">
         <v>4</v>
@@ -10541,7 +10535,7 @@
     </row>
     <row r="805" spans="1:14">
       <c r="A805" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H805" s="3"/>
       <c r="L805" s="3"/>
@@ -10566,7 +10560,7 @@
         <v>202</v>
       </c>
       <c r="G806" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H806" s="3" t="s">
         <v>275</v>
@@ -10589,7 +10583,7 @@
         <v>2</v>
       </c>
       <c r="B807" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C807" t="s">
         <v>4</v>
@@ -10607,19 +10601,19 @@
         <v>241</v>
       </c>
       <c r="H807" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I807" s="5" t="s">
         <v>219</v>
       </c>
       <c r="J807" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K807" s="3" t="s">
         <v>71</v>
       </c>
       <c r="L807" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="808" spans="1:14">
@@ -10628,7 +10622,7 @@
     </row>
     <row r="809" spans="1:14">
       <c r="A809" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H809" s="3"/>
       <c r="L809" s="3"/>
@@ -10663,7 +10657,7 @@
         <v>2</v>
       </c>
       <c r="B811" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C811" t="s">
         <v>4</v>
@@ -10678,7 +10672,7 @@
         <v>303</v>
       </c>
       <c r="G811" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H811" s="3"/>
       <c r="L811" s="3"/>
@@ -10737,7 +10731,7 @@
         <v>512</v>
       </c>
       <c r="N816" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="817" spans="1:48" ht="60">
@@ -10745,13 +10739,13 @@
         <v>2</v>
       </c>
       <c r="B817" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C817" t="s">
         <v>4</v>
       </c>
       <c r="D817" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E817" t="s">
         <v>262</v>
@@ -10766,7 +10760,7 @@
         <v>493</v>
       </c>
       <c r="I817" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J817" t="s">
         <v>38</v>
@@ -10778,7 +10772,7 @@
         <v>495</v>
       </c>
       <c r="M817" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="821" spans="1:48">
@@ -10824,7 +10818,7 @@
         <v>512</v>
       </c>
       <c r="M822" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="823" spans="1:48" s="5" customFormat="1" ht="60">
@@ -10832,7 +10826,7 @@
         <v>2</v>
       </c>
       <c r="B823" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C823" s="5" t="s">
         <v>4</v>
@@ -10850,7 +10844,7 @@
         <v>493</v>
       </c>
       <c r="H823" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I823" s="5" t="s">
         <v>38</v>
@@ -10862,10 +10856,10 @@
         <v>495</v>
       </c>
       <c r="L823" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="M823" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="826" spans="1:48">
@@ -10901,7 +10895,7 @@
         <v>2</v>
       </c>
       <c r="B828" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C828" s="5" t="s">
         <v>4</v>
@@ -10913,7 +10907,7 @@
         <v>10</v>
       </c>
       <c r="F828" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G828" t="s">
         <v>508</v>
@@ -10993,7 +10987,7 @@
         <v>516</v>
       </c>
       <c r="W832" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="X832" s="5" t="s">
         <v>543</v>
@@ -11038,7 +11032,7 @@
         <v>527</v>
       </c>
       <c r="AL832" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AM832" s="5" t="s">
         <v>528</v>
@@ -11076,7 +11070,7 @@
         <v>2</v>
       </c>
       <c r="B833" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C833" s="5" t="s">
         <v>4</v>
@@ -11088,7 +11082,7 @@
         <v>10</v>
       </c>
       <c r="F833" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G833" t="s">
         <v>499</v>
@@ -11103,7 +11097,7 @@
         <v>552</v>
       </c>
       <c r="K833" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L833" t="s">
         <v>428</v>
@@ -11115,13 +11109,13 @@
         <v>554</v>
       </c>
       <c r="O833" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P833" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Q833" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="R833" t="s">
         <v>555</v>
@@ -11130,7 +11124,7 @@
         <v>556</v>
       </c>
       <c r="T833" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U833" t="s">
         <v>557</v>
@@ -11148,16 +11142,16 @@
         <v>559</v>
       </c>
       <c r="Z833" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AA833" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AB833" s="3" t="s">
         <v>562</v>
       </c>
       <c r="AC833" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AD833" s="3" t="s">
         <v>564</v>
@@ -11175,19 +11169,19 @@
         <v>240</v>
       </c>
       <c r="AI833" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AJ833" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AK833" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AL833" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AM833" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AN833" t="s">
         <v>565</v>
@@ -11205,7 +11199,7 @@
         <v>568</v>
       </c>
       <c r="AS833" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AT833" t="s">
         <v>569</v>
@@ -11285,7 +11279,7 @@
         <v>516</v>
       </c>
       <c r="W837" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="X837" s="5" t="s">
         <v>543</v>
@@ -11330,7 +11324,7 @@
         <v>527</v>
       </c>
       <c r="AL837" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AM837" s="5" t="s">
         <v>528</v>
@@ -11368,7 +11362,7 @@
         <v>2</v>
       </c>
       <c r="B838" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C838" s="5" t="s">
         <v>4</v>
@@ -11380,13 +11374,13 @@
         <v>10</v>
       </c>
       <c r="F838" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G838" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H838" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I838" t="s">
         <v>306</v>
@@ -11395,25 +11389,25 @@
         <v>303</v>
       </c>
       <c r="K838" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L838" t="s">
         <v>428</v>
       </c>
       <c r="M838" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N838" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O838" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P838" s="3" t="s">
         <v>561</v>
       </c>
       <c r="Q838" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="R838" t="s">
         <v>555</v>
@@ -11422,7 +11416,7 @@
         <v>556</v>
       </c>
       <c r="T838" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U838" t="s">
         <v>557</v>
@@ -11440,16 +11434,16 @@
         <v>559</v>
       </c>
       <c r="Z838" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AA838" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AB838" s="3" t="s">
         <v>562</v>
       </c>
       <c r="AC838" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AD838" s="3" t="s">
         <v>564</v>
@@ -11467,19 +11461,19 @@
         <v>240</v>
       </c>
       <c r="AI838" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AJ838" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AK838" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AL838" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AM838" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AN838" t="s">
         <v>565</v>
@@ -11497,7 +11491,7 @@
         <v>568</v>
       </c>
       <c r="AS838" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AT838" t="s">
         <v>569</v>
@@ -11511,7 +11505,7 @@
     </row>
     <row r="844" spans="1:48">
       <c r="A844" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="845" spans="1:48">
@@ -11582,7 +11576,7 @@
         <v>516</v>
       </c>
       <c r="W845" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="X845" s="5" t="s">
         <v>543</v>
@@ -11627,7 +11621,7 @@
         <v>527</v>
       </c>
       <c r="AL845" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AM845" s="5" t="s">
         <v>528</v>
@@ -11665,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="B846" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C846" s="5" t="s">
         <v>4</v>
@@ -11677,7 +11671,7 @@
         <v>10</v>
       </c>
       <c r="F846" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G846" t="s">
         <v>499</v>
@@ -11692,25 +11686,25 @@
         <v>552</v>
       </c>
       <c r="K846" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L846" t="s">
         <v>428</v>
       </c>
       <c r="M846" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N846" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O846" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P846" s="3" t="s">
         <v>561</v>
       </c>
       <c r="Q846" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="R846" t="s">
         <v>555</v>
@@ -11719,7 +11713,7 @@
         <v>556</v>
       </c>
       <c r="T846" t="s">
-        <v>571</v>
+        <v>816</v>
       </c>
       <c r="U846" t="s">
         <v>557</v>
@@ -11737,16 +11731,16 @@
         <v>559</v>
       </c>
       <c r="Z846" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AA846" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AB846" s="3" t="s">
         <v>562</v>
       </c>
       <c r="AC846" t="s">
-        <v>571</v>
+        <v>816</v>
       </c>
       <c r="AD846" s="3" t="s">
         <v>564</v>
@@ -11764,19 +11758,19 @@
         <v>240</v>
       </c>
       <c r="AI846" t="s">
-        <v>571</v>
+        <v>817</v>
       </c>
       <c r="AJ846" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AK846" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AL846" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AM846" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AN846" t="s">
         <v>565</v>
@@ -11794,7 +11788,7 @@
         <v>568</v>
       </c>
       <c r="AS846" t="s">
-        <v>572</v>
+        <v>815</v>
       </c>
       <c r="AT846" t="s">
         <v>569</v>
@@ -11808,7 +11802,7 @@
     </row>
     <row r="848" spans="1:48">
       <c r="A848" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="849" spans="1:13">
@@ -11828,25 +11822,25 @@
         <v>7</v>
       </c>
       <c r="F849" t="s">
+        <v>584</v>
+      </c>
+      <c r="G849" t="s">
         <v>586</v>
       </c>
-      <c r="G849" t="s">
+      <c r="H849" t="s">
+        <v>587</v>
+      </c>
+      <c r="I849" t="s">
         <v>588</v>
       </c>
-      <c r="H849" t="s">
+      <c r="J849" t="s">
         <v>589</v>
       </c>
-      <c r="I849" t="s">
+      <c r="K849" t="s">
         <v>590</v>
       </c>
-      <c r="J849" t="s">
-        <v>591</v>
-      </c>
-      <c r="K849" t="s">
-        <v>592</v>
-      </c>
       <c r="L849" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="850" spans="1:13" ht="45">
@@ -11854,7 +11848,7 @@
         <v>2</v>
       </c>
       <c r="B850" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C850" s="5" t="s">
         <v>4</v>
@@ -11866,7 +11860,7 @@
         <v>10</v>
       </c>
       <c r="F850" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G850" t="s">
         <v>16</v>
@@ -11886,7 +11880,7 @@
     </row>
     <row r="852" spans="1:13">
       <c r="A852" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="853" spans="1:13">
@@ -11906,25 +11900,25 @@
         <v>7</v>
       </c>
       <c r="F853" t="s">
+        <v>584</v>
+      </c>
+      <c r="G853" t="s">
         <v>586</v>
       </c>
-      <c r="G853" t="s">
+      <c r="H853" t="s">
+        <v>587</v>
+      </c>
+      <c r="I853" t="s">
         <v>588</v>
       </c>
-      <c r="H853" t="s">
+      <c r="J853" t="s">
         <v>589</v>
       </c>
-      <c r="I853" t="s">
+      <c r="K853" t="s">
         <v>590</v>
       </c>
-      <c r="J853" t="s">
-        <v>591</v>
-      </c>
-      <c r="K853" t="s">
-        <v>592</v>
-      </c>
       <c r="L853" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="854" spans="1:13" ht="45">
@@ -11932,7 +11926,7 @@
         <v>2</v>
       </c>
       <c r="B854" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C854" s="5" t="s">
         <v>4</v>
@@ -11944,7 +11938,7 @@
         <v>10</v>
       </c>
       <c r="F854" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G854" t="s">
         <v>16</v>
@@ -11967,7 +11961,7 @@
     </row>
     <row r="856" spans="1:13">
       <c r="A856" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="857" spans="1:13">
@@ -11990,25 +11984,25 @@
         <v>67</v>
       </c>
       <c r="G857" t="s">
+        <v>584</v>
+      </c>
+      <c r="H857" t="s">
         <v>586</v>
       </c>
-      <c r="H857" t="s">
+      <c r="I857" t="s">
+        <v>587</v>
+      </c>
+      <c r="J857" t="s">
         <v>588</v>
       </c>
-      <c r="I857" t="s">
+      <c r="K857" t="s">
         <v>589</v>
       </c>
-      <c r="J857" t="s">
+      <c r="L857" t="s">
+        <v>739</v>
+      </c>
+      <c r="M857" t="s">
         <v>590</v>
-      </c>
-      <c r="K857" t="s">
-        <v>591</v>
-      </c>
-      <c r="L857" t="s">
-        <v>741</v>
-      </c>
-      <c r="M857" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="858" spans="1:13" ht="45">
@@ -12016,7 +12010,7 @@
         <v>2</v>
       </c>
       <c r="B858" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C858" s="5" t="s">
         <v>4</v>
@@ -12028,16 +12022,16 @@
         <v>10</v>
       </c>
       <c r="F858" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G858" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H858" t="s">
         <v>262</v>
       </c>
       <c r="L858" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="M858" t="s">
         <v>320</v>
@@ -12045,7 +12039,7 @@
     </row>
     <row r="860" spans="1:13">
       <c r="A860" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="861" spans="1:13">
@@ -12068,25 +12062,25 @@
         <v>67</v>
       </c>
       <c r="G861" t="s">
+        <v>584</v>
+      </c>
+      <c r="H861" t="s">
         <v>586</v>
       </c>
-      <c r="H861" t="s">
+      <c r="I861" t="s">
+        <v>587</v>
+      </c>
+      <c r="J861" t="s">
         <v>588</v>
       </c>
-      <c r="I861" t="s">
+      <c r="K861" t="s">
         <v>589</v>
       </c>
-      <c r="J861" t="s">
+      <c r="L861" t="s">
+        <v>739</v>
+      </c>
+      <c r="M861" t="s">
         <v>590</v>
-      </c>
-      <c r="K861" t="s">
-        <v>591</v>
-      </c>
-      <c r="L861" t="s">
-        <v>741</v>
-      </c>
-      <c r="M861" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="862" spans="1:13" ht="45">
@@ -12094,7 +12088,7 @@
         <v>2</v>
       </c>
       <c r="B862" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C862" s="5" t="s">
         <v>4</v>
@@ -12106,16 +12100,16 @@
         <v>10</v>
       </c>
       <c r="F862" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G862" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H862" t="s">
         <v>262</v>
       </c>
       <c r="L862" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="M862" t="s">
         <v>16</v>
@@ -12123,7 +12117,7 @@
     </row>
     <row r="864" spans="1:13">
       <c r="A864" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="865" spans="1:14">
@@ -12146,25 +12140,25 @@
         <v>67</v>
       </c>
       <c r="G865" t="s">
+        <v>584</v>
+      </c>
+      <c r="H865" t="s">
         <v>586</v>
       </c>
-      <c r="H865" t="s">
+      <c r="I865" t="s">
+        <v>587</v>
+      </c>
+      <c r="J865" t="s">
         <v>588</v>
       </c>
-      <c r="I865" t="s">
+      <c r="K865" t="s">
         <v>589</v>
       </c>
-      <c r="J865" t="s">
+      <c r="L865" t="s">
+        <v>739</v>
+      </c>
+      <c r="M865" t="s">
         <v>590</v>
-      </c>
-      <c r="K865" t="s">
-        <v>591</v>
-      </c>
-      <c r="L865" t="s">
-        <v>741</v>
-      </c>
-      <c r="M865" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="866" spans="1:14" ht="45">
@@ -12172,7 +12166,7 @@
         <v>2</v>
       </c>
       <c r="B866" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C866" s="5" t="s">
         <v>4</v>
@@ -12184,16 +12178,16 @@
         <v>10</v>
       </c>
       <c r="F866" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G866" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H866" t="s">
         <v>262</v>
       </c>
       <c r="L866" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="M866" t="s">
         <v>16</v>
@@ -12201,7 +12195,7 @@
     </row>
     <row r="868" spans="1:14">
       <c r="A868" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="869" spans="1:14">
@@ -12221,22 +12215,22 @@
         <v>7</v>
       </c>
       <c r="F869" t="s">
+        <v>584</v>
+      </c>
+      <c r="G869" t="s">
         <v>586</v>
       </c>
-      <c r="G869" t="s">
+      <c r="H869" t="s">
+        <v>587</v>
+      </c>
+      <c r="I869" t="s">
         <v>588</v>
       </c>
-      <c r="H869" t="s">
+      <c r="J869" t="s">
         <v>589</v>
       </c>
-      <c r="I869" t="s">
+      <c r="K869" t="s">
         <v>590</v>
-      </c>
-      <c r="J869" t="s">
-        <v>591</v>
-      </c>
-      <c r="K869" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="870" spans="1:14" ht="30">
@@ -12244,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="B870" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C870" s="5" t="s">
         <v>4</v>
@@ -12256,7 +12250,7 @@
         <v>10</v>
       </c>
       <c r="F870" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G870" t="s">
         <v>16</v>
@@ -12334,7 +12328,7 @@
         <v>4</v>
       </c>
       <c r="D875" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E875" t="s">
         <v>16</v>
@@ -12413,7 +12407,7 @@
         <v>4</v>
       </c>
       <c r="D885" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E885" t="s">
         <v>365</v>
@@ -12476,7 +12470,7 @@
         <v>4</v>
       </c>
       <c r="D890" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E890" t="s">
         <v>16</v>
@@ -12644,13 +12638,13 @@
         <v>2</v>
       </c>
       <c r="B895" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C895" t="s">
         <v>4</v>
       </c>
       <c r="D895" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E895" t="s">
         <v>16</v>
@@ -12662,7 +12656,7 @@
         <v>261</v>
       </c>
       <c r="H895" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I895" t="s">
         <v>271</v>
@@ -12740,7 +12734,7 @@
         <v>394</v>
       </c>
       <c r="AH895" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AI895" t="s">
         <v>405</v>
@@ -12764,7 +12758,7 @@
         <v>71</v>
       </c>
       <c r="AP895" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AQ895" t="s">
         <v>262</v>
@@ -12930,7 +12924,7 @@
         <v>4</v>
       </c>
       <c r="D902" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E902" t="s">
         <v>16</v>
@@ -12942,7 +12936,7 @@
         <v>261</v>
       </c>
       <c r="H902" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I902" t="s">
         <v>271</v>
@@ -13020,7 +13014,7 @@
         <v>394</v>
       </c>
       <c r="AH902" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AI902" t="s">
         <v>405</v>
@@ -13044,7 +13038,7 @@
         <v>71</v>
       </c>
       <c r="AP902" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AQ902" t="s">
         <v>262</v>
@@ -13058,7 +13052,7 @@
     </row>
     <row r="905" spans="1:45">
       <c r="A905" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="906" spans="1:45">
@@ -13144,7 +13138,7 @@
         <v>217</v>
       </c>
       <c r="AB906" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="907" spans="1:45" ht="60">
@@ -13152,13 +13146,13 @@
         <v>2</v>
       </c>
       <c r="B907" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C907" t="s">
         <v>4</v>
       </c>
       <c r="D907" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E907" t="s">
         <v>16</v>
@@ -13206,7 +13200,7 @@
         <v>71</v>
       </c>
       <c r="T907" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="U907" t="s">
         <v>219</v>
@@ -13221,7 +13215,7 @@
         <v>24</v>
       </c>
       <c r="AA907" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AB907" t="s">
         <v>240</v>
@@ -13229,7 +13223,7 @@
     </row>
     <row r="913" spans="1:6">
       <c r="A913" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B913"/>
     </row>
@@ -13258,13 +13252,13 @@
         <v>2</v>
       </c>
       <c r="B915" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C915" t="s">
         <v>4</v>
       </c>
       <c r="D915" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E915" t="s">
         <v>16</v>
@@ -13275,7 +13269,7 @@
     </row>
     <row r="918" spans="1:6">
       <c r="A918" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="919" spans="1:6">
@@ -13300,16 +13294,16 @@
     </row>
     <row r="920" spans="1:6" ht="75">
       <c r="A920" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B920" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C920" t="s">
         <v>4</v>
       </c>
       <c r="D920" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E920" t="s">
         <v>16</v>
@@ -13323,7 +13317,7 @@
     </row>
     <row r="925" spans="1:6">
       <c r="A925" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B925"/>
     </row>
@@ -13352,13 +13346,13 @@
         <v>2</v>
       </c>
       <c r="B927" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C927" t="s">
         <v>4</v>
       </c>
       <c r="D927" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E927" t="s">
         <v>292</v>
@@ -13369,7 +13363,7 @@
     </row>
     <row r="930" spans="1:11">
       <c r="A930" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="931" spans="1:11">
@@ -13397,13 +13391,13 @@
         <v>2</v>
       </c>
       <c r="B932" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C932" t="s">
         <v>4</v>
       </c>
       <c r="D932" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E932" t="s">
         <v>16</v>
@@ -13417,7 +13411,7 @@
     </row>
     <row r="934" spans="1:11">
       <c r="A934" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="935" spans="1:11">
@@ -13445,13 +13439,13 @@
         <v>2</v>
       </c>
       <c r="B936" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C936" t="s">
         <v>4</v>
       </c>
       <c r="D936" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E936" t="s">
         <v>16</v>
@@ -13462,7 +13456,7 @@
     </row>
     <row r="938" spans="1:11">
       <c r="A938" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="939" spans="1:11">
@@ -13493,13 +13487,13 @@
         <v>2</v>
       </c>
       <c r="B940" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C940" t="s">
         <v>4</v>
       </c>
       <c r="D940" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E940" t="s">
         <v>16</v>
@@ -13513,7 +13507,7 @@
     </row>
     <row r="942" spans="1:11">
       <c r="A942" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="943" spans="1:11">
@@ -13556,13 +13550,13 @@
         <v>2</v>
       </c>
       <c r="B944" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C944" t="s">
         <v>4</v>
       </c>
       <c r="D944" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E944" t="s">
         <v>16</v>
@@ -13574,10 +13568,10 @@
         <v>409</v>
       </c>
       <c r="H944" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I944" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J944" t="s">
         <v>282</v>
@@ -13588,7 +13582,7 @@
     </row>
     <row r="946" spans="1:45">
       <c r="A946" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B946"/>
     </row>
@@ -13734,13 +13728,13 @@
         <v>2</v>
       </c>
       <c r="B948" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C948" t="s">
         <v>4</v>
       </c>
       <c r="D948" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E948" t="s">
         <v>16</v>
@@ -13752,7 +13746,7 @@
         <v>261</v>
       </c>
       <c r="H948" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I948" t="s">
         <v>271</v>
@@ -13868,7 +13862,7 @@
     </row>
     <row r="953" spans="1:45">
       <c r="A953" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B953"/>
     </row>
@@ -13912,13 +13906,13 @@
         <v>2</v>
       </c>
       <c r="B955" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C955" t="s">
         <v>4</v>
       </c>
       <c r="D955" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E955" t="s">
         <v>16</v>
@@ -13944,7 +13938,7 @@
     </row>
     <row r="960" spans="1:45">
       <c r="A960" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B960"/>
     </row>
@@ -13988,13 +13982,13 @@
         <v>2</v>
       </c>
       <c r="B962" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C962" t="s">
         <v>4</v>
       </c>
       <c r="D962" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E962" t="s">
         <v>16</v>
@@ -14020,7 +14014,7 @@
     </row>
     <row r="966" spans="1:11">
       <c r="A966" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B966"/>
     </row>
@@ -14052,13 +14046,13 @@
         <v>2</v>
       </c>
       <c r="B968" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C968" t="s">
         <v>4</v>
       </c>
       <c r="D968" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E968" t="s">
         <v>262</v>
@@ -14078,7 +14072,7 @@
     </row>
     <row r="971" spans="1:11">
       <c r="A971" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B971"/>
     </row>
@@ -14110,13 +14104,13 @@
         <v>2</v>
       </c>
       <c r="B973" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C973" t="s">
         <v>4</v>
       </c>
       <c r="D973" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E973" t="s">
         <v>16</v>
@@ -14136,7 +14130,7 @@
     </row>
     <row r="976" spans="1:11">
       <c r="A976" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B976"/>
     </row>
@@ -14180,13 +14174,13 @@
         <v>2</v>
       </c>
       <c r="B978" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C978" t="s">
         <v>4</v>
       </c>
       <c r="D978" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E978" t="s">
         <v>16</v>
@@ -14195,19 +14189,19 @@
         <v>10</v>
       </c>
       <c r="G978" t="s">
+        <v>705</v>
+      </c>
+      <c r="H978" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="I978" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="J978" t="s">
+        <v>706</v>
+      </c>
+      <c r="K978" t="s">
         <v>707</v>
-      </c>
-      <c r="H978" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="I978" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="J978" t="s">
-        <v>708</v>
-      </c>
-      <c r="K978" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="979" spans="1:23">
@@ -14218,7 +14212,7 @@
     </row>
     <row r="981" spans="1:23">
       <c r="A981" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B981"/>
     </row>
@@ -14247,13 +14241,13 @@
         <v>2</v>
       </c>
       <c r="B983" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C983" t="s">
         <v>4</v>
       </c>
       <c r="D983" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E983" t="s">
         <v>16</v>
@@ -14270,7 +14264,7 @@
     </row>
     <row r="986" spans="1:23">
       <c r="A986" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B986"/>
     </row>
@@ -14294,55 +14288,55 @@
         <v>7</v>
       </c>
       <c r="G987" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H987" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I987" t="s">
+        <v>723</v>
+      </c>
+      <c r="J987" t="s">
+        <v>724</v>
+      </c>
+      <c r="K987" t="s">
         <v>725</v>
       </c>
-      <c r="J987" t="s">
+      <c r="L987" t="s">
+        <v>747</v>
+      </c>
+      <c r="M987" t="s">
+        <v>748</v>
+      </c>
+      <c r="N987" t="s">
         <v>726</v>
       </c>
-      <c r="K987" t="s">
+      <c r="O987" t="s">
         <v>727</v>
       </c>
-      <c r="L987" t="s">
-        <v>749</v>
-      </c>
-      <c r="M987" t="s">
-        <v>750</v>
-      </c>
-      <c r="N987" t="s">
+      <c r="P987" t="s">
         <v>728</v>
       </c>
-      <c r="O987" t="s">
+      <c r="Q987" t="s">
         <v>729</v>
       </c>
-      <c r="P987" t="s">
+      <c r="R987" t="s">
         <v>730</v>
       </c>
-      <c r="Q987" t="s">
+      <c r="S987" t="s">
         <v>731</v>
       </c>
-      <c r="R987" t="s">
+      <c r="T987" t="s">
         <v>732</v>
       </c>
-      <c r="S987" t="s">
+      <c r="U987" t="s">
         <v>733</v>
       </c>
-      <c r="T987" t="s">
+      <c r="V987" t="s">
         <v>734</v>
       </c>
-      <c r="U987" t="s">
+      <c r="W987" t="s">
         <v>735</v>
-      </c>
-      <c r="V987" t="s">
-        <v>736</v>
-      </c>
-      <c r="W987" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="988" spans="1:23">
@@ -14350,13 +14344,13 @@
         <v>2</v>
       </c>
       <c r="B988" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C988" t="s">
         <v>4</v>
       </c>
       <c r="D988" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E988" t="s">
         <v>16</v>
@@ -14365,55 +14359,55 @@
         <v>10</v>
       </c>
       <c r="G988" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H988" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I988" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J988" t="s">
         <v>394</v>
       </c>
       <c r="K988" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L988" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M988" s="3" t="s">
         <v>560</v>
       </c>
       <c r="N988" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="O988" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="P988" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Q988" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="R988" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="S988" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="T988" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="U988" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="V988" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="W988" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="989" spans="1:23">
@@ -14445,7 +14439,7 @@
     </row>
     <row r="997" spans="1:12">
       <c r="A997" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B997"/>
     </row>
@@ -14469,22 +14463,22 @@
         <v>67</v>
       </c>
       <c r="G998" t="s">
+        <v>584</v>
+      </c>
+      <c r="H998" t="s">
         <v>586</v>
       </c>
-      <c r="H998" t="s">
+      <c r="I998" t="s">
+        <v>587</v>
+      </c>
+      <c r="J998" t="s">
         <v>588</v>
       </c>
-      <c r="I998" t="s">
+      <c r="K998" t="s">
         <v>589</v>
       </c>
-      <c r="J998" t="s">
+      <c r="L998" t="s">
         <v>590</v>
-      </c>
-      <c r="K998" t="s">
-        <v>591</v>
-      </c>
-      <c r="L998" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="999" spans="1:12" ht="45">
@@ -14492,7 +14486,7 @@
         <v>2</v>
       </c>
       <c r="B999" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C999" t="s">
         <v>4</v>
@@ -14504,10 +14498,10 @@
         <v>10</v>
       </c>
       <c r="F999" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G999" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H999" t="s">
         <v>16</v>
@@ -14550,22 +14544,22 @@
         <v>67</v>
       </c>
       <c r="G1003" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1003" t="s">
         <v>586</v>
       </c>
-      <c r="H1003" t="s">
+      <c r="I1003" t="s">
+        <v>587</v>
+      </c>
+      <c r="J1003" t="s">
         <v>588</v>
       </c>
-      <c r="I1003" t="s">
+      <c r="K1003" t="s">
         <v>589</v>
       </c>
-      <c r="J1003" t="s">
+      <c r="L1003" t="s">
         <v>590</v>
-      </c>
-      <c r="K1003" t="s">
-        <v>591</v>
-      </c>
-      <c r="L1003" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="1004" spans="1:12" ht="45">
@@ -14573,7 +14567,7 @@
         <v>2</v>
       </c>
       <c r="B1004" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C1004" t="s">
         <v>4</v>
@@ -14585,10 +14579,10 @@
         <v>10</v>
       </c>
       <c r="F1004" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G1004" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H1004" t="s">
         <v>16</v>
@@ -14631,22 +14625,22 @@
         <v>67</v>
       </c>
       <c r="G1008" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1008" t="s">
         <v>586</v>
       </c>
-      <c r="H1008" t="s">
+      <c r="I1008" t="s">
+        <v>587</v>
+      </c>
+      <c r="J1008" t="s">
         <v>588</v>
       </c>
-      <c r="I1008" t="s">
+      <c r="K1008" t="s">
         <v>589</v>
       </c>
-      <c r="J1008" t="s">
+      <c r="L1008" t="s">
         <v>590</v>
-      </c>
-      <c r="K1008" t="s">
-        <v>591</v>
-      </c>
-      <c r="L1008" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="1009" spans="1:22" ht="45">
@@ -14654,7 +14648,7 @@
         <v>2</v>
       </c>
       <c r="B1009" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C1009" t="s">
         <v>4</v>
@@ -14666,10 +14660,10 @@
         <v>10</v>
       </c>
       <c r="F1009" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G1009" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H1009" t="s">
         <v>16</v>
@@ -14712,22 +14706,22 @@
         <v>67</v>
       </c>
       <c r="G1012" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1012" t="s">
         <v>586</v>
       </c>
-      <c r="H1012" t="s">
+      <c r="I1012" t="s">
+        <v>587</v>
+      </c>
+      <c r="J1012" t="s">
         <v>588</v>
       </c>
-      <c r="I1012" t="s">
+      <c r="K1012" t="s">
         <v>589</v>
       </c>
-      <c r="J1012" t="s">
+      <c r="L1012" t="s">
         <v>590</v>
-      </c>
-      <c r="K1012" t="s">
-        <v>591</v>
-      </c>
-      <c r="L1012" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="1013" spans="1:22" ht="45">
@@ -14735,7 +14729,7 @@
         <v>2</v>
       </c>
       <c r="B1013" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C1013" t="s">
         <v>4</v>
@@ -14747,10 +14741,10 @@
         <v>10</v>
       </c>
       <c r="F1013" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G1013" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H1013" t="s">
         <v>16</v>
@@ -14849,7 +14843,7 @@
         <v>429</v>
       </c>
       <c r="C1017" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D1017" t="s">
         <v>16</v>
@@ -14911,7 +14905,7 @@
     </row>
     <row r="1019" spans="1:22">
       <c r="A1019" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="1020" spans="1:22">
@@ -14934,19 +14928,19 @@
         <v>67</v>
       </c>
       <c r="G1020" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1020" t="s">
         <v>586</v>
       </c>
-      <c r="H1020" t="s">
+      <c r="I1020" t="s">
+        <v>587</v>
+      </c>
+      <c r="J1020" t="s">
         <v>588</v>
       </c>
-      <c r="I1020" t="s">
+      <c r="K1020" t="s">
         <v>589</v>
-      </c>
-      <c r="J1020" t="s">
-        <v>590</v>
-      </c>
-      <c r="K1020" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="1021" spans="1:22" ht="30">
@@ -14954,7 +14948,7 @@
         <v>2</v>
       </c>
       <c r="B1021" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C1021" t="s">
         <v>4</v>
@@ -14966,10 +14960,10 @@
         <v>10</v>
       </c>
       <c r="F1021" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G1021" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H1021" t="s">
         <v>16</v>
@@ -14986,7 +14980,7 @@
     </row>
     <row r="1024" spans="1:22">
       <c r="A1024" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="1025" spans="1:7">
@@ -15014,7 +15008,7 @@
         <v>2</v>
       </c>
       <c r="B1026" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C1026" t="s">
         <v>4</v>
@@ -15026,12 +15020,12 @@
         <v>10</v>
       </c>
       <c r="F1026" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1028" spans="1:7">
       <c r="A1028" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1029" spans="1:7">
@@ -15062,7 +15056,7 @@
         <v>2</v>
       </c>
       <c r="B1030" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C1030" t="s">
         <v>4</v>
@@ -15074,15 +15068,15 @@
         <v>10</v>
       </c>
       <c r="F1030" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G1030" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1032" spans="1:7">
       <c r="A1032" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="1033" spans="1:7">
@@ -15105,7 +15099,7 @@
         <v>67</v>
       </c>
       <c r="G1033" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="1034" spans="1:7" ht="30">
@@ -15113,7 +15107,7 @@
         <v>2</v>
       </c>
       <c r="B1034" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C1034" t="s">
         <v>4</v>
@@ -15125,15 +15119,15 @@
         <v>10</v>
       </c>
       <c r="F1034" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1034" t="s">
         <v>651</v>
-      </c>
-      <c r="G1034" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="1036" spans="1:7">
       <c r="A1036" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="1037" spans="1:7">
@@ -15156,7 +15150,7 @@
         <v>67</v>
       </c>
       <c r="G1037" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="1038" spans="1:7" ht="30">
@@ -15164,7 +15158,7 @@
         <v>2</v>
       </c>
       <c r="B1038" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C1038" t="s">
         <v>4</v>
@@ -15176,15 +15170,15 @@
         <v>10</v>
       </c>
       <c r="F1038" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G1038" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1040" spans="1:7">
       <c r="A1040" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -15212,7 +15206,7 @@
         <v>2</v>
       </c>
       <c r="B1042" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C1042" t="s">
         <v>4</v>
@@ -15224,12 +15218,12 @@
         <v>10</v>
       </c>
       <c r="F1042" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
       <c r="A1045" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -15257,7 +15251,7 @@
         <v>2</v>
       </c>
       <c r="B1047" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C1047" t="s">
         <v>4</v>
@@ -15269,12 +15263,12 @@
         <v>10</v>
       </c>
       <c r="F1047" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
       <c r="A1052" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -15297,7 +15291,7 @@
         <v>67</v>
       </c>
       <c r="G1053" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H1053" t="s">
         <v>275</v>
@@ -15308,7 +15302,7 @@
         <v>2</v>
       </c>
       <c r="B1054" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C1054" t="s">
         <v>4</v>
@@ -15320,10 +15314,10 @@
         <v>10</v>
       </c>
       <c r="F1054" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G1054" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H1054" t="s">
         <v>275</v>
@@ -15331,7 +15325,7 @@
     </row>
     <row r="1056" spans="1:8">
       <c r="A1056" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1057" spans="1:10">
@@ -15354,7 +15348,7 @@
         <v>67</v>
       </c>
       <c r="G1057" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H1057" t="s">
         <v>275</v>
@@ -15365,7 +15359,7 @@
         <v>2</v>
       </c>
       <c r="B1058" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C1058" t="s">
         <v>4</v>
@@ -15377,10 +15371,10 @@
         <v>10</v>
       </c>
       <c r="F1058" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G1058" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H1058" t="s">
         <v>275</v>
@@ -15388,7 +15382,7 @@
     </row>
     <row r="1060" spans="1:10">
       <c r="A1060" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="1061" spans="1:10">
@@ -15414,13 +15408,13 @@
         <v>35</v>
       </c>
       <c r="H1061" t="s">
+        <v>785</v>
+      </c>
+      <c r="I1061" t="s">
+        <v>786</v>
+      </c>
+      <c r="J1061" t="s">
         <v>787</v>
-      </c>
-      <c r="I1061" t="s">
-        <v>788</v>
-      </c>
-      <c r="J1061" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="1062" spans="1:10">
@@ -15428,7 +15422,7 @@
         <v>2</v>
       </c>
       <c r="B1062" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C1062" t="s">
         <v>4</v>
@@ -15440,24 +15434,24 @@
         <v>10</v>
       </c>
       <c r="F1062" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G1062" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H1062" t="s">
         <v>275</v>
       </c>
       <c r="I1062" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="J1062" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1064" spans="1:10">
       <c r="A1064" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1065" spans="1:10">
@@ -15488,7 +15482,7 @@
         <v>2</v>
       </c>
       <c r="B1066" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C1066" t="s">
         <v>4</v>
@@ -15500,10 +15494,10 @@
         <v>10</v>
       </c>
       <c r="F1066" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G1066" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -18036,12 +18030,12 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -18148,7 +18142,7 @@
         <v>367</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -18156,7 +18150,7 @@
         <v>368</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -18203,7 +18197,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="G28" s="21" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>367</v>
@@ -18211,7 +18205,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="G29" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H29" t="s">
         <v>368</v>
@@ -18219,7 +18213,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="G30" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H30" t="s">
         <v>369</v>
@@ -18227,7 +18221,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="G31" s="22" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H31" t="s">
         <v>296</v>
@@ -18235,7 +18229,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="G32" s="23" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H32" t="s">
         <v>294</v>
@@ -18243,7 +18237,7 @@
     </row>
     <row r="33" spans="7:8" ht="15.75" thickBot="1">
       <c r="G33" s="22" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H33" t="s">
         <v>385</v>
@@ -18251,7 +18245,7 @@
     </row>
     <row r="34" spans="7:8" ht="15.75" thickBot="1">
       <c r="G34" s="23" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>292</v>
@@ -18259,7 +18253,7 @@
     </row>
     <row r="35" spans="7:8" ht="15.75" thickBot="1">
       <c r="G35" s="22" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>365</v>
@@ -18267,7 +18261,7 @@
     </row>
     <row r="36" spans="7:8" ht="15.75" thickBot="1">
       <c r="G36" s="23" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H36" t="s">
         <v>366</v>
@@ -18275,7 +18269,7 @@
     </row>
     <row r="37" spans="7:8" ht="15.75" thickBot="1">
       <c r="G37" s="22" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>356</v>
@@ -18283,7 +18277,7 @@
     </row>
     <row r="38" spans="7:8" ht="15.75" thickBot="1">
       <c r="G38" s="22" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>355</v>
@@ -18291,23 +18285,23 @@
     </row>
     <row r="39" spans="7:8" ht="15.75" thickBot="1">
       <c r="G39" s="22" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="7:8" ht="15.75" thickBot="1">
       <c r="G40" s="23" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="41" spans="7:8" ht="15.75" thickBot="1">
       <c r="G41" s="22" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>297</v>
@@ -18315,7 +18309,7 @@
     </row>
     <row r="42" spans="7:8" ht="15.75" thickBot="1">
       <c r="G42" s="23" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>435</v>
@@ -18331,7 +18325,7 @@
     </row>
     <row r="44" spans="7:8" ht="15.75" thickBot="1">
       <c r="G44" s="23" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>293</v>
@@ -18339,7 +18333,7 @@
     </row>
     <row r="45" spans="7:8" ht="15.75" thickBot="1">
       <c r="G45" s="23" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>206</v>
@@ -18347,7 +18341,7 @@
     </row>
     <row r="46" spans="7:8" ht="15.75" thickBot="1">
       <c r="G46" s="22" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>262</v>
@@ -19364,7 +19358,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45">
       <c r="A1" s="16" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -19372,10 +19366,10 @@
     </row>
     <row r="3" spans="1:2" ht="345">
       <c r="A3" s="17" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -19383,7 +19377,7 @@
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="17" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -19391,7 +19385,7 @@
     </row>
     <row r="7" spans="1:2" ht="90">
       <c r="A7" s="16" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -19399,10 +19393,10 @@
     </row>
     <row r="9" spans="1:2" ht="210">
       <c r="A9" s="17" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -19410,7 +19404,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="17" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -19418,7 +19412,7 @@
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="16" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -19426,10 +19420,10 @@
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="18" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B15" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -19437,7 +19431,7 @@
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="17" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -19445,12 +19439,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="120">
       <c r="A20" s="16" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -19458,7 +19452,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="17" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -19466,7 +19460,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -19474,7 +19468,7 @@
     </row>
     <row r="26" spans="1:2" ht="150">
       <c r="A26" s="16" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -19482,10 +19476,10 @@
     </row>
     <row r="28" spans="1:2" ht="105">
       <c r="A28" s="17" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -19493,7 +19487,7 @@
     </row>
     <row r="30" spans="1:2" ht="60">
       <c r="A30" s="17" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4175" uniqueCount="820">
   <si>
     <t>TestCases</t>
   </si>
@@ -2784,7 +2784,10 @@
     <t>D:\workspace\bizligo-Automation\src\test\resources\testImages\Files\ChromeImage6.jpg</t>
   </si>
   <si>
-    <t>D:\workspace\bizligo-Automation\src\test\resources\testImages\Files\ChromePDF1.pdf</t>
+    <t>\src\test\resources\testImages\Files\ChromePDF1.pdf</t>
+  </si>
+  <si>
+    <t>promoCode3</t>
   </si>
 </sst>
 </file>
@@ -3275,7 +3278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5085,8 +5088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH831" workbookViewId="0">
-      <selection activeCell="AZ833" sqref="AZ833"/>
+    <sheetView tabSelected="1" topLeftCell="H966" workbookViewId="0">
+      <selection activeCell="O968" sqref="O968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12419,7 +12422,7 @@
         <v>396</v>
       </c>
       <c r="H885" t="s">
-        <v>407</v>
+        <v>818</v>
       </c>
       <c r="I885" t="s">
         <v>405</v>
@@ -12482,7 +12485,7 @@
         <v>396</v>
       </c>
       <c r="H890" t="s">
-        <v>407</v>
+        <v>818</v>
       </c>
       <c r="I890" t="s">
         <v>405</v>
@@ -14134,7 +14137,7 @@
       </c>
       <c r="B976"/>
     </row>
-    <row r="977" spans="1:23">
+    <row r="977" spans="1:24">
       <c r="A977" t="s">
         <v>1</v>
       </c>
@@ -14169,7 +14172,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="978" spans="1:23">
+    <row r="978" spans="1:24">
       <c r="A978" t="s">
         <v>2</v>
       </c>
@@ -14204,19 +14207,19 @@
         <v>707</v>
       </c>
     </row>
-    <row r="979" spans="1:23">
+    <row r="979" spans="1:24">
       <c r="B979"/>
     </row>
-    <row r="980" spans="1:23">
+    <row r="980" spans="1:24">
       <c r="B980"/>
     </row>
-    <row r="981" spans="1:23">
+    <row r="981" spans="1:24">
       <c r="A981" t="s">
         <v>689</v>
       </c>
       <c r="B981"/>
     </row>
-    <row r="982" spans="1:23">
+    <row r="982" spans="1:24">
       <c r="A982" t="s">
         <v>1</v>
       </c>
@@ -14236,7 +14239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="983" spans="1:23">
+    <row r="983" spans="1:24">
       <c r="A983" t="s">
         <v>2</v>
       </c>
@@ -14256,19 +14259,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="984" spans="1:23">
+    <row r="984" spans="1:24">
       <c r="B984"/>
     </row>
-    <row r="985" spans="1:23">
+    <row r="985" spans="1:24">
       <c r="B985"/>
     </row>
-    <row r="986" spans="1:23">
+    <row r="986" spans="1:24">
       <c r="A986" t="s">
         <v>690</v>
       </c>
       <c r="B986"/>
     </row>
-    <row r="987" spans="1:23">
+    <row r="987" spans="1:24">
       <c r="A987" t="s">
         <v>1</v>
       </c>
@@ -14294,52 +14297,55 @@
         <v>740</v>
       </c>
       <c r="I987" t="s">
+        <v>819</v>
+      </c>
+      <c r="J987" t="s">
         <v>723</v>
       </c>
-      <c r="J987" t="s">
+      <c r="K987" t="s">
         <v>724</v>
       </c>
-      <c r="K987" t="s">
+      <c r="L987" t="s">
         <v>725</v>
       </c>
-      <c r="L987" t="s">
+      <c r="M987" t="s">
         <v>747</v>
       </c>
-      <c r="M987" t="s">
+      <c r="N987" t="s">
         <v>748</v>
       </c>
-      <c r="N987" t="s">
+      <c r="O987" t="s">
         <v>726</v>
       </c>
-      <c r="O987" t="s">
+      <c r="P987" t="s">
         <v>727</v>
       </c>
-      <c r="P987" t="s">
+      <c r="Q987" t="s">
         <v>728</v>
       </c>
-      <c r="Q987" t="s">
+      <c r="R987" t="s">
         <v>729</v>
       </c>
-      <c r="R987" t="s">
+      <c r="S987" t="s">
         <v>730</v>
       </c>
-      <c r="S987" t="s">
+      <c r="T987" t="s">
         <v>731</v>
       </c>
-      <c r="T987" t="s">
+      <c r="U987" t="s">
         <v>732</v>
       </c>
-      <c r="U987" t="s">
+      <c r="V987" t="s">
         <v>733</v>
       </c>
-      <c r="V987" t="s">
+      <c r="W987" t="s">
         <v>734</v>
       </c>
-      <c r="W987" t="s">
+      <c r="X987" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="988" spans="1:23">
+    <row r="988" spans="1:24">
       <c r="A988" t="s">
         <v>2</v>
       </c>
@@ -14365,25 +14371,25 @@
         <v>749</v>
       </c>
       <c r="I988" t="s">
+        <v>775</v>
+      </c>
+      <c r="J988" t="s">
         <v>737</v>
       </c>
-      <c r="J988" t="s">
+      <c r="K988" t="s">
         <v>394</v>
-      </c>
-      <c r="K988" s="3" t="s">
-        <v>738</v>
       </c>
       <c r="L988" s="3" t="s">
         <v>738</v>
       </c>
       <c r="M988" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="N988" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="N988" s="3" t="s">
+      <c r="O988" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="O988" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="P988" s="3" t="s">
         <v>574</v>
@@ -14409,14 +14415,17 @@
       <c r="W988" s="3" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="989" spans="1:23">
+      <c r="X988" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="989" spans="1:24">
       <c r="B989"/>
     </row>
-    <row r="990" spans="1:23">
+    <row r="990" spans="1:24">
       <c r="B990"/>
     </row>
-    <row r="992" spans="1:23">
+    <row r="992" spans="1:24">
       <c r="B992"/>
       <c r="J992" s="3"/>
       <c r="K992" s="3"/>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -2646,9 +2646,6 @@
     <t>TC138_Purchase_Advertisment_With_No_Approval_And_Verify_The_Ad_Is_Displayed_In_Home_Page</t>
   </si>
   <si>
-    <t>\src\test\resources\testImages\HomePageAdImageToVerify.PNG</t>
-  </si>
-  <si>
     <t>TC140_Reject_Advertisement_By_CA</t>
   </si>
   <si>
@@ -2788,6 +2785,9 @@
   </si>
   <si>
     <t>promoCode3</t>
+  </si>
+  <si>
+    <t>\src\test\resources\testImages\HomePageAd.png</t>
   </si>
 </sst>
 </file>
@@ -3278,7 +3278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5088,8 +5088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H966" workbookViewId="0">
-      <selection activeCell="O968" sqref="O968"/>
+    <sheetView tabSelected="1" topLeftCell="F809" workbookViewId="0">
+      <selection activeCell="L811" sqref="L811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6415,7 +6415,7 @@
         <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H115" t="s">
         <v>271</v>
@@ -7078,22 +7078,22 @@
         <v>10</v>
       </c>
       <c r="G167" t="s">
+        <v>775</v>
+      </c>
+      <c r="H167" t="s">
         <v>776</v>
       </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
         <v>777</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" t="s">
         <v>778</v>
       </c>
-      <c r="J167" t="s">
+      <c r="K167" t="s">
         <v>779</v>
       </c>
-      <c r="K167" t="s">
-        <v>780</v>
-      </c>
       <c r="L167" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -9253,7 +9253,7 @@
         <v>4</v>
       </c>
       <c r="D697" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E697" t="s">
         <v>16</v>
@@ -9301,7 +9301,7 @@
         <v>4</v>
       </c>
       <c r="D704" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E704" t="s">
         <v>16</v>
@@ -10468,7 +10468,7 @@
         <v>10</v>
       </c>
       <c r="F798" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H798" s="3"/>
       <c r="L798" s="3"/>
@@ -10775,7 +10775,7 @@
         <v>495</v>
       </c>
       <c r="M817" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="821" spans="1:48">
@@ -10859,10 +10859,10 @@
         <v>495</v>
       </c>
       <c r="L823" t="s">
-        <v>772</v>
+        <v>819</v>
       </c>
       <c r="M823" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="826" spans="1:48">
@@ -10898,7 +10898,7 @@
         <v>2</v>
       </c>
       <c r="B828" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C828" s="5" t="s">
         <v>4</v>
@@ -11127,7 +11127,7 @@
         <v>556</v>
       </c>
       <c r="T833" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U833" t="s">
         <v>557</v>
@@ -11154,7 +11154,7 @@
         <v>562</v>
       </c>
       <c r="AC833" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AD833" s="3" t="s">
         <v>564</v>
@@ -11172,7 +11172,7 @@
         <v>240</v>
       </c>
       <c r="AI833" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AJ833" s="3" t="s">
         <v>618</v>
@@ -11202,7 +11202,7 @@
         <v>568</v>
       </c>
       <c r="AS833" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AT833" t="s">
         <v>569</v>
@@ -11419,7 +11419,7 @@
         <v>556</v>
       </c>
       <c r="T838" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U838" t="s">
         <v>557</v>
@@ -11446,7 +11446,7 @@
         <v>562</v>
       </c>
       <c r="AC838" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AD838" s="3" t="s">
         <v>564</v>
@@ -11464,7 +11464,7 @@
         <v>240</v>
       </c>
       <c r="AI838" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AJ838" s="3" t="s">
         <v>618</v>
@@ -11494,7 +11494,7 @@
         <v>568</v>
       </c>
       <c r="AS838" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AT838" t="s">
         <v>569</v>
@@ -11716,7 +11716,7 @@
         <v>556</v>
       </c>
       <c r="T846" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U846" t="s">
         <v>557</v>
@@ -11743,7 +11743,7 @@
         <v>562</v>
       </c>
       <c r="AC846" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AD846" s="3" t="s">
         <v>564</v>
@@ -11761,7 +11761,7 @@
         <v>240</v>
       </c>
       <c r="AI846" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AJ846" s="3" t="s">
         <v>618</v>
@@ -11791,7 +11791,7 @@
         <v>568</v>
       </c>
       <c r="AS846" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AT846" t="s">
         <v>569</v>
@@ -12112,7 +12112,7 @@
         <v>262</v>
       </c>
       <c r="L862" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M862" t="s">
         <v>16</v>
@@ -12422,7 +12422,7 @@
         <v>396</v>
       </c>
       <c r="H885" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I885" t="s">
         <v>405</v>
@@ -12485,7 +12485,7 @@
         <v>396</v>
       </c>
       <c r="H890" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I890" t="s">
         <v>405</v>
@@ -12659,7 +12659,7 @@
         <v>261</v>
       </c>
       <c r="H895" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I895" t="s">
         <v>271</v>
@@ -12737,7 +12737,7 @@
         <v>394</v>
       </c>
       <c r="AH895" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AI895" t="s">
         <v>405</v>
@@ -12939,7 +12939,7 @@
         <v>261</v>
       </c>
       <c r="H902" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I902" t="s">
         <v>271</v>
@@ -13017,7 +13017,7 @@
         <v>394</v>
       </c>
       <c r="AH902" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AI902" t="s">
         <v>405</v>
@@ -14297,7 +14297,7 @@
         <v>740</v>
       </c>
       <c r="I987" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J987" t="s">
         <v>723</v>
@@ -14371,7 +14371,7 @@
         <v>749</v>
       </c>
       <c r="I988" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J988" t="s">
         <v>737</v>
@@ -14852,7 +14852,7 @@
         <v>429</v>
       </c>
       <c r="C1017" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D1017" t="s">
         <v>16</v>
@@ -15300,7 +15300,7 @@
         <v>67</v>
       </c>
       <c r="G1053" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1053" t="s">
         <v>275</v>
@@ -15311,7 +15311,7 @@
         <v>2</v>
       </c>
       <c r="B1054" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C1054" t="s">
         <v>4</v>
@@ -15326,7 +15326,7 @@
         <v>649</v>
       </c>
       <c r="G1054" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1054" t="s">
         <v>275</v>
@@ -15357,7 +15357,7 @@
         <v>67</v>
       </c>
       <c r="G1057" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1057" t="s">
         <v>275</v>
@@ -15368,7 +15368,7 @@
         <v>2</v>
       </c>
       <c r="B1058" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C1058" t="s">
         <v>4</v>
@@ -15383,7 +15383,7 @@
         <v>649</v>
       </c>
       <c r="G1058" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1058" t="s">
         <v>275</v>
@@ -15417,13 +15417,13 @@
         <v>35</v>
       </c>
       <c r="H1061" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1061" t="s">
         <v>785</v>
       </c>
-      <c r="I1061" t="s">
+      <c r="J1061" t="s">
         <v>786</v>
-      </c>
-      <c r="J1061" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="1062" spans="1:10">
@@ -15431,7 +15431,7 @@
         <v>2</v>
       </c>
       <c r="B1062" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C1062" t="s">
         <v>4</v>
@@ -15446,16 +15446,16 @@
         <v>649</v>
       </c>
       <c r="G1062" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1062" t="s">
         <v>275</v>
       </c>
       <c r="I1062" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J1062" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1064" spans="1:10">
@@ -15491,7 +15491,7 @@
         <v>2</v>
       </c>
       <c r="B1066" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C1066" t="s">
         <v>4</v>
@@ -18206,7 +18206,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="G28" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>367</v>
@@ -18214,7 +18214,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="G29" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H29" t="s">
         <v>368</v>
@@ -18222,7 +18222,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="G30" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H30" t="s">
         <v>369</v>
@@ -18230,7 +18230,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="G31" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H31" t="s">
         <v>296</v>
@@ -18238,7 +18238,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="G32" s="23" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H32" t="s">
         <v>294</v>
@@ -18246,7 +18246,7 @@
     </row>
     <row r="33" spans="7:8" ht="15.75" thickBot="1">
       <c r="G33" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H33" t="s">
         <v>385</v>
@@ -18254,7 +18254,7 @@
     </row>
     <row r="34" spans="7:8" ht="15.75" thickBot="1">
       <c r="G34" s="23" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>292</v>
@@ -18262,7 +18262,7 @@
     </row>
     <row r="35" spans="7:8" ht="15.75" thickBot="1">
       <c r="G35" s="22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>365</v>
@@ -18270,7 +18270,7 @@
     </row>
     <row r="36" spans="7:8" ht="15.75" thickBot="1">
       <c r="G36" s="23" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H36" t="s">
         <v>366</v>
@@ -18278,7 +18278,7 @@
     </row>
     <row r="37" spans="7:8" ht="15.75" thickBot="1">
       <c r="G37" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>356</v>
@@ -18286,7 +18286,7 @@
     </row>
     <row r="38" spans="7:8" ht="15.75" thickBot="1">
       <c r="G38" s="22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>355</v>
@@ -18294,7 +18294,7 @@
     </row>
     <row r="39" spans="7:8" ht="15.75" thickBot="1">
       <c r="G39" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>651</v>
@@ -18302,7 +18302,7 @@
     </row>
     <row r="40" spans="7:8" ht="15.75" thickBot="1">
       <c r="G40" s="23" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>766</v>
@@ -18310,7 +18310,7 @@
     </row>
     <row r="41" spans="7:8" ht="15.75" thickBot="1">
       <c r="G41" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>297</v>
@@ -18318,7 +18318,7 @@
     </row>
     <row r="42" spans="7:8" ht="15.75" thickBot="1">
       <c r="G42" s="23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>435</v>
@@ -18334,7 +18334,7 @@
     </row>
     <row r="44" spans="7:8" ht="15.75" thickBot="1">
       <c r="G44" s="23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>293</v>
@@ -18342,7 +18342,7 @@
     </row>
     <row r="45" spans="7:8" ht="15.75" thickBot="1">
       <c r="G45" s="23" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>206</v>
@@ -18350,7 +18350,7 @@
     </row>
     <row r="46" spans="7:8" ht="15.75" thickBot="1">
       <c r="G46" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>262</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -2637,9 +2637,6 @@
     <t>Imgverification</t>
   </si>
   <si>
-    <t>\src\test\resources\testImages\verifyCommunityAdImage.PNG</t>
-  </si>
-  <si>
     <t>TC137_Purchase_Advertisment_With_No_Approval_And_Verify_The_Ad_Is_Displayed_In_Global_Members_Page</t>
   </si>
   <si>
@@ -2788,6 +2785,9 @@
   </si>
   <si>
     <t>\src\test\resources\testImages\HomePageAd.png</t>
+  </si>
+  <si>
+    <t>\src\test\resources\testImages\communityAdImage.PNG</t>
   </si>
 </sst>
 </file>
@@ -3278,7 +3278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5088,8 +5088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F809" workbookViewId="0">
-      <selection activeCell="L811" sqref="L811"/>
+    <sheetView tabSelected="1" topLeftCell="E780" workbookViewId="0">
+      <selection activeCell="L781" sqref="L781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6415,7 +6415,7 @@
         <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H115" t="s">
         <v>271</v>
@@ -7078,22 +7078,22 @@
         <v>10</v>
       </c>
       <c r="G167" t="s">
+        <v>774</v>
+      </c>
+      <c r="H167" t="s">
         <v>775</v>
       </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
         <v>776</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" t="s">
         <v>777</v>
       </c>
-      <c r="J167" t="s">
+      <c r="K167" t="s">
         <v>778</v>
       </c>
-      <c r="K167" t="s">
-        <v>779</v>
-      </c>
       <c r="L167" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -9253,7 +9253,7 @@
         <v>4</v>
       </c>
       <c r="D697" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E697" t="s">
         <v>16</v>
@@ -9301,7 +9301,7 @@
         <v>4</v>
       </c>
       <c r="D704" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E704" t="s">
         <v>16</v>
@@ -10163,7 +10163,7 @@
         <v>495</v>
       </c>
       <c r="L781" t="s">
-        <v>769</v>
+        <v>819</v>
       </c>
     </row>
     <row r="782" spans="1:15">
@@ -10468,7 +10468,7 @@
         <v>10</v>
       </c>
       <c r="F798" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H798" s="3"/>
       <c r="L798" s="3"/>
@@ -10742,7 +10742,7 @@
         <v>2</v>
       </c>
       <c r="B817" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C817" t="s">
         <v>4</v>
@@ -10775,7 +10775,7 @@
         <v>495</v>
       </c>
       <c r="M817" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="821" spans="1:48">
@@ -10829,7 +10829,7 @@
         <v>2</v>
       </c>
       <c r="B823" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C823" s="5" t="s">
         <v>4</v>
@@ -10859,10 +10859,10 @@
         <v>495</v>
       </c>
       <c r="L823" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M823" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="826" spans="1:48">
@@ -10898,7 +10898,7 @@
         <v>2</v>
       </c>
       <c r="B828" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C828" s="5" t="s">
         <v>4</v>
@@ -11127,7 +11127,7 @@
         <v>556</v>
       </c>
       <c r="T833" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U833" t="s">
         <v>557</v>
@@ -11154,7 +11154,7 @@
         <v>562</v>
       </c>
       <c r="AC833" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AD833" s="3" t="s">
         <v>564</v>
@@ -11172,7 +11172,7 @@
         <v>240</v>
       </c>
       <c r="AI833" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AJ833" s="3" t="s">
         <v>618</v>
@@ -11202,7 +11202,7 @@
         <v>568</v>
       </c>
       <c r="AS833" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AT833" t="s">
         <v>569</v>
@@ -11419,7 +11419,7 @@
         <v>556</v>
       </c>
       <c r="T838" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U838" t="s">
         <v>557</v>
@@ -11446,7 +11446,7 @@
         <v>562</v>
       </c>
       <c r="AC838" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AD838" s="3" t="s">
         <v>564</v>
@@ -11464,7 +11464,7 @@
         <v>240</v>
       </c>
       <c r="AI838" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AJ838" s="3" t="s">
         <v>618</v>
@@ -11494,7 +11494,7 @@
         <v>568</v>
       </c>
       <c r="AS838" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AT838" t="s">
         <v>569</v>
@@ -11716,7 +11716,7 @@
         <v>556</v>
       </c>
       <c r="T846" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U846" t="s">
         <v>557</v>
@@ -11743,7 +11743,7 @@
         <v>562</v>
       </c>
       <c r="AC846" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AD846" s="3" t="s">
         <v>564</v>
@@ -11761,7 +11761,7 @@
         <v>240</v>
       </c>
       <c r="AI846" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AJ846" s="3" t="s">
         <v>618</v>
@@ -11791,7 +11791,7 @@
         <v>568</v>
       </c>
       <c r="AS846" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AT846" t="s">
         <v>569</v>
@@ -12112,7 +12112,7 @@
         <v>262</v>
       </c>
       <c r="L862" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M862" t="s">
         <v>16</v>
@@ -12422,7 +12422,7 @@
         <v>396</v>
       </c>
       <c r="H885" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I885" t="s">
         <v>405</v>
@@ -12485,7 +12485,7 @@
         <v>396</v>
       </c>
       <c r="H890" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I890" t="s">
         <v>405</v>
@@ -12659,7 +12659,7 @@
         <v>261</v>
       </c>
       <c r="H895" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I895" t="s">
         <v>271</v>
@@ -12737,7 +12737,7 @@
         <v>394</v>
       </c>
       <c r="AH895" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AI895" t="s">
         <v>405</v>
@@ -12939,7 +12939,7 @@
         <v>261</v>
       </c>
       <c r="H902" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I902" t="s">
         <v>271</v>
@@ -13017,7 +13017,7 @@
         <v>394</v>
       </c>
       <c r="AH902" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AI902" t="s">
         <v>405</v>
@@ -14297,7 +14297,7 @@
         <v>740</v>
       </c>
       <c r="I987" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J987" t="s">
         <v>723</v>
@@ -14371,7 +14371,7 @@
         <v>749</v>
       </c>
       <c r="I988" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J988" t="s">
         <v>737</v>
@@ -14852,7 +14852,7 @@
         <v>429</v>
       </c>
       <c r="C1017" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D1017" t="s">
         <v>16</v>
@@ -15300,7 +15300,7 @@
         <v>67</v>
       </c>
       <c r="G1053" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1053" t="s">
         <v>275</v>
@@ -15311,7 +15311,7 @@
         <v>2</v>
       </c>
       <c r="B1054" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C1054" t="s">
         <v>4</v>
@@ -15326,7 +15326,7 @@
         <v>649</v>
       </c>
       <c r="G1054" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1054" t="s">
         <v>275</v>
@@ -15357,7 +15357,7 @@
         <v>67</v>
       </c>
       <c r="G1057" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1057" t="s">
         <v>275</v>
@@ -15368,7 +15368,7 @@
         <v>2</v>
       </c>
       <c r="B1058" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C1058" t="s">
         <v>4</v>
@@ -15383,7 +15383,7 @@
         <v>649</v>
       </c>
       <c r="G1058" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1058" t="s">
         <v>275</v>
@@ -15417,13 +15417,13 @@
         <v>35</v>
       </c>
       <c r="H1061" t="s">
+        <v>783</v>
+      </c>
+      <c r="I1061" t="s">
         <v>784</v>
       </c>
-      <c r="I1061" t="s">
+      <c r="J1061" t="s">
         <v>785</v>
-      </c>
-      <c r="J1061" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="1062" spans="1:10">
@@ -15431,7 +15431,7 @@
         <v>2</v>
       </c>
       <c r="B1062" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C1062" t="s">
         <v>4</v>
@@ -15446,16 +15446,16 @@
         <v>649</v>
       </c>
       <c r="G1062" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1062" t="s">
         <v>275</v>
       </c>
       <c r="I1062" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J1062" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1064" spans="1:10">
@@ -15491,7 +15491,7 @@
         <v>2</v>
       </c>
       <c r="B1066" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C1066" t="s">
         <v>4</v>
@@ -18206,7 +18206,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="G28" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>367</v>
@@ -18214,7 +18214,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="G29" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H29" t="s">
         <v>368</v>
@@ -18222,7 +18222,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="G30" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H30" t="s">
         <v>369</v>
@@ -18230,7 +18230,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="G31" s="22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H31" t="s">
         <v>296</v>
@@ -18238,7 +18238,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="G32" s="23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H32" t="s">
         <v>294</v>
@@ -18246,7 +18246,7 @@
     </row>
     <row r="33" spans="7:8" ht="15.75" thickBot="1">
       <c r="G33" s="22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H33" t="s">
         <v>385</v>
@@ -18254,7 +18254,7 @@
     </row>
     <row r="34" spans="7:8" ht="15.75" thickBot="1">
       <c r="G34" s="23" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>292</v>
@@ -18262,7 +18262,7 @@
     </row>
     <row r="35" spans="7:8" ht="15.75" thickBot="1">
       <c r="G35" s="22" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>365</v>
@@ -18270,7 +18270,7 @@
     </row>
     <row r="36" spans="7:8" ht="15.75" thickBot="1">
       <c r="G36" s="23" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H36" t="s">
         <v>366</v>
@@ -18278,7 +18278,7 @@
     </row>
     <row r="37" spans="7:8" ht="15.75" thickBot="1">
       <c r="G37" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>356</v>
@@ -18286,7 +18286,7 @@
     </row>
     <row r="38" spans="7:8" ht="15.75" thickBot="1">
       <c r="G38" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>355</v>
@@ -18294,7 +18294,7 @@
     </row>
     <row r="39" spans="7:8" ht="15.75" thickBot="1">
       <c r="G39" s="22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>651</v>
@@ -18302,7 +18302,7 @@
     </row>
     <row r="40" spans="7:8" ht="15.75" thickBot="1">
       <c r="G40" s="23" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>766</v>
@@ -18310,7 +18310,7 @@
     </row>
     <row r="41" spans="7:8" ht="15.75" thickBot="1">
       <c r="G41" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>297</v>
@@ -18318,7 +18318,7 @@
     </row>
     <row r="42" spans="7:8" ht="15.75" thickBot="1">
       <c r="G42" s="23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>435</v>
@@ -18334,7 +18334,7 @@
     </row>
     <row r="44" spans="7:8" ht="15.75" thickBot="1">
       <c r="G44" s="23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>293</v>
@@ -18342,7 +18342,7 @@
     </row>
     <row r="45" spans="7:8" ht="15.75" thickBot="1">
       <c r="G45" s="23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>206</v>
@@ -18350,7 +18350,7 @@
     </row>
     <row r="46" spans="7:8" ht="15.75" thickBot="1">
       <c r="G46" s="22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>262</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4175" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4259" uniqueCount="835">
   <si>
     <t>TestCases</t>
   </si>
@@ -2788,6 +2788,51 @@
   </si>
   <si>
     <t>\src\test\resources\testImages\communityAdImage.PNG</t>
+  </si>
+  <si>
+    <t>TC200</t>
+  </si>
+  <si>
+    <t>TC201</t>
+  </si>
+  <si>
+    <t>TC202</t>
+  </si>
+  <si>
+    <t>TC203</t>
+  </si>
+  <si>
+    <t>TC204</t>
+  </si>
+  <si>
+    <t>TC201_CommunityTagMemberInPost</t>
+  </si>
+  <si>
+    <t>TC202_CommunityTagMemberInComment</t>
+  </si>
+  <si>
+    <t>TC203_GroupTagMemberInPost</t>
+  </si>
+  <si>
+    <t>TC204_GroupTagMemberInComment</t>
+  </si>
+  <si>
+    <t>TC199</t>
+  </si>
+  <si>
+    <t>TC205</t>
+  </si>
+  <si>
+    <t>TC206</t>
+  </si>
+  <si>
+    <t>Hi Nice to see you back ….. !!!!! @Curator</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>@Nancy Kemper</t>
   </si>
 </sst>
 </file>
@@ -3278,7 +3323,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3286,10 +3331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201:B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5078,6 +5123,70 @@
         <v>2</v>
       </c>
     </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>829</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>820</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>821</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>822</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>823</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>824</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>830</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>831</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5086,10 +5195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV1066"/>
+  <dimension ref="A1:AV1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E780" workbookViewId="0">
-      <selection activeCell="L781" sqref="L781"/>
+    <sheetView tabSelected="1" topLeftCell="A1065" workbookViewId="0">
+      <selection activeCell="I1079" sqref="I1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15507,6 +15616,234 @@
       </c>
       <c r="G1066" t="s">
         <v>643</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:10">
+      <c r="A1069" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:10">
+      <c r="A1070" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1070" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1070" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1070" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:10">
+      <c r="A1071" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>825</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1071" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1071" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:9">
+      <c r="A1073" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:9">
+      <c r="A1074" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1074" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1074" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:9">
+      <c r="A1075" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>826</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1075" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:9">
+      <c r="A1077" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:9">
+      <c r="A1078" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1078" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1078" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1078" t="s">
+        <v>245</v>
+      </c>
+      <c r="I1078" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9">
+      <c r="A1079" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>827</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1079" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1079" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1079" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:9">
+      <c r="A1082" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:9">
+      <c r="A1083" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1083" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1083" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1083" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:9">
+      <c r="A1084" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>828</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1084" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1084" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D52D8D-2E57-445D-8FC2-F191B3AFB6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C327555-507E-4064-9D2E-6024AEE82054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2849,9 +2849,6 @@
     <t>@Nancy Kemper</t>
   </si>
   <si>
-    <t>TA Community -</t>
-  </si>
-  <si>
     <t>connectproem@gmail.com</t>
   </si>
   <si>
@@ -2919,6 +2916,9 @@
   </si>
   <si>
     <t>Please check about community soon….</t>
+  </si>
+  <si>
+    <t>1 TA Community -</t>
   </si>
 </sst>
 </file>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B209" t="s">
         <v>2</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B210" t="s">
         <v>2</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B213" t="s">
         <v>2</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B214" t="s">
         <v>2</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B216" t="s">
         <v>2</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B223" t="s">
         <v>2</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B225" t="s">
         <v>2</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B226" t="s">
         <v>2</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B227" t="s">
         <v>2</v>
@@ -5442,8 +5442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1090"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1089" workbookViewId="0">
-      <selection activeCell="N1090" sqref="N1090"/>
+    <sheetView tabSelected="1" topLeftCell="A1089" workbookViewId="0">
+      <selection activeCell="C1092" sqref="C1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16134,7 +16134,7 @@
         <v>53</v>
       </c>
       <c r="M1089" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N1089" t="s">
         <v>55</v>
@@ -16157,10 +16157,10 @@
         <v>4</v>
       </c>
       <c r="D1090" t="s">
+        <v>858</v>
+      </c>
+      <c r="E1090" t="s">
         <v>835</v>
-      </c>
-      <c r="E1090" t="s">
-        <v>836</v>
       </c>
       <c r="F1090" t="s">
         <v>10</v>
@@ -16187,10 +16187,10 @@
         <v>61</v>
       </c>
       <c r="N1090" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O1090" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P1090" t="s">
         <v>71</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C327555-507E-4064-9D2E-6024AEE82054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FED88A-17E0-4B2D-AD7B-0C012707F683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2918,7 +2918,7 @@
     <t>Please check about community soon….</t>
   </si>
   <si>
-    <t>1 TA Community -</t>
+    <t>2 TA Community -</t>
   </si>
 </sst>
 </file>
@@ -5443,7 +5443,7 @@
   <dimension ref="A1:AV1090"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1089" workbookViewId="0">
-      <selection activeCell="C1092" sqref="C1092"/>
+      <selection activeCell="D1091" sqref="D1091"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FED88A-17E0-4B2D-AD7B-0C012707F683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1387098F-DAB6-4BCE-B920-D4038C8D3B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4330" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4378" uniqueCount="867">
   <si>
     <t>TestCases</t>
   </si>
@@ -2919,6 +2919,30 @@
   </si>
   <si>
     <t>2 TA Community -</t>
+  </si>
+  <si>
+    <t>updateCommunityName</t>
+  </si>
+  <si>
+    <t>Update - 2 TA Community -</t>
+  </si>
+  <si>
+    <t>Please check about community soon…. -  - - - - -  Updated</t>
+  </si>
+  <si>
+    <t>TC210_TA_Update_The_Community Details</t>
+  </si>
+  <si>
+    <t>websiteUrl</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PamTenSoftwareSolutions/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/pamteninc/</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
   </si>
 </sst>
 </file>
@@ -5440,10 +5464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AV1090"/>
+  <dimension ref="A1:AV1095"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1089" workbookViewId="0">
-      <selection activeCell="D1091" sqref="D1091"/>
+    <sheetView tabSelected="1" topLeftCell="I1083" workbookViewId="0">
+      <selection activeCell="R1095" sqref="R1095"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16096,7 +16120,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="1089" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>1</v>
       </c>
@@ -16146,7 +16170,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1090" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
         <v>2</v>
       </c>
@@ -16194,6 +16218,156 @@
       </c>
       <c r="P1090" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1094" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>859</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1094" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1094" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1094" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1094" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1094" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1094" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1094" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1094" t="s">
+        <v>836</v>
+      </c>
+      <c r="O1094" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1094" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1094" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1094" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1094" t="s">
+        <v>863</v>
+      </c>
+      <c r="T1094" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1094" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1094" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1094" t="s">
+        <v>213</v>
+      </c>
+      <c r="X1094" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1094" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1095" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>858</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>860</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>835</v>
+      </c>
+      <c r="G1095" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1095" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1095" t="s">
+        <v>552</v>
+      </c>
+      <c r="J1095" t="s">
+        <v>552</v>
+      </c>
+      <c r="K1095" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1095" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1095" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1095" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1095" t="s">
+        <v>861</v>
+      </c>
+      <c r="P1095" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q1095" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1095" t="s">
+        <v>865</v>
+      </c>
+      <c r="V1095" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1095" t="s">
+        <v>864</v>
+      </c>
+      <c r="X1095" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y1095" t="s">
+        <v>866</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1387098F-DAB6-4BCE-B920-D4038C8D3B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B27CD7F-C57B-4F1A-A8DD-2A0B609874E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4378" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4381" uniqueCount="869">
   <si>
     <t>TestCases</t>
   </si>
@@ -2943,6 +2943,12 @@
   </si>
   <si>
     <t>New Jersey</t>
+  </si>
+  <si>
+    <t>https://pamTen.com</t>
+  </si>
+  <si>
+    <t>Please check back for the community Updates</t>
   </si>
 </sst>
 </file>
@@ -5466,8 +5472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1095"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1083" workbookViewId="0">
-      <selection activeCell="R1095" sqref="R1095"/>
+    <sheetView tabSelected="1" topLeftCell="J1083" workbookViewId="0">
+      <selection activeCell="R1089" sqref="R1089"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16120,7 +16126,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="1089" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>1</v>
       </c>
@@ -16170,7 +16176,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1090" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
         <v>2</v>
       </c>
@@ -16220,12 +16226,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1093" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="1094" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
         <v>1</v>
       </c>
@@ -16301,8 +16307,11 @@
       <c r="Y1094" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="1095" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z1094" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
         <v>2</v>
       </c>
@@ -16354,6 +16363,9 @@
       <c r="Q1095" t="s">
         <v>65</v>
       </c>
+      <c r="S1095" t="s">
+        <v>867</v>
+      </c>
       <c r="U1095" t="s">
         <v>865</v>
       </c>
@@ -16368,6 +16380,9 @@
       </c>
       <c r="Y1095" t="s">
         <v>866</v>
+      </c>
+      <c r="Z1095" t="s">
+        <v>868</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B27CD7F-C57B-4F1A-A8DD-2A0B609874E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFD0EFE-DE81-4C47-A72D-D9732C39A4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4381" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4411" uniqueCount="872">
   <si>
     <t>TestCases</t>
   </si>
@@ -2949,6 +2949,15 @@
   </si>
   <si>
     <t>Please check back for the community Updates</t>
+  </si>
+  <si>
+    <t>addMemberEmail</t>
+  </si>
+  <si>
+    <t>TC206_Tenant_Admin_Add_Member_To_Community</t>
+  </si>
+  <si>
+    <t>makeAdminMemberEmail</t>
   </si>
 </sst>
 </file>
@@ -5470,10 +5479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AV1095"/>
+  <dimension ref="A1:AV1104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1083" workbookViewId="0">
-      <selection activeCell="R1089" sqref="R1089"/>
+    <sheetView tabSelected="1" topLeftCell="A1089" workbookViewId="0">
+      <selection activeCell="F1098" sqref="F1098"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16383,6 +16392,108 @@
       </c>
       <c r="Z1095" t="s">
         <v>868</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1099" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1099" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1100" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>858</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>835</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1103" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1103" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1104" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>858</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>835</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1104" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFD0EFE-DE81-4C47-A72D-D9732C39A4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF19A06-8FA6-4262-A268-11F68DA1416A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5482,7 +5482,7 @@
   <dimension ref="A1:AV1104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1089" workbookViewId="0">
-      <selection activeCell="F1098" sqref="F1098"/>
+      <selection activeCell="G1100" sqref="G1100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF19A06-8FA6-4262-A268-11F68DA1416A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F8C78F-9A82-41D1-AA28-626860857319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4411" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4413" uniqueCount="876">
   <si>
     <t>TestCases</t>
   </si>
@@ -2918,15 +2918,9 @@
     <t>Please check about community soon….</t>
   </si>
   <si>
-    <t>2 TA Community -</t>
-  </si>
-  <si>
     <t>updateCommunityName</t>
   </si>
   <si>
-    <t>Update - 2 TA Community -</t>
-  </si>
-  <si>
     <t>Please check about community soon…. -  - - - - -  Updated</t>
   </si>
   <si>
@@ -2958,6 +2952,24 @@
   </si>
   <si>
     <t>makeAdminMemberEmail</t>
+  </si>
+  <si>
+    <t>TA Community -</t>
+  </si>
+  <si>
+    <t>Update - TA Community -</t>
+  </si>
+  <si>
+    <t>TC207_Tenant_Admin_Make_Admin_Community</t>
+  </si>
+  <si>
+    <t>TC205_Tenant_Admin_Create_Community</t>
+  </si>
+  <si>
+    <t>pricingPlan</t>
+  </si>
+  <si>
+    <t>All Plans 1</t>
   </si>
 </sst>
 </file>
@@ -5481,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1089" workbookViewId="0">
-      <selection activeCell="G1100" sqref="G1100"/>
+    <sheetView tabSelected="1" topLeftCell="E1086" workbookViewId="0">
+      <selection activeCell="Q1091" sqref="Q1091"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16184,19 +16196,22 @@
       <c r="P1089" t="s">
         <v>57</v>
       </c>
+      <c r="Q1089" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="1090" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
         <v>2</v>
       </c>
       <c r="B1090" t="s">
-        <v>828</v>
+        <v>873</v>
       </c>
       <c r="C1090" t="s">
         <v>4</v>
       </c>
       <c r="D1090" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="E1090" t="s">
         <v>835</v>
@@ -16233,6 +16248,9 @@
       </c>
       <c r="P1090" t="s">
         <v>71</v>
+      </c>
+      <c r="Q1090" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="1093" spans="1:26" x14ac:dyDescent="0.25">
@@ -16254,7 +16272,7 @@
         <v>67</v>
       </c>
       <c r="E1094" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F1094" t="s">
         <v>260</v>
@@ -16296,7 +16314,7 @@
         <v>82</v>
       </c>
       <c r="S1094" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="T1094" t="s">
         <v>216</v>
@@ -16325,16 +16343,16 @@
         <v>2</v>
       </c>
       <c r="B1095" s="6" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C1095" t="s">
         <v>4</v>
       </c>
       <c r="D1095" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="E1095" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
       <c r="F1095" t="s">
         <v>835</v>
@@ -16364,7 +16382,7 @@
         <v>61</v>
       </c>
       <c r="O1095" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="P1095" t="s">
         <v>837</v>
@@ -16373,25 +16391,25 @@
         <v>65</v>
       </c>
       <c r="S1095" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="U1095" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="V1095" t="s">
         <v>26</v>
       </c>
       <c r="W1095" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="X1095" t="s">
         <v>219</v>
       </c>
       <c r="Y1095" t="s">
+        <v>864</v>
+      </c>
+      <c r="Z1095" t="s">
         <v>866</v>
-      </c>
-      <c r="Z1095" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="1098" spans="1:26" x14ac:dyDescent="0.25">
@@ -16419,7 +16437,7 @@
         <v>7</v>
       </c>
       <c r="G1099" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1100" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -16427,13 +16445,13 @@
         <v>2</v>
       </c>
       <c r="B1100" s="6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C1100" t="s">
         <v>4</v>
       </c>
       <c r="D1100" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="E1100" t="s">
         <v>835</v>
@@ -16470,7 +16488,7 @@
         <v>7</v>
       </c>
       <c r="G1103" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1104" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -16478,13 +16496,13 @@
         <v>2</v>
       </c>
       <c r="B1104" s="6" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C1104" t="s">
         <v>4</v>
       </c>
       <c r="D1104" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="E1104" t="s">
         <v>835</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F8C78F-9A82-41D1-AA28-626860857319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A029F49-EDE0-40F7-B453-2F8098300A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4413" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4505" uniqueCount="885">
   <si>
     <t>TestCases</t>
   </si>
@@ -2924,9 +2924,6 @@
     <t>Please check about community soon…. -  - - - - -  Updated</t>
   </si>
   <si>
-    <t>TC210_TA_Update_The_Community Details</t>
-  </si>
-  <si>
     <t>websiteUrl</t>
   </si>
   <si>
@@ -2970,6 +2967,36 @@
   </si>
   <si>
     <t>All Plans 1</t>
+  </si>
+  <si>
+    <t>TC208_TA_Not_Able_To_Remove_Admin_Role_When_Only_One_Admin_To_The_Community</t>
+  </si>
+  <si>
+    <t>TC209_Tenant_Admin_Remove_Admin_To_Community</t>
+  </si>
+  <si>
+    <t>removeAdminEMail</t>
+  </si>
+  <si>
+    <t>notAbleToRemoveEmail</t>
+  </si>
+  <si>
+    <t>TC211_Verify_TA_Created_Community_Is_Displaying_In_The_Global_Communities_Page</t>
+  </si>
+  <si>
+    <t>TC212_Verify_TA_Created_Community_Is_Not_Displayed_In_Pending_Communities</t>
+  </si>
+  <si>
+    <t>TC219_TA_Update_The_Community Details</t>
+  </si>
+  <si>
+    <t>TC210_Tenant_Admin_Remove_Member_From_Community</t>
+  </si>
+  <si>
+    <t>removeMemberEMail</t>
+  </si>
+  <si>
+    <t>TC214_Verify_Active_Pricing_Plans_Are_Displaying_In_The_Pricing_Plans_Dropdown_While_Creating_A_Community</t>
   </si>
 </sst>
 </file>
@@ -5491,10 +5518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AV1104"/>
+  <dimension ref="A1:AV1146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1086" workbookViewId="0">
-      <selection activeCell="Q1091" sqref="Q1091"/>
+    <sheetView tabSelected="1" topLeftCell="A1128" workbookViewId="0">
+      <selection activeCell="C1137" sqref="C1137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16147,7 +16174,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="1089" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>1</v>
       </c>
@@ -16197,21 +16224,21 @@
         <v>57</v>
       </c>
       <c r="Q1089" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:26" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
         <v>2</v>
       </c>
       <c r="B1090" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1090" t="s">
         <v>4</v>
       </c>
       <c r="D1090" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E1090" t="s">
         <v>835</v>
@@ -16250,174 +16277,15 @@
         <v>71</v>
       </c>
       <c r="Q1090" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1093" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1094" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1094" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1094" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1094" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1094" t="s">
-        <v>858</v>
-      </c>
-      <c r="F1094" t="s">
-        <v>260</v>
-      </c>
-      <c r="G1094" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1094" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1094" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1094" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1094" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1094" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1094" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1094" t="s">
-        <v>836</v>
-      </c>
-      <c r="O1094" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1094" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1094" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1094" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1094" t="s">
-        <v>861</v>
-      </c>
-      <c r="T1094" t="s">
-        <v>216</v>
-      </c>
-      <c r="U1094" t="s">
-        <v>215</v>
-      </c>
-      <c r="V1094" t="s">
-        <v>214</v>
-      </c>
-      <c r="W1094" t="s">
-        <v>213</v>
-      </c>
-      <c r="X1094" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1094" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1094" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1095" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1095" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="C1095" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1095" t="s">
-        <v>870</v>
-      </c>
-      <c r="E1095" t="s">
-        <v>871</v>
-      </c>
-      <c r="F1095" t="s">
-        <v>835</v>
-      </c>
-      <c r="G1095" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1095" t="s">
-        <v>552</v>
-      </c>
-      <c r="I1095" t="s">
-        <v>552</v>
-      </c>
-      <c r="J1095" t="s">
-        <v>552</v>
-      </c>
-      <c r="K1095" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1095" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1095" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1095" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1095" t="s">
-        <v>859</v>
-      </c>
-      <c r="P1095" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q1095" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1095" t="s">
-        <v>865</v>
-      </c>
-      <c r="U1095" t="s">
-        <v>863</v>
-      </c>
-      <c r="V1095" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1095" t="s">
-        <v>862</v>
-      </c>
-      <c r="X1095" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y1095" t="s">
-        <v>864</v>
-      </c>
-      <c r="Z1095" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:26" x14ac:dyDescent="0.25">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="1099" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
         <v>1</v>
       </c>
@@ -16437,21 +16305,21 @@
         <v>7</v>
       </c>
       <c r="G1099" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1100" s="6" t="s">
         <v>867</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1100" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1100" s="6" t="s">
-        <v>868</v>
       </c>
       <c r="C1100" t="s">
         <v>4</v>
       </c>
       <c r="D1100" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E1100" t="s">
         <v>835</v>
@@ -16463,12 +16331,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="1103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
         <v>1</v>
       </c>
@@ -16488,21 +16356,21 @@
         <v>7</v>
       </c>
       <c r="G1103" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
         <v>2</v>
       </c>
       <c r="B1104" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C1104" t="s">
         <v>4</v>
       </c>
       <c r="D1104" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E1104" t="s">
         <v>835</v>
@@ -16512,6 +16380,483 @@
       </c>
       <c r="G1104" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1108" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1108" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1109" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>869</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>835</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1114" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1114" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1115" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>869</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>835</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1115" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1121" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1121" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1122" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>869</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>835</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1122" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1125" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1126" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>869</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1131" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1132" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>869</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>835</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1135" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1139" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1140" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>869</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>835</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1145" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>858</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1145" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1145" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1145" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1145" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1145" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1145" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1145" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1145" t="s">
+        <v>836</v>
+      </c>
+      <c r="O1145" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1145" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1145" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1145" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1145" t="s">
+        <v>860</v>
+      </c>
+      <c r="T1145" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1145" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1145" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1145" t="s">
+        <v>213</v>
+      </c>
+      <c r="X1145" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1145" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1145" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1146" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>869</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>870</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>835</v>
+      </c>
+      <c r="G1146" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1146" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1146" t="s">
+        <v>552</v>
+      </c>
+      <c r="J1146" t="s">
+        <v>552</v>
+      </c>
+      <c r="K1146" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1146" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1146" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1146" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1146" t="s">
+        <v>859</v>
+      </c>
+      <c r="P1146" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q1146" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1146" t="s">
+        <v>864</v>
+      </c>
+      <c r="U1146" t="s">
+        <v>862</v>
+      </c>
+      <c r="V1146" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1146" t="s">
+        <v>861</v>
+      </c>
+      <c r="X1146" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y1146" t="s">
+        <v>863</v>
+      </c>
+      <c r="Z1146" t="s">
+        <v>865</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A029F49-EDE0-40F7-B453-2F8098300A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD315EF7-6C5F-4E7A-96D2-4FAAD91BE204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5520,8 +5520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1128" workbookViewId="0">
-      <selection activeCell="C1137" sqref="C1137"/>
+    <sheetView tabSelected="1" topLeftCell="A1138" workbookViewId="0">
+      <selection activeCell="C1143" sqref="C1143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16605,7 +16605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
         <v>2</v>
       </c>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD315EF7-6C5F-4E7A-96D2-4FAAD91BE204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49E411D-6CEB-445D-B8B0-F63C7EA26CD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4505" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4545" uniqueCount="893">
   <si>
     <t>TestCases</t>
   </si>
@@ -2997,6 +2997,30 @@
   </si>
   <si>
     <t>TC214_Verify_Active_Pricing_Plans_Are_Displaying_In_The_Pricing_Plans_Dropdown_While_Creating_A_Community</t>
+  </si>
+  <si>
+    <t>PlanName</t>
+  </si>
+  <si>
+    <t>1 Pricing Plan</t>
+  </si>
+  <si>
+    <t>PlanPrice</t>
+  </si>
+  <si>
+    <t>PlanDuration</t>
+  </si>
+  <si>
+    <t>NumberOfAdmins</t>
+  </si>
+  <si>
+    <t>NumberOfGroups</t>
+  </si>
+  <si>
+    <t>NumberOfMembers</t>
+  </si>
+  <si>
+    <t>2 TA Community -</t>
   </si>
 </sst>
 </file>
@@ -5518,10 +5542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AV1146"/>
+  <dimension ref="A1:AV1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1138" workbookViewId="0">
-      <selection activeCell="C1143" sqref="C1143"/>
+    <sheetView tabSelected="1" topLeftCell="A1144" workbookViewId="0">
+      <selection activeCell="C1155" sqref="C1155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16857,6 +16881,147 @@
       </c>
       <c r="Z1146" t="s">
         <v>865</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1152" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1152" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1152" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1152" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1152" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1152" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1152" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1152" t="s">
+        <v>836</v>
+      </c>
+      <c r="N1152" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1152" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1152" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1152" t="s">
+        <v>885</v>
+      </c>
+      <c r="R1152" t="s">
+        <v>887</v>
+      </c>
+      <c r="S1152" t="s">
+        <v>888</v>
+      </c>
+      <c r="T1152" t="s">
+        <v>889</v>
+      </c>
+      <c r="U1152" t="s">
+        <v>890</v>
+      </c>
+      <c r="V1152" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>872</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>892</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>835</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1153" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1153" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1153" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1153" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1153" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1153" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1153" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1153" t="s">
+        <v>857</v>
+      </c>
+      <c r="O1153" t="s">
+        <v>837</v>
+      </c>
+      <c r="P1153" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1153" t="s">
+        <v>886</v>
+      </c>
+      <c r="R1153">
+        <v>20</v>
+      </c>
+      <c r="S1153">
+        <v>10</v>
+      </c>
+      <c r="T1153">
+        <v>5</v>
+      </c>
+      <c r="U1153">
+        <v>10</v>
+      </c>
+      <c r="V1153">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49E411D-6CEB-445D-B8B0-F63C7EA26CD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E957A8B8-5729-4739-A454-D4D327F7CCCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4545" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="891">
   <si>
     <t>TestCases</t>
   </si>
@@ -2961,12 +2961,6 @@
   </si>
   <si>
     <t>TC205_Tenant_Admin_Create_Community</t>
-  </si>
-  <si>
-    <t>pricingPlan</t>
-  </si>
-  <si>
-    <t>All Plans 1</t>
   </si>
   <si>
     <t>TC208_TA_Not_Able_To_Remove_Admin_Role_When_Only_One_Admin_To_The_Community</t>
@@ -5544,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1144" workbookViewId="0">
-      <selection activeCell="C1155" sqref="C1155"/>
+    <sheetView tabSelected="1" topLeftCell="A1135" workbookViewId="0">
+      <selection activeCell="G1142" sqref="G1142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16198,7 +16192,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="1089" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>1</v>
       </c>
@@ -16248,10 +16242,25 @@
         <v>57</v>
       </c>
       <c r="Q1089" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:17" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+      <c r="R1089" t="s">
+        <v>885</v>
+      </c>
+      <c r="S1089" t="s">
+        <v>886</v>
+      </c>
+      <c r="T1089" t="s">
+        <v>887</v>
+      </c>
+      <c r="U1089" t="s">
+        <v>888</v>
+      </c>
+      <c r="V1089" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
         <v>2</v>
       </c>
@@ -16301,15 +16310,30 @@
         <v>71</v>
       </c>
       <c r="Q1090" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:17" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+      <c r="R1090">
+        <v>20</v>
+      </c>
+      <c r="S1090">
+        <v>10</v>
+      </c>
+      <c r="T1090">
+        <v>5</v>
+      </c>
+      <c r="U1090">
+        <v>10</v>
+      </c>
+      <c r="V1090">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="1099" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
         <v>1</v>
       </c>
@@ -16332,7 +16356,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="1100" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
         <v>2</v>
       </c>
@@ -16355,12 +16379,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="1103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
         <v>1</v>
       </c>
@@ -16383,7 +16407,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="1104" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
         <v>2</v>
       </c>
@@ -16431,7 +16455,7 @@
         <v>7</v>
       </c>
       <c r="G1108" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
@@ -16439,7 +16463,7 @@
         <v>2</v>
       </c>
       <c r="B1109" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C1109" t="s">
         <v>4</v>
@@ -16482,7 +16506,7 @@
         <v>7</v>
       </c>
       <c r="G1114" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16490,7 +16514,7 @@
         <v>2</v>
       </c>
       <c r="B1115" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C1115" t="s">
         <v>4</v>
@@ -16533,7 +16557,7 @@
         <v>7</v>
       </c>
       <c r="G1121" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1122" spans="1:7" x14ac:dyDescent="0.25">
@@ -16541,7 +16565,7 @@
         <v>2</v>
       </c>
       <c r="B1122" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C1122" t="s">
         <v>4</v>
@@ -16589,7 +16613,7 @@
         <v>2</v>
       </c>
       <c r="B1126" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C1126" t="s">
         <v>4</v>
@@ -16634,7 +16658,7 @@
         <v>2</v>
       </c>
       <c r="B1132" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C1132" t="s">
         <v>4</v>
@@ -16709,7 +16733,7 @@
         <v>2</v>
       </c>
       <c r="B1140" s="6" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C1140" t="s">
         <v>4</v>
@@ -16814,7 +16838,7 @@
         <v>2</v>
       </c>
       <c r="B1146" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C1146" t="s">
         <v>4</v>
@@ -16938,22 +16962,22 @@
         <v>57</v>
       </c>
       <c r="Q1152" t="s">
+        <v>883</v>
+      </c>
+      <c r="R1152" t="s">
         <v>885</v>
       </c>
-      <c r="R1152" t="s">
+      <c r="S1152" t="s">
+        <v>886</v>
+      </c>
+      <c r="T1152" t="s">
         <v>887</v>
       </c>
-      <c r="S1152" t="s">
+      <c r="U1152" t="s">
         <v>888</v>
       </c>
-      <c r="T1152" t="s">
+      <c r="V1152" t="s">
         <v>889</v>
-      </c>
-      <c r="U1152" t="s">
-        <v>890</v>
-      </c>
-      <c r="V1152" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="1153" spans="1:22" x14ac:dyDescent="0.25">
@@ -16967,7 +16991,7 @@
         <v>4</v>
       </c>
       <c r="D1153" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E1153" t="s">
         <v>835</v>
@@ -17006,7 +17030,7 @@
         <v>71</v>
       </c>
       <c r="Q1153" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="R1153">
         <v>20</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E957A8B8-5729-4739-A454-D4D327F7CCCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F8B1E8-8047-43DE-8CBF-8B450896A23C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="892">
   <si>
     <t>TestCases</t>
   </si>
@@ -3015,6 +3015,9 @@
   </si>
   <si>
     <t>2 TA Community -</t>
+  </si>
+  <si>
+    <t>2 Pricing Plan</t>
   </si>
 </sst>
 </file>
@@ -5538,8 +5541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1135" workbookViewId="0">
-      <selection activeCell="G1142" sqref="G1142"/>
+    <sheetView tabSelected="1" topLeftCell="H1087" workbookViewId="0">
+      <selection activeCell="S1090" sqref="S1090"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16310,19 +16313,19 @@
         <v>71</v>
       </c>
       <c r="Q1090" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="R1090">
         <v>20</v>
       </c>
       <c r="S1090">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T1090">
         <v>5</v>
       </c>
       <c r="U1090">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V1090">
         <v>99</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F8B1E8-8047-43DE-8CBF-8B450896A23C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545B0688-C28C-4524-8A37-FC25971C514D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="891">
   <si>
     <t>TestCases</t>
   </si>
@@ -2996,9 +2996,6 @@
     <t>PlanName</t>
   </si>
   <si>
-    <t>1 Pricing Plan</t>
-  </si>
-  <si>
     <t>PlanPrice</t>
   </si>
   <si>
@@ -3014,10 +3011,10 @@
     <t>NumberOfMembers</t>
   </si>
   <si>
-    <t>2 TA Community -</t>
-  </si>
-  <si>
     <t>2 Pricing Plan</t>
+  </si>
+  <si>
+    <t>31 days plan</t>
   </si>
 </sst>
 </file>
@@ -5541,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1087" workbookViewId="0">
-      <selection activeCell="S1090" sqref="S1090"/>
+    <sheetView tabSelected="1" topLeftCell="A1141" workbookViewId="0">
+      <selection activeCell="D1154" sqref="D1154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16248,19 +16245,19 @@
         <v>883</v>
       </c>
       <c r="R1089" t="s">
+        <v>884</v>
+      </c>
+      <c r="S1089" t="s">
         <v>885</v>
       </c>
-      <c r="S1089" t="s">
+      <c r="T1089" t="s">
         <v>886</v>
       </c>
-      <c r="T1089" t="s">
+      <c r="U1089" t="s">
         <v>887</v>
       </c>
-      <c r="U1089" t="s">
+      <c r="V1089" t="s">
         <v>888</v>
-      </c>
-      <c r="V1089" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="1090" spans="1:22" x14ac:dyDescent="0.25">
@@ -16313,21 +16310,21 @@
         <v>71</v>
       </c>
       <c r="Q1090" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="R1090">
         <v>20</v>
       </c>
-      <c r="S1090">
-        <v>1</v>
-      </c>
-      <c r="T1090">
+      <c r="S1090" s="3">
+        <v>1</v>
+      </c>
+      <c r="T1090" s="3">
         <v>5</v>
       </c>
-      <c r="U1090">
-        <v>1</v>
-      </c>
-      <c r="V1090">
+      <c r="U1090" s="3">
+        <v>1</v>
+      </c>
+      <c r="V1090" s="3">
         <v>99</v>
       </c>
     </row>
@@ -16461,7 +16458,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
         <v>2</v>
       </c>
@@ -16563,7 +16560,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="1122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
         <v>2</v>
       </c>
@@ -16968,19 +16965,19 @@
         <v>883</v>
       </c>
       <c r="R1152" t="s">
+        <v>884</v>
+      </c>
+      <c r="S1152" t="s">
         <v>885</v>
       </c>
-      <c r="S1152" t="s">
+      <c r="T1152" t="s">
         <v>886</v>
       </c>
-      <c r="T1152" t="s">
+      <c r="U1152" t="s">
         <v>887</v>
       </c>
-      <c r="U1152" t="s">
+      <c r="V1152" t="s">
         <v>888</v>
-      </c>
-      <c r="V1152" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="1153" spans="1:22" x14ac:dyDescent="0.25">
@@ -17033,21 +17030,21 @@
         <v>71</v>
       </c>
       <c r="Q1153" t="s">
-        <v>884</v>
-      </c>
-      <c r="R1153">
+        <v>889</v>
+      </c>
+      <c r="R1153" s="3">
         <v>20</v>
       </c>
-      <c r="S1153">
+      <c r="S1153" s="3">
         <v>10</v>
       </c>
-      <c r="T1153">
+      <c r="T1153" s="3">
         <v>5</v>
       </c>
-      <c r="U1153">
+      <c r="U1153" s="3">
         <v>10</v>
       </c>
-      <c r="V1153">
+      <c r="V1153" s="3">
         <v>99</v>
       </c>
     </row>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545B0688-C28C-4524-8A37-FC25971C514D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC35874-96E9-4F14-850A-14B78D27B1F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="1350" windowWidth="16770" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,17 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4552" uniqueCount="891">
   <si>
     <t>TestCases</t>
   </si>
@@ -3014,7 +3006,7 @@
     <t>2 Pricing Plan</t>
   </si>
   <si>
-    <t>31 days plan</t>
+    <t>communityAdminEmail</t>
   </si>
 </sst>
 </file>
@@ -5538,8 +5530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1141" workbookViewId="0">
-      <selection activeCell="D1154" sqref="D1154"/>
+    <sheetView tabSelected="1" topLeftCell="M1146" workbookViewId="0">
+      <selection activeCell="Q1154" sqref="Q1154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16979,8 +16971,11 @@
       <c r="V1152" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="1153" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1152" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
         <v>2</v>
       </c>
@@ -16991,7 +16986,7 @@
         <v>4</v>
       </c>
       <c r="D1153" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="E1153" t="s">
         <v>835</v>
@@ -17046,6 +17041,9 @@
       </c>
       <c r="V1153" s="3">
         <v>99</v>
+      </c>
+      <c r="W1153" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC35874-96E9-4F14-850A-14B78D27B1F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919F819D-27CC-455D-960C-BCC9442F05C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="1350" windowWidth="16770" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,25 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4552" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4579" uniqueCount="892">
   <si>
     <t>TestCases</t>
   </si>
@@ -3007,6 +3015,9 @@
   </si>
   <si>
     <t>communityAdminEmail</t>
+  </si>
+  <si>
+    <t>TC220_Verify_TA_Updated_Community_Is_Displayed_In_Community_Details_Page</t>
   </si>
 </sst>
 </file>
@@ -5528,10 +5539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AV1153"/>
+  <dimension ref="A1:AV1159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1146" workbookViewId="0">
-      <selection activeCell="Q1154" sqref="Q1154"/>
+    <sheetView tabSelected="1" topLeftCell="A1139" workbookViewId="0">
+      <selection activeCell="H1144" sqref="H1144:I1145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16740,309 +16751,396 @@
         <v>10</v>
       </c>
     </row>
+    <row r="1143" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>851</v>
+      </c>
+    </row>
     <row r="1144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>850</v>
+        <v>1</v>
+      </c>
+      <c r="B1144" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1144" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1144" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1144" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1144" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1144" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1144" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1144" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="1145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1145" s="6" t="s">
-        <v>263</v>
+        <v>891</v>
       </c>
       <c r="C1145" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1145" t="s">
-        <v>67</v>
+        <v>869</v>
       </c>
       <c r="E1145" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="F1145" t="s">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="G1145" t="s">
-        <v>7</v>
+        <v>859</v>
       </c>
       <c r="H1145" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="I1145" t="s">
-        <v>49</v>
+        <v>863</v>
       </c>
       <c r="J1145" t="s">
-        <v>50</v>
+        <v>861</v>
       </c>
       <c r="K1145" t="s">
-        <v>51</v>
+        <v>862</v>
       </c>
       <c r="L1145" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="M1145" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1145" t="s">
-        <v>836</v>
-      </c>
-      <c r="O1145" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1145" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1145" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1145" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1145" t="s">
-        <v>860</v>
-      </c>
-      <c r="T1145" t="s">
-        <v>216</v>
-      </c>
-      <c r="U1145" t="s">
-        <v>215</v>
-      </c>
-      <c r="V1145" t="s">
-        <v>214</v>
-      </c>
-      <c r="W1145" t="s">
-        <v>213</v>
-      </c>
-      <c r="X1145" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1145" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1145" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1146" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1146" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="C1146" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1146" t="s">
-        <v>869</v>
-      </c>
-      <c r="E1146" t="s">
-        <v>870</v>
-      </c>
-      <c r="F1146" t="s">
-        <v>835</v>
-      </c>
-      <c r="G1146" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1146" t="s">
-        <v>552</v>
-      </c>
-      <c r="I1146" t="s">
-        <v>552</v>
-      </c>
-      <c r="J1146" t="s">
-        <v>552</v>
-      </c>
-      <c r="K1146" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1146" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1146" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1146" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1146" t="s">
-        <v>859</v>
-      </c>
-      <c r="P1146" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q1146" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1146" t="s">
-        <v>864</v>
-      </c>
-      <c r="U1146" t="s">
-        <v>862</v>
-      </c>
-      <c r="V1146" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1146" t="s">
-        <v>861</v>
-      </c>
-      <c r="X1146" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y1146" t="s">
-        <v>863</v>
-      </c>
-      <c r="Z1146" t="s">
-        <v>865</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="1151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1151" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>858</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1151" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1151" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1151" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1151" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1151" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1151" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1151" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1151" t="s">
+        <v>836</v>
+      </c>
+      <c r="O1151" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1151" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1151" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1151" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1151" t="s">
+        <v>860</v>
+      </c>
+      <c r="T1151" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1151" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1151" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1151" t="s">
+        <v>213</v>
+      </c>
+      <c r="X1151" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1151" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1151" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1152" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>869</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>870</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>835</v>
+      </c>
+      <c r="G1152" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1152" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1152" t="s">
+        <v>552</v>
+      </c>
+      <c r="J1152" t="s">
+        <v>552</v>
+      </c>
+      <c r="K1152" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1152" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1152" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1152" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1152" t="s">
+        <v>859</v>
+      </c>
+      <c r="P1152" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q1152" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1152" t="s">
+        <v>864</v>
+      </c>
+      <c r="U1152" t="s">
+        <v>862</v>
+      </c>
+      <c r="V1152" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1152" t="s">
+        <v>861</v>
+      </c>
+      <c r="X1152" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y1152" t="s">
+        <v>863</v>
+      </c>
+      <c r="Z1152" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="1152" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1152" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1152" s="6" t="s">
+    <row r="1158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1158" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C1152" t="s">
+      <c r="C1158" t="s">
         <v>3</v>
       </c>
-      <c r="D1152" t="s">
+      <c r="D1158" t="s">
         <v>67</v>
       </c>
-      <c r="E1152" t="s">
+      <c r="E1158" t="s">
         <v>260</v>
       </c>
-      <c r="F1152" t="s">
+      <c r="F1158" t="s">
         <v>7</v>
       </c>
-      <c r="G1152" t="s">
+      <c r="G1158" t="s">
         <v>48</v>
       </c>
-      <c r="H1152" t="s">
+      <c r="H1158" t="s">
         <v>49</v>
       </c>
-      <c r="I1152" t="s">
+      <c r="I1158" t="s">
         <v>50</v>
       </c>
-      <c r="J1152" t="s">
+      <c r="J1158" t="s">
         <v>51</v>
       </c>
-      <c r="K1152" t="s">
+      <c r="K1158" t="s">
         <v>52</v>
       </c>
-      <c r="L1152" t="s">
+      <c r="L1158" t="s">
         <v>53</v>
       </c>
-      <c r="M1152" t="s">
+      <c r="M1158" t="s">
         <v>836</v>
       </c>
-      <c r="N1152" t="s">
+      <c r="N1158" t="s">
         <v>55</v>
       </c>
-      <c r="O1152" t="s">
+      <c r="O1158" t="s">
         <v>56</v>
       </c>
-      <c r="P1152" t="s">
+      <c r="P1158" t="s">
         <v>57</v>
       </c>
-      <c r="Q1152" t="s">
+      <c r="Q1158" t="s">
         <v>883</v>
       </c>
-      <c r="R1152" t="s">
+      <c r="R1158" t="s">
         <v>884</v>
       </c>
-      <c r="S1152" t="s">
+      <c r="S1158" t="s">
         <v>885</v>
       </c>
-      <c r="T1152" t="s">
+      <c r="T1158" t="s">
         <v>886</v>
       </c>
-      <c r="U1152" t="s">
+      <c r="U1158" t="s">
         <v>887</v>
       </c>
-      <c r="V1152" t="s">
+      <c r="V1158" t="s">
         <v>888</v>
       </c>
-      <c r="W1152" t="s">
+      <c r="W1158" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="1153" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1153" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1153" t="s">
+    <row r="1159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1159" t="s">
         <v>872</v>
       </c>
-      <c r="C1153" t="s">
+      <c r="C1159" t="s">
         <v>4</v>
       </c>
-      <c r="D1153" t="s">
+      <c r="D1159" t="s">
         <v>869</v>
       </c>
-      <c r="E1153" t="s">
+      <c r="E1159" t="s">
         <v>835</v>
       </c>
-      <c r="F1153" t="s">
+      <c r="F1159" t="s">
         <v>10</v>
       </c>
-      <c r="G1153" t="s">
+      <c r="G1159" t="s">
         <v>48</v>
       </c>
-      <c r="H1153" t="s">
+      <c r="H1159" t="s">
         <v>49</v>
       </c>
-      <c r="I1153" t="s">
+      <c r="I1159" t="s">
         <v>58</v>
       </c>
-      <c r="J1153" t="s">
+      <c r="J1159" t="s">
         <v>51</v>
       </c>
-      <c r="K1153" t="s">
+      <c r="K1159" t="s">
         <v>59</v>
       </c>
-      <c r="L1153" t="s">
+      <c r="L1159" t="s">
         <v>60</v>
       </c>
-      <c r="M1153" t="s">
+      <c r="M1159" t="s">
         <v>61</v>
       </c>
-      <c r="N1153" t="s">
+      <c r="N1159" t="s">
         <v>857</v>
       </c>
-      <c r="O1153" t="s">
+      <c r="O1159" t="s">
         <v>837</v>
       </c>
-      <c r="P1153" t="s">
+      <c r="P1159" t="s">
         <v>71</v>
       </c>
-      <c r="Q1153" t="s">
+      <c r="Q1159" t="s">
         <v>889</v>
       </c>
-      <c r="R1153" s="3">
+      <c r="R1159" s="3">
         <v>20</v>
       </c>
-      <c r="S1153" s="3">
+      <c r="S1159" s="3">
         <v>10</v>
       </c>
-      <c r="T1153" s="3">
+      <c r="T1159" s="3">
         <v>5</v>
       </c>
-      <c r="U1153" s="3">
+      <c r="U1159" s="3">
         <v>10</v>
       </c>
-      <c r="V1153" s="3">
+      <c r="V1159" s="3">
         <v>99</v>
       </c>
-      <c r="W1153" t="s">
+      <c r="W1159" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919F819D-27CC-455D-960C-BCC9442F05C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C5D46B-7CB3-47B9-BD65-A87A024FA941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5542,7 +5542,7 @@
   <dimension ref="A1:AV1159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1139" workbookViewId="0">
-      <selection activeCell="H1144" sqref="H1144:I1145"/>
+      <selection activeCell="E1145" sqref="E1145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16797,7 +16797,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
         <v>2</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>869</v>
       </c>
       <c r="E1145" t="s">
-        <v>835</v>
+        <v>16</v>
       </c>
       <c r="F1145" t="s">
         <v>10</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C5D46B-7CB3-47B9-BD65-A87A024FA941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F658BA46-7E40-47C2-BA04-32FF3A02AD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4579" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4626" uniqueCount="894">
   <si>
     <t>TestCases</t>
   </si>
@@ -2981,9 +2981,6 @@
     <t>TC212_Verify_TA_Created_Community_Is_Not_Displayed_In_Pending_Communities</t>
   </si>
   <si>
-    <t>TC219_TA_Update_The_Community Details</t>
-  </si>
-  <si>
     <t>TC210_Tenant_Admin_Remove_Member_From_Community</t>
   </si>
   <si>
@@ -3017,7 +3014,16 @@
     <t>communityAdminEmail</t>
   </si>
   <si>
-    <t>TC220_Verify_TA_Updated_Community_Is_Displayed_In_Community_Details_Page</t>
+    <t>TC213_Verify_The_Community_Feature_As_Per_Pricing_Plan</t>
+  </si>
+  <si>
+    <t>TC215_TA_Update_The_Community Details</t>
+  </si>
+  <si>
+    <t>TC216_Verify_TA_Updated_Community_Is_Displayed_In_Community_Details_Page</t>
+  </si>
+  <si>
+    <t>TC217_TA_InActivate_The_Community</t>
   </si>
 </sst>
 </file>
@@ -5539,10 +5545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AV1159"/>
+  <dimension ref="A1:AV1163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1139" workbookViewId="0">
-      <selection activeCell="E1145" sqref="E1145"/>
+    <sheetView tabSelected="1" topLeftCell="A1148" workbookViewId="0">
+      <selection activeCell="B1157" sqref="B1157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16245,22 +16251,22 @@
         <v>57</v>
       </c>
       <c r="Q1089" t="s">
+        <v>882</v>
+      </c>
+      <c r="R1089" t="s">
         <v>883</v>
       </c>
-      <c r="R1089" t="s">
+      <c r="S1089" t="s">
         <v>884</v>
       </c>
-      <c r="S1089" t="s">
+      <c r="T1089" t="s">
         <v>885</v>
       </c>
-      <c r="T1089" t="s">
+      <c r="U1089" t="s">
         <v>886</v>
       </c>
-      <c r="U1089" t="s">
+      <c r="V1089" t="s">
         <v>887</v>
-      </c>
-      <c r="V1089" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="1090" spans="1:22" x14ac:dyDescent="0.25">
@@ -16313,7 +16319,7 @@
         <v>71</v>
       </c>
       <c r="Q1090" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R1090">
         <v>20</v>
@@ -16540,7 +16546,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="1121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
         <v>1</v>
       </c>
@@ -16560,15 +16566,15 @@
         <v>7</v>
       </c>
       <c r="G1121" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
         <v>2</v>
       </c>
       <c r="B1122" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C1122" t="s">
         <v>4</v>
@@ -16586,12 +16592,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="1124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="1125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
         <v>1</v>
       </c>
@@ -16611,7 +16617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
         <v>2</v>
       </c>
@@ -16631,12 +16637,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="1131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
         <v>1</v>
       </c>
@@ -16656,7 +16662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
         <v>2</v>
       </c>
@@ -16676,12 +16682,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
         <v>1</v>
       </c>
@@ -16700,10 +16706,127 @@
       <c r="F1135" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1135" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1135" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1135" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1135" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1135" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1135" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1135" t="s">
+        <v>836</v>
+      </c>
+      <c r="N1135" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1135" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1135" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1135" t="s">
+        <v>882</v>
+      </c>
+      <c r="R1135" t="s">
+        <v>883</v>
+      </c>
+      <c r="S1135" t="s">
+        <v>884</v>
+      </c>
+      <c r="T1135" t="s">
+        <v>885</v>
+      </c>
+      <c r="U1135" t="s">
+        <v>886</v>
+      </c>
+      <c r="V1135" t="s">
+        <v>887</v>
+      </c>
+      <c r="W1135" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
         <v>2</v>
+      </c>
+      <c r="B1136" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>869</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>835</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1136" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1136" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1136" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1136" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1136" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1136" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1136" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1136" t="s">
+        <v>857</v>
+      </c>
+      <c r="O1136" t="s">
+        <v>837</v>
+      </c>
+      <c r="P1136" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1136" t="s">
+        <v>888</v>
+      </c>
+      <c r="R1136" s="3">
+        <v>20</v>
+      </c>
+      <c r="S1136" s="3">
+        <v>10</v>
+      </c>
+      <c r="T1136" s="3">
+        <v>5</v>
+      </c>
+      <c r="U1136" s="3">
+        <v>10</v>
+      </c>
+      <c r="V1136" s="3">
+        <v>99</v>
+      </c>
+      <c r="W1136" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="1138" spans="1:26" x14ac:dyDescent="0.25">
@@ -16736,7 +16859,7 @@
         <v>2</v>
       </c>
       <c r="B1140" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C1140" t="s">
         <v>4</v>
@@ -16753,7 +16876,7 @@
     </row>
     <row r="1143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1144" spans="1:26" x14ac:dyDescent="0.25">
@@ -16802,13 +16925,13 @@
         <v>2</v>
       </c>
       <c r="B1145" s="6" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C1145" t="s">
         <v>4</v>
       </c>
       <c r="D1145" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E1145" t="s">
         <v>16</v>
@@ -16840,7 +16963,7 @@
     </row>
     <row r="1150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1151" spans="1:26" x14ac:dyDescent="0.25">
@@ -16928,7 +17051,7 @@
         <v>2</v>
       </c>
       <c r="B1152" s="6" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="C1152" t="s">
         <v>4</v>
@@ -16997,150 +17120,195 @@
         <v>865</v>
       </c>
     </row>
+    <row r="1155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1156" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="1157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1157" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>870</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>835</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="1158" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1158" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1158" s="6" t="s">
+    <row r="1162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1162" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C1158" t="s">
+      <c r="C1162" t="s">
         <v>3</v>
       </c>
-      <c r="D1158" t="s">
+      <c r="D1162" t="s">
         <v>67</v>
       </c>
-      <c r="E1158" t="s">
+      <c r="E1162" t="s">
         <v>260</v>
       </c>
-      <c r="F1158" t="s">
+      <c r="F1162" t="s">
         <v>7</v>
       </c>
-      <c r="G1158" t="s">
+      <c r="G1162" t="s">
         <v>48</v>
       </c>
-      <c r="H1158" t="s">
+      <c r="H1162" t="s">
         <v>49</v>
       </c>
-      <c r="I1158" t="s">
+      <c r="I1162" t="s">
         <v>50</v>
       </c>
-      <c r="J1158" t="s">
+      <c r="J1162" t="s">
         <v>51</v>
       </c>
-      <c r="K1158" t="s">
+      <c r="K1162" t="s">
         <v>52</v>
       </c>
-      <c r="L1158" t="s">
+      <c r="L1162" t="s">
         <v>53</v>
       </c>
-      <c r="M1158" t="s">
+      <c r="M1162" t="s">
         <v>836</v>
       </c>
-      <c r="N1158" t="s">
+      <c r="N1162" t="s">
         <v>55</v>
       </c>
-      <c r="O1158" t="s">
+      <c r="O1162" t="s">
         <v>56</v>
       </c>
-      <c r="P1158" t="s">
+      <c r="P1162" t="s">
         <v>57</v>
       </c>
-      <c r="Q1158" t="s">
+      <c r="Q1162" t="s">
+        <v>882</v>
+      </c>
+      <c r="R1162" t="s">
         <v>883</v>
       </c>
-      <c r="R1158" t="s">
+      <c r="S1162" t="s">
         <v>884</v>
       </c>
-      <c r="S1158" t="s">
+      <c r="T1162" t="s">
         <v>885</v>
       </c>
-      <c r="T1158" t="s">
+      <c r="U1162" t="s">
         <v>886</v>
       </c>
-      <c r="U1158" t="s">
+      <c r="V1162" t="s">
         <v>887</v>
       </c>
-      <c r="V1158" t="s">
+      <c r="W1162" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>872</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>869</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>835</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1163" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1163" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1163" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1163" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1163" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1163" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1163" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1163" t="s">
+        <v>857</v>
+      </c>
+      <c r="O1163" t="s">
+        <v>837</v>
+      </c>
+      <c r="P1163" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1163" t="s">
         <v>888</v>
       </c>
-      <c r="W1158" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1159" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>872</v>
-      </c>
-      <c r="C1159" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1159" t="s">
-        <v>869</v>
-      </c>
-      <c r="E1159" t="s">
-        <v>835</v>
-      </c>
-      <c r="F1159" t="s">
+      <c r="R1163" s="3">
+        <v>20</v>
+      </c>
+      <c r="S1163" s="3">
         <v>10</v>
       </c>
-      <c r="G1159" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1159" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1159" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1159" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1159" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1159" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1159" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1159" t="s">
-        <v>857</v>
-      </c>
-      <c r="O1159" t="s">
-        <v>837</v>
-      </c>
-      <c r="P1159" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1159" t="s">
-        <v>889</v>
-      </c>
-      <c r="R1159" s="3">
-        <v>20</v>
-      </c>
-      <c r="S1159" s="3">
+      <c r="T1163" s="3">
+        <v>5</v>
+      </c>
+      <c r="U1163" s="3">
         <v>10</v>
       </c>
-      <c r="T1159" s="3">
-        <v>5</v>
-      </c>
-      <c r="U1159" s="3">
-        <v>10</v>
-      </c>
-      <c r="V1159" s="3">
+      <c r="V1163" s="3">
         <v>99</v>
       </c>
-      <c r="W1159" t="s">
+      <c r="W1163" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F658BA46-7E40-47C2-BA04-32FF3A02AD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043F22B4-5412-4EC1-A0B7-3B38C6AA866F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4626" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="895">
   <si>
     <t>TestCases</t>
   </si>
@@ -3024,6 +3024,9 @@
   </si>
   <si>
     <t>TC217_TA_InActivate_The_Community</t>
+  </si>
+  <si>
+    <t>TC218_Verify_TA_InActivated_Community_Is_Not_Displaying_In_The_Global_Communities_Page</t>
   </si>
 </sst>
 </file>
@@ -5545,10 +5548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AV1163"/>
+  <dimension ref="A1:AV1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1148" workbookViewId="0">
-      <selection activeCell="B1157" sqref="B1157"/>
+    <sheetView tabSelected="1" topLeftCell="A1151" workbookViewId="0">
+      <selection activeCell="E1161" sqref="E1161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17165,150 +17168,195 @@
         <v>10</v>
       </c>
     </row>
+    <row r="1159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1160" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="1161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1161" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>870</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="1162" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1162" s="6" t="s">
+    <row r="1166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1166" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C1162" t="s">
+      <c r="C1166" t="s">
         <v>3</v>
       </c>
-      <c r="D1162" t="s">
+      <c r="D1166" t="s">
         <v>67</v>
       </c>
-      <c r="E1162" t="s">
+      <c r="E1166" t="s">
         <v>260</v>
       </c>
-      <c r="F1162" t="s">
+      <c r="F1166" t="s">
         <v>7</v>
       </c>
-      <c r="G1162" t="s">
+      <c r="G1166" t="s">
         <v>48</v>
       </c>
-      <c r="H1162" t="s">
+      <c r="H1166" t="s">
         <v>49</v>
       </c>
-      <c r="I1162" t="s">
+      <c r="I1166" t="s">
         <v>50</v>
       </c>
-      <c r="J1162" t="s">
+      <c r="J1166" t="s">
         <v>51</v>
       </c>
-      <c r="K1162" t="s">
+      <c r="K1166" t="s">
         <v>52</v>
       </c>
-      <c r="L1162" t="s">
+      <c r="L1166" t="s">
         <v>53</v>
       </c>
-      <c r="M1162" t="s">
+      <c r="M1166" t="s">
         <v>836</v>
       </c>
-      <c r="N1162" t="s">
+      <c r="N1166" t="s">
         <v>55</v>
       </c>
-      <c r="O1162" t="s">
+      <c r="O1166" t="s">
         <v>56</v>
       </c>
-      <c r="P1162" t="s">
+      <c r="P1166" t="s">
         <v>57</v>
       </c>
-      <c r="Q1162" t="s">
+      <c r="Q1166" t="s">
         <v>882</v>
       </c>
-      <c r="R1162" t="s">
+      <c r="R1166" t="s">
         <v>883</v>
       </c>
-      <c r="S1162" t="s">
+      <c r="S1166" t="s">
         <v>884</v>
       </c>
-      <c r="T1162" t="s">
+      <c r="T1166" t="s">
         <v>885</v>
       </c>
-      <c r="U1162" t="s">
+      <c r="U1166" t="s">
         <v>886</v>
       </c>
-      <c r="V1162" t="s">
+      <c r="V1166" t="s">
         <v>887</v>
       </c>
-      <c r="W1162" t="s">
+      <c r="W1166" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="1163" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1163" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1163" t="s">
+    <row r="1167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1167" t="s">
         <v>872</v>
       </c>
-      <c r="C1163" t="s">
+      <c r="C1167" t="s">
         <v>4</v>
       </c>
-      <c r="D1163" t="s">
+      <c r="D1167" t="s">
         <v>869</v>
       </c>
-      <c r="E1163" t="s">
+      <c r="E1167" t="s">
         <v>835</v>
       </c>
-      <c r="F1163" t="s">
+      <c r="F1167" t="s">
         <v>10</v>
       </c>
-      <c r="G1163" t="s">
+      <c r="G1167" t="s">
         <v>48</v>
       </c>
-      <c r="H1163" t="s">
+      <c r="H1167" t="s">
         <v>49</v>
       </c>
-      <c r="I1163" t="s">
+      <c r="I1167" t="s">
         <v>58</v>
       </c>
-      <c r="J1163" t="s">
+      <c r="J1167" t="s">
         <v>51</v>
       </c>
-      <c r="K1163" t="s">
+      <c r="K1167" t="s">
         <v>59</v>
       </c>
-      <c r="L1163" t="s">
+      <c r="L1167" t="s">
         <v>60</v>
       </c>
-      <c r="M1163" t="s">
+      <c r="M1167" t="s">
         <v>61</v>
       </c>
-      <c r="N1163" t="s">
+      <c r="N1167" t="s">
         <v>857</v>
       </c>
-      <c r="O1163" t="s">
+      <c r="O1167" t="s">
         <v>837</v>
       </c>
-      <c r="P1163" t="s">
+      <c r="P1167" t="s">
         <v>71</v>
       </c>
-      <c r="Q1163" t="s">
+      <c r="Q1167" t="s">
         <v>888</v>
       </c>
-      <c r="R1163" s="3">
+      <c r="R1167" s="3">
         <v>20</v>
       </c>
-      <c r="S1163" s="3">
+      <c r="S1167" s="3">
         <v>10</v>
       </c>
-      <c r="T1163" s="3">
+      <c r="T1167" s="3">
         <v>5</v>
       </c>
-      <c r="U1163" s="3">
+      <c r="U1167" s="3">
         <v>10</v>
       </c>
-      <c r="V1163" s="3">
+      <c r="V1167" s="3">
         <v>99</v>
       </c>
-      <c r="W1163" t="s">
+      <c r="W1167" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043F22B4-5412-4EC1-A0B7-3B38C6AA866F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE669DB0-013C-4701-86FF-6AD07FC95A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3008,9 +3008,6 @@
     <t>NumberOfMembers</t>
   </si>
   <si>
-    <t>2 Pricing Plan</t>
-  </si>
-  <si>
     <t>communityAdminEmail</t>
   </si>
   <si>
@@ -3027,6 +3024,9 @@
   </si>
   <si>
     <t>TC218_Verify_TA_InActivated_Community_Is_Not_Displaying_In_The_Global_Communities_Page</t>
+  </si>
+  <si>
+    <t>1 Pricing Plan</t>
   </si>
 </sst>
 </file>
@@ -5550,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1151" workbookViewId="0">
-      <selection activeCell="E1161" sqref="E1161"/>
+    <sheetView tabSelected="1" topLeftCell="A1136" workbookViewId="0">
+      <selection activeCell="E1140" sqref="E1140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16322,7 +16322,7 @@
         <v>71</v>
       </c>
       <c r="Q1090" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="R1090">
         <v>20</v>
@@ -16758,7 +16758,7 @@
         <v>887</v>
       </c>
       <c r="W1135" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1136" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -16766,7 +16766,7 @@
         <v>2</v>
       </c>
       <c r="B1136" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C1136" t="s">
         <v>4</v>
@@ -16811,7 +16811,7 @@
         <v>71</v>
       </c>
       <c r="Q1136" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="R1136" s="3">
         <v>20</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B1145" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C1145" t="s">
         <v>4</v>
@@ -17054,7 +17054,7 @@
         <v>2</v>
       </c>
       <c r="B1152" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C1152" t="s">
         <v>4</v>
@@ -17153,7 +17153,7 @@
         <v>2</v>
       </c>
       <c r="B1157" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C1157" t="s">
         <v>4</v>
@@ -17198,7 +17198,7 @@
         <v>2</v>
       </c>
       <c r="B1161" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C1161" t="s">
         <v>4</v>
@@ -17286,7 +17286,7 @@
         <v>887</v>
       </c>
       <c r="W1166" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1167" spans="1:23" x14ac:dyDescent="0.25">
@@ -17339,7 +17339,7 @@
         <v>71</v>
       </c>
       <c r="Q1167" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="R1167" s="3">
         <v>20</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE669DB0-013C-4701-86FF-6AD07FC95A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A111ECD5-E2C6-4960-9B0E-A4CCE7DB8F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="1860" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$A$63</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4602" uniqueCount="895">
   <si>
     <t>TestCases</t>
   </si>
@@ -3033,7 +3036,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3135,6 +3138,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3190,7 +3200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3239,6 +3249,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5550,7 +5561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1136" workbookViewId="0">
+    <sheetView topLeftCell="A1136" workbookViewId="0">
       <selection activeCell="E1140" sqref="E1140"/>
     </sheetView>
   </sheetViews>
@@ -17148,7 +17159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
         <v>2</v>
       </c>
@@ -17193,7 +17204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
         <v>2</v>
       </c>
@@ -19861,10 +19872,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19873,343 +19884,276 @@
     <col min="7" max="7" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="H9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>207</v>
       </c>
-      <c r="H11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="H12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>320</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>366</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="H16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>295</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>368</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>369</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>296</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>294</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>385</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
       <c r="G28" s="21" t="s">
         <v>788</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
       <c r="G29" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="H29" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
       <c r="G30" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="H30" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
       <c r="G31" s="22" t="s">
         <v>791</v>
       </c>
-      <c r="H31" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
       <c r="G32" s="23" t="s">
         <v>792</v>
       </c>
-      <c r="H32" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="33" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
       <c r="G33" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="H33" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="34" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
       <c r="G34" s="23" t="s">
         <v>794</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G35" s="22" t="s">
         <v>795</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="36" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G36" s="23" t="s">
         <v>796</v>
       </c>
-      <c r="H36" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="37" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
       <c r="G37" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="38" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
       <c r="G38" s="22" t="s">
         <v>798</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="39" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G39" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="40" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G40" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="41" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
       <c r="G41" s="22" t="s">
         <v>801</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="42" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
       <c r="G42" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
       <c r="G43" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
       <c r="G44" s="23" t="s">
         <v>803</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="45" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
       <c r="G45" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
       <c r="G46" s="22" t="s">
         <v>805</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>262</v>
-      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A1048576">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A63">
+    <sortCondition ref="A49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20220,7 +20164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -21206,7 +21150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A111ECD5-E2C6-4960-9B0E-A4CCE7DB8F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA788249-198E-4428-9201-375BE2E95FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1860" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -2765,9 +2765,6 @@
     <t>mahavrathayajula999@gmail.com</t>
   </si>
   <si>
-    <t>All plans</t>
-  </si>
-  <si>
     <t>Admin@1234</t>
   </si>
   <si>
@@ -3030,6 +3027,9 @@
   </si>
   <si>
     <t>1 Pricing Plan</t>
+  </si>
+  <si>
+    <t>All Plans 1</t>
   </si>
 </sst>
 </file>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B201" t="s">
         <v>2</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B202" t="s">
         <v>2</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B203" t="s">
         <v>2</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B204" t="s">
         <v>2</v>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B205" t="s">
         <v>2</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B206" t="s">
         <v>2</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B207" t="s">
         <v>2</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B208" t="s">
         <v>2</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B209" t="s">
         <v>2</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B210" t="s">
         <v>2</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
@@ -5424,7 +5424,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B213" t="s">
         <v>2</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B214" t="s">
         <v>2</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
@@ -5456,7 +5456,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B216" t="s">
         <v>2</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B223" t="s">
         <v>2</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B225" t="s">
         <v>2</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B226" t="s">
         <v>2</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B227" t="s">
         <v>2</v>
@@ -5561,8 +5561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1167"/>
   <sheetViews>
-    <sheetView topLeftCell="A1136" workbookViewId="0">
-      <selection activeCell="E1140" sqref="E1140"/>
+    <sheetView tabSelected="1" topLeftCell="A886" workbookViewId="0">
+      <selection activeCell="H902" sqref="H902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6888,7 +6888,7 @@
         <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>806</v>
+        <v>894</v>
       </c>
       <c r="H115" t="s">
         <v>271</v>
@@ -7566,7 +7566,7 @@
         <v>778</v>
       </c>
       <c r="L167" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -10636,7 +10636,7 @@
         <v>495</v>
       </c>
       <c r="L781" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="782" spans="1:15" x14ac:dyDescent="0.25">
@@ -10941,7 +10941,7 @@
         <v>10</v>
       </c>
       <c r="F798" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H798" s="3"/>
       <c r="L798" s="3"/>
@@ -11248,7 +11248,7 @@
         <v>495</v>
       </c>
       <c r="M817" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="821" spans="1:48" x14ac:dyDescent="0.25">
@@ -11332,10 +11332,10 @@
         <v>495</v>
       </c>
       <c r="L823" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M823" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="826" spans="1:48" x14ac:dyDescent="0.25">
@@ -11600,7 +11600,7 @@
         <v>556</v>
       </c>
       <c r="T833" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U833" t="s">
         <v>557</v>
@@ -11627,7 +11627,7 @@
         <v>562</v>
       </c>
       <c r="AC833" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AD833" s="3" t="s">
         <v>564</v>
@@ -11645,7 +11645,7 @@
         <v>240</v>
       </c>
       <c r="AI833" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AJ833" s="3" t="s">
         <v>618</v>
@@ -11675,7 +11675,7 @@
         <v>568</v>
       </c>
       <c r="AS833" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AT833" t="s">
         <v>569</v>
@@ -11892,7 +11892,7 @@
         <v>556</v>
       </c>
       <c r="T838" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U838" t="s">
         <v>557</v>
@@ -11919,7 +11919,7 @@
         <v>562</v>
       </c>
       <c r="AC838" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AD838" s="3" t="s">
         <v>564</v>
@@ -11937,7 +11937,7 @@
         <v>240</v>
       </c>
       <c r="AI838" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AJ838" s="3" t="s">
         <v>618</v>
@@ -11967,7 +11967,7 @@
         <v>568</v>
       </c>
       <c r="AS838" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AT838" t="s">
         <v>569</v>
@@ -12189,7 +12189,7 @@
         <v>556</v>
       </c>
       <c r="T846" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U846" t="s">
         <v>557</v>
@@ -12216,7 +12216,7 @@
         <v>562</v>
       </c>
       <c r="AC846" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AD846" s="3" t="s">
         <v>564</v>
@@ -12234,7 +12234,7 @@
         <v>240</v>
       </c>
       <c r="AI846" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AJ846" s="3" t="s">
         <v>618</v>
@@ -12264,7 +12264,7 @@
         <v>568</v>
       </c>
       <c r="AS846" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AT846" t="s">
         <v>569</v>
@@ -12895,7 +12895,7 @@
         <v>396</v>
       </c>
       <c r="H885" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I885" t="s">
         <v>405</v>
@@ -12958,7 +12958,7 @@
         <v>396</v>
       </c>
       <c r="H890" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I890" t="s">
         <v>405</v>
@@ -13132,7 +13132,7 @@
         <v>261</v>
       </c>
       <c r="H895" t="s">
-        <v>806</v>
+        <v>894</v>
       </c>
       <c r="I895" t="s">
         <v>271</v>
@@ -13210,7 +13210,7 @@
         <v>394</v>
       </c>
       <c r="AH895" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AI895" t="s">
         <v>405</v>
@@ -13412,7 +13412,7 @@
         <v>261</v>
       </c>
       <c r="H902" t="s">
-        <v>806</v>
+        <v>894</v>
       </c>
       <c r="I902" t="s">
         <v>271</v>
@@ -13490,7 +13490,7 @@
         <v>394</v>
       </c>
       <c r="AH902" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AI902" t="s">
         <v>405</v>
@@ -14770,7 +14770,7 @@
         <v>740</v>
       </c>
       <c r="I987" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J987" t="s">
         <v>723</v>
@@ -15841,7 +15841,7 @@
         <v>2</v>
       </c>
       <c r="B1058" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C1058" t="s">
         <v>4</v>
@@ -15904,7 +15904,7 @@
         <v>2</v>
       </c>
       <c r="B1062" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C1062" t="s">
         <v>4</v>
@@ -15984,7 +15984,7 @@
     </row>
     <row r="1069" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1070" spans="1:10" x14ac:dyDescent="0.25">
@@ -16010,7 +16010,7 @@
         <v>339</v>
       </c>
       <c r="H1070" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1071" spans="1:10" x14ac:dyDescent="0.25">
@@ -16018,7 +16018,7 @@
         <v>2</v>
       </c>
       <c r="B1071" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C1071" t="s">
         <v>4</v>
@@ -16036,12 +16036,12 @@
         <v>238</v>
       </c>
       <c r="H1071" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
@@ -16072,7 +16072,7 @@
         <v>2</v>
       </c>
       <c r="B1075" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C1075" t="s">
         <v>4</v>
@@ -16087,12 +16087,12 @@
         <v>10</v>
       </c>
       <c r="G1075" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
@@ -16121,7 +16121,7 @@
         <v>245</v>
       </c>
       <c r="I1078" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
@@ -16129,7 +16129,7 @@
         <v>2</v>
       </c>
       <c r="B1079" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C1079" t="s">
         <v>4</v>
@@ -16150,12 +16150,12 @@
         <v>238</v>
       </c>
       <c r="I1079" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1082" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1083" spans="1:9" x14ac:dyDescent="0.25">
@@ -16189,7 +16189,7 @@
         <v>2</v>
       </c>
       <c r="B1084" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C1084" t="s">
         <v>4</v>
@@ -16207,12 +16207,12 @@
         <v>303</v>
       </c>
       <c r="H1084" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1088" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1089" spans="1:22" x14ac:dyDescent="0.25">
@@ -16253,7 +16253,7 @@
         <v>53</v>
       </c>
       <c r="M1089" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="N1089" t="s">
         <v>55</v>
@@ -16265,22 +16265,22 @@
         <v>57</v>
       </c>
       <c r="Q1089" t="s">
+        <v>881</v>
+      </c>
+      <c r="R1089" t="s">
         <v>882</v>
       </c>
-      <c r="R1089" t="s">
+      <c r="S1089" t="s">
         <v>883</v>
       </c>
-      <c r="S1089" t="s">
+      <c r="T1089" t="s">
         <v>884</v>
       </c>
-      <c r="T1089" t="s">
+      <c r="U1089" t="s">
         <v>885</v>
       </c>
-      <c r="U1089" t="s">
+      <c r="V1089" t="s">
         <v>886</v>
-      </c>
-      <c r="V1089" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="1090" spans="1:22" x14ac:dyDescent="0.25">
@@ -16288,16 +16288,16 @@
         <v>2</v>
       </c>
       <c r="B1090" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C1090" t="s">
         <v>4</v>
       </c>
       <c r="D1090" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E1090" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F1090" t="s">
         <v>10</v>
@@ -16324,16 +16324,16 @@
         <v>61</v>
       </c>
       <c r="N1090" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O1090" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P1090" t="s">
         <v>71</v>
       </c>
       <c r="Q1090" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="R1090">
         <v>20</v>
@@ -16353,7 +16353,7 @@
     </row>
     <row r="1098" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1099" spans="1:22" x14ac:dyDescent="0.25">
@@ -16376,7 +16376,7 @@
         <v>7</v>
       </c>
       <c r="G1099" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1100" spans="1:22" ht="30" x14ac:dyDescent="0.25">
@@ -16384,16 +16384,16 @@
         <v>2</v>
       </c>
       <c r="B1100" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C1100" t="s">
         <v>4</v>
       </c>
       <c r="D1100" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E1100" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F1100" t="s">
         <v>10</v>
@@ -16404,7 +16404,7 @@
     </row>
     <row r="1102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1103" spans="1:22" x14ac:dyDescent="0.25">
@@ -16427,7 +16427,7 @@
         <v>7</v>
       </c>
       <c r="G1103" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1104" spans="1:22" ht="30" x14ac:dyDescent="0.25">
@@ -16435,16 +16435,16 @@
         <v>2</v>
       </c>
       <c r="B1104" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C1104" t="s">
         <v>4</v>
       </c>
       <c r="D1104" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E1104" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F1104" t="s">
         <v>10</v>
@@ -16455,7 +16455,7 @@
     </row>
     <row r="1107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1108" spans="1:7" x14ac:dyDescent="0.25">
@@ -16478,7 +16478,7 @@
         <v>7</v>
       </c>
       <c r="G1108" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -16486,16 +16486,16 @@
         <v>2</v>
       </c>
       <c r="B1109" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C1109" t="s">
         <v>4</v>
       </c>
       <c r="D1109" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E1109" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F1109" t="s">
         <v>10</v>
@@ -16506,7 +16506,7 @@
     </row>
     <row r="1113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
@@ -16529,7 +16529,7 @@
         <v>7</v>
       </c>
       <c r="G1114" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16537,16 +16537,16 @@
         <v>2</v>
       </c>
       <c r="B1115" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C1115" t="s">
         <v>4</v>
       </c>
       <c r="D1115" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E1115" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F1115" t="s">
         <v>10</v>
@@ -16557,7 +16557,7 @@
     </row>
     <row r="1120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1121" spans="1:23" x14ac:dyDescent="0.25">
@@ -16580,7 +16580,7 @@
         <v>7</v>
       </c>
       <c r="G1121" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1122" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -16588,16 +16588,16 @@
         <v>2</v>
       </c>
       <c r="B1122" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C1122" t="s">
         <v>4</v>
       </c>
       <c r="D1122" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E1122" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F1122" t="s">
         <v>10</v>
@@ -16608,7 +16608,7 @@
     </row>
     <row r="1124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1125" spans="1:23" x14ac:dyDescent="0.25">
@@ -16636,13 +16636,13 @@
         <v>2</v>
       </c>
       <c r="B1126" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C1126" t="s">
         <v>4</v>
       </c>
       <c r="D1126" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E1126" t="s">
         <v>16</v>
@@ -16653,7 +16653,7 @@
     </row>
     <row r="1130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1131" spans="1:23" x14ac:dyDescent="0.25">
@@ -16681,16 +16681,16 @@
         <v>2</v>
       </c>
       <c r="B1132" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C1132" t="s">
         <v>4</v>
       </c>
       <c r="D1132" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E1132" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F1132" t="s">
         <v>10</v>
@@ -16698,7 +16698,7 @@
     </row>
     <row r="1134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1135" spans="1:23" x14ac:dyDescent="0.25">
@@ -16739,7 +16739,7 @@
         <v>53</v>
       </c>
       <c r="M1135" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="N1135" t="s">
         <v>55</v>
@@ -16751,25 +16751,25 @@
         <v>57</v>
       </c>
       <c r="Q1135" t="s">
+        <v>881</v>
+      </c>
+      <c r="R1135" t="s">
         <v>882</v>
       </c>
-      <c r="R1135" t="s">
+      <c r="S1135" t="s">
         <v>883</v>
       </c>
-      <c r="S1135" t="s">
+      <c r="T1135" t="s">
         <v>884</v>
       </c>
-      <c r="T1135" t="s">
+      <c r="U1135" t="s">
         <v>885</v>
       </c>
-      <c r="U1135" t="s">
+      <c r="V1135" t="s">
         <v>886</v>
       </c>
-      <c r="V1135" t="s">
+      <c r="W1135" t="s">
         <v>887</v>
-      </c>
-      <c r="W1135" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="1136" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -16777,16 +16777,16 @@
         <v>2</v>
       </c>
       <c r="B1136" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C1136" t="s">
         <v>4</v>
       </c>
       <c r="D1136" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E1136" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F1136" t="s">
         <v>10</v>
@@ -16813,16 +16813,16 @@
         <v>61</v>
       </c>
       <c r="N1136" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O1136" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P1136" t="s">
         <v>71</v>
       </c>
       <c r="Q1136" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="R1136" s="3">
         <v>20</v>
@@ -16845,7 +16845,7 @@
     </row>
     <row r="1138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1139" spans="1:26" x14ac:dyDescent="0.25">
@@ -16873,16 +16873,16 @@
         <v>2</v>
       </c>
       <c r="B1140" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C1140" t="s">
         <v>4</v>
       </c>
       <c r="D1140" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E1140" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F1140" t="s">
         <v>10</v>
@@ -16890,7 +16890,7 @@
     </row>
     <row r="1143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1144" spans="1:26" x14ac:dyDescent="0.25">
@@ -16939,13 +16939,13 @@
         <v>2</v>
       </c>
       <c r="B1145" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C1145" t="s">
         <v>4</v>
       </c>
       <c r="D1145" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E1145" t="s">
         <v>16</v>
@@ -16954,19 +16954,19 @@
         <v>10</v>
       </c>
       <c r="G1145" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1145" t="s">
         <v>219</v>
       </c>
       <c r="I1145" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J1145" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1145" t="s">
         <v>861</v>
-      </c>
-      <c r="K1145" t="s">
-        <v>862</v>
       </c>
       <c r="L1145" t="s">
         <v>26</v>
@@ -16977,7 +16977,7 @@
     </row>
     <row r="1150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1151" spans="1:26" x14ac:dyDescent="0.25">
@@ -16994,7 +16994,7 @@
         <v>67</v>
       </c>
       <c r="E1151" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F1151" t="s">
         <v>260</v>
@@ -17021,7 +17021,7 @@
         <v>53</v>
       </c>
       <c r="N1151" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O1151" t="s">
         <v>55</v>
@@ -17036,7 +17036,7 @@
         <v>82</v>
       </c>
       <c r="S1151" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="T1151" t="s">
         <v>216</v>
@@ -17065,19 +17065,19 @@
         <v>2</v>
       </c>
       <c r="B1152" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C1152" t="s">
         <v>4</v>
       </c>
       <c r="D1152" t="s">
+        <v>868</v>
+      </c>
+      <c r="E1152" t="s">
         <v>869</v>
       </c>
-      <c r="E1152" t="s">
-        <v>870</v>
-      </c>
       <c r="F1152" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G1152" t="s">
         <v>10</v>
@@ -17104,39 +17104,39 @@
         <v>61</v>
       </c>
       <c r="O1152" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="P1152" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Q1152" t="s">
         <v>65</v>
       </c>
       <c r="S1152" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U1152" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="V1152" t="s">
         <v>26</v>
       </c>
       <c r="W1152" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="X1152" t="s">
         <v>219</v>
       </c>
       <c r="Y1152" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Z1152" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1156" spans="1:23" x14ac:dyDescent="0.25">
@@ -17164,16 +17164,16 @@
         <v>2</v>
       </c>
       <c r="B1157" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C1157" t="s">
         <v>4</v>
       </c>
       <c r="D1157" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E1157" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F1157" t="s">
         <v>10</v>
@@ -17181,7 +17181,7 @@
     </row>
     <row r="1159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1160" spans="1:23" x14ac:dyDescent="0.25">
@@ -17209,13 +17209,13 @@
         <v>2</v>
       </c>
       <c r="B1161" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C1161" t="s">
         <v>4</v>
       </c>
       <c r="D1161" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E1161" t="s">
         <v>16</v>
@@ -17226,7 +17226,7 @@
     </row>
     <row r="1165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1166" spans="1:23" x14ac:dyDescent="0.25">
@@ -17267,7 +17267,7 @@
         <v>53</v>
       </c>
       <c r="M1166" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="N1166" t="s">
         <v>55</v>
@@ -17279,25 +17279,25 @@
         <v>57</v>
       </c>
       <c r="Q1166" t="s">
+        <v>881</v>
+      </c>
+      <c r="R1166" t="s">
         <v>882</v>
       </c>
-      <c r="R1166" t="s">
+      <c r="S1166" t="s">
         <v>883</v>
       </c>
-      <c r="S1166" t="s">
+      <c r="T1166" t="s">
         <v>884</v>
       </c>
-      <c r="T1166" t="s">
+      <c r="U1166" t="s">
         <v>885</v>
       </c>
-      <c r="U1166" t="s">
+      <c r="V1166" t="s">
         <v>886</v>
       </c>
-      <c r="V1166" t="s">
+      <c r="W1166" t="s">
         <v>887</v>
-      </c>
-      <c r="W1166" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="1167" spans="1:23" x14ac:dyDescent="0.25">
@@ -17305,16 +17305,16 @@
         <v>2</v>
       </c>
       <c r="B1167" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C1167" t="s">
         <v>4</v>
       </c>
       <c r="D1167" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E1167" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F1167" t="s">
         <v>10</v>
@@ -17341,16 +17341,16 @@
         <v>61</v>
       </c>
       <c r="N1167" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O1167" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P1167" t="s">
         <v>71</v>
       </c>
       <c r="Q1167" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="R1167" s="3">
         <v>20</v>
@@ -19874,7 +19874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA788249-198E-4428-9201-375BE2E95FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59650329-782C-483A-AE6C-44C8BBA688E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5561,8 +5561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A886" workbookViewId="0">
-      <selection activeCell="H902" sqref="H902"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="E403" sqref="E403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8699,7 +8699,7 @@
         <v>649</v>
       </c>
       <c r="E403" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="F403" t="s">
         <v>10</v>
@@ -14889,7 +14889,7 @@
         <v>574</v>
       </c>
       <c r="X988" s="3" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
     </row>
     <row r="989" spans="1:24" x14ac:dyDescent="0.25">

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59650329-782C-483A-AE6C-44C8BBA688E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E41970-42F2-4A2D-9D98-DA312762073C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5561,8 +5561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="E403" sqref="E403"/>
+    <sheetView tabSelected="1" topLeftCell="D831" workbookViewId="0">
+      <selection activeCell="N845" sqref="N845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12171,7 +12171,7 @@
         <v>574</v>
       </c>
       <c r="N846" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="O846" t="s">
         <v>621</v>
@@ -14868,7 +14868,7 @@
         <v>574</v>
       </c>
       <c r="Q988" s="3" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="R988" s="3" t="s">
         <v>574</v>
@@ -14880,7 +14880,7 @@
         <v>574</v>
       </c>
       <c r="U988" s="3" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="V988" s="3" t="s">
         <v>574</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E41970-42F2-4A2D-9D98-DA312762073C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440130A0-9F69-4C70-841A-1E51BFEB6825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5561,8 +5561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D831" workbookViewId="0">
-      <selection activeCell="N845" sqref="N845"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7921,7 +7921,7 @@
         <v>262</v>
       </c>
       <c r="I196" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -7966,7 +7966,7 @@
         <v>649</v>
       </c>
       <c r="E203" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="F203" t="s">
         <v>10</v>
@@ -8017,7 +8017,7 @@
         <v>649</v>
       </c>
       <c r="E210" t="s">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="F210" t="s">
         <v>10</v>
@@ -8482,7 +8482,7 @@
         <v>649</v>
       </c>
       <c r="E354" t="s">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="F354" t="s">
         <v>10</v>
@@ -8617,8 +8617,8 @@
       <c r="F385" t="s">
         <v>10</v>
       </c>
-      <c r="G385" t="s">
-        <v>356</v>
+      <c r="G385" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="H385" t="s">
         <v>355</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440130A0-9F69-4C70-841A-1E51BFEB6825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9600EB-C0C1-4BC1-A914-81A899459FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E227"/>
   <sheetViews>
-    <sheetView topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208:B227"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5561,8 +5561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView topLeftCell="A908" workbookViewId="0">
+      <selection activeCell="A913" sqref="A913"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9600EB-C0C1-4BC1-A914-81A899459FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31835BD9-9A9B-45FF-B119-3FA8BD07D819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5561,8 +5561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1167"/>
   <sheetViews>
-    <sheetView topLeftCell="A908" workbookViewId="0">
-      <selection activeCell="A913" sqref="A913"/>
+    <sheetView tabSelected="1" topLeftCell="C967" workbookViewId="0">
+      <selection activeCell="G973" sqref="G973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14595,7 +14595,7 @@
         <v>10</v>
       </c>
       <c r="G973" t="s">
-        <v>320</v>
+        <v>766</v>
       </c>
     </row>
     <row r="974" spans="1:11" x14ac:dyDescent="0.25">
@@ -14656,7 +14656,7 @@
         <v>4</v>
       </c>
       <c r="D978" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="E978" t="s">
         <v>16</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31835BD9-9A9B-45FF-B119-3FA8BD07D819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A818C0-B62D-4CB1-9F7A-763846CE327C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -5561,8 +5561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C967" workbookViewId="0">
-      <selection activeCell="G973" sqref="G973"/>
+    <sheetView tabSelected="1" topLeftCell="A968" workbookViewId="0">
+      <selection activeCell="D979" sqref="D979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14656,7 +14656,7 @@
         <v>4</v>
       </c>
       <c r="D978" t="s">
-        <v>679</v>
+        <v>745</v>
       </c>
       <c r="E978" t="s">
         <v>16</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F3922D-3B61-49E8-98C1-A9628F932989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2E9C2A-A638-41E2-A1A0-540FE4CD883D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1095" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="1095" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4971" uniqueCount="964">
   <si>
     <t>TestCases</t>
   </si>
@@ -3233,7 +3233,10 @@
     <t>andrew74444+110@gmail.com</t>
   </si>
   <si>
-    <t>TC0001</t>
+    <t>TC501</t>
+  </si>
+  <si>
+    <t>TC501_Purchase_Pricing_Plan_With_PayPal</t>
   </si>
 </sst>
 </file>
@@ -3746,10 +3749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E242"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="C244" sqref="C244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5858,7 +5861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>939</v>
       </c>
@@ -5866,12 +5869,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>940</v>
       </c>
       <c r="B242" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>962</v>
+      </c>
+      <c r="B243" t="s">
+        <v>2</v>
+      </c>
+      <c r="C243" t="s">
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -5885,8 +5899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1237"/>
   <sheetViews>
-    <sheetView topLeftCell="A916" workbookViewId="0">
-      <selection activeCell="A926" sqref="A926"/>
+    <sheetView tabSelected="1" topLeftCell="A920" workbookViewId="0">
+      <selection activeCell="A927" sqref="A927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13952,7 +13966,7 @@
         <v>2</v>
       </c>
       <c r="B927" s="6" t="s">
-        <v>481</v>
+        <v>963</v>
       </c>
       <c r="C927" t="s">
         <v>4</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2E9C2A-A638-41E2-A1A0-540FE4CD883D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04458C0F-BE1D-4334-9CE1-C3A69676BB93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1095" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -2951,12 +2951,6 @@
     <t>makeAdminMemberEmail</t>
   </si>
   <si>
-    <t>TA Community -</t>
-  </si>
-  <si>
-    <t>Update - TA Community -</t>
-  </si>
-  <si>
     <t>TC207_Tenant_Admin_Make_Admin_Community</t>
   </si>
   <si>
@@ -3237,6 +3231,12 @@
   </si>
   <si>
     <t>TC501_Purchase_Pricing_Plan_With_PayPal</t>
+  </si>
+  <si>
+    <t>Community TA -</t>
+  </si>
+  <si>
+    <t>Update - Community TA -</t>
   </si>
 </sst>
 </file>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B228" t="s">
         <v>2</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B229" t="s">
         <v>2</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B230" t="s">
         <v>2</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B231" t="s">
         <v>2</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B232" t="s">
         <v>2</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B233" t="s">
         <v>2</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B234" t="s">
         <v>2</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B235" t="s">
         <v>2</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B236" t="s">
         <v>2</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B237" t="s">
         <v>2</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B238" t="s">
         <v>2</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B239" t="s">
         <v>2</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B240" t="s">
         <v>2</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B241" t="s">
         <v>2</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B242" t="s">
         <v>2</v>
@@ -5879,13 +5879,13 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B243" t="s">
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -5899,8 +5899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A920" workbookViewId="0">
-      <selection activeCell="A927" sqref="A927"/>
+    <sheetView tabSelected="1" topLeftCell="A1115" workbookViewId="0">
+      <selection activeCell="D1115" sqref="D1115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,7 +6005,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -6044,13 +6044,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -6083,10 +6083,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C17" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -6122,10 +6122,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C21" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -6161,10 +6161,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C25" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -6200,10 +6200,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C29" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -7460,7 +7460,7 @@
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H140" t="s">
         <v>271</v>
@@ -13704,7 +13704,7 @@
         <v>261</v>
       </c>
       <c r="H920" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I920" t="s">
         <v>271</v>
@@ -13820,7 +13820,7 @@
     </row>
     <row r="925" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B925"/>
     </row>
@@ -13966,7 +13966,7 @@
         <v>2</v>
       </c>
       <c r="B927" s="6" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C927" t="s">
         <v>4</v>
@@ -13984,7 +13984,7 @@
         <v>261</v>
       </c>
       <c r="H927" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I927" t="s">
         <v>271</v>
@@ -16837,22 +16837,22 @@
         <v>57</v>
       </c>
       <c r="Q1114" t="s">
+        <v>879</v>
+      </c>
+      <c r="R1114" t="s">
+        <v>880</v>
+      </c>
+      <c r="S1114" t="s">
         <v>881</v>
       </c>
-      <c r="R1114" t="s">
+      <c r="T1114" t="s">
         <v>882</v>
       </c>
-      <c r="S1114" t="s">
+      <c r="U1114" t="s">
         <v>883</v>
       </c>
-      <c r="T1114" t="s">
+      <c r="V1114" t="s">
         <v>884</v>
-      </c>
-      <c r="U1114" t="s">
-        <v>885</v>
-      </c>
-      <c r="V1114" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="1115" spans="1:22" x14ac:dyDescent="0.25">
@@ -16860,13 +16860,13 @@
         <v>2</v>
       </c>
       <c r="B1115" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C1115" t="s">
         <v>4</v>
       </c>
       <c r="D1115" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
       <c r="E1115" t="s">
         <v>834</v>
@@ -16905,7 +16905,7 @@
         <v>71</v>
       </c>
       <c r="Q1115" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="R1115">
         <v>20</v>
@@ -16962,7 +16962,7 @@
         <v>4</v>
       </c>
       <c r="D1125" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
       <c r="E1125" t="s">
         <v>834</v>
@@ -17007,13 +17007,13 @@
         <v>2</v>
       </c>
       <c r="B1129" s="6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C1129" t="s">
         <v>4</v>
       </c>
       <c r="D1129" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
       <c r="E1129" t="s">
         <v>834</v>
@@ -17050,7 +17050,7 @@
         <v>7</v>
       </c>
       <c r="G1133" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1134" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -17058,13 +17058,13 @@
         <v>2</v>
       </c>
       <c r="B1134" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C1134" t="s">
         <v>4</v>
       </c>
       <c r="D1134" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
       <c r="E1134" t="s">
         <v>834</v>
@@ -17101,7 +17101,7 @@
         <v>7</v>
       </c>
       <c r="G1139" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17109,13 +17109,13 @@
         <v>2</v>
       </c>
       <c r="B1140" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C1140" t="s">
         <v>4</v>
       </c>
       <c r="D1140" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
       <c r="E1140" t="s">
         <v>834</v>
@@ -17152,7 +17152,7 @@
         <v>7</v>
       </c>
       <c r="G1146" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17160,13 +17160,13 @@
         <v>2</v>
       </c>
       <c r="B1147" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C1147" t="s">
         <v>4</v>
       </c>
       <c r="D1147" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
       <c r="E1147" t="s">
         <v>834</v>
@@ -17208,13 +17208,13 @@
         <v>2</v>
       </c>
       <c r="B1151" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C1151" t="s">
         <v>4</v>
       </c>
       <c r="D1151" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
       <c r="E1151" t="s">
         <v>16</v>
@@ -17253,13 +17253,13 @@
         <v>2</v>
       </c>
       <c r="B1157" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C1157" t="s">
         <v>4</v>
       </c>
       <c r="D1157" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
       <c r="E1157" t="s">
         <v>834</v>
@@ -17323,25 +17323,25 @@
         <v>57</v>
       </c>
       <c r="Q1160" t="s">
+        <v>879</v>
+      </c>
+      <c r="R1160" t="s">
+        <v>880</v>
+      </c>
+      <c r="S1160" t="s">
         <v>881</v>
       </c>
-      <c r="R1160" t="s">
+      <c r="T1160" t="s">
         <v>882</v>
       </c>
-      <c r="S1160" t="s">
+      <c r="U1160" t="s">
         <v>883</v>
       </c>
-      <c r="T1160" t="s">
+      <c r="V1160" t="s">
         <v>884</v>
       </c>
-      <c r="U1160" t="s">
+      <c r="W1160" t="s">
         <v>885</v>
-      </c>
-      <c r="V1160" t="s">
-        <v>886</v>
-      </c>
-      <c r="W1160" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="1161" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -17349,13 +17349,13 @@
         <v>2</v>
       </c>
       <c r="B1161" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C1161" t="s">
         <v>4</v>
       </c>
       <c r="D1161" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
       <c r="E1161" t="s">
         <v>834</v>
@@ -17394,7 +17394,7 @@
         <v>71</v>
       </c>
       <c r="Q1161" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="R1161" s="3">
         <v>20</v>
@@ -17445,13 +17445,13 @@
         <v>2</v>
       </c>
       <c r="B1165" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C1165" t="s">
         <v>4</v>
       </c>
       <c r="D1165" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
       <c r="E1165" t="s">
         <v>834</v>
@@ -17511,13 +17511,13 @@
         <v>2</v>
       </c>
       <c r="B1170" s="6" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C1170" t="s">
         <v>4</v>
       </c>
       <c r="D1170" t="s">
-        <v>869</v>
+        <v>963</v>
       </c>
       <c r="E1170" t="s">
         <v>16</v>
@@ -17637,16 +17637,16 @@
         <v>2</v>
       </c>
       <c r="B1177" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C1177" t="s">
         <v>4</v>
       </c>
       <c r="D1177" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
       <c r="E1177" t="s">
-        <v>869</v>
+        <v>963</v>
       </c>
       <c r="F1177" t="s">
         <v>834</v>
@@ -17736,13 +17736,13 @@
         <v>2</v>
       </c>
       <c r="B1182" s="6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C1182" t="s">
         <v>4</v>
       </c>
       <c r="D1182" t="s">
-        <v>869</v>
+        <v>963</v>
       </c>
       <c r="E1182" t="s">
         <v>834</v>
@@ -17781,13 +17781,13 @@
         <v>2</v>
       </c>
       <c r="B1186" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C1186" t="s">
         <v>4</v>
       </c>
       <c r="D1186" t="s">
-        <v>869</v>
+        <v>963</v>
       </c>
       <c r="E1186" t="s">
         <v>16</v>
@@ -17851,25 +17851,25 @@
         <v>57</v>
       </c>
       <c r="Q1191" t="s">
+        <v>879</v>
+      </c>
+      <c r="R1191" t="s">
+        <v>880</v>
+      </c>
+      <c r="S1191" t="s">
         <v>881</v>
       </c>
-      <c r="R1191" t="s">
+      <c r="T1191" t="s">
         <v>882</v>
       </c>
-      <c r="S1191" t="s">
+      <c r="U1191" t="s">
         <v>883</v>
       </c>
-      <c r="T1191" t="s">
+      <c r="V1191" t="s">
         <v>884</v>
       </c>
-      <c r="U1191" t="s">
+      <c r="W1191" t="s">
         <v>885</v>
-      </c>
-      <c r="V1191" t="s">
-        <v>886</v>
-      </c>
-      <c r="W1191" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="1192" spans="1:23" x14ac:dyDescent="0.25">
@@ -17877,13 +17877,13 @@
         <v>2</v>
       </c>
       <c r="B1192" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C1192" t="s">
         <v>4</v>
       </c>
       <c r="D1192" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
       <c r="E1192" t="s">
         <v>834</v>
@@ -17922,7 +17922,7 @@
         <v>71</v>
       </c>
       <c r="Q1192" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="R1192" s="3">
         <v>20</v>
@@ -17959,55 +17959,55 @@
         <v>3</v>
       </c>
       <c r="D1196" t="s">
+        <v>893</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>894</v>
+      </c>
+      <c r="F1196" t="s">
         <v>895</v>
-      </c>
-      <c r="E1196" t="s">
-        <v>896</v>
-      </c>
-      <c r="F1196" t="s">
-        <v>897</v>
       </c>
       <c r="G1196" t="s">
         <v>7</v>
       </c>
       <c r="H1196" t="s">
+        <v>896</v>
+      </c>
+      <c r="I1196" t="s">
+        <v>897</v>
+      </c>
+      <c r="J1196" t="s">
         <v>898</v>
       </c>
-      <c r="I1196" t="s">
+      <c r="K1196" t="s">
         <v>899</v>
-      </c>
-      <c r="J1196" t="s">
-        <v>900</v>
-      </c>
-      <c r="K1196" t="s">
-        <v>901</v>
       </c>
       <c r="L1196" t="s">
         <v>660</v>
       </c>
       <c r="M1196" t="s">
+        <v>900</v>
+      </c>
+      <c r="N1196" t="s">
+        <v>901</v>
+      </c>
+      <c r="O1196" t="s">
         <v>902</v>
       </c>
-      <c r="N1196" t="s">
-        <v>903</v>
-      </c>
-      <c r="O1196" t="s">
-        <v>904</v>
-      </c>
       <c r="P1196" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q1196" t="s">
         <v>908</v>
-      </c>
-      <c r="Q1196" t="s">
-        <v>910</v>
       </c>
       <c r="R1196" t="s">
         <v>270</v>
       </c>
       <c r="S1196" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="T1196" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="U1196" t="s">
         <v>269</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B1197" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C1197" t="s">
         <v>4</v>
@@ -18033,7 +18033,7 @@
         <v>468</v>
       </c>
       <c r="G1197" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H1197" t="s">
         <v>499</v>
@@ -18048,13 +18048,13 @@
         <v>37</v>
       </c>
       <c r="L1197" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="M1197" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="N1197" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="O1197" t="s">
         <v>553</v>
@@ -18063,7 +18063,7 @@
         <v>16</v>
       </c>
       <c r="Q1197" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="R1197" t="s">
         <v>271</v>
@@ -18075,7 +18075,7 @@
         <v>10</v>
       </c>
       <c r="U1197" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1200" spans="1:23" x14ac:dyDescent="0.25">
@@ -18094,46 +18094,46 @@
         <v>3</v>
       </c>
       <c r="D1201" t="s">
+        <v>893</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>894</v>
+      </c>
+      <c r="F1201" t="s">
         <v>895</v>
-      </c>
-      <c r="E1201" t="s">
-        <v>896</v>
-      </c>
-      <c r="F1201" t="s">
-        <v>897</v>
       </c>
       <c r="G1201" t="s">
         <v>7</v>
       </c>
       <c r="H1201" t="s">
+        <v>896</v>
+      </c>
+      <c r="I1201" t="s">
+        <v>897</v>
+      </c>
+      <c r="J1201" t="s">
         <v>898</v>
       </c>
-      <c r="I1201" t="s">
+      <c r="K1201" t="s">
         <v>899</v>
-      </c>
-      <c r="J1201" t="s">
-        <v>900</v>
-      </c>
-      <c r="K1201" t="s">
-        <v>901</v>
       </c>
       <c r="L1201" t="s">
         <v>660</v>
       </c>
       <c r="M1201" t="s">
+        <v>900</v>
+      </c>
+      <c r="N1201" t="s">
+        <v>901</v>
+      </c>
+      <c r="O1201" t="s">
         <v>902</v>
       </c>
-      <c r="N1201" t="s">
-        <v>903</v>
-      </c>
-      <c r="O1201" t="s">
-        <v>904</v>
-      </c>
       <c r="P1201" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q1201" t="s">
         <v>908</v>
-      </c>
-      <c r="Q1201" t="s">
-        <v>910</v>
       </c>
       <c r="R1201" t="s">
         <v>270</v>
@@ -18144,7 +18144,7 @@
         <v>2</v>
       </c>
       <c r="B1202" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C1202" t="s">
         <v>4</v>
@@ -18159,7 +18159,7 @@
         <v>468</v>
       </c>
       <c r="G1202" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H1202" t="s">
         <v>499</v>
@@ -18171,13 +18171,13 @@
         <v>555</v>
       </c>
       <c r="K1202" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="M1202" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="N1202" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="O1202" t="s">
         <v>394</v>
@@ -18186,7 +18186,7 @@
         <v>16</v>
       </c>
       <c r="Q1202" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="R1202" t="s">
         <v>271</v>
@@ -18208,46 +18208,46 @@
         <v>3</v>
       </c>
       <c r="D1205" t="s">
+        <v>893</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>894</v>
+      </c>
+      <c r="F1205" t="s">
         <v>895</v>
-      </c>
-      <c r="E1205" t="s">
-        <v>896</v>
-      </c>
-      <c r="F1205" t="s">
-        <v>897</v>
       </c>
       <c r="G1205" t="s">
         <v>7</v>
       </c>
       <c r="H1205" t="s">
+        <v>896</v>
+      </c>
+      <c r="I1205" t="s">
+        <v>897</v>
+      </c>
+      <c r="J1205" t="s">
         <v>898</v>
       </c>
-      <c r="I1205" t="s">
+      <c r="K1205" t="s">
         <v>899</v>
-      </c>
-      <c r="J1205" t="s">
-        <v>900</v>
-      </c>
-      <c r="K1205" t="s">
-        <v>901</v>
       </c>
       <c r="L1205" t="s">
         <v>660</v>
       </c>
       <c r="M1205" t="s">
+        <v>900</v>
+      </c>
+      <c r="N1205" t="s">
+        <v>901</v>
+      </c>
+      <c r="O1205" t="s">
         <v>902</v>
       </c>
-      <c r="N1205" t="s">
-        <v>903</v>
-      </c>
-      <c r="O1205" t="s">
-        <v>904</v>
-      </c>
       <c r="P1205" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q1205" t="s">
         <v>908</v>
-      </c>
-      <c r="Q1205" t="s">
-        <v>910</v>
       </c>
       <c r="R1205" t="s">
         <v>270</v>
@@ -18258,7 +18258,7 @@
         <v>2</v>
       </c>
       <c r="B1206" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C1206" t="s">
         <v>4</v>
@@ -18273,7 +18273,7 @@
         <v>468</v>
       </c>
       <c r="G1206" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H1206" t="s">
         <v>499</v>
@@ -18285,13 +18285,13 @@
         <v>555</v>
       </c>
       <c r="K1206" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="M1206" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="N1206" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="O1206" t="s">
         <v>394</v>
@@ -18300,7 +18300,7 @@
         <v>16</v>
       </c>
       <c r="Q1206" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="R1206" t="s">
         <v>271</v>
@@ -18322,46 +18322,46 @@
         <v>3</v>
       </c>
       <c r="D1209" t="s">
+        <v>893</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>894</v>
+      </c>
+      <c r="F1209" t="s">
         <v>895</v>
-      </c>
-      <c r="E1209" t="s">
-        <v>896</v>
-      </c>
-      <c r="F1209" t="s">
-        <v>897</v>
       </c>
       <c r="G1209" t="s">
         <v>7</v>
       </c>
       <c r="H1209" t="s">
+        <v>896</v>
+      </c>
+      <c r="I1209" t="s">
+        <v>897</v>
+      </c>
+      <c r="J1209" t="s">
         <v>898</v>
       </c>
-      <c r="I1209" t="s">
+      <c r="K1209" t="s">
         <v>899</v>
-      </c>
-      <c r="J1209" t="s">
-        <v>900</v>
-      </c>
-      <c r="K1209" t="s">
-        <v>901</v>
       </c>
       <c r="L1209" t="s">
         <v>660</v>
       </c>
       <c r="M1209" t="s">
+        <v>900</v>
+      </c>
+      <c r="N1209" t="s">
+        <v>901</v>
+      </c>
+      <c r="O1209" t="s">
         <v>902</v>
       </c>
-      <c r="N1209" t="s">
-        <v>903</v>
-      </c>
-      <c r="O1209" t="s">
-        <v>904</v>
-      </c>
       <c r="P1209" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q1209" t="s">
         <v>908</v>
-      </c>
-      <c r="Q1209" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="1210" spans="1:18" x14ac:dyDescent="0.25">
@@ -18369,7 +18369,7 @@
         <v>2</v>
       </c>
       <c r="B1210" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C1210" t="s">
         <v>4</v>
@@ -18384,7 +18384,7 @@
         <v>468</v>
       </c>
       <c r="G1210" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H1210" t="s">
         <v>499</v>
@@ -18396,13 +18396,13 @@
         <v>555</v>
       </c>
       <c r="K1210" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="M1210" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="N1210" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="O1210" t="s">
         <v>553</v>
@@ -18411,12 +18411,12 @@
         <v>16</v>
       </c>
       <c r="Q1210" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1213" spans="1:18" x14ac:dyDescent="0.25">
@@ -18438,7 +18438,7 @@
         <v>2</v>
       </c>
       <c r="B1214" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C1214" t="s">
         <v>4</v>
@@ -18450,7 +18450,7 @@
     </row>
     <row r="1217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1218" spans="1:19" x14ac:dyDescent="0.25">
@@ -18464,7 +18464,7 @@
         <v>3</v>
       </c>
       <c r="D1218" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E1218" t="s">
         <v>260</v>
@@ -18478,24 +18478,24 @@
         <v>2</v>
       </c>
       <c r="B1219" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C1219" t="s">
         <v>4</v>
       </c>
       <c r="D1219" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E1219" t="s">
         <v>834</v>
       </c>
       <c r="F1219" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1223" spans="1:19" x14ac:dyDescent="0.25">
@@ -18509,7 +18509,7 @@
         <v>3</v>
       </c>
       <c r="D1223" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E1223" t="s">
         <v>260</v>
@@ -18523,13 +18523,13 @@
         <v>2</v>
       </c>
       <c r="B1224" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C1224" t="s">
         <v>4</v>
       </c>
       <c r="D1224" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E1224" t="s">
         <v>834</v>
@@ -18540,7 +18540,7 @@
     </row>
     <row r="1226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1227" spans="1:19" x14ac:dyDescent="0.25">
@@ -18571,13 +18571,13 @@
         <v>2</v>
       </c>
       <c r="B1228" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C1228" t="s">
         <v>4</v>
       </c>
       <c r="D1228" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E1228" t="s">
         <v>834</v>
@@ -18586,12 +18586,12 @@
         <v>10</v>
       </c>
       <c r="G1228" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="1231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="1232" spans="1:19" x14ac:dyDescent="0.25">
@@ -18605,52 +18605,52 @@
         <v>3</v>
       </c>
       <c r="D1232" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E1232" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F1232" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G1232" t="s">
+        <v>893</v>
+      </c>
+      <c r="H1232" t="s">
+        <v>894</v>
+      </c>
+      <c r="I1232" t="s">
         <v>895</v>
-      </c>
-      <c r="H1232" t="s">
-        <v>896</v>
-      </c>
-      <c r="I1232" t="s">
-        <v>897</v>
       </c>
       <c r="J1232" t="s">
         <v>7</v>
       </c>
       <c r="K1232" t="s">
+        <v>896</v>
+      </c>
+      <c r="L1232" t="s">
+        <v>897</v>
+      </c>
+      <c r="M1232" t="s">
         <v>898</v>
       </c>
-      <c r="L1232" t="s">
+      <c r="N1232" t="s">
         <v>899</v>
-      </c>
-      <c r="M1232" t="s">
-        <v>900</v>
-      </c>
-      <c r="N1232" t="s">
-        <v>901</v>
       </c>
       <c r="O1232" t="s">
         <v>660</v>
       </c>
       <c r="P1232" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q1232" t="s">
+        <v>901</v>
+      </c>
+      <c r="R1232" t="s">
         <v>902</v>
       </c>
-      <c r="Q1232" t="s">
-        <v>903</v>
-      </c>
-      <c r="R1232" t="s">
-        <v>904</v>
-      </c>
       <c r="S1232" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1233" spans="1:19" x14ac:dyDescent="0.25">
@@ -18658,19 +18658,19 @@
         <v>2</v>
       </c>
       <c r="B1233" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C1233" t="s">
         <v>4</v>
       </c>
       <c r="D1233" t="s">
+        <v>944</v>
+      </c>
+      <c r="E1233" t="s">
         <v>946</v>
       </c>
-      <c r="E1233" t="s">
-        <v>948</v>
-      </c>
       <c r="F1233" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G1233" t="s">
         <v>17</v>
@@ -18682,7 +18682,7 @@
         <v>468</v>
       </c>
       <c r="J1233" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="K1233" t="s">
         <v>499</v>
@@ -18694,13 +18694,13 @@
         <v>555</v>
       </c>
       <c r="N1233" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="P1233" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="Q1233" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="R1233" t="s">
         <v>553</v>
@@ -18711,7 +18711,7 @@
     </row>
     <row r="1235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="1236" spans="1:19" x14ac:dyDescent="0.25">
@@ -18725,43 +18725,43 @@
         <v>3</v>
       </c>
       <c r="D1236" t="s">
+        <v>893</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>894</v>
+      </c>
+      <c r="F1236" t="s">
         <v>895</v>
-      </c>
-      <c r="E1236" t="s">
-        <v>896</v>
-      </c>
-      <c r="F1236" t="s">
-        <v>897</v>
       </c>
       <c r="G1236" t="s">
         <v>7</v>
       </c>
       <c r="H1236" t="s">
+        <v>896</v>
+      </c>
+      <c r="I1236" t="s">
+        <v>897</v>
+      </c>
+      <c r="J1236" t="s">
         <v>898</v>
       </c>
-      <c r="I1236" t="s">
+      <c r="K1236" t="s">
         <v>899</v>
-      </c>
-      <c r="J1236" t="s">
-        <v>900</v>
-      </c>
-      <c r="K1236" t="s">
-        <v>901</v>
       </c>
       <c r="L1236" t="s">
         <v>660</v>
       </c>
       <c r="M1236" t="s">
+        <v>900</v>
+      </c>
+      <c r="N1236" t="s">
+        <v>901</v>
+      </c>
+      <c r="O1236" t="s">
         <v>902</v>
       </c>
-      <c r="N1236" t="s">
-        <v>903</v>
-      </c>
-      <c r="O1236" t="s">
-        <v>904</v>
-      </c>
       <c r="P1236" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1237" spans="1:19" x14ac:dyDescent="0.25">
@@ -18769,7 +18769,7 @@
         <v>2</v>
       </c>
       <c r="B1237" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C1237" t="s">
         <v>4</v>
@@ -18784,7 +18784,7 @@
         <v>468</v>
       </c>
       <c r="G1237" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H1237" t="s">
         <v>499</v>
@@ -18799,13 +18799,13 @@
         <v>37</v>
       </c>
       <c r="L1237" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="M1237" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="N1237" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="O1237" t="s">
         <v>553</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04458C0F-BE1D-4334-9CE1-C3A69676BB93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CDD343-864D-46C9-A824-14939A1E1F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4971" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="1005">
   <si>
     <t>TestCases</t>
   </si>
@@ -3237,6 +3237,129 @@
   </si>
   <si>
     <t>Update - Community TA -</t>
+  </si>
+  <si>
+    <t>resourceTitle</t>
+  </si>
+  <si>
+    <t>resourceType</t>
+  </si>
+  <si>
+    <t>contentAccess</t>
+  </si>
+  <si>
+    <t>uploadType</t>
+  </si>
+  <si>
+    <t>TC163_CreateResource</t>
+  </si>
+  <si>
+    <t>D:\workspace\SampleProject\src\test\resources\testImages\ChromeImage7.jpg</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>noOfEmp</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Orgnizationemail</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>TC201_Verify_TA_Able_Create_Organization</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Please check back soon….</t>
+  </si>
+  <si>
+    <t>companyNameSearch</t>
+  </si>
+  <si>
+    <t>locationName</t>
+  </si>
+  <si>
+    <t>locationType</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>5 Independence Way, Princeton, NJ, USA</t>
+  </si>
+  <si>
+    <t>confirmpassword</t>
+  </si>
+  <si>
+    <t>isContactPrimary</t>
+  </si>
+  <si>
+    <t>andrew</t>
+  </si>
+  <si>
+    <t>thomson</t>
+  </si>
+  <si>
+    <t>templateName</t>
+  </si>
+  <si>
+    <t>emailSubject</t>
+  </si>
+  <si>
+    <t>emailHeader</t>
+  </si>
+  <si>
+    <t>fromEmail</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>footer</t>
+  </si>
+  <si>
+    <t>noreply@gmail.com</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>11-25</t>
+  </si>
+  <si>
+    <t>companyLogoImage</t>
+  </si>
+  <si>
+    <t>D:/workspace/bizligo-automation/src/test/resources/testImages/ChromeImage7.jpg</t>
+  </si>
+  <si>
+    <t>Accounting</t>
   </si>
 </sst>
 </file>
@@ -5897,10 +6020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AV1237"/>
+  <dimension ref="A1:AV1261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1115" workbookViewId="0">
-      <selection activeCell="D1115" sqref="D1115"/>
+    <sheetView tabSelected="1" topLeftCell="A1238" workbookViewId="0">
+      <selection activeCell="H1246" sqref="H1246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18812,6 +18935,428 @@
       </c>
       <c r="P1237" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1240" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>964</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>965</v>
+      </c>
+      <c r="I1240" t="s">
+        <v>488</v>
+      </c>
+      <c r="J1240" t="s">
+        <v>966</v>
+      </c>
+      <c r="K1240" t="s">
+        <v>967</v>
+      </c>
+      <c r="L1240" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1241" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>772</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>964</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1241" t="s">
+        <v>969</v>
+      </c>
+      <c r="J1241" t="s">
+        <v>970</v>
+      </c>
+      <c r="K1241" t="s">
+        <v>971</v>
+      </c>
+      <c r="L1241" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1245" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1245" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1245" t="s">
+        <v>974</v>
+      </c>
+      <c r="K1245" t="s">
+        <v>975</v>
+      </c>
+      <c r="L1245" t="s">
+        <v>976</v>
+      </c>
+      <c r="M1245" t="s">
+        <v>977</v>
+      </c>
+      <c r="N1245" t="s">
+        <v>426</v>
+      </c>
+      <c r="O1245" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1246" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>834</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1246" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I1246" t="s">
+        <v>980</v>
+      </c>
+      <c r="J1246" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1246" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="L1246" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M1246" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="N1246" t="s">
+        <v>277</v>
+      </c>
+      <c r="O1246" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1250" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>981</v>
+      </c>
+      <c r="G1250" t="s">
+        <v>982</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>983</v>
+      </c>
+      <c r="I1250" t="s">
+        <v>984</v>
+      </c>
+      <c r="J1250" t="s">
+        <v>985</v>
+      </c>
+      <c r="K1250" t="s">
+        <v>986</v>
+      </c>
+      <c r="L1250" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1251" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>834</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>987</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>987</v>
+      </c>
+      <c r="I1251" t="s">
+        <v>988</v>
+      </c>
+      <c r="J1251" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="K1251" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="L1251" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1255" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>981</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>893</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>894</v>
+      </c>
+      <c r="I1255" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1255" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1255" t="s">
+        <v>989</v>
+      </c>
+      <c r="L1255" t="s">
+        <v>423</v>
+      </c>
+      <c r="M1255" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1256" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>834</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>991</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>992</v>
+      </c>
+      <c r="J1256" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1256" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1256" t="s">
+        <v>987</v>
+      </c>
+      <c r="M1256" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1260" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>993</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1260" t="s">
+        <v>994</v>
+      </c>
+      <c r="J1260" t="s">
+        <v>995</v>
+      </c>
+      <c r="K1260" t="s">
+        <v>996</v>
+      </c>
+      <c r="L1260" t="s">
+        <v>997</v>
+      </c>
+      <c r="M1260" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1261" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>834</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>993</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1261" t="s">
+        <v>994</v>
+      </c>
+      <c r="J1261" t="s">
+        <v>995</v>
+      </c>
+      <c r="K1261" t="s">
+        <v>999</v>
+      </c>
+      <c r="L1261" t="s">
+        <v>997</v>
+      </c>
+      <c r="M1261" t="s">
+        <v>998</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CDD343-864D-46C9-A824-14939A1E1F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708E3D96-9F0C-4C0D-852A-03F57A5544DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3224,9 +3224,6 @@
     <t>TC006_Verify_User_Redirected_To_Select_Plans_For_Payment_Pending</t>
   </si>
   <si>
-    <t>andrew74444+110@gmail.com</t>
-  </si>
-  <si>
     <t>TC501</t>
   </si>
   <si>
@@ -3360,6 +3357,9 @@
   </si>
   <si>
     <t>Accounting</t>
+  </si>
+  <si>
+    <t>andrew74444+162@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -6002,13 +6002,13 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>959</v>
+      </c>
+      <c r="B243" t="s">
+        <v>2</v>
+      </c>
+      <c r="C243" t="s">
         <v>960</v>
-      </c>
-      <c r="B243" t="s">
-        <v>2</v>
-      </c>
-      <c r="C243" t="s">
-        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -6022,8 +6022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1238" workbookViewId="0">
-      <selection activeCell="H1246" sqref="H1246"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6326,7 +6326,7 @@
         <v>958</v>
       </c>
       <c r="C29" t="s">
-        <v>959</v>
+        <v>1004</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -13943,7 +13943,7 @@
     </row>
     <row r="925" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B925"/>
     </row>
@@ -14089,7 +14089,7 @@
         <v>2</v>
       </c>
       <c r="B927" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C927" t="s">
         <v>4</v>
@@ -16989,7 +16989,7 @@
         <v>4</v>
       </c>
       <c r="D1115" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E1115" t="s">
         <v>834</v>
@@ -17085,7 +17085,7 @@
         <v>4</v>
       </c>
       <c r="D1125" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E1125" t="s">
         <v>834</v>
@@ -17136,7 +17136,7 @@
         <v>4</v>
       </c>
       <c r="D1129" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E1129" t="s">
         <v>834</v>
@@ -17187,7 +17187,7 @@
         <v>4</v>
       </c>
       <c r="D1134" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E1134" t="s">
         <v>834</v>
@@ -17238,7 +17238,7 @@
         <v>4</v>
       </c>
       <c r="D1140" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E1140" t="s">
         <v>834</v>
@@ -17289,7 +17289,7 @@
         <v>4</v>
       </c>
       <c r="D1147" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E1147" t="s">
         <v>834</v>
@@ -17337,7 +17337,7 @@
         <v>4</v>
       </c>
       <c r="D1151" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E1151" t="s">
         <v>16</v>
@@ -17382,7 +17382,7 @@
         <v>4</v>
       </c>
       <c r="D1157" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E1157" t="s">
         <v>834</v>
@@ -17478,7 +17478,7 @@
         <v>4</v>
       </c>
       <c r="D1161" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E1161" t="s">
         <v>834</v>
@@ -17574,7 +17574,7 @@
         <v>4</v>
       </c>
       <c r="D1165" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E1165" t="s">
         <v>834</v>
@@ -17640,7 +17640,7 @@
         <v>4</v>
       </c>
       <c r="D1170" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E1170" t="s">
         <v>16</v>
@@ -17766,10 +17766,10 @@
         <v>4</v>
       </c>
       <c r="D1177" t="s">
+        <v>961</v>
+      </c>
+      <c r="E1177" t="s">
         <v>962</v>
-      </c>
-      <c r="E1177" t="s">
-        <v>963</v>
       </c>
       <c r="F1177" t="s">
         <v>834</v>
@@ -17865,7 +17865,7 @@
         <v>4</v>
       </c>
       <c r="D1182" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E1182" t="s">
         <v>834</v>
@@ -17910,7 +17910,7 @@
         <v>4</v>
       </c>
       <c r="D1186" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E1186" t="s">
         <v>16</v>
@@ -18006,7 +18006,7 @@
         <v>4</v>
       </c>
       <c r="D1192" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E1192" t="s">
         <v>834</v>
@@ -18957,19 +18957,19 @@
         <v>67</v>
       </c>
       <c r="G1240" t="s">
+        <v>963</v>
+      </c>
+      <c r="H1240" t="s">
         <v>964</v>
-      </c>
-      <c r="H1240" t="s">
-        <v>965</v>
       </c>
       <c r="I1240" t="s">
         <v>488</v>
       </c>
       <c r="J1240" t="s">
+        <v>965</v>
+      </c>
+      <c r="K1240" t="s">
         <v>966</v>
-      </c>
-      <c r="K1240" t="s">
-        <v>967</v>
       </c>
       <c r="L1240" t="s">
         <v>275</v>
@@ -18980,7 +18980,7 @@
         <v>2</v>
       </c>
       <c r="B1241" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C1241" t="s">
         <v>4</v>
@@ -18995,19 +18995,19 @@
         <v>772</v>
       </c>
       <c r="G1241" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1241" t="s">
         <v>488</v>
       </c>
       <c r="I1241" t="s">
+        <v>968</v>
+      </c>
+      <c r="J1241" t="s">
         <v>969</v>
       </c>
-      <c r="J1241" t="s">
+      <c r="K1241" t="s">
         <v>970</v>
-      </c>
-      <c r="K1241" t="s">
-        <v>971</v>
       </c>
       <c r="L1241" t="s">
         <v>63</v>
@@ -19038,31 +19038,31 @@
         <v>276</v>
       </c>
       <c r="G1245" t="s">
+        <v>971</v>
+      </c>
+      <c r="H1245" t="s">
         <v>972</v>
-      </c>
-      <c r="H1245" t="s">
-        <v>973</v>
       </c>
       <c r="I1245" t="s">
         <v>275</v>
       </c>
       <c r="J1245" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1245" t="s">
         <v>974</v>
       </c>
-      <c r="K1245" t="s">
+      <c r="L1245" t="s">
         <v>975</v>
       </c>
-      <c r="L1245" t="s">
+      <c r="M1245" t="s">
         <v>976</v>
-      </c>
-      <c r="M1245" t="s">
-        <v>977</v>
       </c>
       <c r="N1245" t="s">
         <v>426</v>
       </c>
       <c r="O1245" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1246" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -19070,7 +19070,7 @@
         <v>2</v>
       </c>
       <c r="B1246" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C1246" t="s">
         <v>4</v>
@@ -19082,16 +19082,16 @@
         <v>10</v>
       </c>
       <c r="F1246" t="s">
+        <v>978</v>
+      </c>
+      <c r="G1246" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I1246" t="s">
         <v>979</v>
-      </c>
-      <c r="G1246" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H1246" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I1246" t="s">
-        <v>980</v>
       </c>
       <c r="J1246" t="s">
         <v>16</v>
@@ -19100,7 +19100,7 @@
         <v>468</v>
       </c>
       <c r="L1246" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M1246" s="3" t="s">
         <v>468</v>
@@ -19109,7 +19109,7 @@
         <v>277</v>
       </c>
       <c r="O1246" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1249" spans="1:13" x14ac:dyDescent="0.25">
@@ -19134,25 +19134,25 @@
         <v>7</v>
       </c>
       <c r="F1250" t="s">
+        <v>980</v>
+      </c>
+      <c r="G1250" t="s">
         <v>981</v>
       </c>
-      <c r="G1250" t="s">
+      <c r="H1250" t="s">
         <v>982</v>
       </c>
-      <c r="H1250" t="s">
+      <c r="I1250" t="s">
         <v>983</v>
       </c>
-      <c r="I1250" t="s">
+      <c r="J1250" t="s">
         <v>984</v>
       </c>
-      <c r="J1250" t="s">
+      <c r="K1250" t="s">
         <v>985</v>
       </c>
-      <c r="K1250" t="s">
-        <v>986</v>
-      </c>
       <c r="L1250" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1251" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -19160,7 +19160,7 @@
         <v>2</v>
       </c>
       <c r="B1251" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C1251" t="s">
         <v>4</v>
@@ -19172,16 +19172,16 @@
         <v>10</v>
       </c>
       <c r="F1251" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G1251" t="s">
+        <v>986</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>986</v>
+      </c>
+      <c r="I1251" t="s">
         <v>987</v>
-      </c>
-      <c r="H1251" t="s">
-        <v>987</v>
-      </c>
-      <c r="I1251" t="s">
-        <v>988</v>
       </c>
       <c r="J1251" s="3" t="s">
         <v>468</v>
@@ -19215,7 +19215,7 @@
         <v>7</v>
       </c>
       <c r="F1255" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G1255" t="s">
         <v>893</v>
@@ -19230,13 +19230,13 @@
         <v>7</v>
       </c>
       <c r="K1255" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L1255" t="s">
         <v>423</v>
       </c>
       <c r="M1255" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1256" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -19244,7 +19244,7 @@
         <v>2</v>
       </c>
       <c r="B1256" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C1256" t="s">
         <v>4</v>
@@ -19256,13 +19256,13 @@
         <v>10</v>
       </c>
       <c r="F1256" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G1256" t="s">
+        <v>990</v>
+      </c>
+      <c r="H1256" t="s">
         <v>991</v>
-      </c>
-      <c r="H1256" t="s">
-        <v>992</v>
       </c>
       <c r="J1256" t="s">
         <v>10</v>
@@ -19271,7 +19271,7 @@
         <v>10</v>
       </c>
       <c r="L1256" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M1256" t="s">
         <v>574</v>
@@ -19294,7 +19294,7 @@
         <v>7</v>
       </c>
       <c r="F1260" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G1260" t="s">
         <v>275</v>
@@ -19303,19 +19303,19 @@
         <v>276</v>
       </c>
       <c r="I1260" t="s">
+        <v>993</v>
+      </c>
+      <c r="J1260" t="s">
         <v>994</v>
       </c>
-      <c r="J1260" t="s">
+      <c r="K1260" t="s">
         <v>995</v>
       </c>
-      <c r="K1260" t="s">
+      <c r="L1260" t="s">
         <v>996</v>
       </c>
-      <c r="L1260" t="s">
+      <c r="M1260" t="s">
         <v>997</v>
-      </c>
-      <c r="M1260" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="1261" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -19323,7 +19323,7 @@
         <v>2</v>
       </c>
       <c r="B1261" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C1261" t="s">
         <v>4</v>
@@ -19335,7 +19335,7 @@
         <v>10</v>
       </c>
       <c r="F1261" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G1261" t="s">
         <v>275</v>
@@ -19344,19 +19344,19 @@
         <v>276</v>
       </c>
       <c r="I1261" t="s">
+        <v>993</v>
+      </c>
+      <c r="J1261" t="s">
         <v>994</v>
       </c>
-      <c r="J1261" t="s">
-        <v>995</v>
-      </c>
       <c r="K1261" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="L1261" t="s">
+        <v>996</v>
+      </c>
+      <c r="M1261" t="s">
         <v>997</v>
-      </c>
-      <c r="M1261" t="s">
-        <v>998</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708E3D96-9F0C-4C0D-852A-03F57A5544DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BEB7CB-491D-40C6-AB4D-42E552D0FB51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6022,8 +6022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BEB7CB-491D-40C6-AB4D-42E552D0FB51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C352B6-CE26-4AB3-A52F-1223CF05205B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2294,9 +2294,6 @@
     <t>TC162</t>
   </si>
   <si>
-    <t>Community -</t>
-  </si>
-  <si>
     <t>TC162_Verify_Member_Can_Able_To_Access_Manage_Community_When_The_CA_Role_Is_Assigned</t>
   </si>
   <si>
@@ -2321,9 +2318,6 @@
     <t>TC164_Search_Event_In_Community_Details_Page</t>
   </si>
   <si>
-    <t>Community 1 -</t>
-  </si>
-  <si>
     <t>TC165_Veirfy_Community_Website_URL_Redirected_To_Configured_Website</t>
   </si>
   <si>
@@ -2384,9 +2378,6 @@
     <t>TC175_Verify_Membership_Plan_Is_Not_Available_For_Purchasing_Pricing_Plan_Without_Membership_Plans_To_CA</t>
   </si>
   <si>
-    <t>Community 2 -</t>
-  </si>
-  <si>
     <t>TC174</t>
   </si>
   <si>
@@ -2582,9 +2573,6 @@
     <t>TC147_100_Percent_PromoCode_Event_Registration_From_Event_Details_Page</t>
   </si>
   <si>
-    <t>Community - 2</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -3360,6 +3348,18 @@
   </si>
   <si>
     <t>andrew74444+162@gmail.com</t>
+  </si>
+  <si>
+    <t>Community D -</t>
+  </si>
+  <si>
+    <t>community B -</t>
+  </si>
+  <si>
+    <t>Community C -</t>
+  </si>
+  <si>
+    <t>Community A -</t>
   </si>
 </sst>
 </file>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B163" t="s">
         <v>2</v>
@@ -5367,34 +5367,34 @@
         <v>2</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>655</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="B166" t="s">
-        <v>2</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B167" t="s">
         <v>2</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B168" t="s">
         <v>2</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B169" t="s">
         <v>2</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B170" t="s">
         <v>2</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B171" t="s">
         <v>2</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B172" t="s">
         <v>2</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B173" t="s">
         <v>2</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B174" t="s">
         <v>2</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B175" t="s">
         <v>2</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B176" t="s">
         <v>2</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B177" t="s">
         <v>2</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B178" t="s">
         <v>2</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B180" t="s">
         <v>2</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B181" t="s">
         <v>2</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B182" t="s">
         <v>2</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B183" t="s">
         <v>2</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B184" t="s">
         <v>2</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B188" t="s">
         <v>2</v>
@@ -5570,7 +5570,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B189" t="s">
         <v>2</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B190" t="s">
         <v>2</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B191" t="s">
         <v>2</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B192" t="s">
         <v>2</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B193" t="s">
         <v>2</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B194" t="s">
         <v>2</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B195" t="s">
         <v>2</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B196" t="s">
         <v>2</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B197" t="s">
         <v>2</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B198" t="s">
         <v>2</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B199" t="s">
         <v>2</v>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B200" t="s">
         <v>2</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B201" t="s">
         <v>2</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B202" t="s">
         <v>2</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B203" t="s">
         <v>2</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B204" t="s">
         <v>2</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B205" t="s">
         <v>2</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B206" t="s">
         <v>2</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B207" t="s">
         <v>2</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B208" t="s">
         <v>2</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B209" t="s">
         <v>2</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B210" t="s">
         <v>2</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B213" t="s">
         <v>2</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B214" t="s">
         <v>2</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B216" t="s">
         <v>2</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
@@ -5842,7 +5842,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B223" t="s">
         <v>2</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B225" t="s">
         <v>2</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B226" t="s">
         <v>2</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B227" t="s">
         <v>2</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B228" t="s">
         <v>2</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B229" t="s">
         <v>2</v>
@@ -5898,7 +5898,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B230" t="s">
         <v>2</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B231" t="s">
         <v>2</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B232" t="s">
         <v>2</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B233" t="s">
         <v>2</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B234" t="s">
         <v>2</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B235" t="s">
         <v>2</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B236" t="s">
         <v>2</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B237" t="s">
         <v>2</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B238" t="s">
         <v>2</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B239" t="s">
         <v>2</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B240" t="s">
         <v>2</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B241" t="s">
         <v>2</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B242" t="s">
         <v>2</v>
@@ -6002,13 +6002,13 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B243" t="s">
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
@@ -6022,8 +6022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" topLeftCell="A927" workbookViewId="0">
+      <selection activeCell="C932" sqref="C932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6128,7 +6128,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -6167,13 +6167,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -6206,10 +6206,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C17" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -6245,10 +6245,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C21" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -6284,10 +6284,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C25" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -6323,10 +6323,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C29" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -7124,7 +7124,7 @@
         <v>374</v>
       </c>
       <c r="C113" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D113" t="s">
         <v>262</v>
@@ -7205,7 +7205,7 @@
         <v>375</v>
       </c>
       <c r="C117" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D117" t="s">
         <v>261</v>
@@ -7286,7 +7286,7 @@
         <v>376</v>
       </c>
       <c r="C122" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D122" t="s">
         <v>262</v>
@@ -7364,7 +7364,7 @@
         <v>377</v>
       </c>
       <c r="C126" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D126" t="s">
         <v>262</v>
@@ -7442,7 +7442,7 @@
         <v>258</v>
       </c>
       <c r="C131" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
@@ -7520,7 +7520,7 @@
         <v>257</v>
       </c>
       <c r="C135" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="D135" t="s">
         <v>261</v>
@@ -7571,7 +7571,7 @@
         <v>268</v>
       </c>
       <c r="C140" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="D140" t="s">
         <v>16</v>
@@ -7583,7 +7583,7 @@
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="H140" t="s">
         <v>271</v>
@@ -7729,7 +7729,7 @@
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E150" t="s">
         <v>16</v>
@@ -7807,7 +7807,7 @@
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E159" t="s">
         <v>16</v>
@@ -7902,7 +7902,7 @@
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -7929,7 +7929,7 @@
         <v>71</v>
       </c>
       <c r="M167" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -7943,7 +7943,7 @@
         <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E168" t="s">
         <v>16</v>
@@ -7970,7 +7970,7 @@
         <v>65</v>
       </c>
       <c r="M168" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -8016,7 +8016,7 @@
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E172" t="s">
         <v>206</v>
@@ -8068,7 +8068,7 @@
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E176" t="s">
         <v>16</v>
@@ -8117,7 +8117,7 @@
         <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E180" t="s">
         <v>16</v>
@@ -8177,7 +8177,7 @@
         <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E186" t="s">
         <v>16</v>
@@ -8237,7 +8237,7 @@
         <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E192" t="s">
         <v>16</v>
@@ -8246,22 +8246,22 @@
         <v>10</v>
       </c>
       <c r="G192" t="s">
+        <v>770</v>
+      </c>
+      <c r="H192" t="s">
+        <v>771</v>
+      </c>
+      <c r="I192" t="s">
+        <v>772</v>
+      </c>
+      <c r="J192" t="s">
+        <v>773</v>
+      </c>
+      <c r="K192" t="s">
         <v>774</v>
       </c>
-      <c r="H192" t="s">
-        <v>775</v>
-      </c>
-      <c r="I192" t="s">
-        <v>776</v>
-      </c>
-      <c r="J192" t="s">
-        <v>777</v>
-      </c>
-      <c r="K192" t="s">
-        <v>778</v>
-      </c>
       <c r="L192" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -8322,7 +8322,7 @@
         <v>4</v>
       </c>
       <c r="D196" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E196" t="s">
         <v>16</v>
@@ -8415,7 +8415,7 @@
         <v>4</v>
       </c>
       <c r="D207" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E207" t="s">
         <v>262</v>
@@ -8487,7 +8487,7 @@
         <v>4</v>
       </c>
       <c r="D211" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E211" t="s">
         <v>16</v>
@@ -8544,7 +8544,7 @@
         <v>4</v>
       </c>
       <c r="D217" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E217" t="s">
         <v>16</v>
@@ -8601,7 +8601,7 @@
         <v>4</v>
       </c>
       <c r="D221" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E221" t="s">
         <v>16</v>
@@ -8658,7 +8658,7 @@
         <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E228" t="s">
         <v>356</v>
@@ -8709,7 +8709,7 @@
         <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E235" t="s">
         <v>356</v>
@@ -8778,7 +8778,7 @@
         <v>4</v>
       </c>
       <c r="D243" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E243" t="s">
         <v>16</v>
@@ -8910,7 +8910,7 @@
         <v>4</v>
       </c>
       <c r="D287" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E287" t="s">
         <v>16</v>
@@ -9027,7 +9027,7 @@
         <v>4</v>
       </c>
       <c r="D319" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E319" t="s">
         <v>16</v>
@@ -9174,7 +9174,7 @@
         <v>4</v>
       </c>
       <c r="D379" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E379" t="s">
         <v>356</v>
@@ -9186,7 +9186,7 @@
         <v>303</v>
       </c>
       <c r="H379" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -9304,7 +9304,7 @@
         <v>4</v>
       </c>
       <c r="D410" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E410" t="s">
         <v>16</v>
@@ -9391,7 +9391,7 @@
         <v>4</v>
       </c>
       <c r="D428" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E428" t="s">
         <v>385</v>
@@ -9451,7 +9451,7 @@
         <v>4</v>
       </c>
       <c r="D442" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E442" t="s">
         <v>355</v>
@@ -9882,7 +9882,7 @@
         <v>4</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E587" t="s">
         <v>16</v>
@@ -10008,7 +10008,7 @@
         <v>217</v>
       </c>
       <c r="Z613" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="614" spans="1:26" x14ac:dyDescent="0.25">
@@ -10022,7 +10022,7 @@
         <v>4</v>
       </c>
       <c r="D614" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E614" t="s">
         <v>16</v>
@@ -10421,7 +10421,7 @@
         <v>4</v>
       </c>
       <c r="D722" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E722" t="s">
         <v>16</v>
@@ -10469,7 +10469,7 @@
         <v>4</v>
       </c>
       <c r="D729" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E729" t="s">
         <v>16</v>
@@ -10520,7 +10520,7 @@
         <v>4</v>
       </c>
       <c r="D736" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E736" t="s">
         <v>16</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="750" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B750" s="6" t="s">
         <v>370</v>
@@ -10582,7 +10582,7 @@
         <v>4</v>
       </c>
       <c r="D750" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E750" t="s">
         <v>356</v>
@@ -10634,7 +10634,7 @@
         <v>4</v>
       </c>
       <c r="D757" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E757" t="s">
         <v>365</v>
@@ -10686,7 +10686,7 @@
         <v>4</v>
       </c>
       <c r="D764" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E764" t="s">
         <v>355</v>
@@ -10774,7 +10774,7 @@
         <v>4</v>
       </c>
       <c r="D779" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E779" t="s">
         <v>16</v>
@@ -10846,7 +10846,7 @@
         <v>274</v>
       </c>
       <c r="L782" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="M782" t="s">
         <v>485</v>
@@ -10858,7 +10858,7 @@
         <v>314</v>
       </c>
       <c r="P782" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="783" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -10872,7 +10872,7 @@
         <v>4</v>
       </c>
       <c r="D783" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E783" t="s">
         <v>16</v>
@@ -10965,7 +10965,7 @@
         <v>274</v>
       </c>
       <c r="L788" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="M788" t="s">
         <v>485</v>
@@ -10977,7 +10977,7 @@
         <v>314</v>
       </c>
       <c r="P788" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="789" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -10991,7 +10991,7 @@
         <v>4</v>
       </c>
       <c r="D789" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E789" t="s">
         <v>16</v>
@@ -11093,7 +11093,7 @@
         <v>286</v>
       </c>
       <c r="O794" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="795" spans="1:16" x14ac:dyDescent="0.25">
@@ -11107,7 +11107,7 @@
         <v>4</v>
       </c>
       <c r="D795" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E795" t="s">
         <v>262</v>
@@ -11122,7 +11122,7 @@
         <v>493</v>
       </c>
       <c r="I795" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="J795" t="s">
         <v>38</v>
@@ -11203,7 +11203,7 @@
         <v>286</v>
       </c>
       <c r="O800" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="801" spans="1:14" x14ac:dyDescent="0.25">
@@ -11217,7 +11217,7 @@
         <v>4</v>
       </c>
       <c r="D801" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E801" t="s">
         <v>262</v>
@@ -11232,7 +11232,7 @@
         <v>493</v>
       </c>
       <c r="I801" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="J801" t="s">
         <v>38</v>
@@ -11290,10 +11290,10 @@
         <v>417</v>
       </c>
       <c r="L805" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="M805" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="806" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -11307,7 +11307,7 @@
         <v>4</v>
       </c>
       <c r="D806" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E806" t="s">
         <v>262</v>
@@ -11319,7 +11319,7 @@
         <v>505</v>
       </c>
       <c r="H806" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="I806" t="s">
         <v>38</v>
@@ -11331,7 +11331,7 @@
         <v>495</v>
       </c>
       <c r="L806" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="807" spans="1:14" x14ac:dyDescent="0.25">
@@ -11340,7 +11340,7 @@
     </row>
     <row r="808" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="H808" s="3"/>
       <c r="L808" s="3"/>
@@ -11380,10 +11380,10 @@
         <v>417</v>
       </c>
       <c r="L809" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="M809" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="810" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -11391,13 +11391,13 @@
         <v>2</v>
       </c>
       <c r="B810" s="6" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C810" t="s">
         <v>4</v>
       </c>
       <c r="D810" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E810" t="s">
         <v>262</v>
@@ -11409,7 +11409,7 @@
         <v>505</v>
       </c>
       <c r="H810" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="I810" t="s">
         <v>38</v>
@@ -11421,10 +11421,10 @@
         <v>495</v>
       </c>
       <c r="L810" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="M810" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="811" spans="1:14" x14ac:dyDescent="0.25">
@@ -11433,7 +11433,7 @@
     </row>
     <row r="812" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H812" s="3"/>
       <c r="L812" s="3"/>
@@ -11473,10 +11473,10 @@
         <v>417</v>
       </c>
       <c r="L813" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="M813" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="814" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -11484,13 +11484,13 @@
         <v>2</v>
       </c>
       <c r="B814" s="6" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C814" t="s">
         <v>4</v>
       </c>
       <c r="D814" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E814" t="s">
         <v>262</v>
@@ -11502,7 +11502,7 @@
         <v>505</v>
       </c>
       <c r="H814" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="I814" t="s">
         <v>38</v>
@@ -11514,10 +11514,10 @@
         <v>495</v>
       </c>
       <c r="L814" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="M814" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="815" spans="1:14" x14ac:dyDescent="0.25">
@@ -11530,7 +11530,7 @@
     </row>
     <row r="817" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B817" s="6" t="s">
         <v>263</v>
@@ -11563,10 +11563,10 @@
         <v>417</v>
       </c>
       <c r="L817" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="M817" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="818" spans="1:13" x14ac:dyDescent="0.25">
@@ -11592,7 +11592,7 @@
     </row>
     <row r="821" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H821" s="3"/>
       <c r="L821" s="3"/>
@@ -11624,7 +11624,7 @@
         <v>2</v>
       </c>
       <c r="B823" s="6" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C823" t="s">
         <v>4</v>
@@ -11636,7 +11636,7 @@
         <v>10</v>
       </c>
       <c r="F823" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H823" s="3"/>
       <c r="L823" s="3"/>
@@ -11647,7 +11647,7 @@
     </row>
     <row r="825" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="H825" s="3"/>
       <c r="L825" s="3"/>
@@ -11679,7 +11679,7 @@
         <v>2</v>
       </c>
       <c r="B827" s="6" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C827" t="s">
         <v>4</v>
@@ -11706,7 +11706,7 @@
     </row>
     <row r="830" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H830" s="3"/>
       <c r="L830" s="3"/>
@@ -11731,7 +11731,7 @@
         <v>202</v>
       </c>
       <c r="G831" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H831" s="3" t="s">
         <v>275</v>
@@ -11754,7 +11754,7 @@
         <v>2</v>
       </c>
       <c r="B832" s="6" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C832" t="s">
         <v>4</v>
@@ -11772,7 +11772,7 @@
         <v>241</v>
       </c>
       <c r="H832" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I832" s="5" t="s">
         <v>219</v>
@@ -11784,7 +11784,7 @@
         <v>71</v>
       </c>
       <c r="L832" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="833" spans="1:14" x14ac:dyDescent="0.25">
@@ -11793,7 +11793,7 @@
     </row>
     <row r="834" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H834" s="3"/>
       <c r="L834" s="3"/>
@@ -11828,7 +11828,7 @@
         <v>2</v>
       </c>
       <c r="B836" s="6" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C836" t="s">
         <v>4</v>
@@ -11843,7 +11843,7 @@
         <v>303</v>
       </c>
       <c r="G836" s="5" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="H836" s="3"/>
       <c r="L836" s="3"/>
@@ -11902,7 +11902,7 @@
         <v>512</v>
       </c>
       <c r="N841" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="842" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -11910,13 +11910,13 @@
         <v>2</v>
       </c>
       <c r="B842" s="6" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C842" t="s">
         <v>4</v>
       </c>
       <c r="D842" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E842" t="s">
         <v>262</v>
@@ -11931,7 +11931,7 @@
         <v>493</v>
       </c>
       <c r="I842" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="J842" t="s">
         <v>38</v>
@@ -11943,7 +11943,7 @@
         <v>495</v>
       </c>
       <c r="M842" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="846" spans="1:14" x14ac:dyDescent="0.25">
@@ -11989,7 +11989,7 @@
         <v>512</v>
       </c>
       <c r="M847" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="848" spans="1:14" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -11997,7 +11997,7 @@
         <v>2</v>
       </c>
       <c r="B848" s="6" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C848" s="5" t="s">
         <v>4</v>
@@ -12015,7 +12015,7 @@
         <v>493</v>
       </c>
       <c r="H848" s="5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="I848" s="5" t="s">
         <v>38</v>
@@ -12027,10 +12027,10 @@
         <v>495</v>
       </c>
       <c r="L848" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="M848" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="851" spans="1:48" x14ac:dyDescent="0.25">
@@ -12066,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="B853" s="6" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C853" s="5" t="s">
         <v>4</v>
@@ -12078,7 +12078,7 @@
         <v>10</v>
       </c>
       <c r="F853" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G853" t="s">
         <v>508</v>
@@ -12253,7 +12253,7 @@
         <v>10</v>
       </c>
       <c r="F858" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G858" t="s">
         <v>499</v>
@@ -12295,7 +12295,7 @@
         <v>556</v>
       </c>
       <c r="T858" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="U858" t="s">
         <v>557</v>
@@ -12322,7 +12322,7 @@
         <v>562</v>
       </c>
       <c r="AC858" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="AD858" s="3" t="s">
         <v>564</v>
@@ -12340,7 +12340,7 @@
         <v>240</v>
       </c>
       <c r="AI858" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AJ858" s="3" t="s">
         <v>618</v>
@@ -12370,7 +12370,7 @@
         <v>568</v>
       </c>
       <c r="AS858" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="AT858" t="s">
         <v>569</v>
@@ -12545,7 +12545,7 @@
         <v>10</v>
       </c>
       <c r="F863" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G863" t="s">
         <v>574</v>
@@ -12587,7 +12587,7 @@
         <v>556</v>
       </c>
       <c r="T863" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="U863" t="s">
         <v>557</v>
@@ -12614,7 +12614,7 @@
         <v>562</v>
       </c>
       <c r="AC863" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="AD863" s="3" t="s">
         <v>564</v>
@@ -12632,7 +12632,7 @@
         <v>240</v>
       </c>
       <c r="AI863" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AJ863" s="3" t="s">
         <v>618</v>
@@ -12662,7 +12662,7 @@
         <v>568</v>
       </c>
       <c r="AS863" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="AT863" t="s">
         <v>569</v>
@@ -12842,7 +12842,7 @@
         <v>10</v>
       </c>
       <c r="F871" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G871" t="s">
         <v>499</v>
@@ -12884,7 +12884,7 @@
         <v>556</v>
       </c>
       <c r="T871" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="U871" t="s">
         <v>557</v>
@@ -12911,7 +12911,7 @@
         <v>562</v>
       </c>
       <c r="AC871" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="AD871" s="3" t="s">
         <v>564</v>
@@ -12929,7 +12929,7 @@
         <v>240</v>
       </c>
       <c r="AI871" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AJ871" s="3" t="s">
         <v>618</v>
@@ -12959,7 +12959,7 @@
         <v>568</v>
       </c>
       <c r="AS871" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="AT871" t="s">
         <v>569</v>
@@ -13011,7 +13011,7 @@
         <v>590</v>
       </c>
       <c r="L874" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="875" spans="1:48" ht="45" x14ac:dyDescent="0.25">
@@ -13089,7 +13089,7 @@
         <v>590</v>
       </c>
       <c r="L878" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="879" spans="1:48" ht="45" x14ac:dyDescent="0.25">
@@ -13170,7 +13170,7 @@
         <v>589</v>
       </c>
       <c r="L882" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="M882" t="s">
         <v>590</v>
@@ -13181,7 +13181,7 @@
         <v>2</v>
       </c>
       <c r="B883" s="6" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C883" s="5" t="s">
         <v>4</v>
@@ -13193,7 +13193,7 @@
         <v>10</v>
       </c>
       <c r="F883" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G883" t="s">
         <v>643</v>
@@ -13202,7 +13202,7 @@
         <v>262</v>
       </c>
       <c r="L883" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="M883" t="s">
         <v>320</v>
@@ -13248,7 +13248,7 @@
         <v>589</v>
       </c>
       <c r="L886" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="M886" t="s">
         <v>590</v>
@@ -13259,7 +13259,7 @@
         <v>2</v>
       </c>
       <c r="B887" s="6" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C887" s="5" t="s">
         <v>4</v>
@@ -13271,7 +13271,7 @@
         <v>10</v>
       </c>
       <c r="F887" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G887" t="s">
         <v>643</v>
@@ -13280,7 +13280,7 @@
         <v>262</v>
       </c>
       <c r="L887" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="M887" t="s">
         <v>16</v>
@@ -13326,7 +13326,7 @@
         <v>589</v>
       </c>
       <c r="L890" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="M890" t="s">
         <v>590</v>
@@ -13337,7 +13337,7 @@
         <v>2</v>
       </c>
       <c r="B891" s="6" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C891" s="5" t="s">
         <v>4</v>
@@ -13349,7 +13349,7 @@
         <v>10</v>
       </c>
       <c r="F891" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G891" t="s">
         <v>643</v>
@@ -13358,7 +13358,7 @@
         <v>262</v>
       </c>
       <c r="L891" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="M891" t="s">
         <v>16</v>
@@ -13499,7 +13499,7 @@
         <v>4</v>
       </c>
       <c r="D900" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E900" t="s">
         <v>16</v>
@@ -13578,7 +13578,7 @@
         <v>4</v>
       </c>
       <c r="D910" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E910" t="s">
         <v>365</v>
@@ -13590,7 +13590,7 @@
         <v>396</v>
       </c>
       <c r="H910" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="I910" t="s">
         <v>405</v>
@@ -13641,7 +13641,7 @@
         <v>4</v>
       </c>
       <c r="D915" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E915" t="s">
         <v>16</v>
@@ -13653,7 +13653,7 @@
         <v>396</v>
       </c>
       <c r="H915" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="I915" t="s">
         <v>405</v>
@@ -13815,7 +13815,7 @@
         <v>4</v>
       </c>
       <c r="D920" t="s">
-        <v>745</v>
+        <v>1001</v>
       </c>
       <c r="E920" t="s">
         <v>16</v>
@@ -13827,7 +13827,7 @@
         <v>261</v>
       </c>
       <c r="H920" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I920" t="s">
         <v>271</v>
@@ -13905,7 +13905,7 @@
         <v>394</v>
       </c>
       <c r="AH920" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AI920" t="s">
         <v>405</v>
@@ -13929,7 +13929,7 @@
         <v>71</v>
       </c>
       <c r="AP920" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="AQ920" t="s">
         <v>262</v>
@@ -13943,7 +13943,7 @@
     </row>
     <row r="925" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B925"/>
     </row>
@@ -14089,13 +14089,13 @@
         <v>2</v>
       </c>
       <c r="B927" s="6" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C927" t="s">
         <v>4</v>
       </c>
       <c r="D927" t="s">
-        <v>658</v>
+        <v>1002</v>
       </c>
       <c r="E927" t="s">
         <v>16</v>
@@ -14107,7 +14107,7 @@
         <v>261</v>
       </c>
       <c r="H927" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I927" t="s">
         <v>271</v>
@@ -14185,7 +14185,7 @@
         <v>394</v>
       </c>
       <c r="AH927" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AI927" t="s">
         <v>405</v>
@@ -14209,7 +14209,7 @@
         <v>71</v>
       </c>
       <c r="AP927" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="AQ927" t="s">
         <v>262</v>
@@ -14223,7 +14223,7 @@
     </row>
     <row r="930" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="931" spans="1:28" x14ac:dyDescent="0.25">
@@ -14309,7 +14309,7 @@
         <v>217</v>
       </c>
       <c r="AB931" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="932" spans="1:28" ht="60" x14ac:dyDescent="0.25">
@@ -14317,13 +14317,13 @@
         <v>2</v>
       </c>
       <c r="B932" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C932" t="s">
         <v>4</v>
       </c>
       <c r="D932" t="s">
-        <v>658</v>
+        <v>1002</v>
       </c>
       <c r="E932" t="s">
         <v>16</v>
@@ -14394,7 +14394,7 @@
     </row>
     <row r="938" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B938"/>
     </row>
@@ -14423,13 +14423,13 @@
         <v>2</v>
       </c>
       <c r="B940" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C940" t="s">
         <v>4</v>
       </c>
       <c r="D940" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E940" t="s">
         <v>16</v>
@@ -14440,7 +14440,7 @@
     </row>
     <row r="943" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="944" spans="1:28" x14ac:dyDescent="0.25">
@@ -14465,16 +14465,16 @@
     </row>
     <row r="945" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B945" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C945" t="s">
         <v>4</v>
       </c>
       <c r="D945" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E945" t="s">
         <v>16</v>
@@ -14488,7 +14488,7 @@
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B950"/>
     </row>
@@ -14517,13 +14517,13 @@
         <v>2</v>
       </c>
       <c r="B952" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C952" t="s">
         <v>4</v>
       </c>
       <c r="D952" t="s">
-        <v>658</v>
+        <v>1002</v>
       </c>
       <c r="E952" t="s">
         <v>292</v>
@@ -14534,7 +14534,7 @@
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.25">
@@ -14562,13 +14562,13 @@
         <v>2</v>
       </c>
       <c r="B957" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C957" t="s">
         <v>4</v>
       </c>
       <c r="D957" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E957" t="s">
         <v>16</v>
@@ -14582,7 +14582,7 @@
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
@@ -14610,13 +14610,13 @@
         <v>2</v>
       </c>
       <c r="B961" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C961" t="s">
         <v>4</v>
       </c>
       <c r="D961" t="s">
-        <v>658</v>
+        <v>1002</v>
       </c>
       <c r="E961" t="s">
         <v>16</v>
@@ -14627,7 +14627,7 @@
     </row>
     <row r="963" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="964" spans="1:45" x14ac:dyDescent="0.25">
@@ -14658,13 +14658,13 @@
         <v>2</v>
       </c>
       <c r="B965" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C965" t="s">
         <v>4</v>
       </c>
       <c r="D965" t="s">
-        <v>658</v>
+        <v>1002</v>
       </c>
       <c r="E965" t="s">
         <v>16</v>
@@ -14678,7 +14678,7 @@
     </row>
     <row r="967" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="968" spans="1:45" x14ac:dyDescent="0.25">
@@ -14721,13 +14721,13 @@
         <v>2</v>
       </c>
       <c r="B969" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C969" t="s">
         <v>4</v>
       </c>
       <c r="D969" t="s">
-        <v>658</v>
+        <v>1002</v>
       </c>
       <c r="E969" t="s">
         <v>16</v>
@@ -14739,10 +14739,10 @@
         <v>409</v>
       </c>
       <c r="H969" s="3" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I969" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="J969" t="s">
         <v>282</v>
@@ -14753,7 +14753,7 @@
     </row>
     <row r="971" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B971"/>
     </row>
@@ -14899,13 +14899,13 @@
         <v>2</v>
       </c>
       <c r="B973" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C973" t="s">
         <v>4</v>
       </c>
       <c r="D973" t="s">
-        <v>679</v>
+        <v>1003</v>
       </c>
       <c r="E973" t="s">
         <v>16</v>
@@ -14917,7 +14917,7 @@
         <v>261</v>
       </c>
       <c r="H973" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I973" t="s">
         <v>271</v>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="978" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B978"/>
     </row>
@@ -15077,13 +15077,13 @@
         <v>2</v>
       </c>
       <c r="B980" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C980" t="s">
         <v>4</v>
       </c>
       <c r="D980" t="s">
-        <v>658</v>
+        <v>1002</v>
       </c>
       <c r="E980" t="s">
         <v>16</v>
@@ -15109,7 +15109,7 @@
     </row>
     <row r="985" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B985"/>
     </row>
@@ -15153,13 +15153,13 @@
         <v>2</v>
       </c>
       <c r="B987" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C987" t="s">
         <v>4</v>
       </c>
       <c r="D987" t="s">
-        <v>658</v>
+        <v>1002</v>
       </c>
       <c r="E987" t="s">
         <v>16</v>
@@ -15185,7 +15185,7 @@
     </row>
     <row r="991" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B991"/>
     </row>
@@ -15217,13 +15217,13 @@
         <v>2</v>
       </c>
       <c r="B993" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C993" t="s">
         <v>4</v>
       </c>
       <c r="D993" t="s">
-        <v>658</v>
+        <v>1002</v>
       </c>
       <c r="E993" t="s">
         <v>262</v>
@@ -15243,7 +15243,7 @@
     </row>
     <row r="996" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B996"/>
     </row>
@@ -15275,13 +15275,13 @@
         <v>2</v>
       </c>
       <c r="B998" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C998" t="s">
         <v>4</v>
       </c>
       <c r="D998" t="s">
-        <v>658</v>
+        <v>1002</v>
       </c>
       <c r="E998" t="s">
         <v>16</v>
@@ -15290,7 +15290,7 @@
         <v>10</v>
       </c>
       <c r="G998" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="999" spans="1:11" x14ac:dyDescent="0.25">
@@ -15301,7 +15301,7 @@
     </row>
     <row r="1001" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B1001"/>
     </row>
@@ -15345,13 +15345,13 @@
         <v>2</v>
       </c>
       <c r="B1003" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C1003" t="s">
         <v>4</v>
       </c>
       <c r="D1003" t="s">
-        <v>745</v>
+        <v>1001</v>
       </c>
       <c r="E1003" t="s">
         <v>16</v>
@@ -15360,19 +15360,19 @@
         <v>10</v>
       </c>
       <c r="G1003" t="s">
+        <v>702</v>
+      </c>
+      <c r="H1003" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="H1003" s="3" t="s">
-        <v>708</v>
-      </c>
       <c r="I1003" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="J1003" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="K1003" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="1004" spans="1:11" x14ac:dyDescent="0.25">
@@ -15383,7 +15383,7 @@
     </row>
     <row r="1006" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B1006"/>
     </row>
@@ -15412,13 +15412,13 @@
         <v>2</v>
       </c>
       <c r="B1008" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C1008" t="s">
         <v>4</v>
       </c>
       <c r="D1008" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E1008" t="s">
         <v>16</v>
@@ -15435,7 +15435,7 @@
     </row>
     <row r="1011" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B1011"/>
     </row>
@@ -15459,58 +15459,58 @@
         <v>7</v>
       </c>
       <c r="G1012" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H1012" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I1012" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="J1012" t="s">
+        <v>720</v>
+      </c>
+      <c r="K1012" t="s">
+        <v>721</v>
+      </c>
+      <c r="L1012" t="s">
+        <v>722</v>
+      </c>
+      <c r="M1012" t="s">
+        <v>743</v>
+      </c>
+      <c r="N1012" t="s">
+        <v>744</v>
+      </c>
+      <c r="O1012" t="s">
         <v>723</v>
       </c>
-      <c r="K1012" t="s">
+      <c r="P1012" t="s">
         <v>724</v>
       </c>
-      <c r="L1012" t="s">
+      <c r="Q1012" t="s">
         <v>725</v>
       </c>
-      <c r="M1012" t="s">
-        <v>747</v>
-      </c>
-      <c r="N1012" t="s">
-        <v>748</v>
-      </c>
-      <c r="O1012" t="s">
+      <c r="R1012" t="s">
         <v>726</v>
       </c>
-      <c r="P1012" t="s">
+      <c r="S1012" t="s">
         <v>727</v>
       </c>
-      <c r="Q1012" t="s">
+      <c r="T1012" t="s">
         <v>728</v>
       </c>
-      <c r="R1012" t="s">
+      <c r="U1012" t="s">
         <v>729</v>
       </c>
-      <c r="S1012" t="s">
+      <c r="V1012" t="s">
         <v>730</v>
       </c>
-      <c r="T1012" t="s">
+      <c r="W1012" t="s">
         <v>731</v>
       </c>
-      <c r="U1012" t="s">
+      <c r="X1012" t="s">
         <v>732</v>
-      </c>
-      <c r="V1012" t="s">
-        <v>733</v>
-      </c>
-      <c r="W1012" t="s">
-        <v>734</v>
-      </c>
-      <c r="X1012" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="1013" spans="1:24" x14ac:dyDescent="0.25">
@@ -15518,13 +15518,13 @@
         <v>2</v>
       </c>
       <c r="B1013" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C1013" t="s">
         <v>4</v>
       </c>
       <c r="D1013" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E1013" t="s">
         <v>16</v>
@@ -15533,31 +15533,31 @@
         <v>10</v>
       </c>
       <c r="G1013" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H1013" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="I1013" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="J1013" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K1013" t="s">
         <v>394</v>
       </c>
       <c r="L1013" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M1013" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N1013" s="3" t="s">
         <v>560</v>
       </c>
       <c r="O1013" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="P1013" s="3" t="s">
         <v>574</v>
@@ -15675,7 +15675,7 @@
         <v>10</v>
       </c>
       <c r="F1024" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G1024" t="s">
         <v>643</v>
@@ -15756,7 +15756,7 @@
         <v>10</v>
       </c>
       <c r="F1029" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G1029" t="s">
         <v>643</v>
@@ -15837,7 +15837,7 @@
         <v>10</v>
       </c>
       <c r="F1034" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G1034" t="s">
         <v>643</v>
@@ -15918,7 +15918,7 @@
         <v>10</v>
       </c>
       <c r="F1038" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G1038" t="s">
         <v>643</v>
@@ -16020,7 +16020,7 @@
         <v>429</v>
       </c>
       <c r="C1042" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D1042" t="s">
         <v>16</v>
@@ -16137,7 +16137,7 @@
         <v>10</v>
       </c>
       <c r="F1046" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G1046" t="s">
         <v>642</v>
@@ -16197,7 +16197,7 @@
         <v>10</v>
       </c>
       <c r="F1051" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1053" spans="1:22" x14ac:dyDescent="0.25">
@@ -16233,7 +16233,7 @@
         <v>2</v>
       </c>
       <c r="B1055" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C1055" t="s">
         <v>4</v>
@@ -16245,15 +16245,15 @@
         <v>10</v>
       </c>
       <c r="F1055" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G1055" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="1058" spans="1:7" x14ac:dyDescent="0.25">
@@ -16276,7 +16276,7 @@
         <v>67</v>
       </c>
       <c r="G1058" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="1059" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16284,7 +16284,7 @@
         <v>2</v>
       </c>
       <c r="B1059" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C1059" t="s">
         <v>4</v>
@@ -16296,15 +16296,15 @@
         <v>10</v>
       </c>
       <c r="F1059" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G1059" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1061" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="1062" spans="1:7" x14ac:dyDescent="0.25">
@@ -16335,7 +16335,7 @@
         <v>2</v>
       </c>
       <c r="B1063" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C1063" t="s">
         <v>4</v>
@@ -16347,7 +16347,7 @@
         <v>10</v>
       </c>
       <c r="F1063" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G1063" t="s">
         <v>642</v>
@@ -16355,7 +16355,7 @@
     </row>
     <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
@@ -16383,7 +16383,7 @@
         <v>2</v>
       </c>
       <c r="B1067" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C1067" t="s">
         <v>4</v>
@@ -16395,12 +16395,12 @@
         <v>10</v>
       </c>
       <c r="F1067" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
@@ -16428,7 +16428,7 @@
         <v>2</v>
       </c>
       <c r="B1072" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C1072" t="s">
         <v>4</v>
@@ -16440,12 +16440,12 @@
         <v>10</v>
       </c>
       <c r="F1072" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1077" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1078" spans="1:10" x14ac:dyDescent="0.25">
@@ -16468,7 +16468,7 @@
         <v>67</v>
       </c>
       <c r="G1078" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="H1078" t="s">
         <v>275</v>
@@ -16479,7 +16479,7 @@
         <v>2</v>
       </c>
       <c r="B1079" s="6" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C1079" t="s">
         <v>4</v>
@@ -16491,10 +16491,10 @@
         <v>10</v>
       </c>
       <c r="F1079" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G1079" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="H1079" t="s">
         <v>275</v>
@@ -16502,7 +16502,7 @@
     </row>
     <row r="1081" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.25">
@@ -16525,7 +16525,7 @@
         <v>67</v>
       </c>
       <c r="G1082" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="H1082" t="s">
         <v>275</v>
@@ -16536,7 +16536,7 @@
         <v>2</v>
       </c>
       <c r="B1083" s="6" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C1083" t="s">
         <v>4</v>
@@ -16548,10 +16548,10 @@
         <v>10</v>
       </c>
       <c r="F1083" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G1083" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="H1083" t="s">
         <v>275</v>
@@ -16559,7 +16559,7 @@
     </row>
     <row r="1085" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1086" spans="1:10" x14ac:dyDescent="0.25">
@@ -16585,13 +16585,13 @@
         <v>35</v>
       </c>
       <c r="H1086" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I1086" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="J1086" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1087" spans="1:10" x14ac:dyDescent="0.25">
@@ -16599,7 +16599,7 @@
         <v>2</v>
       </c>
       <c r="B1087" s="6" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C1087" t="s">
         <v>4</v>
@@ -16611,24 +16611,24 @@
         <v>10</v>
       </c>
       <c r="F1087" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G1087" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="H1087" t="s">
         <v>275</v>
       </c>
       <c r="I1087" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="J1087" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1089" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1090" spans="1:9" x14ac:dyDescent="0.25">
@@ -16659,7 +16659,7 @@
         <v>2</v>
       </c>
       <c r="B1091" s="6" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C1091" t="s">
         <v>4</v>
@@ -16671,7 +16671,7 @@
         <v>10</v>
       </c>
       <c r="F1091" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="G1091" t="s">
         <v>643</v>
@@ -16679,7 +16679,7 @@
     </row>
     <row r="1094" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1095" spans="1:9" x14ac:dyDescent="0.25">
@@ -16705,7 +16705,7 @@
         <v>339</v>
       </c>
       <c r="H1095" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1096" spans="1:9" x14ac:dyDescent="0.25">
@@ -16713,13 +16713,13 @@
         <v>2</v>
       </c>
       <c r="B1096" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C1096" t="s">
         <v>4</v>
       </c>
       <c r="D1096" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E1096" t="s">
         <v>16</v>
@@ -16731,12 +16731,12 @@
         <v>238</v>
       </c>
       <c r="H1096" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1098" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1099" spans="1:9" x14ac:dyDescent="0.25">
@@ -16767,13 +16767,13 @@
         <v>2</v>
       </c>
       <c r="B1100" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C1100" t="s">
         <v>4</v>
       </c>
       <c r="D1100" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E1100" t="s">
         <v>16</v>
@@ -16782,12 +16782,12 @@
         <v>10</v>
       </c>
       <c r="G1100" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1103" spans="1:9" x14ac:dyDescent="0.25">
@@ -16816,7 +16816,7 @@
         <v>245</v>
       </c>
       <c r="I1103" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1104" spans="1:9" x14ac:dyDescent="0.25">
@@ -16824,13 +16824,13 @@
         <v>2</v>
       </c>
       <c r="B1104" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C1104" t="s">
         <v>4</v>
       </c>
       <c r="D1104" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E1104" t="s">
         <v>16</v>
@@ -16845,12 +16845,12 @@
         <v>238</v>
       </c>
       <c r="I1104" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1108" spans="1:22" x14ac:dyDescent="0.25">
@@ -16884,13 +16884,13 @@
         <v>2</v>
       </c>
       <c r="B1109" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C1109" t="s">
         <v>4</v>
       </c>
       <c r="D1109" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="E1109" t="s">
         <v>16</v>
@@ -16902,12 +16902,12 @@
         <v>303</v>
       </c>
       <c r="H1109" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1114" spans="1:22" x14ac:dyDescent="0.25">
@@ -16948,7 +16948,7 @@
         <v>53</v>
       </c>
       <c r="M1114" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="N1114" t="s">
         <v>55</v>
@@ -16960,22 +16960,22 @@
         <v>57</v>
       </c>
       <c r="Q1114" t="s">
+        <v>875</v>
+      </c>
+      <c r="R1114" t="s">
+        <v>876</v>
+      </c>
+      <c r="S1114" t="s">
+        <v>877</v>
+      </c>
+      <c r="T1114" t="s">
+        <v>878</v>
+      </c>
+      <c r="U1114" t="s">
         <v>879</v>
       </c>
-      <c r="R1114" t="s">
+      <c r="V1114" t="s">
         <v>880</v>
-      </c>
-      <c r="S1114" t="s">
-        <v>881</v>
-      </c>
-      <c r="T1114" t="s">
-        <v>882</v>
-      </c>
-      <c r="U1114" t="s">
-        <v>883</v>
-      </c>
-      <c r="V1114" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="1115" spans="1:22" x14ac:dyDescent="0.25">
@@ -16983,16 +16983,16 @@
         <v>2</v>
       </c>
       <c r="B1115" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C1115" t="s">
         <v>4</v>
       </c>
       <c r="D1115" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E1115" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1115" t="s">
         <v>10</v>
@@ -17019,16 +17019,16 @@
         <v>61</v>
       </c>
       <c r="N1115" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="O1115" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="P1115" t="s">
         <v>71</v>
       </c>
       <c r="Q1115" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="R1115">
         <v>20</v>
@@ -17048,7 +17048,7 @@
     </row>
     <row r="1123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1124" spans="1:7" x14ac:dyDescent="0.25">
@@ -17071,7 +17071,7 @@
         <v>7</v>
       </c>
       <c r="G1124" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17079,16 +17079,16 @@
         <v>2</v>
       </c>
       <c r="B1125" s="6" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C1125" t="s">
         <v>4</v>
       </c>
       <c r="D1125" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E1125" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1125" t="s">
         <v>10</v>
@@ -17099,7 +17099,7 @@
     </row>
     <row r="1127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1128" spans="1:7" x14ac:dyDescent="0.25">
@@ -17122,7 +17122,7 @@
         <v>7</v>
       </c>
       <c r="G1128" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17130,16 +17130,16 @@
         <v>2</v>
       </c>
       <c r="B1129" s="6" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C1129" t="s">
         <v>4</v>
       </c>
       <c r="D1129" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E1129" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1129" t="s">
         <v>10</v>
@@ -17150,7 +17150,7 @@
     </row>
     <row r="1132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1133" spans="1:7" x14ac:dyDescent="0.25">
@@ -17173,7 +17173,7 @@
         <v>7</v>
       </c>
       <c r="G1133" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1134" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -17181,16 +17181,16 @@
         <v>2</v>
       </c>
       <c r="B1134" s="6" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C1134" t="s">
         <v>4</v>
       </c>
       <c r="D1134" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E1134" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1134" t="s">
         <v>10</v>
@@ -17201,7 +17201,7 @@
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1139" spans="1:7" x14ac:dyDescent="0.25">
@@ -17224,7 +17224,7 @@
         <v>7</v>
       </c>
       <c r="G1139" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17232,16 +17232,16 @@
         <v>2</v>
       </c>
       <c r="B1140" s="6" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C1140" t="s">
         <v>4</v>
       </c>
       <c r="D1140" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E1140" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1140" t="s">
         <v>10</v>
@@ -17252,7 +17252,7 @@
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
@@ -17275,7 +17275,7 @@
         <v>7</v>
       </c>
       <c r="G1146" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17283,16 +17283,16 @@
         <v>2</v>
       </c>
       <c r="B1147" s="6" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C1147" t="s">
         <v>4</v>
       </c>
       <c r="D1147" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E1147" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1147" t="s">
         <v>10</v>
@@ -17303,7 +17303,7 @@
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
@@ -17331,13 +17331,13 @@
         <v>2</v>
       </c>
       <c r="B1151" s="6" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C1151" t="s">
         <v>4</v>
       </c>
       <c r="D1151" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E1151" t="s">
         <v>16</v>
@@ -17348,7 +17348,7 @@
     </row>
     <row r="1155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1156" spans="1:23" x14ac:dyDescent="0.25">
@@ -17376,16 +17376,16 @@
         <v>2</v>
       </c>
       <c r="B1157" s="6" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C1157" t="s">
         <v>4</v>
       </c>
       <c r="D1157" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E1157" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1157" t="s">
         <v>10</v>
@@ -17393,7 +17393,7 @@
     </row>
     <row r="1159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1160" spans="1:23" x14ac:dyDescent="0.25">
@@ -17434,7 +17434,7 @@
         <v>53</v>
       </c>
       <c r="M1160" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="N1160" t="s">
         <v>55</v>
@@ -17446,25 +17446,25 @@
         <v>57</v>
       </c>
       <c r="Q1160" t="s">
+        <v>875</v>
+      </c>
+      <c r="R1160" t="s">
+        <v>876</v>
+      </c>
+      <c r="S1160" t="s">
+        <v>877</v>
+      </c>
+      <c r="T1160" t="s">
+        <v>878</v>
+      </c>
+      <c r="U1160" t="s">
         <v>879</v>
       </c>
-      <c r="R1160" t="s">
+      <c r="V1160" t="s">
         <v>880</v>
       </c>
-      <c r="S1160" t="s">
+      <c r="W1160" t="s">
         <v>881</v>
-      </c>
-      <c r="T1160" t="s">
-        <v>882</v>
-      </c>
-      <c r="U1160" t="s">
-        <v>883</v>
-      </c>
-      <c r="V1160" t="s">
-        <v>884</v>
-      </c>
-      <c r="W1160" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="1161" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -17472,16 +17472,16 @@
         <v>2</v>
       </c>
       <c r="B1161" s="6" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C1161" t="s">
         <v>4</v>
       </c>
       <c r="D1161" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E1161" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1161" t="s">
         <v>10</v>
@@ -17508,16 +17508,16 @@
         <v>61</v>
       </c>
       <c r="N1161" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="O1161" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="P1161" t="s">
         <v>71</v>
       </c>
       <c r="Q1161" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="R1161" s="3">
         <v>20</v>
@@ -17540,7 +17540,7 @@
     </row>
     <row r="1163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1164" spans="1:23" x14ac:dyDescent="0.25">
@@ -17568,16 +17568,16 @@
         <v>2</v>
       </c>
       <c r="B1165" s="6" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C1165" t="s">
         <v>4</v>
       </c>
       <c r="D1165" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E1165" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1165" t="s">
         <v>10</v>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="1168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1169" spans="1:26" x14ac:dyDescent="0.25">
@@ -17634,13 +17634,13 @@
         <v>2</v>
       </c>
       <c r="B1170" s="6" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C1170" t="s">
         <v>4</v>
       </c>
       <c r="D1170" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E1170" t="s">
         <v>16</v>
@@ -17649,19 +17649,19 @@
         <v>10</v>
       </c>
       <c r="G1170" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="H1170" t="s">
         <v>219</v>
       </c>
       <c r="I1170" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="J1170" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="K1170" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="L1170" t="s">
         <v>26</v>
@@ -17672,7 +17672,7 @@
     </row>
     <row r="1175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1176" spans="1:26" x14ac:dyDescent="0.25">
@@ -17689,7 +17689,7 @@
         <v>67</v>
       </c>
       <c r="E1176" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F1176" t="s">
         <v>260</v>
@@ -17716,7 +17716,7 @@
         <v>53</v>
       </c>
       <c r="N1176" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="O1176" t="s">
         <v>55</v>
@@ -17731,7 +17731,7 @@
         <v>82</v>
       </c>
       <c r="S1176" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="T1176" t="s">
         <v>216</v>
@@ -17760,19 +17760,19 @@
         <v>2</v>
       </c>
       <c r="B1177" s="6" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C1177" t="s">
         <v>4</v>
       </c>
       <c r="D1177" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E1177" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="F1177" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G1177" t="s">
         <v>10</v>
@@ -17799,39 +17799,39 @@
         <v>61</v>
       </c>
       <c r="O1177" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="P1177" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="Q1177" t="s">
         <v>65</v>
       </c>
       <c r="S1177" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="U1177" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="V1177" t="s">
         <v>26</v>
       </c>
       <c r="W1177" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="X1177" t="s">
         <v>219</v>
       </c>
       <c r="Y1177" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="Z1177" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1181" spans="1:26" x14ac:dyDescent="0.25">
@@ -17859,16 +17859,16 @@
         <v>2</v>
       </c>
       <c r="B1182" s="6" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C1182" t="s">
         <v>4</v>
       </c>
       <c r="D1182" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E1182" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1182" t="s">
         <v>10</v>
@@ -17876,7 +17876,7 @@
     </row>
     <row r="1184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1185" spans="1:23" x14ac:dyDescent="0.25">
@@ -17904,13 +17904,13 @@
         <v>2</v>
       </c>
       <c r="B1186" s="6" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C1186" t="s">
         <v>4</v>
       </c>
       <c r="D1186" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E1186" t="s">
         <v>16</v>
@@ -17921,7 +17921,7 @@
     </row>
     <row r="1190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1191" spans="1:23" x14ac:dyDescent="0.25">
@@ -17962,7 +17962,7 @@
         <v>53</v>
       </c>
       <c r="M1191" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="N1191" t="s">
         <v>55</v>
@@ -17974,25 +17974,25 @@
         <v>57</v>
       </c>
       <c r="Q1191" t="s">
+        <v>875</v>
+      </c>
+      <c r="R1191" t="s">
+        <v>876</v>
+      </c>
+      <c r="S1191" t="s">
+        <v>877</v>
+      </c>
+      <c r="T1191" t="s">
+        <v>878</v>
+      </c>
+      <c r="U1191" t="s">
         <v>879</v>
       </c>
-      <c r="R1191" t="s">
+      <c r="V1191" t="s">
         <v>880</v>
       </c>
-      <c r="S1191" t="s">
+      <c r="W1191" t="s">
         <v>881</v>
-      </c>
-      <c r="T1191" t="s">
-        <v>882</v>
-      </c>
-      <c r="U1191" t="s">
-        <v>883</v>
-      </c>
-      <c r="V1191" t="s">
-        <v>884</v>
-      </c>
-      <c r="W1191" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="1192" spans="1:23" x14ac:dyDescent="0.25">
@@ -18000,16 +18000,16 @@
         <v>2</v>
       </c>
       <c r="B1192" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C1192" t="s">
         <v>4</v>
       </c>
       <c r="D1192" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E1192" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1192" t="s">
         <v>10</v>
@@ -18036,16 +18036,16 @@
         <v>61</v>
       </c>
       <c r="N1192" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="O1192" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="P1192" t="s">
         <v>71</v>
       </c>
       <c r="Q1192" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="R1192" s="3">
         <v>20</v>
@@ -18068,7 +18068,7 @@
     </row>
     <row r="1195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1196" spans="1:23" x14ac:dyDescent="0.25">
@@ -18082,55 +18082,55 @@
         <v>3</v>
       </c>
       <c r="D1196" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E1196" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F1196" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="G1196" t="s">
         <v>7</v>
       </c>
       <c r="H1196" t="s">
+        <v>892</v>
+      </c>
+      <c r="I1196" t="s">
+        <v>893</v>
+      </c>
+      <c r="J1196" t="s">
+        <v>894</v>
+      </c>
+      <c r="K1196" t="s">
+        <v>895</v>
+      </c>
+      <c r="L1196" t="s">
+        <v>658</v>
+      </c>
+      <c r="M1196" t="s">
         <v>896</v>
       </c>
-      <c r="I1196" t="s">
+      <c r="N1196" t="s">
         <v>897</v>
       </c>
-      <c r="J1196" t="s">
+      <c r="O1196" t="s">
         <v>898</v>
       </c>
-      <c r="K1196" t="s">
-        <v>899</v>
-      </c>
-      <c r="L1196" t="s">
-        <v>660</v>
-      </c>
-      <c r="M1196" t="s">
-        <v>900</v>
-      </c>
-      <c r="N1196" t="s">
-        <v>901</v>
-      </c>
-      <c r="O1196" t="s">
+      <c r="P1196" t="s">
         <v>902</v>
       </c>
-      <c r="P1196" t="s">
-        <v>906</v>
-      </c>
       <c r="Q1196" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="R1196" t="s">
         <v>270</v>
       </c>
       <c r="S1196" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="T1196" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="U1196" t="s">
         <v>269</v>
@@ -18141,7 +18141,7 @@
         <v>2</v>
       </c>
       <c r="B1197" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C1197" t="s">
         <v>4</v>
@@ -18156,7 +18156,7 @@
         <v>468</v>
       </c>
       <c r="G1197" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="H1197" t="s">
         <v>499</v>
@@ -18171,13 +18171,13 @@
         <v>37</v>
       </c>
       <c r="L1197" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="M1197" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="N1197" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="O1197" t="s">
         <v>553</v>
@@ -18186,24 +18186,24 @@
         <v>16</v>
       </c>
       <c r="Q1197" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="R1197" t="s">
         <v>271</v>
       </c>
       <c r="S1197" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="T1197" t="s">
         <v>10</v>
       </c>
       <c r="U1197" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1201" spans="1:18" x14ac:dyDescent="0.25">
@@ -18217,46 +18217,46 @@
         <v>3</v>
       </c>
       <c r="D1201" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E1201" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F1201" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="G1201" t="s">
         <v>7</v>
       </c>
       <c r="H1201" t="s">
+        <v>892</v>
+      </c>
+      <c r="I1201" t="s">
+        <v>893</v>
+      </c>
+      <c r="J1201" t="s">
+        <v>894</v>
+      </c>
+      <c r="K1201" t="s">
+        <v>895</v>
+      </c>
+      <c r="L1201" t="s">
+        <v>658</v>
+      </c>
+      <c r="M1201" t="s">
         <v>896</v>
       </c>
-      <c r="I1201" t="s">
+      <c r="N1201" t="s">
         <v>897</v>
       </c>
-      <c r="J1201" t="s">
+      <c r="O1201" t="s">
         <v>898</v>
       </c>
-      <c r="K1201" t="s">
-        <v>899</v>
-      </c>
-      <c r="L1201" t="s">
-        <v>660</v>
-      </c>
-      <c r="M1201" t="s">
-        <v>900</v>
-      </c>
-      <c r="N1201" t="s">
-        <v>901</v>
-      </c>
-      <c r="O1201" t="s">
+      <c r="P1201" t="s">
         <v>902</v>
       </c>
-      <c r="P1201" t="s">
-        <v>906</v>
-      </c>
       <c r="Q1201" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="R1201" t="s">
         <v>270</v>
@@ -18267,7 +18267,7 @@
         <v>2</v>
       </c>
       <c r="B1202" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C1202" t="s">
         <v>4</v>
@@ -18282,7 +18282,7 @@
         <v>468</v>
       </c>
       <c r="G1202" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="H1202" t="s">
         <v>499</v>
@@ -18294,13 +18294,13 @@
         <v>555</v>
       </c>
       <c r="K1202" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="M1202" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="N1202" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="O1202" t="s">
         <v>394</v>
@@ -18309,7 +18309,7 @@
         <v>16</v>
       </c>
       <c r="Q1202" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="R1202" t="s">
         <v>271</v>
@@ -18317,7 +18317,7 @@
     </row>
     <row r="1204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1205" spans="1:18" x14ac:dyDescent="0.25">
@@ -18331,46 +18331,46 @@
         <v>3</v>
       </c>
       <c r="D1205" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E1205" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F1205" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="G1205" t="s">
         <v>7</v>
       </c>
       <c r="H1205" t="s">
+        <v>892</v>
+      </c>
+      <c r="I1205" t="s">
+        <v>893</v>
+      </c>
+      <c r="J1205" t="s">
+        <v>894</v>
+      </c>
+      <c r="K1205" t="s">
+        <v>895</v>
+      </c>
+      <c r="L1205" t="s">
+        <v>658</v>
+      </c>
+      <c r="M1205" t="s">
         <v>896</v>
       </c>
-      <c r="I1205" t="s">
+      <c r="N1205" t="s">
         <v>897</v>
       </c>
-      <c r="J1205" t="s">
+      <c r="O1205" t="s">
         <v>898</v>
       </c>
-      <c r="K1205" t="s">
-        <v>899</v>
-      </c>
-      <c r="L1205" t="s">
-        <v>660</v>
-      </c>
-      <c r="M1205" t="s">
-        <v>900</v>
-      </c>
-      <c r="N1205" t="s">
-        <v>901</v>
-      </c>
-      <c r="O1205" t="s">
+      <c r="P1205" t="s">
         <v>902</v>
       </c>
-      <c r="P1205" t="s">
-        <v>906</v>
-      </c>
       <c r="Q1205" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="R1205" t="s">
         <v>270</v>
@@ -18381,7 +18381,7 @@
         <v>2</v>
       </c>
       <c r="B1206" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C1206" t="s">
         <v>4</v>
@@ -18396,7 +18396,7 @@
         <v>468</v>
       </c>
       <c r="G1206" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="H1206" t="s">
         <v>499</v>
@@ -18408,13 +18408,13 @@
         <v>555</v>
       </c>
       <c r="K1206" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="M1206" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="N1206" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="O1206" t="s">
         <v>394</v>
@@ -18423,7 +18423,7 @@
         <v>16</v>
       </c>
       <c r="Q1206" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="R1206" t="s">
         <v>271</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="1208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1209" spans="1:18" x14ac:dyDescent="0.25">
@@ -18445,46 +18445,46 @@
         <v>3</v>
       </c>
       <c r="D1209" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E1209" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F1209" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="G1209" t="s">
         <v>7</v>
       </c>
       <c r="H1209" t="s">
+        <v>892</v>
+      </c>
+      <c r="I1209" t="s">
+        <v>893</v>
+      </c>
+      <c r="J1209" t="s">
+        <v>894</v>
+      </c>
+      <c r="K1209" t="s">
+        <v>895</v>
+      </c>
+      <c r="L1209" t="s">
+        <v>658</v>
+      </c>
+      <c r="M1209" t="s">
         <v>896</v>
       </c>
-      <c r="I1209" t="s">
+      <c r="N1209" t="s">
         <v>897</v>
       </c>
-      <c r="J1209" t="s">
+      <c r="O1209" t="s">
         <v>898</v>
       </c>
-      <c r="K1209" t="s">
-        <v>899</v>
-      </c>
-      <c r="L1209" t="s">
-        <v>660</v>
-      </c>
-      <c r="M1209" t="s">
-        <v>900</v>
-      </c>
-      <c r="N1209" t="s">
-        <v>901</v>
-      </c>
-      <c r="O1209" t="s">
+      <c r="P1209" t="s">
         <v>902</v>
       </c>
-      <c r="P1209" t="s">
-        <v>906</v>
-      </c>
       <c r="Q1209" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1210" spans="1:18" x14ac:dyDescent="0.25">
@@ -18492,7 +18492,7 @@
         <v>2</v>
       </c>
       <c r="B1210" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C1210" t="s">
         <v>4</v>
@@ -18507,7 +18507,7 @@
         <v>468</v>
       </c>
       <c r="G1210" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="H1210" t="s">
         <v>499</v>
@@ -18519,13 +18519,13 @@
         <v>555</v>
       </c>
       <c r="K1210" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="M1210" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="N1210" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="O1210" t="s">
         <v>553</v>
@@ -18534,12 +18534,12 @@
         <v>16</v>
       </c>
       <c r="Q1210" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="1213" spans="1:18" x14ac:dyDescent="0.25">
@@ -18561,7 +18561,7 @@
         <v>2</v>
       </c>
       <c r="B1214" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C1214" t="s">
         <v>4</v>
@@ -18573,7 +18573,7 @@
     </row>
     <row r="1217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1218" spans="1:19" x14ac:dyDescent="0.25">
@@ -18587,7 +18587,7 @@
         <v>3</v>
       </c>
       <c r="D1218" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="E1218" t="s">
         <v>260</v>
@@ -18601,24 +18601,24 @@
         <v>2</v>
       </c>
       <c r="B1219" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C1219" t="s">
         <v>4</v>
       </c>
       <c r="D1219" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E1219" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1219" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1223" spans="1:19" x14ac:dyDescent="0.25">
@@ -18632,7 +18632,7 @@
         <v>3</v>
       </c>
       <c r="D1223" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="E1223" t="s">
         <v>260</v>
@@ -18646,16 +18646,16 @@
         <v>2</v>
       </c>
       <c r="B1224" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C1224" t="s">
         <v>4</v>
       </c>
       <c r="D1224" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E1224" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1224" t="s">
         <v>10</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="1226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1227" spans="1:19" x14ac:dyDescent="0.25">
@@ -18694,27 +18694,27 @@
         <v>2</v>
       </c>
       <c r="B1228" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C1228" t="s">
         <v>4</v>
       </c>
       <c r="D1228" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="E1228" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F1228" t="s">
         <v>10</v>
       </c>
       <c r="G1228" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1232" spans="1:19" x14ac:dyDescent="0.25">
@@ -18728,52 +18728,52 @@
         <v>3</v>
       </c>
       <c r="D1232" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="E1232" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F1232" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="G1232" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="H1232" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="I1232" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="J1232" t="s">
         <v>7</v>
       </c>
       <c r="K1232" t="s">
+        <v>892</v>
+      </c>
+      <c r="L1232" t="s">
+        <v>893</v>
+      </c>
+      <c r="M1232" t="s">
+        <v>894</v>
+      </c>
+      <c r="N1232" t="s">
+        <v>895</v>
+      </c>
+      <c r="O1232" t="s">
+        <v>658</v>
+      </c>
+      <c r="P1232" t="s">
         <v>896</v>
       </c>
-      <c r="L1232" t="s">
+      <c r="Q1232" t="s">
         <v>897</v>
       </c>
-      <c r="M1232" t="s">
+      <c r="R1232" t="s">
         <v>898</v>
       </c>
-      <c r="N1232" t="s">
-        <v>899</v>
-      </c>
-      <c r="O1232" t="s">
-        <v>660</v>
-      </c>
-      <c r="P1232" t="s">
-        <v>900</v>
-      </c>
-      <c r="Q1232" t="s">
-        <v>901</v>
-      </c>
-      <c r="R1232" t="s">
+      <c r="S1232" t="s">
         <v>902</v>
-      </c>
-      <c r="S1232" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="1233" spans="1:19" x14ac:dyDescent="0.25">
@@ -18781,19 +18781,19 @@
         <v>2</v>
       </c>
       <c r="B1233" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C1233" t="s">
         <v>4</v>
       </c>
       <c r="D1233" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="E1233" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="F1233" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="G1233" t="s">
         <v>17</v>
@@ -18805,7 +18805,7 @@
         <v>468</v>
       </c>
       <c r="J1233" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="K1233" t="s">
         <v>499</v>
@@ -18817,13 +18817,13 @@
         <v>555</v>
       </c>
       <c r="N1233" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P1233" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="Q1233" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="R1233" t="s">
         <v>553</v>
@@ -18834,7 +18834,7 @@
     </row>
     <row r="1235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1236" spans="1:19" x14ac:dyDescent="0.25">
@@ -18848,43 +18848,43 @@
         <v>3</v>
       </c>
       <c r="D1236" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E1236" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F1236" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="G1236" t="s">
         <v>7</v>
       </c>
       <c r="H1236" t="s">
+        <v>892</v>
+      </c>
+      <c r="I1236" t="s">
+        <v>893</v>
+      </c>
+      <c r="J1236" t="s">
+        <v>894</v>
+      </c>
+      <c r="K1236" t="s">
+        <v>895</v>
+      </c>
+      <c r="L1236" t="s">
+        <v>658</v>
+      </c>
+      <c r="M1236" t="s">
         <v>896</v>
       </c>
-      <c r="I1236" t="s">
+      <c r="N1236" t="s">
         <v>897</v>
       </c>
-      <c r="J1236" t="s">
+      <c r="O1236" t="s">
         <v>898</v>
       </c>
-      <c r="K1236" t="s">
-        <v>899</v>
-      </c>
-      <c r="L1236" t="s">
-        <v>660</v>
-      </c>
-      <c r="M1236" t="s">
-        <v>900</v>
-      </c>
-      <c r="N1236" t="s">
-        <v>901</v>
-      </c>
-      <c r="O1236" t="s">
+      <c r="P1236" t="s">
         <v>902</v>
-      </c>
-      <c r="P1236" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="1237" spans="1:19" x14ac:dyDescent="0.25">
@@ -18892,7 +18892,7 @@
         <v>2</v>
       </c>
       <c r="B1237" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C1237" t="s">
         <v>4</v>
@@ -18907,7 +18907,7 @@
         <v>468</v>
       </c>
       <c r="G1237" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="H1237" t="s">
         <v>499</v>
@@ -18922,13 +18922,13 @@
         <v>37</v>
       </c>
       <c r="L1237" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="M1237" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="N1237" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="O1237" t="s">
         <v>553</v>
@@ -18957,19 +18957,19 @@
         <v>67</v>
       </c>
       <c r="G1240" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="H1240" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="I1240" t="s">
         <v>488</v>
       </c>
       <c r="J1240" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="K1240" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="L1240" t="s">
         <v>275</v>
@@ -18980,7 +18980,7 @@
         <v>2</v>
       </c>
       <c r="B1241" s="6" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C1241" t="s">
         <v>4</v>
@@ -18992,22 +18992,22 @@
         <v>10</v>
       </c>
       <c r="F1241" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G1241" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="H1241" t="s">
         <v>488</v>
       </c>
       <c r="I1241" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="J1241" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="K1241" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="L1241" t="s">
         <v>63</v>
@@ -19015,7 +19015,7 @@
     </row>
     <row r="1244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1245" spans="1:19" x14ac:dyDescent="0.25">
@@ -19038,31 +19038,31 @@
         <v>276</v>
       </c>
       <c r="G1245" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="H1245" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="I1245" t="s">
         <v>275</v>
       </c>
       <c r="J1245" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="K1245" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="L1245" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="M1245" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="N1245" t="s">
         <v>426</v>
       </c>
       <c r="O1245" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1246" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -19070,28 +19070,28 @@
         <v>2</v>
       </c>
       <c r="B1246" s="6" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C1246" t="s">
         <v>4</v>
       </c>
       <c r="D1246" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E1246" t="s">
         <v>10</v>
       </c>
       <c r="F1246" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="G1246" s="3" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="H1246" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="I1246" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="J1246" t="s">
         <v>16</v>
@@ -19100,7 +19100,7 @@
         <v>468</v>
       </c>
       <c r="L1246" s="3" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="M1246" s="3" t="s">
         <v>468</v>
@@ -19109,12 +19109,12 @@
         <v>277</v>
       </c>
       <c r="O1246" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="1250" spans="1:13" x14ac:dyDescent="0.25">
@@ -19134,25 +19134,25 @@
         <v>7</v>
       </c>
       <c r="F1250" t="s">
+        <v>976</v>
+      </c>
+      <c r="G1250" t="s">
+        <v>977</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>978</v>
+      </c>
+      <c r="I1250" t="s">
+        <v>979</v>
+      </c>
+      <c r="J1250" t="s">
         <v>980</v>
       </c>
-      <c r="G1250" t="s">
+      <c r="K1250" t="s">
         <v>981</v>
       </c>
-      <c r="H1250" t="s">
-        <v>982</v>
-      </c>
-      <c r="I1250" t="s">
-        <v>983</v>
-      </c>
-      <c r="J1250" t="s">
-        <v>984</v>
-      </c>
-      <c r="K1250" t="s">
-        <v>985</v>
-      </c>
       <c r="L1250" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1251" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -19160,28 +19160,28 @@
         <v>2</v>
       </c>
       <c r="B1251" s="6" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C1251" t="s">
         <v>4</v>
       </c>
       <c r="D1251" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E1251" t="s">
         <v>10</v>
       </c>
       <c r="F1251" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="G1251" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="H1251" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="I1251" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="J1251" s="3" t="s">
         <v>468</v>
@@ -19195,7 +19195,7 @@
     </row>
     <row r="1254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1255" spans="1:13" x14ac:dyDescent="0.25">
@@ -19215,13 +19215,13 @@
         <v>7</v>
       </c>
       <c r="F1255" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="G1255" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="H1255" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="I1255" t="s">
         <v>6</v>
@@ -19230,13 +19230,13 @@
         <v>7</v>
       </c>
       <c r="K1255" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="L1255" t="s">
         <v>423</v>
       </c>
       <c r="M1255" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1256" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -19244,25 +19244,25 @@
         <v>2</v>
       </c>
       <c r="B1256" s="6" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C1256" t="s">
         <v>4</v>
       </c>
       <c r="D1256" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E1256" t="s">
         <v>10</v>
       </c>
       <c r="F1256" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="G1256" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="H1256" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="J1256" t="s">
         <v>10</v>
@@ -19271,7 +19271,7 @@
         <v>10</v>
       </c>
       <c r="L1256" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="M1256" t="s">
         <v>574</v>
@@ -19294,7 +19294,7 @@
         <v>7</v>
       </c>
       <c r="F1260" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="G1260" t="s">
         <v>275</v>
@@ -19303,19 +19303,19 @@
         <v>276</v>
       </c>
       <c r="I1260" t="s">
+        <v>989</v>
+      </c>
+      <c r="J1260" t="s">
+        <v>990</v>
+      </c>
+      <c r="K1260" t="s">
+        <v>991</v>
+      </c>
+      <c r="L1260" t="s">
+        <v>992</v>
+      </c>
+      <c r="M1260" t="s">
         <v>993</v>
-      </c>
-      <c r="J1260" t="s">
-        <v>994</v>
-      </c>
-      <c r="K1260" t="s">
-        <v>995</v>
-      </c>
-      <c r="L1260" t="s">
-        <v>996</v>
-      </c>
-      <c r="M1260" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="1261" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -19323,19 +19323,19 @@
         <v>2</v>
       </c>
       <c r="B1261" s="6" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C1261" t="s">
         <v>4</v>
       </c>
       <c r="D1261" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E1261" t="s">
         <v>10</v>
       </c>
       <c r="F1261" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="G1261" t="s">
         <v>275</v>
@@ -19344,19 +19344,19 @@
         <v>276</v>
       </c>
       <c r="I1261" t="s">
+        <v>989</v>
+      </c>
+      <c r="J1261" t="s">
+        <v>990</v>
+      </c>
+      <c r="K1261" t="s">
+        <v>994</v>
+      </c>
+      <c r="L1261" t="s">
+        <v>992</v>
+      </c>
+      <c r="M1261" t="s">
         <v>993</v>
-      </c>
-      <c r="J1261" t="s">
-        <v>994</v>
-      </c>
-      <c r="K1261" t="s">
-        <v>998</v>
-      </c>
-      <c r="L1261" t="s">
-        <v>996</v>
-      </c>
-      <c r="M1261" t="s">
-        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -21897,7 +21897,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -21928,7 +21928,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -22008,87 +22008,87 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="G28" s="21" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="G29" s="5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="G30" s="5" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="G31" s="22" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="G32" s="23" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="G33" s="22" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="G34" s="23" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G35" s="22" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G36" s="23" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="G37" s="22" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="G38" s="22" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G39" s="22" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G40" s="23" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="G41" s="22" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="G42" s="23" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22100,19 +22100,19 @@
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="G44" s="23" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="G45" s="23" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="G46" s="22" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C352B6-CE26-4AB3-A52F-1223CF05205B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47846B11-1F48-49E6-81C1-6760B326753A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5107" uniqueCount="1007">
   <si>
     <t>TestCases</t>
   </si>
@@ -3360,6 +3360,12 @@
   </si>
   <si>
     <t>Community A -</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing</t>
+  </si>
+  <si>
+    <t>It is a long established fact that a reader will be distracted by the readable content of a page when looking at its layout</t>
   </si>
 </sst>
 </file>
@@ -6022,8 +6028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A927" workbookViewId="0">
-      <selection activeCell="C932" sqref="C932"/>
+    <sheetView tabSelected="1" topLeftCell="A938" workbookViewId="0">
+      <selection activeCell="H953" sqref="H953"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14463,7 +14469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="945" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>742</v>
       </c>
@@ -14483,16 +14489,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B946"/>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>666</v>
       </c>
       <c r="B950"/>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>1</v>
       </c>
@@ -14511,8 +14517,14 @@
       <c r="F951" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="952" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G951" t="s">
+        <v>339</v>
+      </c>
+      <c r="H951" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>2</v>
       </c>
@@ -14531,13 +14543,19 @@
       <c r="F952" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G952" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H952" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>1</v>
       </c>
@@ -14557,7 +14575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="957" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>2</v>
       </c>
@@ -14577,15 +14595,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B958"/>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>1</v>
       </c>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47846B11-1F48-49E6-81C1-6760B326753A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1655970B-8494-4ED0-BFB8-BEAF5C4BB84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5107" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="1019">
   <si>
     <t>TestCases</t>
   </si>
@@ -3366,6 +3366,42 @@
   </si>
   <si>
     <t>It is a long established fact that a reader will be distracted by the readable content of a page when looking at its layout</t>
+  </si>
+  <si>
+    <t>TC241</t>
+  </si>
+  <si>
+    <t>TC242</t>
+  </si>
+  <si>
+    <t>TC240_Verify_Tagging_Member_In_Community_Comment</t>
+  </si>
+  <si>
+    <t>TC239_Verify_Tagging_Member_In_Community_Post</t>
+  </si>
+  <si>
+    <t>TC241_Verify_Tagging_Member_In_Group_Post</t>
+  </si>
+  <si>
+    <t>TC242_Verify_Tagging_Member_In_Group_Comment</t>
+  </si>
+  <si>
+    <t>memberName</t>
+  </si>
+  <si>
+    <t>commentMessage</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>viswa ms1</t>
+  </si>
+  <si>
+    <t>no comment</t>
+  </si>
+  <si>
+    <t>community A -</t>
   </si>
 </sst>
 </file>
@@ -3880,8 +3916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E243"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="C244" sqref="C244"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6026,10 +6062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AV1261"/>
+  <dimension ref="A1:AV1278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A938" workbookViewId="0">
-      <selection activeCell="H953" sqref="H953"/>
+    <sheetView tabSelected="1" topLeftCell="A1257" workbookViewId="0">
+      <selection activeCell="I1266" sqref="I1266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19375,6 +19411,204 @@
       </c>
       <c r="M1261" t="s">
         <v>993</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1264" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I1264" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1265" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>927</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I1265" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1269" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1269" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1270" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1273" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G1273" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1274" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1277" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1278" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1655970B-8494-4ED0-BFB8-BEAF5C4BB84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B749CFC-90CC-403A-979A-456757766C15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5169" uniqueCount="1020">
   <si>
     <t>TestCases</t>
   </si>
@@ -2834,9 +2834,6 @@
     <t>tag</t>
   </si>
   <si>
-    <t>@Nancy Kemper</t>
-  </si>
-  <si>
     <t>connectproem@gmail.com</t>
   </si>
   <si>
@@ -3402,6 +3399,12 @@
   </si>
   <si>
     <t>community A -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi Nice to see you back ….. !!!!! </t>
+  </si>
+  <si>
+    <t>Curator</t>
   </si>
 </sst>
 </file>
@@ -5772,7 +5775,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B209" t="s">
         <v>2</v>
@@ -5780,7 +5783,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B210" t="s">
         <v>2</v>
@@ -5788,7 +5791,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
@@ -5804,7 +5807,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B213" t="s">
         <v>2</v>
@@ -5812,7 +5815,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B214" t="s">
         <v>2</v>
@@ -5820,7 +5823,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
@@ -5828,7 +5831,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B216" t="s">
         <v>2</v>
@@ -5836,7 +5839,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
@@ -5844,7 +5847,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
@@ -5852,7 +5855,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -5860,7 +5863,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
@@ -5868,7 +5871,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -5876,7 +5879,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
@@ -5884,7 +5887,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B223" t="s">
         <v>2</v>
@@ -5892,7 +5895,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
@@ -5900,7 +5903,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B225" t="s">
         <v>2</v>
@@ -5908,7 +5911,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B226" t="s">
         <v>2</v>
@@ -5916,7 +5919,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B227" t="s">
         <v>2</v>
@@ -5924,7 +5927,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B228" t="s">
         <v>2</v>
@@ -5932,7 +5935,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B229" t="s">
         <v>2</v>
@@ -5940,7 +5943,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B230" t="s">
         <v>2</v>
@@ -5948,7 +5951,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B231" t="s">
         <v>2</v>
@@ -5956,7 +5959,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B232" t="s">
         <v>2</v>
@@ -5964,7 +5967,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B233" t="s">
         <v>2</v>
@@ -5972,7 +5975,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B234" t="s">
         <v>2</v>
@@ -5980,7 +5983,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B235" t="s">
         <v>2</v>
@@ -5988,7 +5991,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B236" t="s">
         <v>2</v>
@@ -5996,7 +5999,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B237" t="s">
         <v>2</v>
@@ -6004,7 +6007,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B238" t="s">
         <v>2</v>
@@ -6012,7 +6015,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B239" t="s">
         <v>2</v>
@@ -6020,7 +6023,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B240" t="s">
         <v>2</v>
@@ -6028,7 +6031,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B241" t="s">
         <v>2</v>
@@ -6036,7 +6039,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B242" t="s">
         <v>2</v>
@@ -6044,13 +6047,13 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>954</v>
+      </c>
+      <c r="B243" t="s">
+        <v>2</v>
+      </c>
+      <c r="C243" t="s">
         <v>955</v>
-      </c>
-      <c r="B243" t="s">
-        <v>2</v>
-      </c>
-      <c r="C243" t="s">
-        <v>956</v>
       </c>
     </row>
   </sheetData>
@@ -6064,8 +6067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1257" workbookViewId="0">
-      <selection activeCell="I1266" sqref="I1266"/>
+    <sheetView tabSelected="1" topLeftCell="A1090" workbookViewId="0">
+      <selection activeCell="I1104" sqref="I1104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6170,7 +6173,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -6209,13 +6212,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -6248,10 +6251,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="C17" t="s">
         <v>948</v>
-      </c>
-      <c r="C17" t="s">
-        <v>949</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -6287,10 +6290,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="C21" t="s">
         <v>950</v>
-      </c>
-      <c r="C21" t="s">
-        <v>951</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -6326,10 +6329,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="C25" t="s">
         <v>952</v>
-      </c>
-      <c r="C25" t="s">
-        <v>953</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -6365,10 +6368,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C29" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -7484,7 +7487,7 @@
         <v>258</v>
       </c>
       <c r="C131" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
@@ -7562,7 +7565,7 @@
         <v>257</v>
       </c>
       <c r="C135" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D135" t="s">
         <v>261</v>
@@ -7613,7 +7616,7 @@
         <v>268</v>
       </c>
       <c r="C140" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D140" t="s">
         <v>16</v>
@@ -7625,7 +7628,7 @@
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H140" t="s">
         <v>271</v>
@@ -7771,7 +7774,7 @@
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E150" t="s">
         <v>16</v>
@@ -7849,7 +7852,7 @@
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E159" t="s">
         <v>16</v>
@@ -7944,7 +7947,7 @@
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -7985,7 +7988,7 @@
         <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E168" t="s">
         <v>16</v>
@@ -8058,7 +8061,7 @@
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E172" t="s">
         <v>206</v>
@@ -8110,7 +8113,7 @@
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E176" t="s">
         <v>16</v>
@@ -8159,7 +8162,7 @@
         <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E180" t="s">
         <v>16</v>
@@ -8219,7 +8222,7 @@
         <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E186" t="s">
         <v>16</v>
@@ -8279,7 +8282,7 @@
         <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E192" t="s">
         <v>16</v>
@@ -8364,7 +8367,7 @@
         <v>4</v>
       </c>
       <c r="D196" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E196" t="s">
         <v>16</v>
@@ -8457,7 +8460,7 @@
         <v>4</v>
       </c>
       <c r="D207" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E207" t="s">
         <v>262</v>
@@ -8529,7 +8532,7 @@
         <v>4</v>
       </c>
       <c r="D211" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E211" t="s">
         <v>16</v>
@@ -8586,7 +8589,7 @@
         <v>4</v>
       </c>
       <c r="D217" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E217" t="s">
         <v>16</v>
@@ -8643,7 +8646,7 @@
         <v>4</v>
       </c>
       <c r="D221" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E221" t="s">
         <v>16</v>
@@ -8700,7 +8703,7 @@
         <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E228" t="s">
         <v>356</v>
@@ -8751,7 +8754,7 @@
         <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E235" t="s">
         <v>356</v>
@@ -8820,7 +8823,7 @@
         <v>4</v>
       </c>
       <c r="D243" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E243" t="s">
         <v>16</v>
@@ -8952,7 +8955,7 @@
         <v>4</v>
       </c>
       <c r="D287" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E287" t="s">
         <v>16</v>
@@ -9069,7 +9072,7 @@
         <v>4</v>
       </c>
       <c r="D319" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E319" t="s">
         <v>16</v>
@@ -9216,7 +9219,7 @@
         <v>4</v>
       </c>
       <c r="D379" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E379" t="s">
         <v>356</v>
@@ -9346,7 +9349,7 @@
         <v>4</v>
       </c>
       <c r="D410" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E410" t="s">
         <v>16</v>
@@ -9433,7 +9436,7 @@
         <v>4</v>
       </c>
       <c r="D428" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E428" t="s">
         <v>385</v>
@@ -9493,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="D442" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E442" t="s">
         <v>355</v>
@@ -9924,7 +9927,7 @@
         <v>4</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E587" t="s">
         <v>16</v>
@@ -10064,7 +10067,7 @@
         <v>4</v>
       </c>
       <c r="D614" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E614" t="s">
         <v>16</v>
@@ -10562,7 +10565,7 @@
         <v>4</v>
       </c>
       <c r="D736" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E736" t="s">
         <v>16</v>
@@ -10624,7 +10627,7 @@
         <v>4</v>
       </c>
       <c r="D750" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E750" t="s">
         <v>356</v>
@@ -10676,7 +10679,7 @@
         <v>4</v>
       </c>
       <c r="D757" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E757" t="s">
         <v>365</v>
@@ -10728,7 +10731,7 @@
         <v>4</v>
       </c>
       <c r="D764" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E764" t="s">
         <v>355</v>
@@ -10816,7 +10819,7 @@
         <v>4</v>
       </c>
       <c r="D779" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E779" t="s">
         <v>16</v>
@@ -10914,7 +10917,7 @@
         <v>4</v>
       </c>
       <c r="D783" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E783" t="s">
         <v>16</v>
@@ -11033,7 +11036,7 @@
         <v>4</v>
       </c>
       <c r="D789" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E789" t="s">
         <v>16</v>
@@ -11149,7 +11152,7 @@
         <v>4</v>
       </c>
       <c r="D795" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E795" t="s">
         <v>262</v>
@@ -11259,7 +11262,7 @@
         <v>4</v>
       </c>
       <c r="D801" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E801" t="s">
         <v>262</v>
@@ -11349,7 +11352,7 @@
         <v>4</v>
       </c>
       <c r="D806" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E806" t="s">
         <v>262</v>
@@ -11439,7 +11442,7 @@
         <v>4</v>
       </c>
       <c r="D810" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E810" t="s">
         <v>262</v>
@@ -11532,7 +11535,7 @@
         <v>4</v>
       </c>
       <c r="D814" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E814" t="s">
         <v>262</v>
@@ -11885,7 +11888,7 @@
         <v>303</v>
       </c>
       <c r="G836" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H836" s="3"/>
       <c r="L836" s="3"/>
@@ -11958,7 +11961,7 @@
         <v>4</v>
       </c>
       <c r="D842" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E842" t="s">
         <v>262</v>
@@ -12120,7 +12123,7 @@
         <v>10</v>
       </c>
       <c r="F853" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G853" t="s">
         <v>508</v>
@@ -12295,7 +12298,7 @@
         <v>10</v>
       </c>
       <c r="F858" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G858" t="s">
         <v>499</v>
@@ -12587,7 +12590,7 @@
         <v>10</v>
       </c>
       <c r="F863" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G863" t="s">
         <v>574</v>
@@ -12884,7 +12887,7 @@
         <v>10</v>
       </c>
       <c r="F871" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G871" t="s">
         <v>499</v>
@@ -13235,7 +13238,7 @@
         <v>10</v>
       </c>
       <c r="F883" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G883" t="s">
         <v>643</v>
@@ -13313,7 +13316,7 @@
         <v>10</v>
       </c>
       <c r="F887" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G887" t="s">
         <v>643</v>
@@ -13391,7 +13394,7 @@
         <v>10</v>
       </c>
       <c r="F891" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G891" t="s">
         <v>643</v>
@@ -13541,7 +13544,7 @@
         <v>4</v>
       </c>
       <c r="D900" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E900" t="s">
         <v>16</v>
@@ -13620,7 +13623,7 @@
         <v>4</v>
       </c>
       <c r="D910" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E910" t="s">
         <v>365</v>
@@ -13683,7 +13686,7 @@
         <v>4</v>
       </c>
       <c r="D915" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E915" t="s">
         <v>16</v>
@@ -13857,7 +13860,7 @@
         <v>4</v>
       </c>
       <c r="D920" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E920" t="s">
         <v>16</v>
@@ -13869,7 +13872,7 @@
         <v>261</v>
       </c>
       <c r="H920" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I920" t="s">
         <v>271</v>
@@ -13985,7 +13988,7 @@
     </row>
     <row r="925" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B925"/>
     </row>
@@ -14131,13 +14134,13 @@
         <v>2</v>
       </c>
       <c r="B927" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C927" t="s">
         <v>4</v>
       </c>
       <c r="D927" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E927" t="s">
         <v>16</v>
@@ -14149,7 +14152,7 @@
         <v>261</v>
       </c>
       <c r="H927" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I927" t="s">
         <v>271</v>
@@ -14365,7 +14368,7 @@
         <v>4</v>
       </c>
       <c r="D932" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E932" t="s">
         <v>16</v>
@@ -14471,7 +14474,7 @@
         <v>4</v>
       </c>
       <c r="D940" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E940" t="s">
         <v>16</v>
@@ -14516,7 +14519,7 @@
         <v>4</v>
       </c>
       <c r="D945" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E945" t="s">
         <v>16</v>
@@ -14571,7 +14574,7 @@
         <v>4</v>
       </c>
       <c r="D952" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E952" t="s">
         <v>292</v>
@@ -14580,10 +14583,10 @@
         <v>10</v>
       </c>
       <c r="G952" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H952" t="s">
         <v>1005</v>
-      </c>
-      <c r="H952" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="955" spans="1:8" x14ac:dyDescent="0.25">
@@ -14622,7 +14625,7 @@
         <v>4</v>
       </c>
       <c r="D957" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E957" t="s">
         <v>16</v>
@@ -14670,7 +14673,7 @@
         <v>4</v>
       </c>
       <c r="D961" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E961" t="s">
         <v>16</v>
@@ -14718,7 +14721,7 @@
         <v>4</v>
       </c>
       <c r="D965" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E965" t="s">
         <v>16</v>
@@ -14781,7 +14784,7 @@
         <v>4</v>
       </c>
       <c r="D969" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E969" t="s">
         <v>16</v>
@@ -14959,7 +14962,7 @@
         <v>4</v>
       </c>
       <c r="D973" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E973" t="s">
         <v>16</v>
@@ -15137,7 +15140,7 @@
         <v>4</v>
       </c>
       <c r="D980" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E980" t="s">
         <v>16</v>
@@ -15213,7 +15216,7 @@
         <v>4</v>
       </c>
       <c r="D987" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E987" t="s">
         <v>16</v>
@@ -15277,7 +15280,7 @@
         <v>4</v>
       </c>
       <c r="D993" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E993" t="s">
         <v>262</v>
@@ -15335,7 +15338,7 @@
         <v>4</v>
       </c>
       <c r="D998" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E998" t="s">
         <v>16</v>
@@ -15405,7 +15408,7 @@
         <v>4</v>
       </c>
       <c r="D1003" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E1003" t="s">
         <v>16</v>
@@ -15472,7 +15475,7 @@
         <v>4</v>
       </c>
       <c r="D1008" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E1008" t="s">
         <v>16</v>
@@ -15578,7 +15581,7 @@
         <v>4</v>
       </c>
       <c r="D1013" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E1013" t="s">
         <v>16</v>
@@ -15729,7 +15732,7 @@
         <v>10</v>
       </c>
       <c r="F1024" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G1024" t="s">
         <v>643</v>
@@ -15810,7 +15813,7 @@
         <v>10</v>
       </c>
       <c r="F1029" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G1029" t="s">
         <v>643</v>
@@ -15891,7 +15894,7 @@
         <v>10</v>
       </c>
       <c r="F1034" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G1034" t="s">
         <v>643</v>
@@ -15972,7 +15975,7 @@
         <v>10</v>
       </c>
       <c r="F1038" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G1038" t="s">
         <v>643</v>
@@ -16191,7 +16194,7 @@
         <v>10</v>
       </c>
       <c r="F1046" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G1046" t="s">
         <v>642</v>
@@ -16251,7 +16254,7 @@
         <v>10</v>
       </c>
       <c r="F1051" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1053" spans="1:22" x14ac:dyDescent="0.25">
@@ -16299,7 +16302,7 @@
         <v>10</v>
       </c>
       <c r="F1055" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G1055" t="s">
         <v>762</v>
@@ -16350,7 +16353,7 @@
         <v>10</v>
       </c>
       <c r="F1059" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G1059" t="s">
         <v>650</v>
@@ -16401,7 +16404,7 @@
         <v>10</v>
       </c>
       <c r="F1063" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G1063" t="s">
         <v>642</v>
@@ -16449,7 +16452,7 @@
         <v>10</v>
       </c>
       <c r="F1067" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
@@ -16545,7 +16548,7 @@
         <v>10</v>
       </c>
       <c r="F1079" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G1079" t="s">
         <v>776</v>
@@ -16602,7 +16605,7 @@
         <v>10</v>
       </c>
       <c r="F1083" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G1083" t="s">
         <v>777</v>
@@ -16665,7 +16668,7 @@
         <v>10</v>
       </c>
       <c r="F1087" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G1087" t="s">
         <v>777</v>
@@ -16725,7 +16728,7 @@
         <v>10</v>
       </c>
       <c r="F1091" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G1091" t="s">
         <v>643</v>
@@ -16773,7 +16776,7 @@
         <v>4</v>
       </c>
       <c r="D1096" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E1096" t="s">
         <v>16</v>
@@ -16785,7 +16788,7 @@
         <v>238</v>
       </c>
       <c r="H1096" t="s">
-        <v>829</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1098" spans="1:9" x14ac:dyDescent="0.25">
@@ -16815,6 +16818,9 @@
       <c r="G1099" t="s">
         <v>236</v>
       </c>
+      <c r="H1099" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="1100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
@@ -16827,7 +16833,7 @@
         <v>4</v>
       </c>
       <c r="D1100" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E1100" t="s">
         <v>16</v>
@@ -16836,7 +16842,10 @@
         <v>10</v>
       </c>
       <c r="G1100" t="s">
-        <v>827</v>
+        <v>1018</v>
+      </c>
+      <c r="H1100" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="1102" spans="1:9" x14ac:dyDescent="0.25">
@@ -16884,7 +16893,7 @@
         <v>4</v>
       </c>
       <c r="D1104" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E1104" t="s">
         <v>16</v>
@@ -16893,13 +16902,13 @@
         <v>10</v>
       </c>
       <c r="G1104" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H1104" t="s">
         <v>238</v>
       </c>
       <c r="I1104" t="s">
-        <v>829</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1107" spans="1:22" x14ac:dyDescent="0.25">
@@ -16932,6 +16941,9 @@
       <c r="H1108" t="s">
         <v>236</v>
       </c>
+      <c r="I1108" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="1109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
@@ -16944,7 +16956,7 @@
         <v>4</v>
       </c>
       <c r="D1109" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E1109" t="s">
         <v>16</v>
@@ -16953,10 +16965,13 @@
         <v>10</v>
       </c>
       <c r="G1109" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H1109" t="s">
         <v>827</v>
+      </c>
+      <c r="I1109" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="1113" spans="1:22" x14ac:dyDescent="0.25">
@@ -17002,7 +17017,7 @@
         <v>53</v>
       </c>
       <c r="M1114" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="N1114" t="s">
         <v>55</v>
@@ -17014,22 +17029,22 @@
         <v>57</v>
       </c>
       <c r="Q1114" t="s">
+        <v>874</v>
+      </c>
+      <c r="R1114" t="s">
         <v>875</v>
       </c>
-      <c r="R1114" t="s">
+      <c r="S1114" t="s">
         <v>876</v>
       </c>
-      <c r="S1114" t="s">
+      <c r="T1114" t="s">
         <v>877</v>
       </c>
-      <c r="T1114" t="s">
+      <c r="U1114" t="s">
         <v>878</v>
       </c>
-      <c r="U1114" t="s">
+      <c r="V1114" t="s">
         <v>879</v>
-      </c>
-      <c r="V1114" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="1115" spans="1:22" x14ac:dyDescent="0.25">
@@ -17037,16 +17052,16 @@
         <v>2</v>
       </c>
       <c r="B1115" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C1115" t="s">
         <v>4</v>
       </c>
       <c r="D1115" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1115" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1115" t="s">
         <v>10</v>
@@ -17073,16 +17088,16 @@
         <v>61</v>
       </c>
       <c r="N1115" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O1115" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P1115" t="s">
         <v>71</v>
       </c>
       <c r="Q1115" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="R1115">
         <v>20</v>
@@ -17125,7 +17140,7 @@
         <v>7</v>
       </c>
       <c r="G1124" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17133,16 +17148,16 @@
         <v>2</v>
       </c>
       <c r="B1125" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C1125" t="s">
         <v>4</v>
       </c>
       <c r="D1125" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1125" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1125" t="s">
         <v>10</v>
@@ -17153,7 +17168,7 @@
     </row>
     <row r="1127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1128" spans="1:7" x14ac:dyDescent="0.25">
@@ -17176,7 +17191,7 @@
         <v>7</v>
       </c>
       <c r="G1128" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17184,16 +17199,16 @@
         <v>2</v>
       </c>
       <c r="B1129" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C1129" t="s">
         <v>4</v>
       </c>
       <c r="D1129" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1129" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1129" t="s">
         <v>10</v>
@@ -17204,7 +17219,7 @@
     </row>
     <row r="1132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1133" spans="1:7" x14ac:dyDescent="0.25">
@@ -17227,7 +17242,7 @@
         <v>7</v>
       </c>
       <c r="G1133" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1134" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -17235,16 +17250,16 @@
         <v>2</v>
       </c>
       <c r="B1134" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C1134" t="s">
         <v>4</v>
       </c>
       <c r="D1134" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1134" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1134" t="s">
         <v>10</v>
@@ -17255,7 +17270,7 @@
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1139" spans="1:7" x14ac:dyDescent="0.25">
@@ -17278,7 +17293,7 @@
         <v>7</v>
       </c>
       <c r="G1139" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17286,16 +17301,16 @@
         <v>2</v>
       </c>
       <c r="B1140" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C1140" t="s">
         <v>4</v>
       </c>
       <c r="D1140" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1140" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1140" t="s">
         <v>10</v>
@@ -17306,7 +17321,7 @@
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
@@ -17329,7 +17344,7 @@
         <v>7</v>
       </c>
       <c r="G1146" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17337,16 +17352,16 @@
         <v>2</v>
       </c>
       <c r="B1147" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C1147" t="s">
         <v>4</v>
       </c>
       <c r="D1147" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1147" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1147" t="s">
         <v>10</v>
@@ -17357,7 +17372,7 @@
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
@@ -17385,13 +17400,13 @@
         <v>2</v>
       </c>
       <c r="B1151" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C1151" t="s">
         <v>4</v>
       </c>
       <c r="D1151" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1151" t="s">
         <v>16</v>
@@ -17402,7 +17417,7 @@
     </row>
     <row r="1155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1156" spans="1:23" x14ac:dyDescent="0.25">
@@ -17430,16 +17445,16 @@
         <v>2</v>
       </c>
       <c r="B1157" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C1157" t="s">
         <v>4</v>
       </c>
       <c r="D1157" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1157" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1157" t="s">
         <v>10</v>
@@ -17447,7 +17462,7 @@
     </row>
     <row r="1159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1160" spans="1:23" x14ac:dyDescent="0.25">
@@ -17488,7 +17503,7 @@
         <v>53</v>
       </c>
       <c r="M1160" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="N1160" t="s">
         <v>55</v>
@@ -17500,25 +17515,25 @@
         <v>57</v>
       </c>
       <c r="Q1160" t="s">
+        <v>874</v>
+      </c>
+      <c r="R1160" t="s">
         <v>875</v>
       </c>
-      <c r="R1160" t="s">
+      <c r="S1160" t="s">
         <v>876</v>
       </c>
-      <c r="S1160" t="s">
+      <c r="T1160" t="s">
         <v>877</v>
       </c>
-      <c r="T1160" t="s">
+      <c r="U1160" t="s">
         <v>878</v>
       </c>
-      <c r="U1160" t="s">
+      <c r="V1160" t="s">
         <v>879</v>
       </c>
-      <c r="V1160" t="s">
+      <c r="W1160" t="s">
         <v>880</v>
-      </c>
-      <c r="W1160" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="1161" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -17526,16 +17541,16 @@
         <v>2</v>
       </c>
       <c r="B1161" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C1161" t="s">
         <v>4</v>
       </c>
       <c r="D1161" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1161" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1161" t="s">
         <v>10</v>
@@ -17562,16 +17577,16 @@
         <v>61</v>
       </c>
       <c r="N1161" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O1161" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P1161" t="s">
         <v>71</v>
       </c>
       <c r="Q1161" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="R1161" s="3">
         <v>20</v>
@@ -17594,7 +17609,7 @@
     </row>
     <row r="1163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1164" spans="1:23" x14ac:dyDescent="0.25">
@@ -17622,16 +17637,16 @@
         <v>2</v>
       </c>
       <c r="B1165" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C1165" t="s">
         <v>4</v>
       </c>
       <c r="D1165" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1165" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1165" t="s">
         <v>10</v>
@@ -17639,7 +17654,7 @@
     </row>
     <row r="1168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1169" spans="1:26" x14ac:dyDescent="0.25">
@@ -17688,13 +17703,13 @@
         <v>2</v>
       </c>
       <c r="B1170" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C1170" t="s">
         <v>4</v>
       </c>
       <c r="D1170" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E1170" t="s">
         <v>16</v>
@@ -17703,19 +17718,19 @@
         <v>10</v>
       </c>
       <c r="G1170" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1170" t="s">
         <v>219</v>
       </c>
       <c r="I1170" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J1170" t="s">
+        <v>855</v>
+      </c>
+      <c r="K1170" t="s">
         <v>856</v>
-      </c>
-      <c r="K1170" t="s">
-        <v>857</v>
       </c>
       <c r="L1170" t="s">
         <v>26</v>
@@ -17726,7 +17741,7 @@
     </row>
     <row r="1175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1176" spans="1:26" x14ac:dyDescent="0.25">
@@ -17743,7 +17758,7 @@
         <v>67</v>
       </c>
       <c r="E1176" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F1176" t="s">
         <v>260</v>
@@ -17770,7 +17785,7 @@
         <v>53</v>
       </c>
       <c r="N1176" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O1176" t="s">
         <v>55</v>
@@ -17785,7 +17800,7 @@
         <v>82</v>
       </c>
       <c r="S1176" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="T1176" t="s">
         <v>216</v>
@@ -17814,19 +17829,19 @@
         <v>2</v>
       </c>
       <c r="B1177" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C1177" t="s">
         <v>4</v>
       </c>
       <c r="D1177" t="s">
+        <v>956</v>
+      </c>
+      <c r="E1177" t="s">
         <v>957</v>
       </c>
-      <c r="E1177" t="s">
-        <v>958</v>
-      </c>
       <c r="F1177" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G1177" t="s">
         <v>10</v>
@@ -17853,39 +17868,39 @@
         <v>61</v>
       </c>
       <c r="O1177" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="P1177" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="Q1177" t="s">
         <v>65</v>
       </c>
       <c r="S1177" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="U1177" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="V1177" t="s">
         <v>26</v>
       </c>
       <c r="W1177" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="X1177" t="s">
         <v>219</v>
       </c>
       <c r="Y1177" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Z1177" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1181" spans="1:26" x14ac:dyDescent="0.25">
@@ -17913,16 +17928,16 @@
         <v>2</v>
       </c>
       <c r="B1182" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C1182" t="s">
         <v>4</v>
       </c>
       <c r="D1182" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E1182" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1182" t="s">
         <v>10</v>
@@ -17930,7 +17945,7 @@
     </row>
     <row r="1184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1185" spans="1:23" x14ac:dyDescent="0.25">
@@ -17958,13 +17973,13 @@
         <v>2</v>
       </c>
       <c r="B1186" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C1186" t="s">
         <v>4</v>
       </c>
       <c r="D1186" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E1186" t="s">
         <v>16</v>
@@ -17975,7 +17990,7 @@
     </row>
     <row r="1190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1191" spans="1:23" x14ac:dyDescent="0.25">
@@ -18016,7 +18031,7 @@
         <v>53</v>
       </c>
       <c r="M1191" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="N1191" t="s">
         <v>55</v>
@@ -18028,25 +18043,25 @@
         <v>57</v>
       </c>
       <c r="Q1191" t="s">
+        <v>874</v>
+      </c>
+      <c r="R1191" t="s">
         <v>875</v>
       </c>
-      <c r="R1191" t="s">
+      <c r="S1191" t="s">
         <v>876</v>
       </c>
-      <c r="S1191" t="s">
+      <c r="T1191" t="s">
         <v>877</v>
       </c>
-      <c r="T1191" t="s">
+      <c r="U1191" t="s">
         <v>878</v>
       </c>
-      <c r="U1191" t="s">
+      <c r="V1191" t="s">
         <v>879</v>
       </c>
-      <c r="V1191" t="s">
+      <c r="W1191" t="s">
         <v>880</v>
-      </c>
-      <c r="W1191" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="1192" spans="1:23" x14ac:dyDescent="0.25">
@@ -18054,16 +18069,16 @@
         <v>2</v>
       </c>
       <c r="B1192" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C1192" t="s">
         <v>4</v>
       </c>
       <c r="D1192" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1192" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1192" t="s">
         <v>10</v>
@@ -18090,16 +18105,16 @@
         <v>61</v>
       </c>
       <c r="N1192" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O1192" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P1192" t="s">
         <v>71</v>
       </c>
       <c r="Q1192" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="R1192" s="3">
         <v>20</v>
@@ -18122,7 +18137,7 @@
     </row>
     <row r="1195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1196" spans="1:23" x14ac:dyDescent="0.25">
@@ -18136,55 +18151,55 @@
         <v>3</v>
       </c>
       <c r="D1196" t="s">
+        <v>888</v>
+      </c>
+      <c r="E1196" t="s">
         <v>889</v>
       </c>
-      <c r="E1196" t="s">
+      <c r="F1196" t="s">
         <v>890</v>
-      </c>
-      <c r="F1196" t="s">
-        <v>891</v>
       </c>
       <c r="G1196" t="s">
         <v>7</v>
       </c>
       <c r="H1196" t="s">
+        <v>891</v>
+      </c>
+      <c r="I1196" t="s">
         <v>892</v>
       </c>
-      <c r="I1196" t="s">
+      <c r="J1196" t="s">
         <v>893</v>
       </c>
-      <c r="J1196" t="s">
+      <c r="K1196" t="s">
         <v>894</v>
-      </c>
-      <c r="K1196" t="s">
-        <v>895</v>
       </c>
       <c r="L1196" t="s">
         <v>658</v>
       </c>
       <c r="M1196" t="s">
+        <v>895</v>
+      </c>
+      <c r="N1196" t="s">
         <v>896</v>
       </c>
-      <c r="N1196" t="s">
+      <c r="O1196" t="s">
         <v>897</v>
       </c>
-      <c r="O1196" t="s">
-        <v>898</v>
-      </c>
       <c r="P1196" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q1196" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R1196" t="s">
         <v>270</v>
       </c>
       <c r="S1196" t="s">
+        <v>934</v>
+      </c>
+      <c r="T1196" t="s">
         <v>935</v>
-      </c>
-      <c r="T1196" t="s">
-        <v>936</v>
       </c>
       <c r="U1196" t="s">
         <v>269</v>
@@ -18195,7 +18210,7 @@
         <v>2</v>
       </c>
       <c r="B1197" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C1197" t="s">
         <v>4</v>
@@ -18210,7 +18225,7 @@
         <v>468</v>
       </c>
       <c r="G1197" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1197" t="s">
         <v>499</v>
@@ -18225,13 +18240,13 @@
         <v>37</v>
       </c>
       <c r="L1197" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M1197" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N1197" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O1197" t="s">
         <v>553</v>
@@ -18240,24 +18255,24 @@
         <v>16</v>
       </c>
       <c r="Q1197" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="R1197" t="s">
         <v>271</v>
       </c>
       <c r="S1197" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="T1197" t="s">
         <v>10</v>
       </c>
       <c r="U1197" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1201" spans="1:18" x14ac:dyDescent="0.25">
@@ -18271,46 +18286,46 @@
         <v>3</v>
       </c>
       <c r="D1201" t="s">
+        <v>888</v>
+      </c>
+      <c r="E1201" t="s">
         <v>889</v>
       </c>
-      <c r="E1201" t="s">
+      <c r="F1201" t="s">
         <v>890</v>
-      </c>
-      <c r="F1201" t="s">
-        <v>891</v>
       </c>
       <c r="G1201" t="s">
         <v>7</v>
       </c>
       <c r="H1201" t="s">
+        <v>891</v>
+      </c>
+      <c r="I1201" t="s">
         <v>892</v>
       </c>
-      <c r="I1201" t="s">
+      <c r="J1201" t="s">
         <v>893</v>
       </c>
-      <c r="J1201" t="s">
+      <c r="K1201" t="s">
         <v>894</v>
-      </c>
-      <c r="K1201" t="s">
-        <v>895</v>
       </c>
       <c r="L1201" t="s">
         <v>658</v>
       </c>
       <c r="M1201" t="s">
+        <v>895</v>
+      </c>
+      <c r="N1201" t="s">
         <v>896</v>
       </c>
-      <c r="N1201" t="s">
+      <c r="O1201" t="s">
         <v>897</v>
       </c>
-      <c r="O1201" t="s">
-        <v>898</v>
-      </c>
       <c r="P1201" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q1201" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R1201" t="s">
         <v>270</v>
@@ -18321,7 +18336,7 @@
         <v>2</v>
       </c>
       <c r="B1202" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C1202" t="s">
         <v>4</v>
@@ -18336,7 +18351,7 @@
         <v>468</v>
       </c>
       <c r="G1202" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1202" t="s">
         <v>499</v>
@@ -18348,13 +18363,13 @@
         <v>555</v>
       </c>
       <c r="K1202" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M1202" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N1202" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O1202" t="s">
         <v>394</v>
@@ -18363,7 +18378,7 @@
         <v>16</v>
       </c>
       <c r="Q1202" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="R1202" t="s">
         <v>271</v>
@@ -18371,7 +18386,7 @@
     </row>
     <row r="1204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1205" spans="1:18" x14ac:dyDescent="0.25">
@@ -18385,46 +18400,46 @@
         <v>3</v>
       </c>
       <c r="D1205" t="s">
+        <v>888</v>
+      </c>
+      <c r="E1205" t="s">
         <v>889</v>
       </c>
-      <c r="E1205" t="s">
+      <c r="F1205" t="s">
         <v>890</v>
-      </c>
-      <c r="F1205" t="s">
-        <v>891</v>
       </c>
       <c r="G1205" t="s">
         <v>7</v>
       </c>
       <c r="H1205" t="s">
+        <v>891</v>
+      </c>
+      <c r="I1205" t="s">
         <v>892</v>
       </c>
-      <c r="I1205" t="s">
+      <c r="J1205" t="s">
         <v>893</v>
       </c>
-      <c r="J1205" t="s">
+      <c r="K1205" t="s">
         <v>894</v>
-      </c>
-      <c r="K1205" t="s">
-        <v>895</v>
       </c>
       <c r="L1205" t="s">
         <v>658</v>
       </c>
       <c r="M1205" t="s">
+        <v>895</v>
+      </c>
+      <c r="N1205" t="s">
         <v>896</v>
       </c>
-      <c r="N1205" t="s">
+      <c r="O1205" t="s">
         <v>897</v>
       </c>
-      <c r="O1205" t="s">
-        <v>898</v>
-      </c>
       <c r="P1205" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q1205" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R1205" t="s">
         <v>270</v>
@@ -18435,7 +18450,7 @@
         <v>2</v>
       </c>
       <c r="B1206" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C1206" t="s">
         <v>4</v>
@@ -18450,7 +18465,7 @@
         <v>468</v>
       </c>
       <c r="G1206" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1206" t="s">
         <v>499</v>
@@ -18462,13 +18477,13 @@
         <v>555</v>
       </c>
       <c r="K1206" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M1206" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N1206" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O1206" t="s">
         <v>394</v>
@@ -18477,7 +18492,7 @@
         <v>16</v>
       </c>
       <c r="Q1206" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="R1206" t="s">
         <v>271</v>
@@ -18485,7 +18500,7 @@
     </row>
     <row r="1208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1209" spans="1:18" x14ac:dyDescent="0.25">
@@ -18499,46 +18514,46 @@
         <v>3</v>
       </c>
       <c r="D1209" t="s">
+        <v>888</v>
+      </c>
+      <c r="E1209" t="s">
         <v>889</v>
       </c>
-      <c r="E1209" t="s">
+      <c r="F1209" t="s">
         <v>890</v>
-      </c>
-      <c r="F1209" t="s">
-        <v>891</v>
       </c>
       <c r="G1209" t="s">
         <v>7</v>
       </c>
       <c r="H1209" t="s">
+        <v>891</v>
+      </c>
+      <c r="I1209" t="s">
         <v>892</v>
       </c>
-      <c r="I1209" t="s">
+      <c r="J1209" t="s">
         <v>893</v>
       </c>
-      <c r="J1209" t="s">
+      <c r="K1209" t="s">
         <v>894</v>
-      </c>
-      <c r="K1209" t="s">
-        <v>895</v>
       </c>
       <c r="L1209" t="s">
         <v>658</v>
       </c>
       <c r="M1209" t="s">
+        <v>895</v>
+      </c>
+      <c r="N1209" t="s">
         <v>896</v>
       </c>
-      <c r="N1209" t="s">
+      <c r="O1209" t="s">
         <v>897</v>
       </c>
-      <c r="O1209" t="s">
-        <v>898</v>
-      </c>
       <c r="P1209" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q1209" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1210" spans="1:18" x14ac:dyDescent="0.25">
@@ -18546,7 +18561,7 @@
         <v>2</v>
       </c>
       <c r="B1210" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C1210" t="s">
         <v>4</v>
@@ -18561,7 +18576,7 @@
         <v>468</v>
       </c>
       <c r="G1210" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1210" t="s">
         <v>499</v>
@@ -18573,13 +18588,13 @@
         <v>555</v>
       </c>
       <c r="K1210" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M1210" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N1210" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O1210" t="s">
         <v>553</v>
@@ -18588,12 +18603,12 @@
         <v>16</v>
       </c>
       <c r="Q1210" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1213" spans="1:18" x14ac:dyDescent="0.25">
@@ -18615,7 +18630,7 @@
         <v>2</v>
       </c>
       <c r="B1214" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C1214" t="s">
         <v>4</v>
@@ -18627,7 +18642,7 @@
     </row>
     <row r="1217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1218" spans="1:19" x14ac:dyDescent="0.25">
@@ -18641,7 +18656,7 @@
         <v>3</v>
       </c>
       <c r="D1218" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E1218" t="s">
         <v>260</v>
@@ -18655,24 +18670,24 @@
         <v>2</v>
       </c>
       <c r="B1219" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C1219" t="s">
         <v>4</v>
       </c>
       <c r="D1219" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E1219" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1219" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1223" spans="1:19" x14ac:dyDescent="0.25">
@@ -18686,7 +18701,7 @@
         <v>3</v>
       </c>
       <c r="D1223" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E1223" t="s">
         <v>260</v>
@@ -18700,16 +18715,16 @@
         <v>2</v>
       </c>
       <c r="B1224" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C1224" t="s">
         <v>4</v>
       </c>
       <c r="D1224" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E1224" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1224" t="s">
         <v>10</v>
@@ -18717,7 +18732,7 @@
     </row>
     <row r="1226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1227" spans="1:19" x14ac:dyDescent="0.25">
@@ -18748,27 +18763,27 @@
         <v>2</v>
       </c>
       <c r="B1228" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C1228" t="s">
         <v>4</v>
       </c>
       <c r="D1228" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E1228" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F1228" t="s">
         <v>10</v>
       </c>
       <c r="G1228" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1232" spans="1:19" x14ac:dyDescent="0.25">
@@ -18782,52 +18797,52 @@
         <v>3</v>
       </c>
       <c r="D1232" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E1232" t="s">
+        <v>937</v>
+      </c>
+      <c r="F1232" t="s">
         <v>938</v>
       </c>
-      <c r="F1232" t="s">
-        <v>939</v>
-      </c>
       <c r="G1232" t="s">
+        <v>888</v>
+      </c>
+      <c r="H1232" t="s">
         <v>889</v>
       </c>
-      <c r="H1232" t="s">
+      <c r="I1232" t="s">
         <v>890</v>
-      </c>
-      <c r="I1232" t="s">
-        <v>891</v>
       </c>
       <c r="J1232" t="s">
         <v>7</v>
       </c>
       <c r="K1232" t="s">
+        <v>891</v>
+      </c>
+      <c r="L1232" t="s">
         <v>892</v>
       </c>
-      <c r="L1232" t="s">
+      <c r="M1232" t="s">
         <v>893</v>
       </c>
-      <c r="M1232" t="s">
+      <c r="N1232" t="s">
         <v>894</v>
-      </c>
-      <c r="N1232" t="s">
-        <v>895</v>
       </c>
       <c r="O1232" t="s">
         <v>658</v>
       </c>
       <c r="P1232" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q1232" t="s">
         <v>896</v>
       </c>
-      <c r="Q1232" t="s">
+      <c r="R1232" t="s">
         <v>897</v>
       </c>
-      <c r="R1232" t="s">
-        <v>898</v>
-      </c>
       <c r="S1232" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1233" spans="1:19" x14ac:dyDescent="0.25">
@@ -18835,19 +18850,19 @@
         <v>2</v>
       </c>
       <c r="B1233" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C1233" t="s">
         <v>4</v>
       </c>
       <c r="D1233" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E1233" t="s">
+        <v>941</v>
+      </c>
+      <c r="F1233" t="s">
         <v>942</v>
-      </c>
-      <c r="F1233" t="s">
-        <v>943</v>
       </c>
       <c r="G1233" t="s">
         <v>17</v>
@@ -18859,7 +18874,7 @@
         <v>468</v>
       </c>
       <c r="J1233" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K1233" t="s">
         <v>499</v>
@@ -18871,13 +18886,13 @@
         <v>555</v>
       </c>
       <c r="N1233" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="P1233" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="Q1233" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="R1233" t="s">
         <v>553</v>
@@ -18888,7 +18903,7 @@
     </row>
     <row r="1235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="1236" spans="1:19" x14ac:dyDescent="0.25">
@@ -18902,43 +18917,43 @@
         <v>3</v>
       </c>
       <c r="D1236" t="s">
+        <v>888</v>
+      </c>
+      <c r="E1236" t="s">
         <v>889</v>
       </c>
-      <c r="E1236" t="s">
+      <c r="F1236" t="s">
         <v>890</v>
-      </c>
-      <c r="F1236" t="s">
-        <v>891</v>
       </c>
       <c r="G1236" t="s">
         <v>7</v>
       </c>
       <c r="H1236" t="s">
+        <v>891</v>
+      </c>
+      <c r="I1236" t="s">
         <v>892</v>
       </c>
-      <c r="I1236" t="s">
+      <c r="J1236" t="s">
         <v>893</v>
       </c>
-      <c r="J1236" t="s">
+      <c r="K1236" t="s">
         <v>894</v>
-      </c>
-      <c r="K1236" t="s">
-        <v>895</v>
       </c>
       <c r="L1236" t="s">
         <v>658</v>
       </c>
       <c r="M1236" t="s">
+        <v>895</v>
+      </c>
+      <c r="N1236" t="s">
         <v>896</v>
       </c>
-      <c r="N1236" t="s">
+      <c r="O1236" t="s">
         <v>897</v>
       </c>
-      <c r="O1236" t="s">
-        <v>898</v>
-      </c>
       <c r="P1236" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1237" spans="1:19" x14ac:dyDescent="0.25">
@@ -18946,7 +18961,7 @@
         <v>2</v>
       </c>
       <c r="B1237" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C1237" t="s">
         <v>4</v>
@@ -18961,7 +18976,7 @@
         <v>468</v>
       </c>
       <c r="G1237" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1237" t="s">
         <v>499</v>
@@ -18976,13 +18991,13 @@
         <v>37</v>
       </c>
       <c r="L1237" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M1237" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N1237" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O1237" t="s">
         <v>553</v>
@@ -19011,19 +19026,19 @@
         <v>67</v>
       </c>
       <c r="G1240" t="s">
+        <v>958</v>
+      </c>
+      <c r="H1240" t="s">
         <v>959</v>
-      </c>
-      <c r="H1240" t="s">
-        <v>960</v>
       </c>
       <c r="I1240" t="s">
         <v>488</v>
       </c>
       <c r="J1240" t="s">
+        <v>960</v>
+      </c>
+      <c r="K1240" t="s">
         <v>961</v>
-      </c>
-      <c r="K1240" t="s">
-        <v>962</v>
       </c>
       <c r="L1240" t="s">
         <v>275</v>
@@ -19034,7 +19049,7 @@
         <v>2</v>
       </c>
       <c r="B1241" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C1241" t="s">
         <v>4</v>
@@ -19049,19 +19064,19 @@
         <v>768</v>
       </c>
       <c r="G1241" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1241" t="s">
         <v>488</v>
       </c>
       <c r="I1241" t="s">
+        <v>963</v>
+      </c>
+      <c r="J1241" t="s">
         <v>964</v>
       </c>
-      <c r="J1241" t="s">
+      <c r="K1241" t="s">
         <v>965</v>
-      </c>
-      <c r="K1241" t="s">
-        <v>966</v>
       </c>
       <c r="L1241" t="s">
         <v>63</v>
@@ -19069,7 +19084,7 @@
     </row>
     <row r="1244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1245" spans="1:19" x14ac:dyDescent="0.25">
@@ -19092,31 +19107,31 @@
         <v>276</v>
       </c>
       <c r="G1245" t="s">
+        <v>966</v>
+      </c>
+      <c r="H1245" t="s">
         <v>967</v>
-      </c>
-      <c r="H1245" t="s">
-        <v>968</v>
       </c>
       <c r="I1245" t="s">
         <v>275</v>
       </c>
       <c r="J1245" t="s">
+        <v>968</v>
+      </c>
+      <c r="K1245" t="s">
         <v>969</v>
       </c>
-      <c r="K1245" t="s">
+      <c r="L1245" t="s">
         <v>970</v>
       </c>
-      <c r="L1245" t="s">
+      <c r="M1245" t="s">
         <v>971</v>
-      </c>
-      <c r="M1245" t="s">
-        <v>972</v>
       </c>
       <c r="N1245" t="s">
         <v>426</v>
       </c>
       <c r="O1245" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1246" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -19124,28 +19139,28 @@
         <v>2</v>
       </c>
       <c r="B1246" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C1246" t="s">
         <v>4</v>
       </c>
       <c r="D1246" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E1246" t="s">
         <v>10</v>
       </c>
       <c r="F1246" t="s">
+        <v>973</v>
+      </c>
+      <c r="G1246" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>998</v>
+      </c>
+      <c r="I1246" t="s">
         <v>974</v>
-      </c>
-      <c r="G1246" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="H1246" t="s">
-        <v>999</v>
-      </c>
-      <c r="I1246" t="s">
-        <v>975</v>
       </c>
       <c r="J1246" t="s">
         <v>16</v>
@@ -19154,7 +19169,7 @@
         <v>468</v>
       </c>
       <c r="L1246" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M1246" s="3" t="s">
         <v>468</v>
@@ -19163,12 +19178,12 @@
         <v>277</v>
       </c>
       <c r="O1246" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1250" spans="1:13" x14ac:dyDescent="0.25">
@@ -19188,25 +19203,25 @@
         <v>7</v>
       </c>
       <c r="F1250" t="s">
+        <v>975</v>
+      </c>
+      <c r="G1250" t="s">
         <v>976</v>
       </c>
-      <c r="G1250" t="s">
+      <c r="H1250" t="s">
         <v>977</v>
       </c>
-      <c r="H1250" t="s">
+      <c r="I1250" t="s">
         <v>978</v>
       </c>
-      <c r="I1250" t="s">
+      <c r="J1250" t="s">
         <v>979</v>
       </c>
-      <c r="J1250" t="s">
+      <c r="K1250" t="s">
         <v>980</v>
       </c>
-      <c r="K1250" t="s">
-        <v>981</v>
-      </c>
       <c r="L1250" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1251" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -19214,28 +19229,28 @@
         <v>2</v>
       </c>
       <c r="B1251" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C1251" t="s">
         <v>4</v>
       </c>
       <c r="D1251" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E1251" t="s">
         <v>10</v>
       </c>
       <c r="F1251" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G1251" t="s">
+        <v>981</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>981</v>
+      </c>
+      <c r="I1251" t="s">
         <v>982</v>
-      </c>
-      <c r="H1251" t="s">
-        <v>982</v>
-      </c>
-      <c r="I1251" t="s">
-        <v>983</v>
       </c>
       <c r="J1251" s="3" t="s">
         <v>468</v>
@@ -19249,7 +19264,7 @@
     </row>
     <row r="1254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="1255" spans="1:13" x14ac:dyDescent="0.25">
@@ -19269,13 +19284,13 @@
         <v>7</v>
       </c>
       <c r="F1255" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G1255" t="s">
+        <v>888</v>
+      </c>
+      <c r="H1255" t="s">
         <v>889</v>
-      </c>
-      <c r="H1255" t="s">
-        <v>890</v>
       </c>
       <c r="I1255" t="s">
         <v>6</v>
@@ -19284,13 +19299,13 @@
         <v>7</v>
       </c>
       <c r="K1255" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L1255" t="s">
         <v>423</v>
       </c>
       <c r="M1255" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1256" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -19298,25 +19313,25 @@
         <v>2</v>
       </c>
       <c r="B1256" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C1256" t="s">
         <v>4</v>
       </c>
       <c r="D1256" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E1256" t="s">
         <v>10</v>
       </c>
       <c r="F1256" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G1256" t="s">
+        <v>985</v>
+      </c>
+      <c r="H1256" t="s">
         <v>986</v>
-      </c>
-      <c r="H1256" t="s">
-        <v>987</v>
       </c>
       <c r="J1256" t="s">
         <v>10</v>
@@ -19325,7 +19340,7 @@
         <v>10</v>
       </c>
       <c r="L1256" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M1256" t="s">
         <v>574</v>
@@ -19348,7 +19363,7 @@
         <v>7</v>
       </c>
       <c r="F1260" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G1260" t="s">
         <v>275</v>
@@ -19357,19 +19372,19 @@
         <v>276</v>
       </c>
       <c r="I1260" t="s">
+        <v>988</v>
+      </c>
+      <c r="J1260" t="s">
         <v>989</v>
       </c>
-      <c r="J1260" t="s">
+      <c r="K1260" t="s">
         <v>990</v>
       </c>
-      <c r="K1260" t="s">
+      <c r="L1260" t="s">
         <v>991</v>
       </c>
-      <c r="L1260" t="s">
+      <c r="M1260" t="s">
         <v>992</v>
-      </c>
-      <c r="M1260" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="1261" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -19377,19 +19392,19 @@
         <v>2</v>
       </c>
       <c r="B1261" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C1261" t="s">
         <v>4</v>
       </c>
       <c r="D1261" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E1261" t="s">
         <v>10</v>
       </c>
       <c r="F1261" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G1261" t="s">
         <v>275</v>
@@ -19398,24 +19413,24 @@
         <v>276</v>
       </c>
       <c r="I1261" t="s">
+        <v>988</v>
+      </c>
+      <c r="J1261" t="s">
         <v>989</v>
       </c>
-      <c r="J1261" t="s">
-        <v>990</v>
-      </c>
       <c r="K1261" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="L1261" t="s">
+        <v>991</v>
+      </c>
+      <c r="M1261" t="s">
         <v>992</v>
-      </c>
-      <c r="M1261" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="1263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1264" spans="1:13" x14ac:dyDescent="0.25">
@@ -19435,13 +19450,13 @@
         <v>7</v>
       </c>
       <c r="F1264" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G1264" t="s">
         <v>245</v>
       </c>
       <c r="H1264" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I1264" t="s">
         <v>67</v>
@@ -19452,7 +19467,7 @@
         <v>2</v>
       </c>
       <c r="B1265" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C1265" t="s">
         <v>4</v>
@@ -19464,21 +19479,21 @@
         <v>10</v>
       </c>
       <c r="F1265" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>926</v>
+      </c>
+      <c r="H1265" t="s">
         <v>1016</v>
       </c>
-      <c r="G1265" t="s">
-        <v>927</v>
-      </c>
-      <c r="H1265" t="s">
+      <c r="I1265" t="s">
         <v>1017</v>
-      </c>
-      <c r="I1265" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="1268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="1269" spans="1:9" x14ac:dyDescent="0.25">
@@ -19498,10 +19513,10 @@
         <v>7</v>
       </c>
       <c r="F1269" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G1269" t="s">
         <v>1013</v>
-      </c>
-      <c r="G1269" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="1270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -19509,7 +19524,7 @@
         <v>2</v>
       </c>
       <c r="B1270" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C1270" t="s">
         <v>4</v>
@@ -19523,7 +19538,7 @@
     </row>
     <row r="1272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1273" spans="1:9" x14ac:dyDescent="0.25">
@@ -19543,7 +19558,7 @@
         <v>7</v>
       </c>
       <c r="F1273" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G1273" t="s">
         <v>245</v>
@@ -19554,7 +19569,7 @@
         <v>2</v>
       </c>
       <c r="B1274" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C1274" t="s">
         <v>4</v>
@@ -19568,7 +19583,7 @@
     </row>
     <row r="1276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1277" spans="1:9" x14ac:dyDescent="0.25">
@@ -19588,10 +19603,10 @@
         <v>7</v>
       </c>
       <c r="F1277" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G1277" t="s">
         <v>1013</v>
-      </c>
-      <c r="G1277" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="1278" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -19599,7 +19614,7 @@
         <v>2</v>
       </c>
       <c r="B1278" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C1278" t="s">
         <v>4</v>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C9AFC3-B861-4576-8F84-33475372FC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AA8FA7-0F4B-4CAA-8FBC-D194D3469FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="0" windowWidth="15405" windowHeight="10920" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -3934,8 +3934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E243"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6082,8 +6082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AW1173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1126" workbookViewId="0">
-      <selection activeCell="A1140" sqref="A1140"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bizligo-automation\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AA8FA7-0F4B-4CAA-8FBC-D194D3469FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274456C2-0A13-4E09-A0BB-85BF3AE1A9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5464" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5954" uniqueCount="1130">
   <si>
     <t>TestCases</t>
   </si>
@@ -3420,6 +3420,325 @@
   </si>
   <si>
     <t>/src/test/resources/testImages/ChromeImage7.jpg</t>
+  </si>
+  <si>
+    <t>TC600</t>
+  </si>
+  <si>
+    <t>TC600_Verify_Member_can_able_to_create_a_Testimonial</t>
+  </si>
+  <si>
+    <t>viswanadh.ms@gmail.com</t>
+  </si>
+  <si>
+    <t>We are very happy on the ..</t>
+  </si>
+  <si>
+    <t>B2C</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>vj1@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>Testimonial is approved</t>
+  </si>
+  <si>
+    <t>TC601</t>
+  </si>
+  <si>
+    <t>TCS - Tata consultancy services</t>
+  </si>
+  <si>
+    <t>TC601_Verify_Member_can_able_to_Reset_a_Testimonial</t>
+  </si>
+  <si>
+    <t>TC602</t>
+  </si>
+  <si>
+    <t>TC602_Verify_System_Admin_can_Able_To_Approve_Testimonial</t>
+  </si>
+  <si>
+    <t>Testimonial is Rejected</t>
+  </si>
+  <si>
+    <t>Checking Testimonials important</t>
+  </si>
+  <si>
+    <t>TC603</t>
+  </si>
+  <si>
+    <t>TC603_Verify_System_Admin_can_Able_To_Reject_Testimonial</t>
+  </si>
+  <si>
+    <t>I have worked with Bill Angelo</t>
+  </si>
+  <si>
+    <t>Admin@bizligo.com</t>
+  </si>
+  <si>
+    <t>Search by blog</t>
+  </si>
+  <si>
+    <t>TC604</t>
+  </si>
+  <si>
+    <t>TC605</t>
+  </si>
+  <si>
+    <t>TC604_Verify_Super_Admin_Inactive_The_Testimonial_Feature</t>
+  </si>
+  <si>
+    <t>TC605_Verify_Super_Admin_Active_The_Testimonial_Feature</t>
+  </si>
+  <si>
+    <t>shortdescription</t>
+  </si>
+  <si>
+    <t>Every body like cricket and they really want to be..</t>
+  </si>
+  <si>
+    <t>This is one of the best game in india and each and every
+body like it</t>
+  </si>
+  <si>
+    <t>TC606</t>
+  </si>
+  <si>
+    <t>TC606_Verify_System_Admin_Can_Able_To_Create_a_Blog</t>
+  </si>
+  <si>
+    <t>This ish one of the best game in india and each and everys
+body like it</t>
+  </si>
+  <si>
+    <t>TC607</t>
+  </si>
+  <si>
+    <t>TC607_Verifying_The_Blog_Form_Is_Closed_And_Then_Clicked_On_The_Cancelled_Button</t>
+  </si>
+  <si>
+    <t>Checking the blog</t>
+  </si>
+  <si>
+    <t>TC608</t>
+  </si>
+  <si>
+    <t>TC608_Verify_System_Admin_Can_Able_To_Update_the_Blog</t>
+  </si>
+  <si>
+    <t>TC609</t>
+  </si>
+  <si>
+    <t>Blogs testing</t>
+  </si>
+  <si>
+    <t>TC609_Verify_System_Admin_Created_Blogs_Are_Displaying_in_Blogs_Page</t>
+  </si>
+  <si>
+    <t>TC610_Verify_System_Admin_Inactive_Blogs_Are_Not_Displaying_in_Blogs_Page</t>
+  </si>
+  <si>
+    <t>TC610</t>
+  </si>
+  <si>
+    <t>TC611_Verify_Super_Admin_Inactive_The_Blogs_Feature</t>
+  </si>
+  <si>
+    <t>TC611</t>
+  </si>
+  <si>
+    <t>TC612</t>
+  </si>
+  <si>
+    <t>TC612_Verify_Super_Admin_Active_The_Blogs_Feature</t>
+  </si>
+  <si>
+    <t>locationAddress</t>
+  </si>
+  <si>
+    <t>addressLine1</t>
+  </si>
+  <si>
+    <t>locationStreetAddress2</t>
+  </si>
+  <si>
+    <t>locationCity</t>
+  </si>
+  <si>
+    <t>locationState</t>
+  </si>
+  <si>
+    <t>locationZip</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>secondary Location</t>
+  </si>
+  <si>
+    <t>Seethamadhara, KRM Colony, Maddilapalem, 
+Visakhapatnam, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Seethamadhara</t>
+  </si>
+  <si>
+    <t>KRM Colony</t>
+  </si>
+  <si>
+    <t>Visakhapatnam</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>530016</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>2015556789</t>
+  </si>
+  <si>
+    <t>Third Loction</t>
+  </si>
+  <si>
+    <t>Seattle Ferry Terminal, Seattle, WA, USA</t>
+  </si>
+  <si>
+    <t>Seattle Ferry Terminal</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>98104</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>2015556788</t>
+  </si>
+  <si>
+    <t>TC613</t>
+  </si>
+  <si>
+    <t>TC614</t>
+  </si>
+  <si>
+    <t>TC613_Verify_Primary_Contact_Member_Can_Able_to_Add_Location</t>
+  </si>
+  <si>
+    <t>TC614_Verify_Primary_Contact_Member_Able_To_Update_Location</t>
+  </si>
+  <si>
+    <t>TC615_Verify_Primary_Contact_Member_can_able_To_Inactive_The_location</t>
+  </si>
+  <si>
+    <t>TC615</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>Vasanth</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>TC616</t>
+  </si>
+  <si>
+    <t>TC616_Verify_Primary_Contact_Able_to_Add_Member</t>
+  </si>
+  <si>
+    <t>TC617_Verify_Added_Member_is_Forced_to_Update_the_Password</t>
+  </si>
+  <si>
+    <t>TC617</t>
+  </si>
+  <si>
+    <t>currentPassword</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>TC618</t>
+  </si>
+  <si>
+    <t>TC618_Verify_Whether_member_is_able_to_add_organization_services_you_offer_and_need</t>
+  </si>
+  <si>
+    <t>TC619_Verify_if_member_is_able_to_update_organization_services_you_offer_and_need</t>
+  </si>
+  <si>
+    <t>TC619</t>
+  </si>
+  <si>
+    <t>Business Schools</t>
+  </si>
+  <si>
+    <t>TC620</t>
+  </si>
+  <si>
+    <t>TC620_Verify_the_Professional_matches_Updated_Business_Categories_is_Displayed_in_the_Organization_Tab</t>
+  </si>
+  <si>
+    <t>We are extremely proud to share some of our current customer experiences in their own words</t>
+  </si>
+  <si>
+    <t>We are extremely proud to share some of our current 
+customer experiences in their own words and</t>
+  </si>
+  <si>
+    <t>Andrew Thomson is great achivement ..</t>
+  </si>
+  <si>
+    <t>Really an inspired the moments in our life</t>
+  </si>
+  <si>
+    <t>testing on the blogs</t>
+  </si>
+  <si>
+    <t>Really an inspired the moments in our daily life</t>
+  </si>
+  <si>
+    <t>mahavrathayajula168@gmail.com</t>
+  </si>
+  <si>
+    <t>viswanadhmahavrathayajula751@gmail.com</t>
+  </si>
+  <si>
+    <t>We are extremely proud to share the news &amp; Notes</t>
   </si>
 </sst>
 </file>
@@ -3590,7 +3909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3640,6 +3959,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3932,17 +4277,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E243"/>
+  <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263:A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6069,6 +6414,237 @@
       </c>
       <c r="C243" t="s">
         <v>935</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B244" t="s">
+        <v>2</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="25" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B245" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="25" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B246" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="25" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B247" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="25" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B248" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C248" s="25" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B249" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C249" s="25" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="25" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B250" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="25" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B251" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="25" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B252" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="25" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B253" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="25" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B254" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="25" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B255" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C255" s="25" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="25" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B256" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C256" s="25" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="25" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B257" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B258" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B259" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B260" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="25" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B261" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="25" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B262" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="25" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B263" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="25" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B264" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1120</v>
       </c>
     </row>
   </sheetData>
@@ -6080,21 +6656,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AW1173"/>
+  <dimension ref="A1:AW1257"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="I141" sqref="I141"/>
+    <sheetView tabSelected="1" topLeftCell="A1203" workbookViewId="0">
+      <selection activeCell="A1213" sqref="A1213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" customWidth="1"/>
+    <col min="7" max="7" width="52.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="58.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="28.5703125" bestFit="1" customWidth="1"/>
@@ -10658,7 +11237,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>2</v>
       </c>
@@ -10706,7 +11285,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>2</v>
       </c>
@@ -10760,7 +11339,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="687" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>2</v>
       </c>
@@ -10817,7 +11396,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>2</v>
       </c>
@@ -10885,7 +11464,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="706" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>2</v>
       </c>
@@ -10943,7 +11522,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>2</v>
       </c>
@@ -11001,7 +11580,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>2</v>
       </c>
@@ -11095,7 +11674,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="732" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>2</v>
       </c>
@@ -11199,7 +11778,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="736" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>2</v>
       </c>
@@ -11320,7 +11899,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="741" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>2</v>
       </c>
@@ -11646,7 +12225,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="755" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>2</v>
       </c>
@@ -11742,7 +12321,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="759" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>2</v>
       </c>
@@ -11841,7 +12420,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="763" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>2</v>
       </c>
@@ -11983,7 +12562,7 @@
       <c r="H770" s="3"/>
       <c r="L770" s="3"/>
     </row>
-    <row r="771" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>2</v>
       </c>
@@ -12044,7 +12623,7 @@
       <c r="H774" s="3"/>
       <c r="L774" s="3"/>
     </row>
-    <row r="775" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>2</v>
       </c>
@@ -12121,7 +12700,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="779" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>2</v>
       </c>
@@ -12200,7 +12779,7 @@
       </c>
       <c r="L782" s="3"/>
     </row>
-    <row r="783" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>2</v>
       </c>
@@ -12283,7 +12862,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="788" spans="1:49" ht="60" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:49" ht="30" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>2</v>
       </c>
@@ -12376,7 +12955,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="793" spans="1:49" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:49" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A793" s="5" t="s">
         <v>2</v>
       </c>
@@ -12451,7 +13030,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="797" spans="1:49" ht="30" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A797" s="5" t="s">
         <v>2</v>
       </c>
@@ -13428,7 +14007,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="816" spans="1:49" ht="45" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:49" ht="30" x14ac:dyDescent="0.25">
       <c r="A816" s="5" t="s">
         <v>2</v>
       </c>
@@ -13512,7 +14091,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="820" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A820" s="5" t="s">
         <v>2</v>
       </c>
@@ -13602,7 +14181,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="824" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A824" s="5" t="s">
         <v>2</v>
       </c>
@@ -13686,7 +14265,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="828" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A828" s="5" t="s">
         <v>2</v>
       </c>
@@ -13770,7 +14349,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="832" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A832" s="5" t="s">
         <v>2</v>
       </c>
@@ -13848,7 +14427,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="836" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A836" s="5" t="s">
         <v>2</v>
       </c>
@@ -13938,7 +14517,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="840" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>2</v>
       </c>
@@ -14023,7 +14602,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="849" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>2</v>
       </c>
@@ -14092,7 +14671,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="853" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>2</v>
       </c>
@@ -14272,7 +14851,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="857" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>2</v>
       </c>
@@ -14558,7 +15137,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="863" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>2</v>
       </c>
@@ -14792,7 +15371,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="867" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>2</v>
       </c>
@@ -14955,7 +15534,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="878" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>736</v>
       </c>
@@ -15013,7 +15592,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="884" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>2</v>
       </c>
@@ -15070,7 +15649,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="888" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>2</v>
       </c>
@@ -15124,7 +15703,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="892" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>2</v>
       </c>
@@ -15178,7 +15757,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="896" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>2</v>
       </c>
@@ -15247,7 +15826,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="900" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>2</v>
       </c>
@@ -15431,7 +16010,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="904" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>2</v>
       </c>
@@ -16228,7 +16807,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="947" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>2</v>
       </c>
@@ -16315,7 +16894,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="951" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>2</v>
       </c>
@@ -16402,7 +16981,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="955" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>2</v>
       </c>
@@ -16489,7 +17068,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="959" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>2</v>
       </c>
@@ -16720,7 +17299,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="967" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>2</v>
       </c>
@@ -16840,7 +17419,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="975" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>2</v>
       </c>
@@ -16897,7 +17476,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="979" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>2</v>
       </c>
@@ -16954,7 +17533,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="983" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>2</v>
       </c>
@@ -17008,7 +17587,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="987" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>2</v>
       </c>
@@ -17059,7 +17638,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="991" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>1015</v>
       </c>
@@ -17782,7 +18361,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1039" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>2</v>
       </c>
@@ -17839,7 +18418,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1043" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>2</v>
       </c>
@@ -17896,7 +18475,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1047" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>2</v>
       </c>
@@ -17953,7 +18532,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1052" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
         <v>2</v>
       </c>
@@ -18064,7 +18643,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1062" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
         <v>2</v>
       </c>
@@ -18115,7 +18694,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1067" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
         <v>2</v>
       </c>
@@ -18217,7 +18796,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1071" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
         <v>2</v>
       </c>
@@ -18319,7 +18898,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1075" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
         <v>2</v>
       </c>
@@ -18391,7 +18970,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1079" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
         <v>2</v>
       </c>
@@ -18523,7 +19102,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1085" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
         <v>2</v>
       </c>
@@ -18628,7 +19207,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1089" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>2</v>
       </c>
@@ -18679,7 +19258,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1093" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
         <v>2</v>
       </c>
@@ -19923,7 +20502,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1145" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
         <v>2</v>
       </c>
@@ -20019,7 +20598,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1149" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
         <v>2</v>
       </c>
@@ -20109,7 +20688,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1153" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
         <v>2</v>
       </c>
@@ -20194,7 +20773,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1157" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
         <v>2</v>
       </c>
@@ -20275,7 +20854,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1161" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
         <v>2</v>
       </c>
@@ -20338,7 +20917,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1165" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
         <v>2</v>
       </c>
@@ -20389,7 +20968,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
         <v>2</v>
       </c>
@@ -20409,12 +20988,12 @@
         <v>999</v>
       </c>
     </row>
-    <row r="1171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="1172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
         <v>1</v>
       </c>
@@ -20440,7 +21019,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
         <v>2</v>
       </c>
@@ -20458,14 +21037,1763 @@
       </c>
       <c r="H1173" t="s">
         <v>999</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1176" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1176" t="s">
+        <v>998</v>
+      </c>
+      <c r="H1176" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1177" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1177" s="30" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E1177" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1177" s="28" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G1177" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H1177" s="25" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1179" s="29" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1179" s="28"/>
+      <c r="C1179" s="25"/>
+      <c r="D1179" s="25"/>
+      <c r="E1179" s="25"/>
+      <c r="F1179" s="25"/>
+      <c r="G1179" s="25"/>
+      <c r="H1179" s="25"/>
+      <c r="I1179" s="25"/>
+      <c r="J1179" s="25"/>
+    </row>
+    <row r="1180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1180" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1180" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1180" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1180" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1180" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1180" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1180" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1180" s="25" t="s">
+        <v>998</v>
+      </c>
+      <c r="I1180" s="25"/>
+      <c r="J1180" s="25"/>
+      <c r="K1180" s="25"/>
+    </row>
+    <row r="1181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1181" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1181" s="28" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C1181" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1181" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1181" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1181" s="25" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G1181" s="28" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H1181" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I1181" s="25"/>
+      <c r="J1181" s="28"/>
+      <c r="K1181" s="25"/>
+    </row>
+    <row r="1182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1182" s="25"/>
+      <c r="B1182" s="28"/>
+      <c r="C1182" s="26"/>
+      <c r="D1182" s="25"/>
+      <c r="E1182" s="25"/>
+      <c r="F1182" s="25"/>
+      <c r="G1182" s="28"/>
+    </row>
+    <row r="1183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1183" s="29" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1183" s="25"/>
+      <c r="C1183" s="26"/>
+      <c r="D1183" s="26"/>
+      <c r="E1183" s="29"/>
+      <c r="F1183" s="25"/>
+      <c r="G1183" s="25"/>
+      <c r="H1183" s="25"/>
+      <c r="I1183" s="25"/>
+      <c r="J1183" s="25"/>
+    </row>
+    <row r="1184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1184" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1184" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1184" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1184" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1184" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1184" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G1184" s="25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H1184" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1184" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="J1184" s="25" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K1184" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1185" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1185" s="28" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C1185" s="26" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1185" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1185" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1185" s="25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G1185" s="28" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H1185" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I1185" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1185" s="28" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K1185" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1187" s="25" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1187" s="28"/>
+      <c r="C1187" s="25"/>
+      <c r="D1187" s="25"/>
+      <c r="E1187" s="25"/>
+      <c r="F1187" s="25"/>
+      <c r="G1187" s="25"/>
+      <c r="H1187" s="25"/>
+      <c r="I1187" s="25"/>
+      <c r="J1187" s="25"/>
+    </row>
+    <row r="1188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1188" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1188" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1188" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1188" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1188" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1188" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G1188" s="25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H1188" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1188" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="J1188" s="25" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K1188" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1189" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1189" s="25" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C1189" s="26" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1189" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1189" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1189" s="25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G1189" s="28" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H1189" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I1189" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1189" s="28" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K1189" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1191" s="29" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1191" s="25"/>
+      <c r="C1191" s="26"/>
+      <c r="D1191" s="26"/>
+      <c r="E1191" s="29"/>
+      <c r="F1191" s="25"/>
+      <c r="G1191" s="25"/>
+      <c r="H1191" s="25"/>
+      <c r="I1191" s="25"/>
+    </row>
+    <row r="1192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1192" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1192" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1192" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1192" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1192" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1192" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1192" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H1192" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1192" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="J1192" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1193" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1193" s="25" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C1193" s="30" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D1193" s="30" t="s">
+        <v>932</v>
+      </c>
+      <c r="E1193" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1193" s="25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G1193" s="25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H1193" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I1193" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1193" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1194" s="25"/>
+      <c r="B1194" s="28"/>
+      <c r="C1194" s="25"/>
+      <c r="D1194" s="25"/>
+      <c r="E1194" s="25"/>
+      <c r="F1194" s="25"/>
+      <c r="G1194" s="25"/>
+      <c r="H1194" s="25"/>
+      <c r="I1194" s="25"/>
+    </row>
+    <row r="1195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1195" s="29" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1195" s="25"/>
+      <c r="C1195" s="26"/>
+      <c r="D1195" s="26"/>
+      <c r="E1195" s="29"/>
+      <c r="F1195" s="25"/>
+      <c r="G1195" s="25"/>
+      <c r="H1195" s="25"/>
+      <c r="I1195" s="25"/>
+    </row>
+    <row r="1196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1196" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1196" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1196" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1196" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1196" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1196" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1196" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1196" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1196" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1197" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1197" s="25" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C1197" s="30" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D1197" s="30" t="s">
+        <v>932</v>
+      </c>
+      <c r="E1197" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1197" s="25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G1197" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H1197" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1197" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1199" s="29" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1199" s="25"/>
+      <c r="C1199" s="26"/>
+      <c r="D1199" s="26"/>
+      <c r="E1199" s="29"/>
+      <c r="F1199" s="25"/>
+      <c r="G1199" s="25"/>
+      <c r="H1199" s="25"/>
+    </row>
+    <row r="1200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1200" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1200" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1200" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1200" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1200" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1200" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1200" s="25" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H1200" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="I1200" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1201" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1201" s="28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C1201" s="26" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1201" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1201" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1201" s="36" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G1201" s="28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H1201" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I1201" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1203" s="29" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1203" s="25"/>
+      <c r="C1203" s="26"/>
+      <c r="D1203" s="26"/>
+      <c r="E1203" s="29"/>
+      <c r="F1203" s="25"/>
+      <c r="G1203" s="25"/>
+      <c r="H1203" s="25"/>
+    </row>
+    <row r="1204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1204" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1204" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1204" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1204" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1204" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1204" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1204" s="25" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H1204" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="I1204" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1205" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1205" s="28" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1205" s="25" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1205" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1205" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1205" s="28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G1205" s="28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H1205" s="28" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I1205" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1207" s="29" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1207" s="25"/>
+      <c r="C1207" s="26"/>
+      <c r="D1207" s="26"/>
+      <c r="E1207" s="29"/>
+      <c r="F1207" s="25"/>
+      <c r="G1207" s="25"/>
+      <c r="H1207" s="25"/>
+      <c r="I1207" s="25"/>
+    </row>
+    <row r="1208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1208" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1208" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1208" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1208" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1208" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1208" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1208" s="25" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H1208" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="I1208" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J1208" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1209" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1209" s="25" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1209" s="26" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1209" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1209" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1209" s="25" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G1209" s="25" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H1209" s="25" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I1209" s="28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J1209" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1211" s="29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1211" s="25"/>
+      <c r="C1211" s="26"/>
+      <c r="D1211" s="26"/>
+      <c r="E1211" s="29"/>
+      <c r="F1211" s="25"/>
+      <c r="G1211" s="25"/>
+      <c r="H1211" s="25"/>
+      <c r="I1211" s="25"/>
+    </row>
+    <row r="1212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1212" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1212" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1212" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1212" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1212" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1212" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1212" s="25" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H1212" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="I1212" s="25" t="s">
+        <v>998</v>
+      </c>
+      <c r="J1212" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1212" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="L1212" s="25" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1213" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1213" s="25" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C1213" s="26" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1213" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1213" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1213" s="28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G1213" s="28" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H1213" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I1213" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J1213" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K1213" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1213" s="28" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1215" s="29" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1215" s="25"/>
+      <c r="C1215" s="26"/>
+      <c r="D1215" s="26"/>
+      <c r="E1215" s="29"/>
+      <c r="F1215" s="25"/>
+      <c r="G1215" s="25"/>
+      <c r="H1215" s="25"/>
+      <c r="I1215" s="25"/>
+      <c r="J1215" s="25"/>
+    </row>
+    <row r="1216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1216" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1216" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1216" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1216" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1216" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1216" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1216" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H1216" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1216" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="J1216" s="25" t="s">
+        <v>998</v>
+      </c>
+      <c r="K1216" s="25"/>
+    </row>
+    <row r="1217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1217" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1217" s="25" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C1217" s="25" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1217" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1217" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1217" s="31" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G1217" s="31" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H1217" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I1217" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1217" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K1217" s="25"/>
+    </row>
+    <row r="1219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1219" s="29" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1219" s="25"/>
+      <c r="C1219" s="26"/>
+      <c r="D1219" s="26"/>
+      <c r="E1219" s="29"/>
+      <c r="F1219" s="25"/>
+      <c r="G1219" s="25"/>
+      <c r="H1219" s="25"/>
+      <c r="I1219" s="25"/>
+    </row>
+    <row r="1220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1220" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1220" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1220" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1220" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1220" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1220" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1220" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H1220" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1220" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="J1220" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1221" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1221" s="25" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1221" s="30" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D1221" s="30" t="s">
+        <v>932</v>
+      </c>
+      <c r="E1221" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1221" s="25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G1221" s="25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H1221" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I1221" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1221" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1222" s="25"/>
+      <c r="B1222" s="28"/>
+      <c r="C1222" s="25"/>
+      <c r="D1222" s="25"/>
+      <c r="E1222" s="25"/>
+      <c r="F1222" s="25"/>
+      <c r="G1222" s="25"/>
+      <c r="H1222" s="25"/>
+      <c r="I1222" s="25"/>
+    </row>
+    <row r="1223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1223" s="29" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1223" s="25"/>
+      <c r="C1223" s="26"/>
+      <c r="D1223" s="26"/>
+      <c r="E1223" s="29"/>
+      <c r="F1223" s="25"/>
+      <c r="G1223" s="25"/>
+      <c r="H1223" s="25"/>
+      <c r="I1223" s="25"/>
+    </row>
+    <row r="1224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1224" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1224" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1224" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1224" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1224" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1224" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1224" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1224" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1224" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1225" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1225" s="25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1225" s="30" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D1225" s="30" t="s">
+        <v>932</v>
+      </c>
+      <c r="E1225" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1225" s="25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G1225" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H1225" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1225" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1227" s="29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1227" s="25"/>
+      <c r="C1227" s="26"/>
+      <c r="D1227" s="26"/>
+      <c r="E1227" s="29"/>
+      <c r="F1227" s="25"/>
+      <c r="G1227" s="25"/>
+      <c r="H1227" s="25"/>
+      <c r="I1227" s="25"/>
+      <c r="J1227" s="25"/>
+      <c r="K1227" s="25"/>
+      <c r="L1227" s="25"/>
+      <c r="M1227" s="25"/>
+      <c r="N1227" s="25"/>
+      <c r="O1227" s="25"/>
+    </row>
+    <row r="1228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1228" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1228" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1228" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1228" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1228" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1228" s="25" t="s">
+        <v>956</v>
+      </c>
+      <c r="G1228" s="25" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H1228" s="25" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I1228" s="25" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J1228" s="25" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K1228" s="25" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L1228" s="25" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M1228" s="25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N1228" s="25" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O1228" s="25" t="s">
+        <v>951</v>
+      </c>
+      <c r="P1228" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1229" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1229" s="25" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1229" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1229" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1229" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1229" s="25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G1229" s="32" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H1229" s="26" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I1229" s="25" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J1229" s="25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K1229" s="25" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L1229" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M1229" s="25" t="s">
+        <v>1087</v>
+      </c>
+      <c r="N1229" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="O1229" s="25"/>
+      <c r="P1229" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1230" s="25"/>
+      <c r="B1230" s="28"/>
+      <c r="C1230" s="25"/>
+      <c r="D1230" s="25"/>
+      <c r="E1230" s="25"/>
+      <c r="F1230" s="25"/>
+      <c r="G1230" s="25"/>
+      <c r="H1230" s="25"/>
+      <c r="I1230" s="25"/>
+      <c r="J1230" s="25"/>
+      <c r="K1230" s="25"/>
+      <c r="L1230" s="25"/>
+      <c r="M1230" s="25"/>
+      <c r="N1230" s="25"/>
+      <c r="O1230" s="25"/>
+    </row>
+    <row r="1231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1231" s="29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B1231" s="25"/>
+      <c r="C1231" s="26"/>
+      <c r="D1231" s="26"/>
+      <c r="E1231" s="29"/>
+      <c r="F1231" s="25"/>
+      <c r="G1231" s="25"/>
+      <c r="H1231" s="25"/>
+      <c r="I1231" s="25"/>
+      <c r="J1231" s="25"/>
+      <c r="K1231" s="25"/>
+      <c r="L1231" s="25"/>
+      <c r="M1231" s="25"/>
+      <c r="N1231" s="25"/>
+      <c r="O1231" s="25"/>
+    </row>
+    <row r="1232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1232" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1232" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1232" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1232" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1232" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1232" s="25" t="s">
+        <v>956</v>
+      </c>
+      <c r="G1232" s="25" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H1232" s="25" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I1232" s="25" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J1232" s="25" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K1232" s="25" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L1232" s="25" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M1232" s="25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N1232" s="25" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O1232" s="25" t="s">
+        <v>951</v>
+      </c>
+      <c r="P1232" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1233" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1233" s="33" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C1233" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1233" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1233" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1233" s="33" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G1233" s="34" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H1233" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I1233" s="33" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J1233" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K1233" s="33" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L1233" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M1233" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="N1233" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O1233" s="25"/>
+      <c r="P1233" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1234" s="25"/>
+      <c r="B1234" s="28"/>
+      <c r="C1234" s="25"/>
+      <c r="D1234" s="25"/>
+      <c r="E1234" s="25"/>
+      <c r="F1234" s="25"/>
+      <c r="G1234" s="25"/>
+      <c r="H1234" s="25"/>
+      <c r="I1234" s="25"/>
+      <c r="J1234" s="25"/>
+      <c r="K1234" s="25"/>
+      <c r="L1234" s="25"/>
+      <c r="M1234" s="25"/>
+      <c r="N1234" s="25"/>
+      <c r="O1234" s="25"/>
+    </row>
+    <row r="1235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1235" s="29" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1235" s="25"/>
+      <c r="C1235" s="26"/>
+      <c r="D1235" s="26"/>
+      <c r="E1235" s="29"/>
+      <c r="F1235" s="25"/>
+      <c r="G1235" s="25"/>
+      <c r="H1235" s="25"/>
+      <c r="I1235" s="25"/>
+      <c r="J1235" s="25"/>
+      <c r="K1235" s="25"/>
+      <c r="L1235" s="25"/>
+      <c r="M1235" s="25"/>
+      <c r="N1235" s="25"/>
+      <c r="O1235" s="25"/>
+    </row>
+    <row r="1236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1236" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1236" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1236" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1236" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1236" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1236" s="25" t="s">
+        <v>998</v>
+      </c>
+      <c r="G1236" s="25"/>
+      <c r="H1236" s="25"/>
+      <c r="I1236" s="25"/>
+      <c r="J1236" s="25"/>
+      <c r="K1236" s="25"/>
+      <c r="L1236" s="25"/>
+      <c r="M1236" s="25"/>
+      <c r="N1236" s="25"/>
+      <c r="O1236" s="25"/>
+      <c r="P1236" s="25"/>
+    </row>
+    <row r="1237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1237" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1237" s="33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C1237" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1237" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1237" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1237" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G1237" s="34"/>
+      <c r="H1237" s="35"/>
+      <c r="I1237" s="33"/>
+      <c r="J1237" s="33"/>
+      <c r="K1237" s="33"/>
+      <c r="L1237" s="3"/>
+      <c r="M1237" s="33"/>
+      <c r="N1237" s="3"/>
+      <c r="O1237" s="25"/>
+      <c r="P1237" s="25"/>
+    </row>
+    <row r="1239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1239" s="29" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1239" s="25"/>
+      <c r="C1239" s="26"/>
+      <c r="D1239" s="26"/>
+      <c r="E1239" s="29"/>
+      <c r="F1239" s="25"/>
+      <c r="G1239" s="25"/>
+      <c r="H1239" s="25"/>
+      <c r="I1239" s="25"/>
+      <c r="J1239" s="25"/>
+      <c r="K1239" s="25"/>
+    </row>
+    <row r="1240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1240" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1240" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1240" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1240" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1240" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1240" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="G1240" s="25" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1240" s="25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I1240" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="J1240" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1240" s="25" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L1240" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1241" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1241" s="25" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C1241" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1241" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1241" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1241" s="25" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1241" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H1241" s="26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I1241" s="30" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J1241" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1241" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1241" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1242" s="25"/>
+      <c r="B1242" s="28"/>
+      <c r="C1242" s="25"/>
+      <c r="D1242" s="25"/>
+      <c r="E1242" s="25"/>
+      <c r="F1242" s="25"/>
+      <c r="G1242" s="25"/>
+      <c r="H1242" s="25"/>
+      <c r="I1242" s="25"/>
+      <c r="J1242" s="25"/>
+      <c r="K1242" s="25"/>
+      <c r="L1242" s="25"/>
+      <c r="M1242" s="25"/>
+      <c r="N1242" s="25"/>
+      <c r="O1242" s="25"/>
+    </row>
+    <row r="1243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1243" s="29" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1243" s="25"/>
+      <c r="C1243" s="26"/>
+      <c r="D1243" s="26"/>
+      <c r="E1243" s="29"/>
+      <c r="F1243" s="25"/>
+      <c r="G1243" s="25"/>
+      <c r="H1243" s="25"/>
+      <c r="I1243" s="25"/>
+      <c r="J1243" s="25"/>
+      <c r="K1243" s="25"/>
+      <c r="L1243" s="25"/>
+      <c r="M1243" s="25"/>
+      <c r="N1243" s="25"/>
+      <c r="O1243" s="25"/>
+    </row>
+    <row r="1244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1244" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1244" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1244" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1244" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1244" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1244" s="25" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G1244" s="25" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H1244" s="25" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I1244" s="25" t="s">
+        <v>998</v>
+      </c>
+      <c r="J1244" s="25"/>
+      <c r="K1244" s="25"/>
+      <c r="L1244" s="25"/>
+      <c r="M1244" s="25"/>
+      <c r="N1244" s="25"/>
+      <c r="O1244" s="25"/>
+    </row>
+    <row r="1245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1245" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1245" s="25" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C1245" s="30" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D1245" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1245" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1245" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1245" s="32" t="s">
+        <v>892</v>
+      </c>
+      <c r="H1245" s="26" t="s">
+        <v>892</v>
+      </c>
+      <c r="I1245" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J1245" s="33"/>
+      <c r="K1245" s="33"/>
+      <c r="L1245" s="3"/>
+      <c r="M1245" s="33"/>
+      <c r="N1245" s="3"/>
+      <c r="O1245" s="25"/>
+    </row>
+    <row r="1247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1247" s="29" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1247" s="25"/>
+      <c r="C1247" s="25"/>
+      <c r="D1247" s="25"/>
+      <c r="E1247" s="25"/>
+    </row>
+    <row r="1248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1248" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1248" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1248" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1248" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1248" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1248" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1249" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1249" s="25" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C1249" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1249" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1249" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1249" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1251" s="29" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1251" s="25"/>
+      <c r="C1251" s="25"/>
+      <c r="D1251" s="25"/>
+      <c r="E1251" s="25"/>
+    </row>
+    <row r="1252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1252" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1252" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1252" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1252" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1252" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1252" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1253" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1253" s="25" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C1253" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1253" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1253" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1253" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1255" s="29" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B1255" s="25"/>
+      <c r="C1255" s="25"/>
+      <c r="D1255" s="25"/>
+      <c r="E1255" s="25"/>
+      <c r="F1255" s="25"/>
+    </row>
+    <row r="1256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1256" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1256" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1256" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1256" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1256" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1256" s="25" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G1256" s="25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1257" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1257" s="28" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C1257" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1257" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1257" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1257" s="25" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G1257" s="25" t="s">
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A839:A840">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D1177" r:id="rId1" xr:uid="{864141A7-C90C-42FE-8519-480B53D0C94B}"/>
+    <hyperlink ref="C1177" r:id="rId2" display="viswanadh.ms@gmail.com" xr:uid="{AB644DFF-806A-4583-B595-F27155693E60}"/>
+    <hyperlink ref="C1181" r:id="rId3" xr:uid="{7AF3FF04-FA2D-4062-A25E-2AC0CB9CA2A4}"/>
+    <hyperlink ref="C1185" r:id="rId4" xr:uid="{20D52D18-BE05-487B-8F1C-7F206C7169B4}"/>
+    <hyperlink ref="H1193" r:id="rId5" xr:uid="{81C38823-506F-4618-9386-625B49974C1A}"/>
+    <hyperlink ref="I1193" r:id="rId6" xr:uid="{4B65BDF2-AE77-40B1-A3F0-D42804809510}"/>
+    <hyperlink ref="C1193" r:id="rId7" xr:uid="{DD155C05-E668-444F-998E-86F970D6B4D0}"/>
+    <hyperlink ref="D1193" r:id="rId8" xr:uid="{5D317361-9272-4F4A-9FE3-87DF88396E4F}"/>
+    <hyperlink ref="C1197" r:id="rId9" xr:uid="{68AF2729-0700-4C01-A2E7-3B8206657F24}"/>
+    <hyperlink ref="D1197" r:id="rId10" xr:uid="{04D269AE-1E6E-4478-860F-576B5F827F3A}"/>
+    <hyperlink ref="G1197" r:id="rId11" display="Admin@123" xr:uid="{94055DCD-8BEC-4638-AB07-01DBDA0CBCFE}"/>
+    <hyperlink ref="H1197" r:id="rId12" display="Admin@bizligo.com" xr:uid="{0F0E8EF4-41BD-4B5E-BED0-016293EB4842}"/>
+    <hyperlink ref="C1201" r:id="rId13" xr:uid="{0336DDDB-B033-464C-AF55-69E7C2E6AE82}"/>
+    <hyperlink ref="D1201" r:id="rId14" xr:uid="{6825EAB3-6D42-4ABF-88BB-3EB20882018B}"/>
+    <hyperlink ref="C1209" r:id="rId15" xr:uid="{4CBC1B9D-02E4-450C-A477-F55A8BEA8F2C}"/>
+    <hyperlink ref="C1213" r:id="rId16" xr:uid="{E0D80984-7DDB-45A8-85D5-973A9135B5EB}"/>
+    <hyperlink ref="D1213" r:id="rId17" xr:uid="{773C22A2-B380-4152-8419-6C86FB3F5432}"/>
+    <hyperlink ref="J1213" r:id="rId18" xr:uid="{D8790B18-B089-4FB8-935B-8E3177D0D160}"/>
+    <hyperlink ref="K1213" r:id="rId19" xr:uid="{CB472E08-AC71-48F9-AFEB-4CD3980F9844}"/>
+    <hyperlink ref="H1217" r:id="rId20" xr:uid="{16EA5102-34ED-4E4E-A001-2D0E7B18EA63}"/>
+    <hyperlink ref="I1217" r:id="rId21" xr:uid="{7324AB98-FEB0-42EE-9062-A5120296EA0C}"/>
+    <hyperlink ref="H1221" r:id="rId22" xr:uid="{3AB2C8C5-FD7B-4415-A8B6-0260A3269EC2}"/>
+    <hyperlink ref="I1221" r:id="rId23" xr:uid="{0CDCB7F6-C531-475B-B1EC-455873F19021}"/>
+    <hyperlink ref="C1221" r:id="rId24" xr:uid="{618C622B-C2DC-4292-8C9C-CDED8ED67862}"/>
+    <hyperlink ref="D1221" r:id="rId25" xr:uid="{9F42A9CA-C4E6-4C14-839A-5B115BF1F8A0}"/>
+    <hyperlink ref="C1225" r:id="rId26" xr:uid="{E30C1EE0-E26C-493A-99C8-54A5D31D51B5}"/>
+    <hyperlink ref="D1225" r:id="rId27" xr:uid="{2E516C9A-DFBE-4D53-878B-18F8FD686F18}"/>
+    <hyperlink ref="G1225" r:id="rId28" display="Admin@123" xr:uid="{AAB97CB5-1CA9-4916-86C8-797D8F09712B}"/>
+    <hyperlink ref="H1225" r:id="rId29" display="Admin@bizligo.com" xr:uid="{4E073FE0-2066-4FDE-AF2D-37F181F8C2BF}"/>
+    <hyperlink ref="J1241" r:id="rId30" xr:uid="{6320CEA4-BAFE-4181-90D8-A64DACFA44BE}"/>
+    <hyperlink ref="K1241" r:id="rId31" xr:uid="{DD0F8D43-A33B-49F6-B4FD-717F8CA8EF08}"/>
+    <hyperlink ref="F1245" r:id="rId32" xr:uid="{E23F0AB7-FBE0-4A86-BFD8-FF2743E0A108}"/>
+    <hyperlink ref="G1245" r:id="rId33" xr:uid="{F5F82042-A67D-4E04-B457-7A99D6D6C1AB}"/>
+    <hyperlink ref="H1245" r:id="rId34" xr:uid="{63933434-D671-431D-B2A2-06890A3F41AF}"/>
+    <hyperlink ref="I1241" r:id="rId35" xr:uid="{1CA376F5-3616-4250-91E0-5013D2FE476F}"/>
+    <hyperlink ref="D1249" r:id="rId36" xr:uid="{6A58B0B1-1739-4984-B065-25D655EABE1A}"/>
+    <hyperlink ref="D1253" r:id="rId37" xr:uid="{5FE66279-DB13-4D8F-94AE-850EC473E3B9}"/>
+    <hyperlink ref="D1257" r:id="rId38" xr:uid="{B946BDB1-40FB-4FA5-A5C3-26A19DC6520A}"/>
+    <hyperlink ref="C1245" r:id="rId39" xr:uid="{DDAE511E-B99D-4161-8F1A-299641164747}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41275A5F-FFAA-4225-BCD0-312C53F0164E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45E7793-F19B-468F-B4E4-8337DC5782A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5959" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5960" uniqueCount="1156">
   <si>
     <t>TestCases</t>
   </si>
@@ -3293,9 +3293,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>viswa ms1</t>
-  </si>
-  <si>
     <t>no comment</t>
   </si>
   <si>
@@ -3683,12 +3680,6 @@
     <t>viswanadh180190@aol.com</t>
   </si>
   <si>
-    <t>BARAMATI AGRO</t>
-  </si>
-  <si>
-    <t>nancycarton2+2@gmail.com</t>
-  </si>
-  <si>
     <t>Testimonial Creation</t>
   </si>
   <si>
@@ -3750,9 +3741,6 @@
     <t>yogesh.bhor@pamten.com</t>
   </si>
   <si>
-    <t>stsmith489@gmail.com</t>
-  </si>
-  <si>
     <t>Andrew74444+3@gmail.com</t>
   </si>
   <si>
@@ -3774,53 +3762,62 @@
     <t>KKTY</t>
   </si>
   <si>
+    <t>viswanadh.ms+999@gmail.com</t>
+  </si>
+  <si>
+    <t>Gold plan</t>
+  </si>
+  <si>
+    <t>3u9A3Hx6Qwq</t>
+  </si>
+  <si>
+    <t>9B5eQP236vdWe85p</t>
+  </si>
+  <si>
+    <t>Brooks2018</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>TC100_Activate_Community_By_Community_Admin</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>viswanadh.ms+45@gmail.com</t>
+  </si>
+  <si>
+    <t>ramanmahavrathayajula@gmail.com</t>
+  </si>
+  <si>
+    <t>viswanadh.mss@gmail.com</t>
+  </si>
+  <si>
+    <t>viswanadh.ms+5656@gmail.com</t>
+  </si>
+  <si>
+    <t>New community1</t>
+  </si>
+  <si>
+    <t>viswanadh.ms+100@gmail.com</t>
+  </si>
+  <si>
+    <t>viswanadh.ms+4@gmail.com</t>
+  </si>
+  <si>
+    <t>Andrew Thomson</t>
+  </si>
+  <si>
+    <t>CHAMBER of America</t>
+  </si>
+  <si>
+    <t>SheTek MAE</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-SSTVR</t>
-  </si>
-  <si>
-    <t>SSTVR</t>
-  </si>
-  <si>
-    <t>viswanadh.ms+999@gmail.com</t>
-  </si>
-  <si>
-    <t>CHAMBER</t>
-  </si>
-  <si>
-    <t>SheTEK CA</t>
-  </si>
-  <si>
-    <t>Gold plan</t>
-  </si>
-  <si>
-    <t>3u9A3Hx6Qwq</t>
-  </si>
-  <si>
-    <t>9B5eQP236vdWe85p</t>
-  </si>
-  <si>
-    <t>Brooks2018</t>
-  </si>
-  <si>
-    <t>P@ssw0rd</t>
-  </si>
-  <si>
-    <t>TC100_Activate_Community_By_Community_Admin</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>viswanadh.ms+45@gmail.com</t>
-  </si>
-  <si>
-    <t>ramanmahavrathayajula@gmail.com</t>
-  </si>
-  <si>
-    <t>viswanadh.mss@gmail.com</t>
-  </si>
-  <si>
-    <t>viswanadh.ms+5656@gmail.com</t>
+SheTek MAE</t>
   </si>
 </sst>
 </file>
@@ -4361,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6500,233 +6497,233 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B244" t="s">
+        <v>2</v>
+      </c>
+      <c r="C244" t="s">
         <v>1008</v>
-      </c>
-      <c r="B244" t="s">
-        <v>2</v>
-      </c>
-      <c r="C244" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B245" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="25" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B246" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C246" t="s">
         <v>1020</v>
-      </c>
-      <c r="B246" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C246" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="25" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B247" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C247" t="s">
         <v>1024</v>
-      </c>
-      <c r="B247" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="25" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B248" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C248" s="25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="25" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B249" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="25" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B250" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C250" t="s">
         <v>1036</v>
-      </c>
-      <c r="B250" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C250" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="25" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B251" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C251" t="s">
         <v>1038</v>
-      </c>
-      <c r="B251" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="25" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B252" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" t="s">
         <v>1041</v>
-      </c>
-      <c r="B252" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C252" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="25" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B253" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253" t="s">
         <v>1043</v>
-      </c>
-      <c r="B253" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C253" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="25" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B254" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B255" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C255" s="25" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="25" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B256" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C256" s="25" t="s">
         <v>1049</v>
-      </c>
-      <c r="B256" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C256" s="25" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="25" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B257" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="25" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B258" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="25" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B259" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="25" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B260" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C260" t="s">
         <v>1087</v>
-      </c>
-      <c r="B260" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="25" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B261" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C261" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="25" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B262" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C262" t="s">
         <v>1093</v>
-      </c>
-      <c r="B262" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="25" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B263" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C263" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="25" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B264" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C264" t="s">
         <v>1098</v>
-      </c>
-      <c r="B264" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C264" t="s">
-        <v>1099</v>
       </c>
     </row>
   </sheetData>
@@ -6740,8 +6737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AW1257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y576" sqref="Y576"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6789,7 +6786,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6797,19 +6794,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6834,7 +6831,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6842,19 +6839,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D7" t="s">
         <v>989</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D7" t="s">
-        <v>990</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6879,7 +6876,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6887,10 +6884,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>10</v>
@@ -6899,7 +6896,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6924,7 +6921,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6932,10 +6929,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -6944,7 +6941,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -6969,7 +6966,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -6977,10 +6974,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -6989,7 +6986,7 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -7014,7 +7011,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -7022,10 +7019,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>1139</v>
+        <v>993</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>1135</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -7034,7 +7031,7 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -7089,7 +7086,7 @@
         <v>33</v>
       </c>
       <c r="P27" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -7097,16 +7094,16 @@
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -7121,16 +7118,16 @@
         <v>462</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="K28" t="s">
         <v>996</v>
-      </c>
-      <c r="K28" t="s">
-        <v>997</v>
       </c>
       <c r="L28" t="s">
         <v>23</v>
       </c>
       <c r="M28" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="N28" t="s">
         <v>25</v>
@@ -7139,7 +7136,7 @@
         <v>26</v>
       </c>
       <c r="P28" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7167,7 +7164,7 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -7181,16 +7178,16 @@
         <v>4</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G36" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -7215,7 +7212,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -7229,13 +7226,13 @@
         <v>4</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F40" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -7263,7 +7260,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -7277,16 +7274,16 @@
         <v>4</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G45" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -7311,7 +7308,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -7325,13 +7322,13 @@
         <v>4</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F49" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -7359,7 +7356,7 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -7373,16 +7370,16 @@
         <v>4</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G53" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -7410,7 +7407,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -7424,16 +7421,16 @@
         <v>4</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>462</v>
       </c>
       <c r="G57" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -7464,7 +7461,7 @@
         <v>36</v>
       </c>
       <c r="H60" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -7478,10 +7475,10 @@
         <v>4</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F61" t="s">
         <v>46</v>
@@ -7490,7 +7487,7 @@
         <v>463</v>
       </c>
       <c r="H61" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -7521,7 +7518,7 @@
         <v>40</v>
       </c>
       <c r="H64" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -7535,10 +7532,10 @@
         <v>4</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F65" t="s">
         <v>241</v>
@@ -7547,7 +7544,7 @@
         <v>464</v>
       </c>
       <c r="H65" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -7578,7 +7575,7 @@
         <v>36</v>
       </c>
       <c r="H68" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -7592,10 +7589,10 @@
         <v>4</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F69" t="s">
         <v>241</v>
@@ -7604,7 +7601,7 @@
         <v>464</v>
       </c>
       <c r="H69" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -7629,7 +7626,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -7643,13 +7640,13 @@
         <v>4</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F73" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -7677,7 +7674,7 @@
         <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -7691,16 +7688,16 @@
         <v>4</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F77" t="s">
         <v>44</v>
       </c>
       <c r="G77" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -7728,7 +7725,7 @@
         <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -7742,16 +7739,16 @@
         <v>4</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F81" t="s">
         <v>465</v>
       </c>
       <c r="G81" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -7776,7 +7773,7 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -7790,13 +7787,13 @@
         <v>4</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F85" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -7857,7 +7854,7 @@
         <v>3</v>
       </c>
       <c r="R100" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -7868,13 +7865,13 @@
         <v>370</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>1144</v>
+        <v>1153</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F101" t="s">
         <v>48</v>
@@ -7913,7 +7910,7 @@
         <v>4</v>
       </c>
       <c r="R101" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -7944,7 +7941,7 @@
         <v>200</v>
       </c>
       <c r="H104" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -7955,13 +7952,13 @@
         <v>371</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>1144</v>
+        <v>1153</v>
       </c>
       <c r="D105" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E105" s="27" t="s">
         <v>1104</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>1105</v>
       </c>
       <c r="F105" t="s">
         <v>4</v>
@@ -7970,7 +7967,7 @@
         <v>264</v>
       </c>
       <c r="H105" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
@@ -8031,7 +8028,7 @@
         <v>3</v>
       </c>
       <c r="R108" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -8042,13 +8039,13 @@
         <v>372</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>1144</v>
+        <v>1153</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F109" t="s">
         <v>48</v>
@@ -8087,7 +8084,7 @@
         <v>4</v>
       </c>
       <c r="R109" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
@@ -8115,7 +8112,7 @@
         <v>3</v>
       </c>
       <c r="G112" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -8127,16 +8124,16 @@
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F113" t="s">
         <v>4</v>
       </c>
       <c r="G113" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -8197,7 +8194,7 @@
         <v>3</v>
       </c>
       <c r="R116" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -8208,13 +8205,13 @@
         <v>258</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="D117" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F117" t="s">
         <v>48</v>
@@ -8253,7 +8250,7 @@
         <v>4</v>
       </c>
       <c r="R117" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
@@ -8281,7 +8278,7 @@
         <v>3</v>
       </c>
       <c r="G120" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -8292,19 +8289,19 @@
         <v>257</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="D121" s="30" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E121" s="30" t="s">
         <v>1104</v>
-      </c>
-      <c r="E121" s="30" t="s">
-        <v>1105</v>
       </c>
       <c r="F121" t="s">
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -8338,7 +8335,7 @@
         <v>270</v>
       </c>
       <c r="I124" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -8349,25 +8346,25 @@
         <v>268</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="D125" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F125" t="s">
         <v>4</v>
       </c>
       <c r="G125" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="H125" t="s">
         <v>271</v>
       </c>
       <c r="I125" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -8413,7 +8410,7 @@
         <v>3</v>
       </c>
       <c r="M128" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
@@ -8424,13 +8421,13 @@
         <v>354</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>687</v>
+        <v>278</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="F129" t="s">
         <v>282</v>
@@ -8442,10 +8439,10 @@
         <v>4</v>
       </c>
       <c r="I129" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J129" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K129" s="3" t="s">
         <v>277</v>
@@ -8454,7 +8451,7 @@
         <v>4</v>
       </c>
       <c r="M129" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
@@ -8505,7 +8502,7 @@
         <v>290</v>
       </c>
       <c r="N132" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O132" s="25"/>
     </row>
@@ -8520,19 +8517,19 @@
         <v>4</v>
       </c>
       <c r="D133" s="25" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E133" s="27" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G133" s="27" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H133" s="27" t="s">
         <v>1145</v>
-      </c>
-      <c r="E133" s="27" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F133" s="27" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G133" s="27" t="s">
-        <v>1132</v>
-      </c>
-      <c r="H133" s="27" t="s">
-        <v>1153</v>
       </c>
       <c r="I133" s="27" t="s">
         <v>292</v>
@@ -8541,16 +8538,16 @@
         <v>381</v>
       </c>
       <c r="K133" s="27" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="L133" s="30" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="M133" s="30" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="N133" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="O133" s="25"/>
     </row>
@@ -8591,7 +8588,7 @@
         <v>379</v>
       </c>
       <c r="J140" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
@@ -8605,13 +8602,13 @@
         <v>4</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F141" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G141" t="s">
         <v>380</v>
@@ -8623,7 +8620,7 @@
         <v>381</v>
       </c>
       <c r="J141" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
@@ -8685,7 +8682,7 @@
         <v>81</v>
       </c>
       <c r="M147" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -8699,13 +8696,13 @@
         <v>4</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F148" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G148" t="s">
         <v>302</v>
@@ -8726,7 +8723,7 @@
         <v>71</v>
       </c>
       <c r="M148" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -8740,13 +8737,13 @@
         <v>4</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F149" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G149" t="s">
         <v>305</v>
@@ -8767,7 +8764,7 @@
         <v>65</v>
       </c>
       <c r="M149" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -8802,7 +8799,7 @@
         <v>284</v>
       </c>
       <c r="H152" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -8815,20 +8812,20 @@
       <c r="C153" t="s">
         <v>4</v>
       </c>
-      <c r="D153" t="s">
-        <v>1111</v>
+      <c r="D153" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="E153" s="27" t="s">
-        <v>292</v>
+        <v>1150</v>
       </c>
       <c r="F153" s="27" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G153" s="27" t="s">
-        <v>1112</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="30" t="s">
+        <v>1151</v>
       </c>
       <c r="H153" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -8860,7 +8857,7 @@
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -8874,16 +8871,16 @@
         <v>4</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E157" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F157" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G157" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -8915,7 +8912,7 @@
         <v>7</v>
       </c>
       <c r="G160" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -8929,16 +8926,16 @@
         <v>4</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E161" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F161" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G161" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -8981,7 +8978,7 @@
         <v>327</v>
       </c>
       <c r="L165" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -8995,31 +8992,31 @@
         <v>4</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F166" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G166" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H166" t="s">
         <v>1106</v>
       </c>
-      <c r="H166" t="s">
+      <c r="I166" t="s">
         <v>1107</v>
       </c>
-      <c r="I166" t="s">
+      <c r="J166" s="27" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K166" s="27" t="s">
         <v>1108</v>
       </c>
-      <c r="J166" s="27" t="s">
-        <v>1110</v>
-      </c>
-      <c r="K166" s="27" t="s">
-        <v>1109</v>
-      </c>
       <c r="L166" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -9047,7 +9044,7 @@
         <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -9061,22 +9058,22 @@
         <v>4</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E171" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F171" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G171" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H171" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="I171" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="J171" t="s">
         <v>759</v>
@@ -9085,10 +9082,10 @@
         <v>760</v>
       </c>
       <c r="L171" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="M171" s="30" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -9138,7 +9135,7 @@
         <v>236</v>
       </c>
       <c r="M174" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -9152,19 +9149,19 @@
         <v>4</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>1141</v>
+        <v>1155</v>
       </c>
       <c r="E175" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F175" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G175" t="s">
         <v>238</v>
       </c>
       <c r="H175" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I175" t="s">
         <v>240</v>
@@ -9173,13 +9170,13 @@
         <v>241</v>
       </c>
       <c r="K175" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="L175" t="s">
         <v>336</v>
       </c>
       <c r="M175" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -9233,7 +9230,7 @@
         <v>7</v>
       </c>
       <c r="M184" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -9247,13 +9244,13 @@
         <v>4</v>
       </c>
       <c r="D185" s="25" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E185" s="30" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F185" s="30" t="s">
         <v>1145</v>
-      </c>
-      <c r="E185" s="30" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F185" s="30" t="s">
-        <v>1153</v>
       </c>
       <c r="G185" s="30" t="s">
         <v>381</v>
@@ -9262,19 +9259,19 @@
         <v>292</v>
       </c>
       <c r="I185" s="30" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="J185" s="30" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="K185" s="30" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="L185" s="27" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="M185" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -9311,7 +9308,7 @@
         <v>200</v>
       </c>
       <c r="J188" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -9325,25 +9322,25 @@
         <v>4</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E189" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F189" s="27" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G189" s="27" t="s">
-        <v>1132</v>
-      </c>
-      <c r="H189" s="27" t="s">
-        <v>1133</v>
+        <v>1101</v>
+      </c>
+      <c r="G189" s="30" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H189" s="30" t="s">
+        <v>1151</v>
       </c>
       <c r="I189" t="s">
         <v>310</v>
       </c>
       <c r="J189" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -9374,7 +9371,7 @@
         <v>7</v>
       </c>
       <c r="H193" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -9388,19 +9385,19 @@
         <v>4</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E194" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F194" s="26" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="G194" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H194" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -9437,7 +9434,7 @@
         <v>285</v>
       </c>
       <c r="J197" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -9451,25 +9448,25 @@
         <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E198" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G198" t="s">
         <v>305</v>
       </c>
       <c r="H198" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="I198" t="s">
         <v>292</v>
       </c>
       <c r="J198" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -9500,7 +9497,7 @@
         <v>202</v>
       </c>
       <c r="H203" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -9514,7 +9511,7 @@
         <v>4</v>
       </c>
       <c r="D204" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E204" t="s">
         <v>352</v>
@@ -9526,7 +9523,7 @@
         <v>302</v>
       </c>
       <c r="H204" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -9557,7 +9554,7 @@
         <v>202</v>
       </c>
       <c r="H209" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
@@ -9571,7 +9568,7 @@
         <v>4</v>
       </c>
       <c r="D210" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E210" t="s">
         <v>352</v>
@@ -9583,7 +9580,7 @@
         <v>305</v>
       </c>
       <c r="H210" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
@@ -9632,7 +9629,7 @@
         <v>236</v>
       </c>
       <c r="N216" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -9646,10 +9643,10 @@
         <v>4</v>
       </c>
       <c r="D217" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E217" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
@@ -9661,7 +9658,7 @@
         <v>238</v>
       </c>
       <c r="I217" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J217" t="s">
         <v>240</v>
@@ -9670,13 +9667,13 @@
         <v>241</v>
       </c>
       <c r="L217" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M217" t="s">
         <v>336</v>
       </c>
       <c r="N217" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
@@ -9770,7 +9767,7 @@
         <v>284</v>
       </c>
       <c r="I259" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -9784,22 +9781,22 @@
         <v>4</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E260" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G260" t="s">
         <v>302</v>
       </c>
       <c r="H260" s="27" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="I260" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -9893,7 +9890,7 @@
         <v>284</v>
       </c>
       <c r="I290" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -9907,22 +9904,22 @@
         <v>4</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E291" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F291" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G291" t="s">
         <v>302</v>
       </c>
       <c r="H291" s="27" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="I291" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -10046,7 +10043,7 @@
         <v>313</v>
       </c>
       <c r="I349" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="350" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -10060,13 +10057,13 @@
         <v>4</v>
       </c>
       <c r="D350" s="25" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E350" s="27" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="F350" s="30" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G350" t="s">
         <v>302</v>
@@ -10075,7 +10072,7 @@
         <v>750</v>
       </c>
       <c r="I350" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -10182,7 +10179,7 @@
         <v>200</v>
       </c>
       <c r="K379" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
@@ -10196,10 +10193,10 @@
         <v>4</v>
       </c>
       <c r="D380" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E380" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F380" t="s">
         <v>10</v>
@@ -10217,7 +10214,7 @@
         <v>315</v>
       </c>
       <c r="K380" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
@@ -10275,7 +10272,7 @@
         <v>7</v>
       </c>
       <c r="G396" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10289,7 +10286,7 @@
         <v>4</v>
       </c>
       <c r="D397" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E397" t="s">
         <v>381</v>
@@ -10298,7 +10295,7 @@
         <v>10</v>
       </c>
       <c r="G397" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -10341,7 +10338,7 @@
         <v>7</v>
       </c>
       <c r="G409" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10355,7 +10352,7 @@
         <v>4</v>
       </c>
       <c r="D410" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E410" t="s">
         <v>351</v>
@@ -10364,7 +10361,7 @@
         <v>10</v>
       </c>
       <c r="G410" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -10422,7 +10419,7 @@
         <v>7</v>
       </c>
       <c r="G434" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="435" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10445,7 +10442,7 @@
         <v>10</v>
       </c>
       <c r="G435" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
@@ -10510,7 +10507,7 @@
         <v>7</v>
       </c>
       <c r="G452" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -10533,7 +10530,7 @@
         <v>10</v>
       </c>
       <c r="G453" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -10609,7 +10606,7 @@
         <v>468</v>
       </c>
       <c r="H502" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
@@ -10622,20 +10619,20 @@
       <c r="C503" t="s">
         <v>4</v>
       </c>
-      <c r="D503" t="s">
-        <v>350</v>
+      <c r="D503" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="E503" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F503" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G503">
         <v>1150</v>
       </c>
       <c r="H503" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
@@ -10681,7 +10678,7 @@
         <v>468</v>
       </c>
       <c r="H515" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
@@ -10694,20 +10691,20 @@
       <c r="C516" t="s">
         <v>4</v>
       </c>
-      <c r="D516" t="s">
-        <v>350</v>
+      <c r="D516" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="E516" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F516" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G516">
         <v>1066</v>
       </c>
       <c r="H516" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
@@ -10802,7 +10799,7 @@
         <v>7</v>
       </c>
       <c r="G549" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
@@ -10816,16 +10813,16 @@
         <v>4</v>
       </c>
       <c r="D550" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E550" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F550" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G550" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
@@ -10848,7 +10845,7 @@
         <v>7</v>
       </c>
       <c r="G554" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
@@ -10856,22 +10853,22 @@
         <v>1</v>
       </c>
       <c r="B555" s="7" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="C555" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D555" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E555" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F555" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G555" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
@@ -10984,7 +10981,7 @@
         <v>648</v>
       </c>
       <c r="AA575" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="576" spans="1:27" x14ac:dyDescent="0.25">
@@ -10998,13 +10995,13 @@
         <v>4</v>
       </c>
       <c r="D576" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E576" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F576" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G576" t="s">
         <v>48</v>
@@ -11055,13 +11052,13 @@
         <v>24</v>
       </c>
       <c r="Y576" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="Z576" t="s">
         <v>240</v>
       </c>
       <c r="AA576" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="581" spans="1:26" x14ac:dyDescent="0.25">
@@ -11278,7 +11275,7 @@
         <v>249</v>
       </c>
       <c r="I663" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.25">
@@ -11292,13 +11289,13 @@
         <v>4</v>
       </c>
       <c r="D664" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E664" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F664" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="G664" t="s">
         <v>344</v>
@@ -11307,7 +11304,7 @@
         <v>345</v>
       </c>
       <c r="I664" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.25">
@@ -11347,7 +11344,7 @@
         <v>7</v>
       </c>
       <c r="F675" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
@@ -11361,13 +11358,13 @@
         <v>4</v>
       </c>
       <c r="D676" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E676" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F676" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.25">
@@ -11395,7 +11392,7 @@
         <v>7</v>
       </c>
       <c r="G680" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
@@ -11412,13 +11409,13 @@
         <v>757</v>
       </c>
       <c r="E681" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F681" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G681" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.25">
@@ -11449,7 +11446,7 @@
         <v>202</v>
       </c>
       <c r="H686" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
@@ -11466,16 +11463,16 @@
         <v>757</v>
       </c>
       <c r="E687" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F687" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G687" t="s">
         <v>348</v>
       </c>
       <c r="H687" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.25">
@@ -11506,7 +11503,7 @@
         <v>359</v>
       </c>
       <c r="H692" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.25">
@@ -11520,19 +11517,19 @@
         <v>4</v>
       </c>
       <c r="D693" s="25" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E693" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F693" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G693" t="s">
         <v>360</v>
       </c>
       <c r="H693" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.25">
@@ -11574,7 +11571,7 @@
         <v>359</v>
       </c>
       <c r="H705" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.25">
@@ -11588,7 +11585,7 @@
         <v>4</v>
       </c>
       <c r="D706" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E706" t="s">
         <v>352</v>
@@ -11600,7 +11597,7 @@
         <v>360</v>
       </c>
       <c r="H706" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.25">
@@ -11632,7 +11629,7 @@
         <v>359</v>
       </c>
       <c r="H711" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.25">
@@ -11646,7 +11643,7 @@
         <v>4</v>
       </c>
       <c r="D712" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E712" t="s">
         <v>361</v>
@@ -11658,7 +11655,7 @@
         <v>360</v>
       </c>
       <c r="H712" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.25">
@@ -11690,7 +11687,7 @@
         <v>359</v>
       </c>
       <c r="H717" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="718" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -11704,7 +11701,7 @@
         <v>4</v>
       </c>
       <c r="D718" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E718" t="s">
         <v>351</v>
@@ -11716,7 +11713,7 @@
         <v>360</v>
       </c>
       <c r="H718" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="723" spans="1:17" x14ac:dyDescent="0.25">
@@ -11775,7 +11772,7 @@
         <v>290</v>
       </c>
       <c r="N731" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="732" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -11789,13 +11786,13 @@
         <v>4</v>
       </c>
       <c r="D732" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E732" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F732" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G732" t="s">
         <v>351</v>
@@ -11819,7 +11816,7 @@
         <v>365</v>
       </c>
       <c r="N732" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="734" spans="1:17" x14ac:dyDescent="0.25">
@@ -11879,7 +11876,7 @@
         <v>697</v>
       </c>
       <c r="Q735" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="736" spans="1:17" x14ac:dyDescent="0.25">
@@ -11892,14 +11889,14 @@
       <c r="C736" t="s">
         <v>4</v>
       </c>
-      <c r="D736" t="s">
-        <v>1142</v>
+      <c r="D736" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="E736" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F736" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G736" t="s">
         <v>495</v>
@@ -11932,7 +11929,7 @@
         <v>491</v>
       </c>
       <c r="Q736" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="737" spans="1:17" x14ac:dyDescent="0.25">
@@ -12000,7 +11997,7 @@
         <v>697</v>
       </c>
       <c r="Q740" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="741" spans="1:17" x14ac:dyDescent="0.25">
@@ -12014,13 +12011,13 @@
         <v>4</v>
       </c>
       <c r="D741" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E741" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F741" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G741" t="s">
         <v>497</v>
@@ -12053,7 +12050,7 @@
         <v>491</v>
       </c>
       <c r="Q741" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="742" spans="1:17" x14ac:dyDescent="0.25">
@@ -12118,7 +12115,7 @@
         <v>737</v>
       </c>
       <c r="P745" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="746" spans="1:17" x14ac:dyDescent="0.25">
@@ -12132,13 +12129,13 @@
         <v>4</v>
       </c>
       <c r="D746" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E746" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="F746" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G746" t="s">
         <v>497</v>
@@ -12159,13 +12156,13 @@
         <v>486</v>
       </c>
       <c r="M746" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="N746" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="P746" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="747" spans="1:17" x14ac:dyDescent="0.25">
@@ -12230,7 +12227,7 @@
         <v>737</v>
       </c>
       <c r="P750" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="751" spans="1:17" x14ac:dyDescent="0.25">
@@ -12244,13 +12241,13 @@
         <v>4</v>
       </c>
       <c r="D751" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E751" t="s">
-        <v>262</v>
-      </c>
-      <c r="F751" t="s">
-        <v>10</v>
+        <v>1009</v>
+      </c>
+      <c r="F751" s="27" t="s">
+        <v>1101</v>
       </c>
       <c r="G751" t="s">
         <v>498</v>
@@ -12271,13 +12268,13 @@
         <v>486</v>
       </c>
       <c r="M751" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="N751" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="P751" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="753" spans="1:14" x14ac:dyDescent="0.25">
@@ -12326,7 +12323,7 @@
         <v>737</v>
       </c>
       <c r="N754" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="755" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -12340,13 +12337,13 @@
         <v>4</v>
       </c>
       <c r="D755" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E755" t="s">
-        <v>262</v>
-      </c>
-      <c r="F755" t="s">
-        <v>10</v>
+        <v>1009</v>
+      </c>
+      <c r="F755" s="27" t="s">
+        <v>1101</v>
       </c>
       <c r="G755" t="s">
         <v>495</v>
@@ -12367,7 +12364,7 @@
         <v>796</v>
       </c>
       <c r="N755" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="756" spans="1:14" x14ac:dyDescent="0.25">
@@ -12422,7 +12419,7 @@
         <v>739</v>
       </c>
       <c r="N758" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="759" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -12436,13 +12433,13 @@
         <v>4</v>
       </c>
       <c r="D759" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E759" t="s">
-        <v>262</v>
-      </c>
-      <c r="F759" t="s">
-        <v>10</v>
+        <v>1009</v>
+      </c>
+      <c r="F759" s="27" t="s">
+        <v>1101</v>
       </c>
       <c r="G759" t="s">
         <v>495</v>
@@ -12466,7 +12463,7 @@
         <v>740</v>
       </c>
       <c r="N759" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="760" spans="1:14" x14ac:dyDescent="0.25">
@@ -12521,7 +12518,7 @@
         <v>739</v>
       </c>
       <c r="N762" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="763" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -12535,13 +12532,13 @@
         <v>4</v>
       </c>
       <c r="D763" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E763" t="s">
-        <v>262</v>
-      </c>
-      <c r="F763" t="s">
-        <v>10</v>
+        <v>1009</v>
+      </c>
+      <c r="F763" s="27" t="s">
+        <v>1101</v>
       </c>
       <c r="G763" t="s">
         <v>495</v>
@@ -12565,7 +12562,7 @@
         <v>740</v>
       </c>
       <c r="N763" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="764" spans="1:14" x14ac:dyDescent="0.25">
@@ -12661,7 +12658,7 @@
         <v>202</v>
       </c>
       <c r="G770" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H770" s="3"/>
       <c r="L770" s="3"/>
@@ -12686,7 +12683,7 @@
         <v>788</v>
       </c>
       <c r="G771" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H771" s="3"/>
       <c r="L771" s="3"/>
@@ -12722,7 +12719,7 @@
         <v>202</v>
       </c>
       <c r="G774" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H774" s="3"/>
       <c r="L774" s="3"/>
@@ -12738,7 +12735,7 @@
         <v>4</v>
       </c>
       <c r="D775" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E775" t="s">
         <v>10</v>
@@ -12747,7 +12744,7 @@
         <v>302</v>
       </c>
       <c r="G775" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H775" s="3"/>
       <c r="L775" s="3"/>
@@ -12801,7 +12798,7 @@
         <v>411</v>
       </c>
       <c r="M778" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="779" spans="1:13" x14ac:dyDescent="0.25">
@@ -12815,7 +12812,7 @@
         <v>4</v>
       </c>
       <c r="D779" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E779" t="s">
         <v>10</v>
@@ -12842,7 +12839,7 @@
         <v>749</v>
       </c>
       <c r="M779" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="780" spans="1:13" x14ac:dyDescent="0.25">
@@ -12879,7 +12876,7 @@
         <v>67</v>
       </c>
       <c r="H782" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L782" s="3"/>
     </row>
@@ -12894,19 +12891,19 @@
         <v>4</v>
       </c>
       <c r="D783" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E783" t="s">
-        <v>10</v>
+        <v>1009</v>
+      </c>
+      <c r="E783" s="27" t="s">
+        <v>1101</v>
       </c>
       <c r="F783" s="5" t="s">
         <v>302</v>
       </c>
       <c r="G783" s="5" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="H783" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="L783" s="3"/>
     </row>
@@ -12963,7 +12960,7 @@
         <v>737</v>
       </c>
       <c r="O787" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="788" spans="1:49" ht="30" x14ac:dyDescent="0.25">
@@ -12977,10 +12974,10 @@
         <v>4</v>
       </c>
       <c r="D788" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E788" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="F788" t="s">
         <v>10</v>
@@ -13007,7 +13004,7 @@
         <v>791</v>
       </c>
       <c r="O788" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="791" spans="1:49" x14ac:dyDescent="0.25">
@@ -13056,7 +13053,7 @@
         <v>737</v>
       </c>
       <c r="N792" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="793" spans="1:49" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13070,10 +13067,10 @@
         <v>4</v>
       </c>
       <c r="D793" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E793" s="5" t="s">
-        <v>10</v>
+        <v>1009</v>
+      </c>
+      <c r="E793" s="27" t="s">
+        <v>1101</v>
       </c>
       <c r="F793" s="5" t="s">
         <v>501</v>
@@ -13100,7 +13097,7 @@
         <v>792</v>
       </c>
       <c r="N793" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="795" spans="1:49" x14ac:dyDescent="0.25">
@@ -13131,7 +13128,7 @@
         <v>269</v>
       </c>
       <c r="H796" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="797" spans="1:49" x14ac:dyDescent="0.25">
@@ -13145,19 +13142,19 @@
         <v>4</v>
       </c>
       <c r="D797" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E797" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F797" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="G797" t="s">
         <v>498</v>
       </c>
       <c r="H797" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="798" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -13312,7 +13309,7 @@
         <v>524</v>
       </c>
       <c r="AW800" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="801" spans="1:49" x14ac:dyDescent="0.25">
@@ -13326,13 +13323,13 @@
         <v>4</v>
       </c>
       <c r="D801" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E801" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F801" s="25" t="s">
-        <v>1140</v>
+        <v>1154</v>
       </c>
       <c r="G801" t="s">
         <v>489</v>
@@ -13374,7 +13371,7 @@
         <v>546</v>
       </c>
       <c r="T801" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="U801" t="s">
         <v>547</v>
@@ -13401,7 +13398,7 @@
         <v>552</v>
       </c>
       <c r="AC801" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AD801" s="3" t="s">
         <v>554</v>
@@ -13419,7 +13416,7 @@
         <v>240</v>
       </c>
       <c r="AI801" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AJ801" s="3" t="s">
         <v>608</v>
@@ -13449,7 +13446,7 @@
         <v>558</v>
       </c>
       <c r="AS801" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AT801" t="s">
         <v>559</v>
@@ -13461,7 +13458,7 @@
         <v>240</v>
       </c>
       <c r="AW801" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="802" spans="1:49" x14ac:dyDescent="0.25">
@@ -13613,7 +13610,7 @@
         <v>524</v>
       </c>
       <c r="AW804" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="805" spans="1:49" x14ac:dyDescent="0.25">
@@ -13627,13 +13624,13 @@
         <v>4</v>
       </c>
       <c r="D805" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E805" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F805" s="25" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="G805" t="s">
         <v>564</v>
@@ -13675,7 +13672,7 @@
         <v>546</v>
       </c>
       <c r="T805" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="U805" t="s">
         <v>547</v>
@@ -13702,7 +13699,7 @@
         <v>552</v>
       </c>
       <c r="AC805" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AD805" s="3" t="s">
         <v>554</v>
@@ -13720,7 +13717,7 @@
         <v>240</v>
       </c>
       <c r="AI805" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AJ805" s="3" t="s">
         <v>608</v>
@@ -13750,7 +13747,7 @@
         <v>558</v>
       </c>
       <c r="AS805" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AT805" t="s">
         <v>559</v>
@@ -13762,7 +13759,7 @@
         <v>240</v>
       </c>
       <c r="AW805" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="810" spans="1:49" x14ac:dyDescent="0.25">
@@ -13916,7 +13913,7 @@
         <v>524</v>
       </c>
       <c r="AW811" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="812" spans="1:49" x14ac:dyDescent="0.25">
@@ -13930,13 +13927,13 @@
         <v>4</v>
       </c>
       <c r="D812" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E812" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F812" s="25" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="G812" t="s">
         <v>489</v>
@@ -13978,7 +13975,7 @@
         <v>546</v>
       </c>
       <c r="T812" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="U812" t="s">
         <v>547</v>
@@ -14005,7 +14002,7 @@
         <v>552</v>
       </c>
       <c r="AC812" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AD812" s="3" t="s">
         <v>554</v>
@@ -14023,7 +14020,7 @@
         <v>240</v>
       </c>
       <c r="AI812" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AJ812" s="3" t="s">
         <v>608</v>
@@ -14053,7 +14050,7 @@
         <v>558</v>
       </c>
       <c r="AS812" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AT812" t="s">
         <v>559</v>
@@ -14065,7 +14062,7 @@
         <v>240</v>
       </c>
       <c r="AW812" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="814" spans="1:49" x14ac:dyDescent="0.25">
@@ -14111,7 +14108,7 @@
         <v>726</v>
       </c>
       <c r="M815" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="816" spans="1:49" x14ac:dyDescent="0.25">
@@ -14125,16 +14122,16 @@
         <v>4</v>
       </c>
       <c r="D816" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E816" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F816" t="s">
         <v>633</v>
       </c>
       <c r="G816" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H816" t="s">
         <v>17</v>
@@ -14146,10 +14143,10 @@
         <v>37</v>
       </c>
       <c r="K816" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M816" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="818" spans="1:14" x14ac:dyDescent="0.25">
@@ -14195,7 +14192,7 @@
         <v>726</v>
       </c>
       <c r="M819" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="820" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -14209,16 +14206,16 @@
         <v>4</v>
       </c>
       <c r="D820" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E820" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F820" t="s">
         <v>633</v>
       </c>
       <c r="G820" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H820" t="s">
         <v>17</v>
@@ -14230,10 +14227,10 @@
         <v>37</v>
       </c>
       <c r="K820" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M820" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="821" spans="1:14" x14ac:dyDescent="0.25">
@@ -14285,7 +14282,7 @@
         <v>580</v>
       </c>
       <c r="N823" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="824" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -14305,13 +14302,13 @@
         <v>10</v>
       </c>
       <c r="F824" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="G824" t="s">
         <v>633</v>
       </c>
       <c r="H824" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="L824" t="s">
         <v>723</v>
@@ -14320,7 +14317,7 @@
         <v>319</v>
       </c>
       <c r="N824" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.25">
@@ -14369,7 +14366,7 @@
         <v>580</v>
       </c>
       <c r="N827" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="828" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -14389,22 +14386,22 @@
         <v>10</v>
       </c>
       <c r="F828" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="G828" t="s">
         <v>633</v>
       </c>
       <c r="H828" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="L828" t="s">
         <v>758</v>
       </c>
       <c r="M828" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="N828" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="830" spans="1:14" x14ac:dyDescent="0.25">
@@ -14453,7 +14450,7 @@
         <v>580</v>
       </c>
       <c r="N831" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="832" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -14473,22 +14470,22 @@
         <v>10</v>
       </c>
       <c r="F832" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="G832" t="s">
         <v>633</v>
       </c>
       <c r="H832" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="L832" t="s">
         <v>735</v>
       </c>
       <c r="M832" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="N832" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="834" spans="1:15" x14ac:dyDescent="0.25">
@@ -14531,7 +14528,7 @@
         <v>580</v>
       </c>
       <c r="L835" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="836" spans="1:15" x14ac:dyDescent="0.25">
@@ -14545,16 +14542,16 @@
         <v>4</v>
       </c>
       <c r="D836" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E836" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F836" t="s">
         <v>632</v>
       </c>
       <c r="G836" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H836" t="s">
         <v>17</v>
@@ -14566,10 +14563,10 @@
         <v>37</v>
       </c>
       <c r="K836" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L836" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="838" spans="1:15" x14ac:dyDescent="0.25">
@@ -14621,7 +14618,7 @@
         <v>389</v>
       </c>
       <c r="O839" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="840" spans="1:15" x14ac:dyDescent="0.25">
@@ -14635,13 +14632,13 @@
         <v>4</v>
       </c>
       <c r="D840" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E840" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F840" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G840" t="s">
         <v>392</v>
@@ -14668,7 +14665,7 @@
         <v>390</v>
       </c>
       <c r="O840" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="847" spans="1:15" x14ac:dyDescent="0.25">
@@ -14706,7 +14703,7 @@
         <v>400</v>
       </c>
       <c r="J848" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="849" spans="1:46" x14ac:dyDescent="0.25">
@@ -14720,13 +14717,13 @@
         <v>4</v>
       </c>
       <c r="D849" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E849" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F849" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G849" t="s">
         <v>392</v>
@@ -14738,7 +14735,7 @@
         <v>401</v>
       </c>
       <c r="J849" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="851" spans="1:46" x14ac:dyDescent="0.25">
@@ -14775,7 +14772,7 @@
         <v>400</v>
       </c>
       <c r="J852" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="853" spans="1:46" x14ac:dyDescent="0.25">
@@ -14789,13 +14786,13 @@
         <v>4</v>
       </c>
       <c r="D853" s="25" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E853" s="30" t="s">
         <v>292</v>
       </c>
       <c r="F853" s="30" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G853" t="s">
         <v>392</v>
@@ -14807,7 +14804,7 @@
         <v>401</v>
       </c>
       <c r="J853" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="854" spans="1:46" x14ac:dyDescent="0.25">
@@ -14955,7 +14952,7 @@
         <v>421</v>
       </c>
       <c r="AT856" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="857" spans="1:46" x14ac:dyDescent="0.25">
@@ -14972,10 +14969,10 @@
         <v>968</v>
       </c>
       <c r="E857" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F857" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G857" t="s">
         <v>261</v>
@@ -15086,7 +15083,7 @@
         <v>749</v>
       </c>
       <c r="AQ857" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="AR857" t="s">
         <v>271</v>
@@ -15095,7 +15092,7 @@
         <v>422</v>
       </c>
       <c r="AT857" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="861" spans="1:46" x14ac:dyDescent="0.25">
@@ -15241,7 +15238,7 @@
         <v>421</v>
       </c>
       <c r="AT862" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="863" spans="1:46" x14ac:dyDescent="0.25">
@@ -15258,10 +15255,10 @@
         <v>969</v>
       </c>
       <c r="E863" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F863" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G863" t="s">
         <v>261</v>
@@ -15372,7 +15369,7 @@
         <v>749</v>
       </c>
       <c r="AQ863" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="AR863" t="s">
         <v>271</v>
@@ -15381,7 +15378,7 @@
         <v>422</v>
       </c>
       <c r="AT863" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="865" spans="1:29" x14ac:dyDescent="0.25">
@@ -15475,7 +15472,7 @@
         <v>648</v>
       </c>
       <c r="AC866" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="867" spans="1:29" ht="30" x14ac:dyDescent="0.25">
@@ -15492,13 +15489,13 @@
         <v>969</v>
       </c>
       <c r="E867" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F867" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G867" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="H867" t="s">
         <v>291</v>
@@ -15558,7 +15555,7 @@
         <v>240</v>
       </c>
       <c r="AC867" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="872" spans="1:29" x14ac:dyDescent="0.25">
@@ -15587,7 +15584,7 @@
         <v>7</v>
       </c>
       <c r="G873" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="874" spans="1:29" x14ac:dyDescent="0.25">
@@ -15600,17 +15597,17 @@
       <c r="C874" t="s">
         <v>4</v>
       </c>
-      <c r="D874" t="s">
-        <v>1142</v>
+      <c r="D874" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="E874" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F874" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G874" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="876" spans="1:29" x14ac:dyDescent="0.25">
@@ -15638,7 +15635,7 @@
         <v>7</v>
       </c>
       <c r="G877" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="878" spans="1:29" ht="30" x14ac:dyDescent="0.25">
@@ -15652,16 +15649,16 @@
         <v>4</v>
       </c>
       <c r="D878" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E878" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F878" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G878" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.25">
@@ -15696,7 +15693,7 @@
         <v>236</v>
       </c>
       <c r="I883" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="884" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -15725,7 +15722,7 @@
         <v>972</v>
       </c>
       <c r="I884" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="886" spans="1:9" x14ac:dyDescent="0.25">
@@ -15753,7 +15750,7 @@
         <v>7</v>
       </c>
       <c r="G887" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="888" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -15767,16 +15764,16 @@
         <v>4</v>
       </c>
       <c r="D888" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E888" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F888" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G888" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="889" spans="1:9" x14ac:dyDescent="0.25">
@@ -15807,7 +15804,7 @@
         <v>7</v>
       </c>
       <c r="G891" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="892" spans="1:9" x14ac:dyDescent="0.25">
@@ -15820,17 +15817,17 @@
       <c r="C892" t="s">
         <v>4</v>
       </c>
-      <c r="D892" t="s">
-        <v>969</v>
+      <c r="D892" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="E892" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F892" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G892" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="894" spans="1:9" x14ac:dyDescent="0.25">
@@ -15861,7 +15858,7 @@
         <v>276</v>
       </c>
       <c r="H895" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="896" spans="1:9" x14ac:dyDescent="0.25">
@@ -15874,20 +15871,20 @@
       <c r="C896" t="s">
         <v>4</v>
       </c>
-      <c r="D896" t="s">
-        <v>969</v>
+      <c r="D896" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="E896" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F896" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G896" t="s">
         <v>404</v>
       </c>
       <c r="H896" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="898" spans="1:46" x14ac:dyDescent="0.25">
@@ -15930,7 +15927,7 @@
         <v>420</v>
       </c>
       <c r="L899" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="900" spans="1:46" ht="30" x14ac:dyDescent="0.25">
@@ -15947,10 +15944,10 @@
         <v>969</v>
       </c>
       <c r="E900" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F900" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G900" t="s">
         <v>404</v>
@@ -15968,7 +15965,7 @@
         <v>405</v>
       </c>
       <c r="L900" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="902" spans="1:46" x14ac:dyDescent="0.25">
@@ -16114,7 +16111,7 @@
         <v>421</v>
       </c>
       <c r="AT903" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="904" spans="1:46" ht="30" x14ac:dyDescent="0.25">
@@ -16131,10 +16128,10 @@
         <v>970</v>
       </c>
       <c r="E904" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F904" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G904" t="s">
         <v>261</v>
@@ -16218,7 +16215,7 @@
         <v>390</v>
       </c>
       <c r="AH904" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AI904" t="s">
         <v>401</v>
@@ -16242,10 +16239,10 @@
         <v>71</v>
       </c>
       <c r="AP904" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AQ904" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="AR904" t="s">
         <v>271</v>
@@ -16254,7 +16251,7 @@
         <v>422</v>
       </c>
       <c r="AT904" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="908" spans="1:46" x14ac:dyDescent="0.25">
@@ -16298,7 +16295,7 @@
         <v>420</v>
       </c>
       <c r="L909" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="910" spans="1:46" x14ac:dyDescent="0.25">
@@ -16311,14 +16308,14 @@
       <c r="C910" t="s">
         <v>4</v>
       </c>
-      <c r="D910" t="s">
-        <v>969</v>
+      <c r="D910" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="E910" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F910" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G910" t="s">
         <v>404</v>
@@ -16336,7 +16333,7 @@
         <v>405</v>
       </c>
       <c r="L910" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="914" spans="1:12" x14ac:dyDescent="0.25">
@@ -16380,7 +16377,7 @@
         <v>420</v>
       </c>
       <c r="L915" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="916" spans="1:12" x14ac:dyDescent="0.25">
@@ -16393,14 +16390,14 @@
       <c r="C916" t="s">
         <v>4</v>
       </c>
-      <c r="D916" t="s">
-        <v>969</v>
+      <c r="D916" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="E916" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F916" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G916" t="s">
         <v>404</v>
@@ -16418,7 +16415,7 @@
         <v>405</v>
       </c>
       <c r="L916" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="919" spans="1:12" x14ac:dyDescent="0.25">
@@ -16450,7 +16447,7 @@
         <v>412</v>
       </c>
       <c r="H920" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="921" spans="1:12" x14ac:dyDescent="0.25">
@@ -16467,7 +16464,7 @@
         <v>969</v>
       </c>
       <c r="E921" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="F921" t="s">
         <v>10</v>
@@ -16476,7 +16473,7 @@
         <v>271</v>
       </c>
       <c r="H921" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="922" spans="1:12" x14ac:dyDescent="0.25">
@@ -16511,7 +16508,7 @@
         <v>284</v>
       </c>
       <c r="H924" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="925" spans="1:12" x14ac:dyDescent="0.25">
@@ -16528,16 +16525,16 @@
         <v>969</v>
       </c>
       <c r="E925" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F925" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G925" t="s">
         <v>752</v>
       </c>
       <c r="H925" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="926" spans="1:12" x14ac:dyDescent="0.25">
@@ -16584,7 +16581,7 @@
         <v>420</v>
       </c>
       <c r="L928" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="929" spans="1:25" x14ac:dyDescent="0.25">
@@ -16597,14 +16594,14 @@
       <c r="C929" t="s">
         <v>4</v>
       </c>
-      <c r="D929" t="s">
-        <v>968</v>
+      <c r="D929" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="E929" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F929" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G929" t="s">
         <v>692</v>
@@ -16622,7 +16619,7 @@
         <v>694</v>
       </c>
       <c r="L929" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="930" spans="1:25" x14ac:dyDescent="0.25">
@@ -16654,7 +16651,7 @@
         <v>7</v>
       </c>
       <c r="G932" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="933" spans="1:25" x14ac:dyDescent="0.25">
@@ -16668,16 +16665,16 @@
         <v>4</v>
       </c>
       <c r="D933" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E933" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F933" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G933" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="934" spans="1:25" x14ac:dyDescent="0.25">
@@ -16763,7 +16760,7 @@
         <v>722</v>
       </c>
       <c r="Y936" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="937" spans="1:25" x14ac:dyDescent="0.25">
@@ -16777,13 +16774,13 @@
         <v>4</v>
       </c>
       <c r="D937" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E937" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F937" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G937" t="s">
         <v>723</v>
@@ -16840,7 +16837,7 @@
         <v>543</v>
       </c>
       <c r="Y937" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="938" spans="1:25" x14ac:dyDescent="0.25">
@@ -16911,7 +16908,7 @@
         <v>580</v>
       </c>
       <c r="M946" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="947" spans="1:13" x14ac:dyDescent="0.25">
@@ -16925,19 +16922,19 @@
         <v>4</v>
       </c>
       <c r="D947" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E947" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F947" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="G947" t="s">
         <v>633</v>
       </c>
       <c r="H947" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I947" t="s">
         <v>17</v>
@@ -16949,10 +16946,10 @@
         <v>37</v>
       </c>
       <c r="L947" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M947" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="949" spans="1:13" x14ac:dyDescent="0.25">
@@ -16998,7 +16995,7 @@
         <v>580</v>
       </c>
       <c r="M950" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="951" spans="1:13" x14ac:dyDescent="0.25">
@@ -17012,19 +17009,19 @@
         <v>4</v>
       </c>
       <c r="D951" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E951" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F951" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="G951" t="s">
         <v>633</v>
       </c>
       <c r="H951" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I951" t="s">
         <v>17</v>
@@ -17036,10 +17033,10 @@
         <v>37</v>
       </c>
       <c r="L951" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M951" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="953" spans="1:13" x14ac:dyDescent="0.25">
@@ -17085,7 +17082,7 @@
         <v>580</v>
       </c>
       <c r="M954" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="955" spans="1:13" x14ac:dyDescent="0.25">
@@ -17099,19 +17096,19 @@
         <v>4</v>
       </c>
       <c r="D955" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E955" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F955" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="G955" t="s">
         <v>633</v>
       </c>
       <c r="H955" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I955" t="s">
         <v>17</v>
@@ -17123,10 +17120,10 @@
         <v>37</v>
       </c>
       <c r="L955" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M955" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="957" spans="1:13" x14ac:dyDescent="0.25">
@@ -17172,7 +17169,7 @@
         <v>580</v>
       </c>
       <c r="M958" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="959" spans="1:13" x14ac:dyDescent="0.25">
@@ -17186,19 +17183,19 @@
         <v>4</v>
       </c>
       <c r="D959" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E959" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F959" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="G959" t="s">
         <v>633</v>
       </c>
       <c r="H959" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I959" t="s">
         <v>17</v>
@@ -17210,10 +17207,10 @@
         <v>37</v>
       </c>
       <c r="L959" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M959" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="961" spans="1:23" x14ac:dyDescent="0.25">
@@ -17289,7 +17286,7 @@
         <v>470</v>
       </c>
       <c r="W962" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="963" spans="1:23" x14ac:dyDescent="0.25">
@@ -17303,7 +17300,7 @@
         <v>769</v>
       </c>
       <c r="D963" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E963" t="s">
         <v>425</v>
@@ -17315,7 +17312,7 @@
         <v>10</v>
       </c>
       <c r="H963" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="I963" t="s">
         <v>428</v>
@@ -17360,7 +17357,7 @@
         <v>291</v>
       </c>
       <c r="W963" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="965" spans="1:23" x14ac:dyDescent="0.25">
@@ -17403,7 +17400,7 @@
         <v>579</v>
       </c>
       <c r="L966" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="967" spans="1:23" x14ac:dyDescent="0.25">
@@ -17417,19 +17414,19 @@
         <v>4</v>
       </c>
       <c r="D967" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E967" t="s">
         <v>10</v>
       </c>
       <c r="F967" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="G967" t="s">
         <v>632</v>
       </c>
       <c r="H967" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I967" t="s">
         <v>17</v>
@@ -17441,7 +17438,7 @@
         <v>37</v>
       </c>
       <c r="L967" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="969" spans="1:23" x14ac:dyDescent="0.25">
@@ -17469,7 +17466,7 @@
         <v>67</v>
       </c>
       <c r="G970" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="971" spans="1:23" x14ac:dyDescent="0.25">
@@ -17483,16 +17480,16 @@
         <v>4</v>
       </c>
       <c r="D971" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E971" t="s">
-        <v>10</v>
-      </c>
-      <c r="F971" t="s">
-        <v>1142</v>
+        <v>1009</v>
+      </c>
+      <c r="E971" s="36" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F971" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="G971" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="973" spans="1:23" x14ac:dyDescent="0.25">
@@ -17523,7 +17520,10 @@
         <v>284</v>
       </c>
       <c r="H974" t="s">
-        <v>986</v>
+        <v>985</v>
+      </c>
+      <c r="I974" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="975" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -17537,19 +17537,19 @@
         <v>4</v>
       </c>
       <c r="D975" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E975" t="s">
-        <v>10</v>
-      </c>
-      <c r="F975" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G975" t="s">
-        <v>752</v>
+        <v>1009</v>
+      </c>
+      <c r="E975" s="36" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G975" s="26" t="s">
+        <v>292</v>
       </c>
       <c r="H975" t="s">
-        <v>987</v>
+        <v>986</v>
+      </c>
+      <c r="I975" s="26" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="977" spans="1:8" x14ac:dyDescent="0.25">
@@ -17580,7 +17580,7 @@
         <v>644</v>
       </c>
       <c r="H978" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="979" spans="1:8" x14ac:dyDescent="0.25">
@@ -17593,20 +17593,20 @@
       <c r="C979" t="s">
         <v>4</v>
       </c>
-      <c r="D979" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E979" t="s">
-        <v>10</v>
-      </c>
-      <c r="F979" t="s">
-        <v>1142</v>
+      <c r="D979" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="E979" s="27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F979" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="G979" t="s">
         <v>640</v>
       </c>
       <c r="H979" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="981" spans="1:8" x14ac:dyDescent="0.25">
@@ -17637,7 +17637,7 @@
         <v>574</v>
       </c>
       <c r="H982" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="983" spans="1:8" x14ac:dyDescent="0.25">
@@ -17651,19 +17651,19 @@
         <v>4</v>
       </c>
       <c r="D983" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E983" t="s">
         <v>10</v>
       </c>
       <c r="F983" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="G983" t="s">
         <v>632</v>
       </c>
       <c r="H983" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.25">
@@ -17691,7 +17691,7 @@
         <v>67</v>
       </c>
       <c r="G986" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="987" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -17705,16 +17705,16 @@
         <v>4</v>
       </c>
       <c r="D987" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E987" s="26" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F987" t="s">
-        <v>1142</v>
+        <v>1101</v>
+      </c>
+      <c r="F987" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="G987" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.25">
@@ -17742,12 +17742,12 @@
         <v>67</v>
       </c>
       <c r="G990" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="991" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B991" s="6" t="s">
         <v>650</v>
@@ -17756,7 +17756,7 @@
         <v>4</v>
       </c>
       <c r="D991" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="E991" t="s">
         <v>10</v>
@@ -17765,7 +17765,7 @@
         <v>652</v>
       </c>
       <c r="G991" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="995" spans="1:11" x14ac:dyDescent="0.25">
@@ -17799,7 +17799,7 @@
         <v>275</v>
       </c>
       <c r="I996" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="997" spans="1:11" x14ac:dyDescent="0.25">
@@ -17813,13 +17813,13 @@
         <v>4</v>
       </c>
       <c r="D997" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E997" t="s">
         <v>10</v>
       </c>
       <c r="F997" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="G997" t="s">
         <v>762</v>
@@ -17828,7 +17828,7 @@
         <v>275</v>
       </c>
       <c r="I997" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="999" spans="1:11" x14ac:dyDescent="0.25">
@@ -17862,7 +17862,7 @@
         <v>275</v>
       </c>
       <c r="I1000" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1001" spans="1:11" x14ac:dyDescent="0.25">
@@ -17876,13 +17876,13 @@
         <v>4</v>
       </c>
       <c r="D1001" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E1001" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F1001" s="25" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G1001" t="s">
         <v>763</v>
@@ -17891,7 +17891,7 @@
         <v>275</v>
       </c>
       <c r="I1001" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1003" spans="1:11" x14ac:dyDescent="0.25">
@@ -17931,7 +17931,7 @@
         <v>767</v>
       </c>
       <c r="K1004" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1005" spans="1:11" x14ac:dyDescent="0.25">
@@ -17945,13 +17945,13 @@
         <v>4</v>
       </c>
       <c r="D1005" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E1005" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F1005" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G1005" t="s">
         <v>763</v>
@@ -17966,7 +17966,7 @@
         <v>763</v>
       </c>
       <c r="K1005" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1007" spans="1:11" x14ac:dyDescent="0.25">
@@ -17997,7 +17997,7 @@
         <v>539</v>
       </c>
       <c r="H1008" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1009" spans="1:10" x14ac:dyDescent="0.25">
@@ -18011,19 +18011,19 @@
         <v>4</v>
       </c>
       <c r="D1009" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E1009" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F1009" s="25" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G1009" t="s">
         <v>633</v>
       </c>
       <c r="H1009" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1011" spans="1:10" x14ac:dyDescent="0.25">
@@ -18057,7 +18057,7 @@
         <v>810</v>
       </c>
       <c r="I1012" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1013" spans="1:10" x14ac:dyDescent="0.25">
@@ -18071,10 +18071,10 @@
         <v>4</v>
       </c>
       <c r="D1013" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E1013" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F1013" t="s">
         <v>10</v>
@@ -18083,10 +18083,10 @@
         <v>238</v>
       </c>
       <c r="H1013" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I1013" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1015" spans="1:10" x14ac:dyDescent="0.25">
@@ -18120,7 +18120,7 @@
         <v>810</v>
       </c>
       <c r="I1016" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1017" spans="1:10" x14ac:dyDescent="0.25">
@@ -18134,22 +18134,22 @@
         <v>4</v>
       </c>
       <c r="D1017" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E1017" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F1017" t="s">
         <v>10</v>
       </c>
       <c r="G1017" t="s">
+        <v>983</v>
+      </c>
+      <c r="H1017" t="s">
         <v>984</v>
       </c>
-      <c r="H1017" t="s">
-        <v>985</v>
-      </c>
       <c r="I1017" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1019" spans="1:10" x14ac:dyDescent="0.25">
@@ -18186,7 +18186,7 @@
         <v>810</v>
       </c>
       <c r="J1020" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1021" spans="1:10" x14ac:dyDescent="0.25">
@@ -18200,10 +18200,10 @@
         <v>4</v>
       </c>
       <c r="D1021" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E1021" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F1021" t="s">
         <v>10</v>
@@ -18215,10 +18215,10 @@
         <v>238</v>
       </c>
       <c r="I1021" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J1021" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1023" spans="1:10" x14ac:dyDescent="0.25">
@@ -18255,7 +18255,7 @@
         <v>810</v>
       </c>
       <c r="J1024" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1025" spans="1:23" x14ac:dyDescent="0.25">
@@ -18269,10 +18269,10 @@
         <v>4</v>
       </c>
       <c r="D1025" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E1025" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F1025" t="s">
         <v>10</v>
@@ -18284,10 +18284,10 @@
         <v>809</v>
       </c>
       <c r="I1025" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J1025" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1028" spans="1:23" x14ac:dyDescent="0.25">
@@ -18363,7 +18363,7 @@
         <v>861</v>
       </c>
       <c r="W1029" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1030" spans="1:23" x14ac:dyDescent="0.25">
@@ -18377,13 +18377,13 @@
         <v>4</v>
       </c>
       <c r="D1030" t="s">
-        <v>927</v>
+        <v>1149</v>
       </c>
       <c r="E1030" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1030" s="27" t="s">
         <v>1104</v>
-      </c>
-      <c r="F1030" s="27" t="s">
-        <v>1105</v>
       </c>
       <c r="G1030" t="s">
         <v>48</v>
@@ -18416,7 +18416,7 @@
         <v>71</v>
       </c>
       <c r="Q1030" t="s">
-        <v>868</v>
+        <v>1138</v>
       </c>
       <c r="R1030">
         <v>20</v>
@@ -18434,7 +18434,7 @@
         <v>99</v>
       </c>
       <c r="W1030" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1037" spans="1:23" x14ac:dyDescent="0.25">
@@ -18465,7 +18465,7 @@
         <v>842</v>
       </c>
       <c r="H1038" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1039" spans="1:23" x14ac:dyDescent="0.25">
@@ -18482,16 +18482,16 @@
         <v>927</v>
       </c>
       <c r="E1039" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1039" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="F1039" s="27" t="s">
-        <v>1105</v>
-      </c>
       <c r="G1039" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1039" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
@@ -18522,7 +18522,7 @@
         <v>844</v>
       </c>
       <c r="H1042" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
@@ -18539,16 +18539,16 @@
         <v>927</v>
       </c>
       <c r="E1043" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1043" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="F1043" s="27" t="s">
-        <v>1105</v>
-      </c>
       <c r="G1043" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1043" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
@@ -18579,7 +18579,7 @@
         <v>850</v>
       </c>
       <c r="H1046" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1047" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -18596,16 +18596,16 @@
         <v>927</v>
       </c>
       <c r="E1047" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1047" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="F1047" s="27" t="s">
-        <v>1105</v>
-      </c>
       <c r="G1047" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1047" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
@@ -18636,7 +18636,7 @@
         <v>849</v>
       </c>
       <c r="H1051" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
@@ -18653,16 +18653,16 @@
         <v>927</v>
       </c>
       <c r="E1052" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1052" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="F1052" s="27" t="s">
-        <v>1105</v>
-      </c>
       <c r="G1052" t="s">
-        <v>262</v>
+        <v>1009</v>
       </c>
       <c r="H1052" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
@@ -18693,7 +18693,7 @@
         <v>854</v>
       </c>
       <c r="H1057" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1058" spans="1:24" x14ac:dyDescent="0.25">
@@ -18710,16 +18710,16 @@
         <v>927</v>
       </c>
       <c r="E1058" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1058" s="27" t="s">
         <v>1104</v>
-      </c>
-      <c r="F1058" s="27" t="s">
-        <v>1105</v>
       </c>
       <c r="G1058" t="s">
         <v>291</v>
       </c>
       <c r="H1058" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1060" spans="1:24" x14ac:dyDescent="0.25">
@@ -18747,7 +18747,7 @@
         <v>7</v>
       </c>
       <c r="G1061" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1062" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -18764,13 +18764,13 @@
         <v>927</v>
       </c>
       <c r="E1062" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1062" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="F1062" s="27" t="s">
-        <v>1105</v>
-      </c>
       <c r="G1062" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1065" spans="1:24" x14ac:dyDescent="0.25">
@@ -18798,7 +18798,7 @@
         <v>7</v>
       </c>
       <c r="G1066" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1067" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -18815,13 +18815,13 @@
         <v>927</v>
       </c>
       <c r="E1067" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1067" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="F1067" s="27" t="s">
-        <v>1105</v>
-      </c>
       <c r="G1067" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1069" spans="1:24" x14ac:dyDescent="0.25">
@@ -18900,7 +18900,7 @@
         <v>862</v>
       </c>
       <c r="X1070" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1071" spans="1:24" x14ac:dyDescent="0.25">
@@ -18917,10 +18917,10 @@
         <v>927</v>
       </c>
       <c r="E1071" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1071" s="27" t="s">
         <v>1104</v>
-      </c>
-      <c r="F1071" s="27" t="s">
-        <v>1105</v>
       </c>
       <c r="G1071" t="s">
         <v>48</v>
@@ -18971,10 +18971,10 @@
         <v>99</v>
       </c>
       <c r="W1071" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="X1071" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1073" spans="1:27" x14ac:dyDescent="0.25">
@@ -19002,7 +19002,7 @@
         <v>7</v>
       </c>
       <c r="G1074" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1075" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -19019,13 +19019,13 @@
         <v>927</v>
       </c>
       <c r="E1075" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1075" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="F1075" s="27" t="s">
-        <v>1105</v>
-      </c>
       <c r="G1075" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1077" spans="1:27" x14ac:dyDescent="0.25">
@@ -19074,7 +19074,7 @@
         <v>57</v>
       </c>
       <c r="N1078" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1079" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -19091,10 +19091,10 @@
         <v>928</v>
       </c>
       <c r="E1079" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F1079" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G1079" t="s">
         <v>835</v>
@@ -19118,7 +19118,7 @@
         <v>71</v>
       </c>
       <c r="N1079" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1083" spans="1:27" x14ac:dyDescent="0.25">
@@ -19206,7 +19206,7 @@
         <v>217</v>
       </c>
       <c r="AA1084" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1085" spans="1:27" x14ac:dyDescent="0.25">
@@ -19226,10 +19226,10 @@
         <v>928</v>
       </c>
       <c r="F1085" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G1085" s="27" t="s">
         <v>1104</v>
-      </c>
-      <c r="G1085" s="27" t="s">
-        <v>1105</v>
       </c>
       <c r="H1085" t="s">
         <v>542</v>
@@ -19283,7 +19283,7 @@
         <v>841</v>
       </c>
       <c r="AA1085" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1087" spans="1:27" x14ac:dyDescent="0.25">
@@ -19311,7 +19311,7 @@
         <v>7</v>
       </c>
       <c r="G1088" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1089" spans="1:24" x14ac:dyDescent="0.25">
@@ -19328,13 +19328,13 @@
         <v>928</v>
       </c>
       <c r="E1089" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1089" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="F1089" s="27" t="s">
-        <v>1105</v>
-      </c>
       <c r="G1089" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1091" spans="1:24" x14ac:dyDescent="0.25">
@@ -19362,7 +19362,7 @@
         <v>7</v>
       </c>
       <c r="G1092" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1093" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -19379,13 +19379,13 @@
         <v>928</v>
       </c>
       <c r="E1093" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F1093" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G1093" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1096" spans="1:24" x14ac:dyDescent="0.25">
@@ -19464,7 +19464,7 @@
         <v>862</v>
       </c>
       <c r="X1097" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1098" spans="1:24" x14ac:dyDescent="0.25">
@@ -19481,10 +19481,10 @@
         <v>927</v>
       </c>
       <c r="E1098" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1098" s="27" t="s">
         <v>1104</v>
-      </c>
-      <c r="F1098" s="27" t="s">
-        <v>1105</v>
       </c>
       <c r="G1098" t="s">
         <v>48</v>
@@ -19535,10 +19535,10 @@
         <v>99</v>
       </c>
       <c r="W1098" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="X1098" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1100" spans="1:24" x14ac:dyDescent="0.25">
@@ -19611,7 +19611,7 @@
         <v>269</v>
       </c>
       <c r="V1101" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1102" spans="1:24" x14ac:dyDescent="0.25">
@@ -19661,7 +19661,7 @@
         <v>543</v>
       </c>
       <c r="P1102" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q1102" t="s">
         <v>886</v>
@@ -19679,7 +19679,7 @@
         <v>906</v>
       </c>
       <c r="V1102" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1104" spans="1:24" x14ac:dyDescent="0.25">
@@ -19743,7 +19743,7 @@
         <v>270</v>
       </c>
       <c r="S1105" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1106" spans="1:19" x14ac:dyDescent="0.25">
@@ -19790,7 +19790,7 @@
         <v>390</v>
       </c>
       <c r="P1106" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q1106" t="s">
         <v>886</v>
@@ -19799,7 +19799,7 @@
         <v>271</v>
       </c>
       <c r="S1106" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1108" spans="1:19" x14ac:dyDescent="0.25">
@@ -19863,7 +19863,7 @@
         <v>270</v>
       </c>
       <c r="S1109" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1110" spans="1:19" x14ac:dyDescent="0.25">
@@ -19910,7 +19910,7 @@
         <v>390</v>
       </c>
       <c r="P1110" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q1110" t="s">
         <v>886</v>
@@ -19919,7 +19919,7 @@
         <v>271</v>
       </c>
       <c r="S1110" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1112" spans="1:19" x14ac:dyDescent="0.25">
@@ -19980,7 +19980,7 @@
         <v>885</v>
       </c>
       <c r="R1113" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1114" spans="1:19" x14ac:dyDescent="0.25">
@@ -20027,13 +20027,13 @@
         <v>543</v>
       </c>
       <c r="P1114" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q1114" t="s">
         <v>905</v>
       </c>
       <c r="R1114" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1116" spans="1:19" x14ac:dyDescent="0.25">
@@ -20055,7 +20055,7 @@
         <v>260</v>
       </c>
       <c r="E1117" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1118" spans="1:19" x14ac:dyDescent="0.25">
@@ -20069,10 +20069,10 @@
         <v>4</v>
       </c>
       <c r="D1118" s="27" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="E1118" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F1118" s="3"/>
     </row>
@@ -20101,7 +20101,7 @@
         <v>7</v>
       </c>
       <c r="G1121" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1122" spans="1:20" x14ac:dyDescent="0.25">
@@ -20118,13 +20118,13 @@
         <v>902</v>
       </c>
       <c r="E1122" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1122" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="F1122" s="27" t="s">
-        <v>1105</v>
-      </c>
       <c r="G1122" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1124" spans="1:20" x14ac:dyDescent="0.25">
@@ -20152,7 +20152,7 @@
         <v>7</v>
       </c>
       <c r="G1125" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1126" spans="1:20" x14ac:dyDescent="0.25">
@@ -20166,16 +20166,16 @@
         <v>4</v>
       </c>
       <c r="D1126" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="E1126" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1126" s="26" t="s">
         <v>1104</v>
       </c>
-      <c r="F1126" s="26" t="s">
-        <v>1105</v>
-      </c>
       <c r="G1126" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1128" spans="1:20" x14ac:dyDescent="0.25">
@@ -20206,7 +20206,7 @@
         <v>475</v>
       </c>
       <c r="H1129" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1130" spans="1:20" x14ac:dyDescent="0.25">
@@ -20223,16 +20223,16 @@
         <v>906</v>
       </c>
       <c r="E1130" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1130" s="26" t="s">
         <v>1104</v>
-      </c>
-      <c r="F1130" s="26" t="s">
-        <v>1105</v>
       </c>
       <c r="G1130" t="s">
         <v>907</v>
       </c>
       <c r="H1130" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1132" spans="1:20" x14ac:dyDescent="0.25">
@@ -20296,7 +20296,7 @@
         <v>883</v>
       </c>
       <c r="T1133" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1134" spans="1:20" x14ac:dyDescent="0.25">
@@ -20316,7 +20316,7 @@
         <v>922</v>
       </c>
       <c r="F1134" s="27" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="G1134" t="s">
         <v>17</v>
@@ -20352,10 +20352,10 @@
         <v>543</v>
       </c>
       <c r="S1134" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="T1134" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1136" spans="1:20" x14ac:dyDescent="0.25">
@@ -20413,7 +20413,7 @@
         <v>883</v>
       </c>
       <c r="Q1137" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1138" spans="1:17" x14ac:dyDescent="0.25">
@@ -20463,10 +20463,10 @@
         <v>543</v>
       </c>
       <c r="P1138" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q1138" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1140" spans="1:17" x14ac:dyDescent="0.25">
@@ -20507,7 +20507,7 @@
         <v>275</v>
       </c>
       <c r="M1140" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1141" spans="1:17" x14ac:dyDescent="0.25">
@@ -20521,10 +20521,10 @@
         <v>4</v>
       </c>
       <c r="D1141" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E1141" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F1141" t="s">
         <v>757</v>
@@ -20548,7 +20548,7 @@
         <v>63</v>
       </c>
       <c r="M1141" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1143" spans="1:17" x14ac:dyDescent="0.25">
@@ -20603,7 +20603,7 @@
         <v>966</v>
       </c>
       <c r="P1144" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1145" spans="1:17" x14ac:dyDescent="0.25">
@@ -20611,19 +20611,19 @@
         <v>2</v>
       </c>
       <c r="B1145" s="6" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C1145" t="s">
         <v>4</v>
       </c>
       <c r="D1145" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E1145" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="E1145" s="27" t="s">
-        <v>1105</v>
-      </c>
       <c r="F1145" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="G1145" s="3" t="s">
         <v>965</v>
@@ -20635,7 +20635,7 @@
         <v>944</v>
       </c>
       <c r="J1145" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K1145" s="3" t="s">
         <v>462</v>
@@ -20650,10 +20650,10 @@
         <v>277</v>
       </c>
       <c r="O1145" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="P1145" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1147" spans="1:17" x14ac:dyDescent="0.25">
@@ -20699,7 +20699,7 @@
         <v>942</v>
       </c>
       <c r="M1148" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1149" spans="1:17" x14ac:dyDescent="0.25">
@@ -20707,19 +20707,19 @@
         <v>2</v>
       </c>
       <c r="B1149" s="6" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C1149" t="s">
         <v>4</v>
       </c>
       <c r="D1149" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E1149" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="E1149" s="27" t="s">
-        <v>1105</v>
-      </c>
       <c r="F1149" s="25" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="G1149" t="s">
         <v>951</v>
@@ -20740,7 +20740,7 @@
         <v>462</v>
       </c>
       <c r="M1149" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1151" spans="1:17" x14ac:dyDescent="0.25">
@@ -20789,7 +20789,7 @@
         <v>954</v>
       </c>
       <c r="N1152" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1153" spans="1:14" x14ac:dyDescent="0.25">
@@ -20797,19 +20797,19 @@
         <v>2</v>
       </c>
       <c r="B1153" s="6" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C1153" t="s">
         <v>4</v>
       </c>
       <c r="D1153" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E1153" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="E1153" s="27" t="s">
-        <v>1105</v>
-      </c>
       <c r="F1153" s="25" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="G1153" t="s">
         <v>955</v>
@@ -20818,7 +20818,7 @@
         <v>956</v>
       </c>
       <c r="I1153" s="27" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="J1153" t="s">
         <v>10</v>
@@ -20833,7 +20833,7 @@
         <v>564</v>
       </c>
       <c r="N1153" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1156" spans="1:14" x14ac:dyDescent="0.25">
@@ -20877,7 +20877,7 @@
         <v>962</v>
       </c>
       <c r="N1156" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1157" spans="1:14" x14ac:dyDescent="0.25">
@@ -20891,10 +20891,10 @@
         <v>4</v>
       </c>
       <c r="D1157" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E1157" s="27" t="s">
         <v>1104</v>
-      </c>
-      <c r="E1157" s="27" t="s">
-        <v>1105</v>
       </c>
       <c r="F1157" t="s">
         <v>957</v>
@@ -20921,7 +20921,7 @@
         <v>962</v>
       </c>
       <c r="N1157" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1159" spans="1:14" x14ac:dyDescent="0.25">
@@ -20958,7 +20958,7 @@
         <v>67</v>
       </c>
       <c r="J1160" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1161" spans="1:14" x14ac:dyDescent="0.25">
@@ -20972,25 +20972,25 @@
         <v>4</v>
       </c>
       <c r="D1161" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E1161" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F1161" t="s">
-        <v>982</v>
+        <v>1152</v>
       </c>
       <c r="G1161" t="s">
         <v>907</v>
       </c>
       <c r="H1161" t="s">
-        <v>983</v>
-      </c>
-      <c r="I1161" t="s">
-        <v>1142</v>
+        <v>982</v>
+      </c>
+      <c r="I1161" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="J1161" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1163" spans="1:14" x14ac:dyDescent="0.25">
@@ -21021,7 +21021,7 @@
         <v>980</v>
       </c>
       <c r="H1164" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1165" spans="1:14" x14ac:dyDescent="0.25">
@@ -21035,13 +21035,13 @@
         <v>4</v>
       </c>
       <c r="D1165" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E1165" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1165" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1167" spans="1:14" x14ac:dyDescent="0.25">
@@ -21072,7 +21072,7 @@
         <v>245</v>
       </c>
       <c r="H1168" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1169" spans="1:11" x14ac:dyDescent="0.25">
@@ -21086,13 +21086,13 @@
         <v>4</v>
       </c>
       <c r="D1169" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E1169" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1169" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1171" spans="1:11" x14ac:dyDescent="0.25">
@@ -21123,7 +21123,7 @@
         <v>980</v>
       </c>
       <c r="H1172" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1173" spans="1:11" x14ac:dyDescent="0.25">
@@ -21137,18 +21137,18 @@
         <v>4</v>
       </c>
       <c r="D1173" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E1173" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1173" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1176" spans="1:11" x14ac:dyDescent="0.25">
@@ -21171,7 +21171,7 @@
         <v>275</v>
       </c>
       <c r="G1176" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1176" s="25" t="s">
         <v>35</v>
@@ -21182,30 +21182,30 @@
         <v>2</v>
       </c>
       <c r="B1177" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C1177" t="s">
         <v>4</v>
       </c>
       <c r="D1177" s="30" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E1177" s="30" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F1177" s="28" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="G1177" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1177" s="25" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1179" s="29" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B1179" s="28"/>
       <c r="C1179" s="25"/>
@@ -21240,7 +21240,7 @@
         <v>275</v>
       </c>
       <c r="H1180" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I1180" s="25"/>
       <c r="J1180" s="25"/>
@@ -21251,25 +21251,25 @@
         <v>2</v>
       </c>
       <c r="B1181" s="28" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C1181" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D1181" s="30" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E1181" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1181" s="25" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G1181" s="28" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1181" s="25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I1181" s="25"/>
       <c r="J1181" s="28"/>
@@ -21286,7 +21286,7 @@
     </row>
     <row r="1183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1183" s="29" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1183" s="25"/>
       <c r="C1183" s="26"/>
@@ -21315,10 +21315,10 @@
         <v>3</v>
       </c>
       <c r="F1184" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G1184" s="25" t="s">
         <v>1013</v>
-      </c>
-      <c r="G1184" s="25" t="s">
-        <v>1014</v>
       </c>
       <c r="H1184" s="25" t="s">
         <v>284</v>
@@ -21327,10 +21327,10 @@
         <v>426</v>
       </c>
       <c r="J1184" s="25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K1184" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1185" spans="1:11" x14ac:dyDescent="0.25">
@@ -21338,39 +21338,39 @@
         <v>2</v>
       </c>
       <c r="B1185" s="28" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C1185" s="26" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D1185" s="26" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E1185" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1185" s="25" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="G1185" s="28" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1185" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I1185" s="26" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="J1185" s="28" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="K1185" s="25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1187" s="25" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B1187" s="28"/>
       <c r="C1187" s="25"/>
@@ -21399,10 +21399,10 @@
         <v>3</v>
       </c>
       <c r="F1188" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G1188" s="25" t="s">
         <v>1013</v>
-      </c>
-      <c r="G1188" s="25" t="s">
-        <v>1014</v>
       </c>
       <c r="H1188" s="25" t="s">
         <v>284</v>
@@ -21411,10 +21411,10 @@
         <v>426</v>
       </c>
       <c r="J1188" s="25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K1188" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1189" spans="1:11" x14ac:dyDescent="0.25">
@@ -21422,39 +21422,39 @@
         <v>2</v>
       </c>
       <c r="B1189" s="25" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C1189" s="26" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D1189" s="26" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E1189" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F1189" s="25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G1189" s="28" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H1189" s="25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I1189" s="26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J1189" s="28" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K1189" s="25" t="s">
         <v>1011</v>
-      </c>
-      <c r="G1189" s="28" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H1189" s="25" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I1189" s="26" t="s">
-        <v>1115</v>
-      </c>
-      <c r="J1189" s="28" t="s">
-        <v>1023</v>
-      </c>
-      <c r="K1189" s="25" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="1191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1191" s="29" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1191" s="25"/>
       <c r="C1191" s="26"/>
@@ -21485,7 +21485,7 @@
         <v>35</v>
       </c>
       <c r="G1192" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1192" s="25" t="s">
         <v>284</v>
@@ -21494,7 +21494,7 @@
         <v>426</v>
       </c>
       <c r="J1192" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1193" spans="1:11" x14ac:dyDescent="0.25">
@@ -21502,31 +21502,31 @@
         <v>2</v>
       </c>
       <c r="B1193" s="25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C1193" s="30" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D1193" s="30" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="E1193" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1193" s="25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G1193" s="25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1193" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I1193" s="26" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="J1193" s="25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1194" spans="1:11" x14ac:dyDescent="0.25">
@@ -21542,7 +21542,7 @@
     </row>
     <row r="1195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1195" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B1195" s="25"/>
       <c r="C1195" s="26"/>
@@ -21579,7 +21579,7 @@
         <v>426</v>
       </c>
       <c r="I1196" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1197" spans="1:11" x14ac:dyDescent="0.25">
@@ -21587,33 +21587,33 @@
         <v>2</v>
       </c>
       <c r="B1197" s="25" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C1197" s="30" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D1197" s="30" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="E1197" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1197" s="25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G1197" s="26" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1197" s="26" t="s">
         <v>10</v>
       </c>
       <c r="I1197" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1199" s="29" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B1199" s="25"/>
       <c r="C1199" s="26"/>
@@ -21643,13 +21643,13 @@
         <v>35</v>
       </c>
       <c r="G1200" s="25" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1200" s="25" t="s">
         <v>766</v>
       </c>
       <c r="I1200" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1201" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -21657,33 +21657,33 @@
         <v>2</v>
       </c>
       <c r="B1201" s="28" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C1201" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D1201" s="27" t="s">
         <v>1104</v>
-      </c>
-      <c r="D1201" s="27" t="s">
-        <v>1105</v>
       </c>
       <c r="E1201" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1201" s="35" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="G1201" s="28" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H1201" s="28" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="I1201" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1203" s="29" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B1203" s="25"/>
       <c r="C1203" s="26"/>
@@ -21713,13 +21713,13 @@
         <v>35</v>
       </c>
       <c r="G1204" s="25" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1204" s="25" t="s">
         <v>766</v>
       </c>
       <c r="I1204" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1205" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -21727,33 +21727,33 @@
         <v>2</v>
       </c>
       <c r="B1205" s="28" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C1205" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D1205" s="27" t="s">
         <v>1104</v>
-      </c>
-      <c r="D1205" s="27" t="s">
-        <v>1105</v>
       </c>
       <c r="E1205" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1205" s="28" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G1205" s="28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H1205" s="28" t="s">
         <v>1034</v>
       </c>
-      <c r="H1205" s="28" t="s">
-        <v>1035</v>
-      </c>
       <c r="I1205" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1207" s="29" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B1207" s="25"/>
       <c r="C1207" s="26"/>
@@ -21784,16 +21784,16 @@
         <v>35</v>
       </c>
       <c r="G1208" s="25" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1208" s="25" t="s">
         <v>766</v>
       </c>
       <c r="I1208" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J1208" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -21801,36 +21801,36 @@
         <v>2</v>
       </c>
       <c r="B1209" s="25" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C1209" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D1209" s="27" t="s">
         <v>1104</v>
-      </c>
-      <c r="D1209" s="27" t="s">
-        <v>1105</v>
       </c>
       <c r="E1209" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1209" s="25" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="G1209" s="25" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1209" s="25" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I1209" s="28" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="J1209" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1211" s="29" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B1211" s="25"/>
       <c r="C1211" s="26"/>
@@ -21861,13 +21861,13 @@
         <v>35</v>
       </c>
       <c r="G1212" s="25" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1212" s="25" t="s">
         <v>766</v>
       </c>
       <c r="I1212" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J1212" s="25" t="s">
         <v>284</v>
@@ -21876,7 +21876,7 @@
         <v>426</v>
       </c>
       <c r="L1212" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1213" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -21884,42 +21884,42 @@
         <v>2</v>
       </c>
       <c r="B1213" s="25" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C1213" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D1213" s="27" t="s">
         <v>1104</v>
-      </c>
-      <c r="D1213" s="27" t="s">
-        <v>1105</v>
       </c>
       <c r="E1213" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1213" s="35" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="G1213" s="28" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H1213" s="28" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="I1213" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J1213" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K1213" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="L1213" s="28" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1215" s="29" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B1215" s="25"/>
       <c r="C1215" s="26"/>
@@ -21951,7 +21951,7 @@
         <v>35</v>
       </c>
       <c r="G1216" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1216" s="25" t="s">
         <v>284</v>
@@ -21960,7 +21960,7 @@
         <v>426</v>
       </c>
       <c r="J1216" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K1216" s="25"/>
     </row>
@@ -21969,37 +21969,37 @@
         <v>2</v>
       </c>
       <c r="B1217" s="25" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C1217" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D1217" s="27" t="s">
         <v>1104</v>
-      </c>
-      <c r="D1217" s="27" t="s">
-        <v>1105</v>
       </c>
       <c r="E1217" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1217" s="35" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="G1217" s="35" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H1217" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I1217" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="J1217" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K1217" s="25"/>
     </row>
     <row r="1219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1219" s="29" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1219" s="25"/>
       <c r="C1219" s="26"/>
@@ -22030,7 +22030,7 @@
         <v>35</v>
       </c>
       <c r="G1220" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1220" s="25" t="s">
         <v>284</v>
@@ -22039,7 +22039,7 @@
         <v>426</v>
       </c>
       <c r="J1220" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1221" spans="1:16" x14ac:dyDescent="0.25">
@@ -22047,10 +22047,10 @@
         <v>2</v>
       </c>
       <c r="B1221" s="25" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C1221" s="30" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D1221" s="30" t="s">
         <v>923</v>
@@ -22059,19 +22059,19 @@
         <v>4</v>
       </c>
       <c r="F1221" s="25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G1221" s="25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1221" s="26" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I1221" s="26" t="s">
         <v>10</v>
       </c>
       <c r="J1221" s="25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1222" spans="1:16" x14ac:dyDescent="0.25">
@@ -22087,7 +22087,7 @@
     </row>
     <row r="1223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1223" s="29" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B1223" s="25"/>
       <c r="C1223" s="26"/>
@@ -22124,7 +22124,7 @@
         <v>426</v>
       </c>
       <c r="I1224" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1225" spans="1:16" x14ac:dyDescent="0.25">
@@ -22132,10 +22132,10 @@
         <v>2</v>
       </c>
       <c r="B1225" s="25" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C1225" s="30" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D1225" s="30" t="s">
         <v>923</v>
@@ -22144,21 +22144,21 @@
         <v>4</v>
       </c>
       <c r="F1225" s="25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G1225" s="26" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1225" s="26" t="s">
         <v>10</v>
       </c>
       <c r="I1225" s="25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1227" s="29" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1227" s="25"/>
       <c r="C1227" s="26"/>
@@ -22195,34 +22195,34 @@
         <v>946</v>
       </c>
       <c r="G1228" s="25" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H1228" s="25" t="s">
         <v>1051</v>
       </c>
-      <c r="H1228" s="25" t="s">
+      <c r="I1228" s="25" t="s">
         <v>1052</v>
       </c>
-      <c r="I1228" s="25" t="s">
+      <c r="J1228" s="25" t="s">
         <v>1053</v>
       </c>
-      <c r="J1228" s="25" t="s">
+      <c r="K1228" s="25" t="s">
         <v>1054</v>
       </c>
-      <c r="K1228" s="25" t="s">
+      <c r="L1228" s="25" t="s">
         <v>1055</v>
       </c>
-      <c r="L1228" s="25" t="s">
+      <c r="M1228" s="25" t="s">
         <v>1056</v>
       </c>
-      <c r="M1228" s="25" t="s">
+      <c r="N1228" s="25" t="s">
         <v>1057</v>
-      </c>
-      <c r="N1228" s="25" t="s">
-        <v>1058</v>
       </c>
       <c r="O1228" s="25" t="s">
         <v>942</v>
       </c>
       <c r="P1228" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1229" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -22230,47 +22230,47 @@
         <v>2</v>
       </c>
       <c r="B1229" s="25" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C1229" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D1229" s="30" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E1229" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1229" s="25" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G1229" s="31" t="s">
         <v>1059</v>
       </c>
-      <c r="G1229" s="31" t="s">
+      <c r="H1229" s="26" t="s">
         <v>1060</v>
       </c>
-      <c r="H1229" s="26" t="s">
+      <c r="I1229" s="25" t="s">
         <v>1061</v>
       </c>
-      <c r="I1229" s="25" t="s">
+      <c r="J1229" s="25" t="s">
         <v>1062</v>
       </c>
-      <c r="J1229" s="25" t="s">
+      <c r="K1229" s="25" t="s">
         <v>1063</v>
       </c>
-      <c r="K1229" s="25" t="s">
+      <c r="L1229" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="L1229" s="3" t="s">
+      <c r="M1229" s="25" t="s">
         <v>1065</v>
       </c>
-      <c r="M1229" s="25" t="s">
+      <c r="N1229" s="3" t="s">
         <v>1066</v>
-      </c>
-      <c r="N1229" s="3" t="s">
-        <v>1067</v>
       </c>
       <c r="O1229" s="25"/>
       <c r="P1229" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1230" spans="1:16" x14ac:dyDescent="0.25">
@@ -22292,7 +22292,7 @@
     </row>
     <row r="1231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1231" s="29" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B1231" s="25"/>
       <c r="C1231" s="26"/>
@@ -22329,34 +22329,34 @@
         <v>946</v>
       </c>
       <c r="G1232" s="25" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H1232" s="25" t="s">
         <v>1051</v>
       </c>
-      <c r="H1232" s="25" t="s">
+      <c r="I1232" s="25" t="s">
         <v>1052</v>
       </c>
-      <c r="I1232" s="25" t="s">
+      <c r="J1232" s="25" t="s">
         <v>1053</v>
       </c>
-      <c r="J1232" s="25" t="s">
+      <c r="K1232" s="25" t="s">
         <v>1054</v>
       </c>
-      <c r="K1232" s="25" t="s">
+      <c r="L1232" s="25" t="s">
         <v>1055</v>
       </c>
-      <c r="L1232" s="25" t="s">
+      <c r="M1232" s="25" t="s">
         <v>1056</v>
       </c>
-      <c r="M1232" s="25" t="s">
+      <c r="N1232" s="25" t="s">
         <v>1057</v>
-      </c>
-      <c r="N1232" s="25" t="s">
-        <v>1058</v>
       </c>
       <c r="O1232" s="25" t="s">
         <v>942</v>
       </c>
       <c r="P1232" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1233" spans="1:16" x14ac:dyDescent="0.25">
@@ -22364,47 +22364,47 @@
         <v>2</v>
       </c>
       <c r="B1233" s="32" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C1233" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D1233" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E1233" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1233" s="32" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G1233" s="33" t="s">
         <v>1068</v>
       </c>
-      <c r="G1233" s="33" t="s">
+      <c r="H1233" s="34" t="s">
         <v>1069</v>
       </c>
-      <c r="H1233" s="34" t="s">
+      <c r="I1233" s="32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J1233" s="32" t="s">
         <v>1070</v>
       </c>
-      <c r="I1233" s="32" t="s">
-        <v>1062</v>
-      </c>
-      <c r="J1233" s="32" t="s">
+      <c r="K1233" s="32" t="s">
         <v>1071</v>
       </c>
-      <c r="K1233" s="32" t="s">
+      <c r="L1233" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="L1233" s="3" t="s">
+      <c r="M1233" s="32" t="s">
         <v>1073</v>
       </c>
-      <c r="M1233" s="32" t="s">
+      <c r="N1233" s="3" t="s">
         <v>1074</v>
-      </c>
-      <c r="N1233" s="3" t="s">
-        <v>1075</v>
       </c>
       <c r="O1233" s="25"/>
       <c r="P1233" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1234" spans="1:16" x14ac:dyDescent="0.25">
@@ -22426,7 +22426,7 @@
     </row>
     <row r="1235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1235" s="29" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B1235" s="25"/>
       <c r="C1235" s="26"/>
@@ -22460,7 +22460,7 @@
         <v>3</v>
       </c>
       <c r="F1236" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G1236" s="25"/>
       <c r="H1236" s="25"/>
@@ -22478,19 +22478,19 @@
         <v>2</v>
       </c>
       <c r="B1237" s="32" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C1237" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D1237" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E1237" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1237" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G1237" s="33"/>
       <c r="H1237" s="34"/>
@@ -22505,7 +22505,7 @@
     </row>
     <row r="1239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1239" s="29" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B1239" s="25"/>
       <c r="C1239" s="26"/>
@@ -22541,7 +22541,7 @@
         <v>871</v>
       </c>
       <c r="H1240" s="25" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I1240" s="25" t="s">
         <v>883</v>
@@ -22550,10 +22550,10 @@
         <v>7</v>
       </c>
       <c r="K1240" s="25" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="L1240" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1241" spans="1:16" x14ac:dyDescent="0.25">
@@ -22561,28 +22561,28 @@
         <v>2</v>
       </c>
       <c r="B1241" s="25" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C1241" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D1241" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E1241" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1241" s="25" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G1241" s="31" t="s">
         <v>1084</v>
       </c>
-      <c r="G1241" s="31" t="s">
+      <c r="H1241" s="26" t="s">
         <v>1085</v>
       </c>
-      <c r="H1241" s="26" t="s">
-        <v>1086</v>
-      </c>
       <c r="I1241" s="30" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="J1241" s="26" t="s">
         <v>10</v>
@@ -22591,7 +22591,7 @@
         <v>10</v>
       </c>
       <c r="L1241" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1242" spans="1:16" x14ac:dyDescent="0.25">
@@ -22613,7 +22613,7 @@
     </row>
     <row r="1243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1243" s="29" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B1243" s="25"/>
       <c r="C1243" s="26"/>
@@ -22647,16 +22647,16 @@
         <v>3</v>
       </c>
       <c r="F1244" s="25" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G1244" s="25" t="s">
         <v>1091</v>
       </c>
-      <c r="G1244" s="25" t="s">
-        <v>1092</v>
-      </c>
       <c r="H1244" s="25" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I1244" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J1244" s="25"/>
       <c r="K1244" s="25"/>
@@ -22670,10 +22670,10 @@
         <v>2</v>
       </c>
       <c r="B1245" s="25" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C1245" s="30" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D1245" s="25" t="s">
         <v>10</v>
@@ -22691,7 +22691,7 @@
         <v>884</v>
       </c>
       <c r="I1245" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J1245" s="32"/>
       <c r="K1245" s="32"/>
@@ -22702,7 +22702,7 @@
     </row>
     <row r="1247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1247" s="29" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B1247" s="25"/>
       <c r="C1247" s="25"/>
@@ -22726,7 +22726,7 @@
         <v>3</v>
       </c>
       <c r="F1248" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1249" spans="1:7" x14ac:dyDescent="0.25">
@@ -22734,24 +22734,24 @@
         <v>2</v>
       </c>
       <c r="B1249" s="25" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C1249" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D1249" s="30" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E1249" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1249" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1251" s="29" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B1251" s="25"/>
       <c r="C1251" s="25"/>
@@ -22775,7 +22775,7 @@
         <v>3</v>
       </c>
       <c r="F1252" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1253" spans="1:7" x14ac:dyDescent="0.25">
@@ -22783,24 +22783,24 @@
         <v>2</v>
       </c>
       <c r="B1253" s="25" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C1253" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D1253" s="30" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E1253" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1253" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1255" s="29" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B1255" s="25"/>
       <c r="C1255" s="25"/>
@@ -22825,10 +22825,10 @@
         <v>3</v>
       </c>
       <c r="F1256" s="25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G1256" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1257" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -22836,22 +22836,22 @@
         <v>2</v>
       </c>
       <c r="B1257" s="28" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C1257" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D1257" s="30" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E1257" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1257" s="25" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G1257" s="25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -22935,9 +22935,15 @@
     <hyperlink ref="F185" r:id="rId73" xr:uid="{009EC939-6280-44D7-8091-AF3AA3265102}"/>
     <hyperlink ref="E185" r:id="rId74" xr:uid="{2580FE33-5D69-4289-82D4-DB92502DD469}"/>
     <hyperlink ref="I185" r:id="rId75" xr:uid="{0520E75E-CC79-404B-BF7B-04CEC03F6C51}"/>
+    <hyperlink ref="G975" r:id="rId76" xr:uid="{AF81DFA5-521C-4604-9573-34727A087391}"/>
+    <hyperlink ref="I975" r:id="rId77" xr:uid="{F5203F15-FFED-48B0-B68C-98D827AA3848}"/>
+    <hyperlink ref="G153" r:id="rId78" xr:uid="{53587643-00D9-4422-986F-63D33E3FFB76}"/>
+    <hyperlink ref="G189" r:id="rId79" xr:uid="{8137DD61-DFEC-4C19-87CA-D2C5AB5FBFDA}"/>
+    <hyperlink ref="H189" r:id="rId80" xr:uid="{6F4FE2B2-C77E-4F7D-A73D-4E422ACDF027}"/>
+    <hyperlink ref="C24" r:id="rId81" xr:uid="{18CE63C3-B1E5-4629-A742-E6E5A3999BBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId76"/>
+  <pageSetup orientation="portrait" r:id="rId82"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\bizligo-automation\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\bizligo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45E7793-F19B-468F-B4E4-8337DC5782A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA40152-3D19-439D-B8D0-5CB2F1461125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="578" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5960" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6367" uniqueCount="1225">
   <si>
     <t>TestCases</t>
   </si>
@@ -3818,6 +3818,213 @@
   <si>
     <t xml:space="preserve">
 SheTek MAE</t>
+  </si>
+  <si>
+    <t>TC621</t>
+  </si>
+  <si>
+    <t>TC621_Verify_User_Able_To_Login_With_Valid_Credentials</t>
+  </si>
+  <si>
+    <t>TC622</t>
+  </si>
+  <si>
+    <t>TC622_Verify_Member_able_To_Create_Portfolio</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Pamten Software</t>
+  </si>
+  <si>
+    <t>TC623</t>
+  </si>
+  <si>
+    <t>TC623_Verify_Member_Can_Able_To_Create_New_Portfolio</t>
+  </si>
+  <si>
+    <t>TC_624_Verify_Member_Can_Able_To_Delete_Portfolio</t>
+  </si>
+  <si>
+    <t>TC624</t>
+  </si>
+  <si>
+    <t>TC625</t>
+  </si>
+  <si>
+    <t>TC625_Verify_User_Can_able_to_Update_Portfolio</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>https://www.tcs.com</t>
+  </si>
+  <si>
+    <t>TC626</t>
+  </si>
+  <si>
+    <t>TC626_Verify_Member_Able_To_Create_Portfolio</t>
+  </si>
+  <si>
+    <t>TC650</t>
+  </si>
+  <si>
+    <t>TC650_Register_With_New_Organization</t>
+  </si>
+  <si>
+    <t>Srinivas</t>
+  </si>
+  <si>
+    <t>Viswa</t>
+  </si>
+  <si>
+    <t>This is a testing</t>
+  </si>
+  <si>
+    <t>seattle</t>
+  </si>
+  <si>
+    <t>Busin</t>
+  </si>
+  <si>
+    <t>manoj.ms21@rediffmail.com</t>
+  </si>
+  <si>
+    <t>TC651</t>
+  </si>
+  <si>
+    <t>TC651_Verify_Member_Not_Able_To_Register_With_Existing_Email</t>
+  </si>
+  <si>
+    <t>TC652</t>
+  </si>
+  <si>
+    <t>TC652_Verify_Member_Not_Able_To_Register_With_Existing_Organization</t>
+  </si>
+  <si>
+    <t>PamTen Software solutions</t>
+  </si>
+  <si>
+    <t>TC653</t>
+  </si>
+  <si>
+    <t>TC653_Verify_User_Canbe_Able_To_Register_With_Existing_Organization_if_TA_Enable_Allow_Org</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>vasukiran</t>
+  </si>
+  <si>
+    <t>vasukiran@sharklasers.com</t>
+  </si>
+  <si>
+    <t>TC654</t>
+  </si>
+  <si>
+    <t>TC654_Verify_Member_Able_To_Register_For_No_MembershipPlans</t>
+  </si>
+  <si>
+    <t>admin@bizligo.com</t>
+  </si>
+  <si>
+    <t>TC655</t>
+  </si>
+  <si>
+    <t>emailAddress1</t>
+  </si>
+  <si>
+    <t>TC655_Verify_new_user_unable_to_login_to_the_system_until_the_organization_is_approved_by_ta</t>
+  </si>
+  <si>
+    <t>TC656_Verify_New_User_Unable_To_Login_to_the_System_If_a_User_registered_with_the_existing_organization</t>
+  </si>
+  <si>
+    <t>TC656</t>
+  </si>
+  <si>
+    <t>TC657</t>
+  </si>
+  <si>
+    <t>TC657_Verify_User_Canbe_Able_To_Register_With_New_Organization</t>
+  </si>
+  <si>
+    <t>TC658</t>
+  </si>
+  <si>
+    <t>TC658_Verify_User_Canbe_Able_To_Register_With_Out_Organization</t>
+  </si>
+  <si>
+    <t>TC659_Verify_User_Canbe_Able_To_Registered_with_Existing_Organization</t>
+  </si>
+  <si>
+    <t>TC659</t>
+  </si>
+  <si>
+    <t>TC660</t>
+  </si>
+  <si>
+    <t>TC660_Verify_User_Can_Not_be_Able_To_Register_With_Existing_Email</t>
+  </si>
+  <si>
+    <t>yogesha@sharklasers.com</t>
+  </si>
+  <si>
+    <t>SARA ORG COO</t>
+  </si>
+  <si>
+    <t>yogesha</t>
+  </si>
+  <si>
+    <t>ramana@sharklasers.com</t>
+  </si>
+  <si>
+    <t>ramana</t>
+  </si>
+  <si>
+    <t>nand@sharklasers.com</t>
+  </si>
+  <si>
+    <t>nand</t>
+  </si>
+  <si>
+    <t>mah@sharklasers.com</t>
+  </si>
+  <si>
+    <t>maha ORG COMO</t>
+  </si>
+  <si>
+    <t>mah</t>
+  </si>
+  <si>
+    <t>shou@sharklasers.com</t>
+  </si>
+  <si>
+    <t>shou</t>
+  </si>
+  <si>
+    <t>OLUI@sharklasers.com</t>
+  </si>
+  <si>
+    <t>pmra ORGMH</t>
+  </si>
+  <si>
+    <t>OLUI</t>
+  </si>
+  <si>
+    <t>oner@sharklasers.com</t>
+  </si>
+  <si>
+    <t>oner</t>
+  </si>
+  <si>
+    <t>P@mt$n@123</t>
+  </si>
+  <si>
+    <t>SheTek MA27 Apr 2021</t>
   </si>
 </sst>
 </file>
@@ -3988,7 +4195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4064,6 +4271,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4356,17 +4564,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E264"/>
+  <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="C281" sqref="C281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.28515625" customWidth="1"/>
+    <col min="3" max="3" width="101.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6724,6 +6932,193 @@
       </c>
       <c r="C264" t="s">
         <v>1098</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="29" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B265" t="s">
+        <v>2</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B266" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B267" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C267" s="25" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="29" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B268" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="29" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B269" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B270" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="29" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B271" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="29" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B272" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="29" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B273" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="29" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B274" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="29" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B275" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="29" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B276" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="29" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B277" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="29" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B278" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="29" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B279" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="29" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B280" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="29" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B281" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1205</v>
       </c>
     </row>
   </sheetData>
@@ -6735,16 +7130,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AW1257"/>
+  <dimension ref="A1:AW1325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="L799" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R811" sqref="R811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
@@ -6759,6 +7154,7 @@
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16.28515625" customWidth="1"/>
     <col min="25" max="25" width="17.7109375" customWidth="1"/>
   </cols>
@@ -13322,14 +13718,14 @@
       <c r="C801" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D801" s="27" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E801" s="27" t="s">
-        <v>1101</v>
+      <c r="D801" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E801" s="30" t="s">
+        <v>1223</v>
       </c>
       <c r="F801" s="25" t="s">
-        <v>1154</v>
+        <v>1224</v>
       </c>
       <c r="G801" t="s">
         <v>489</v>
@@ -13626,8 +14022,8 @@
       <c r="D805" s="27" t="s">
         <v>1009</v>
       </c>
-      <c r="E805" s="27" t="s">
-        <v>1101</v>
+      <c r="E805" s="30" t="s">
+        <v>1223</v>
       </c>
       <c r="F805" s="25" t="s">
         <v>1136</v>
@@ -22729,7 +23125,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1249" s="29" t="s">
         <v>2</v>
       </c>
@@ -22749,7 +23145,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1251" s="29" t="s">
         <v>1095</v>
       </c>
@@ -22758,7 +23154,7 @@
       <c r="D1251" s="25"/>
       <c r="E1251" s="25"/>
     </row>
-    <row r="1252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1252" s="25" t="s">
         <v>1</v>
       </c>
@@ -22778,7 +23174,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1253" s="29" t="s">
         <v>2</v>
       </c>
@@ -22798,7 +23194,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1255" s="29" t="s">
         <v>1097</v>
       </c>
@@ -22808,7 +23204,7 @@
       <c r="E1255" s="25"/>
       <c r="F1255" s="25"/>
     </row>
-    <row r="1256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1256" s="25" t="s">
         <v>1</v>
       </c>
@@ -22831,7 +23227,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1257" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1257" s="29" t="s">
         <v>2</v>
       </c>
@@ -22851,6 +23247,1392 @@
         <v>1096</v>
       </c>
       <c r="G1257" s="25" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1259" s="29" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1259" s="25"/>
+      <c r="C1259" s="25"/>
+      <c r="D1259" s="25"/>
+      <c r="E1259" s="25"/>
+    </row>
+    <row r="1260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1260" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1260" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1260" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1260" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1260" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1261" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1261" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1261" s="25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1261" s="30" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E1261" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1263" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1263" s="25"/>
+      <c r="C1263" s="25"/>
+      <c r="D1263" s="25"/>
+      <c r="E1263" s="25"/>
+    </row>
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1264" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1264" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1264" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1264" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1264" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H1264" s="25" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1265" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1265" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1265" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1265" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="E1265" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G1265" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1265" s="25" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1267" s="29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1267" s="25"/>
+      <c r="C1267" s="25"/>
+      <c r="D1267" s="25"/>
+      <c r="E1267" s="25"/>
+      <c r="F1267" s="25"/>
+      <c r="G1267" s="25"/>
+      <c r="H1267" s="25"/>
+    </row>
+    <row r="1268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1268" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1268" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1268" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1268" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1268" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1268" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1268" s="25" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H1268" s="25" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1269" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1269" s="28" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1269" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1269" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="E1269" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1269" s="25" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G1269" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1269" s="25" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1271" s="29" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1271" s="25"/>
+      <c r="C1271" s="25"/>
+      <c r="D1271" s="25"/>
+      <c r="E1271" s="25"/>
+      <c r="F1271" s="25"/>
+    </row>
+    <row r="1272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1272" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1272" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1272" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1272" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1272" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1272" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1272" s="25" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H1272" s="25" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1273" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1273" s="28" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C1273" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1273" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="E1273" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1273" s="25" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G1273" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1273" s="25" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1275" s="29" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1275" s="25"/>
+      <c r="C1275" s="25"/>
+      <c r="D1275" s="25"/>
+      <c r="E1275" s="25"/>
+      <c r="F1275" s="25"/>
+      <c r="G1275" s="25"/>
+      <c r="H1275" s="25"/>
+    </row>
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1276" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1276" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1276" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1276" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1276" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1276" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1276" s="25" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H1276" s="25" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1277" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1277" s="28" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C1277" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1277" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="E1277" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1277" s="25" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G1277" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H1277" s="25" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1279" s="29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1279" s="25"/>
+      <c r="C1279" s="25"/>
+      <c r="D1279" s="25"/>
+      <c r="E1279" s="25"/>
+      <c r="F1279" s="25"/>
+      <c r="G1279" s="25"/>
+      <c r="H1279" s="25"/>
+    </row>
+    <row r="1280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1280" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1280" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1280" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1280" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1280" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1280" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1280" s="25" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H1280" s="25" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1281" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1281" s="28" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1281" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1281" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="E1281" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1281" s="25" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G1281" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H1281" s="25" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1283" s="29" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1283" s="25"/>
+      <c r="C1283" s="25"/>
+      <c r="D1283" s="25"/>
+      <c r="E1283" s="25"/>
+    </row>
+    <row r="1284" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1284" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1284" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1284" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="D1284" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="E1284" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1284" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1284" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H1284" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="I1284" t="s">
+        <v>648</v>
+      </c>
+      <c r="J1284" s="25" t="s">
+        <v>877</v>
+      </c>
+      <c r="K1284" t="s">
+        <v>872</v>
+      </c>
+      <c r="L1284" t="s">
+        <v>875</v>
+      </c>
+      <c r="M1284" t="s">
+        <v>878</v>
+      </c>
+      <c r="N1284" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1284" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="P1284" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1285" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1285" s="28" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C1285" s="30" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1285" s="30" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1285" s="30" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F1285" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1285" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="H1285" s="27" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I1285" s="27"/>
+      <c r="J1285" s="25" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K1285">
+        <v>201555678</v>
+      </c>
+      <c r="L1285" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M1285" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N1285" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1285" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="P1285" s="27" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Q1285" s="26"/>
+    </row>
+    <row r="1287" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1287" s="29" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1287" s="25"/>
+      <c r="C1287" s="25"/>
+      <c r="D1287" s="25"/>
+      <c r="E1287" s="25"/>
+      <c r="F1287" s="25"/>
+      <c r="G1287" s="25"/>
+      <c r="H1287" s="25"/>
+      <c r="I1287" s="25"/>
+      <c r="J1287" s="25"/>
+      <c r="K1287" s="25"/>
+      <c r="L1287" s="25"/>
+      <c r="M1287" s="25"/>
+      <c r="N1287" s="25"/>
+      <c r="O1287" s="25"/>
+      <c r="P1287" s="25"/>
+      <c r="Q1287" s="25"/>
+    </row>
+    <row r="1288" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1288" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1288" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1288" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="D1288" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1288" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="G1288" s="25"/>
+      <c r="H1288" s="25"/>
+      <c r="I1288" s="25"/>
+      <c r="J1288" s="25"/>
+      <c r="K1288" s="25"/>
+      <c r="L1288" s="25"/>
+      <c r="M1288" s="25"/>
+      <c r="N1288" s="25"/>
+      <c r="O1288" s="25"/>
+      <c r="P1288" s="25"/>
+      <c r="Q1288" s="25"/>
+    </row>
+    <row r="1289" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1289" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1289" s="28" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1289" s="27" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D1289" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1289" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="G1289" s="27"/>
+      <c r="H1289" s="25"/>
+      <c r="I1289" s="27"/>
+      <c r="J1289" s="25"/>
+      <c r="K1289" s="25"/>
+      <c r="L1289" s="25"/>
+      <c r="M1289" s="25"/>
+      <c r="N1289" s="25"/>
+      <c r="O1289" s="25"/>
+      <c r="P1289" s="27"/>
+      <c r="Q1289" s="26"/>
+    </row>
+    <row r="1291" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1291" s="29" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1291" s="25"/>
+      <c r="C1291" s="25"/>
+      <c r="D1291" s="25"/>
+      <c r="E1291" s="25"/>
+    </row>
+    <row r="1292" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1292" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1292" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1292" s="25" t="s">
+        <v>901</v>
+      </c>
+      <c r="D1292" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1292" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="F1292" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1293" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1293" s="28" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C1293" s="27" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D1293" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1293" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1293" s="26" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G1293" s="26" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1295" s="29" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1295" s="25"/>
+      <c r="C1295" s="25"/>
+      <c r="D1295" s="25"/>
+      <c r="E1295" s="25"/>
+      <c r="F1295" s="25"/>
+      <c r="G1295" s="25"/>
+      <c r="H1295" s="25"/>
+      <c r="I1295" s="25"/>
+      <c r="J1295" s="25"/>
+      <c r="K1295" s="25"/>
+      <c r="L1295" s="25"/>
+      <c r="M1295" s="25"/>
+      <c r="N1295" s="25"/>
+      <c r="O1295" s="25"/>
+      <c r="P1295" s="25"/>
+    </row>
+    <row r="1296" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1296" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1296" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1296" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="D1296" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="E1296" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1296" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1296" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H1296" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="I1296" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1296" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="K1296" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1296" s="25" t="s">
+        <v>872</v>
+      </c>
+      <c r="M1296" s="25"/>
+    </row>
+    <row r="1297" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1297" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1297" s="28" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C1297" s="30" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1297" s="30" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1297" s="30" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F1297" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1297" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="H1297" s="27" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I1297" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1297" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="K1297" s="27" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L1297" s="25">
+        <v>201555678</v>
+      </c>
+      <c r="M1297" s="25"/>
+    </row>
+    <row r="1299" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1299" s="29" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1299" s="25"/>
+      <c r="C1299" s="25"/>
+      <c r="D1299" s="25"/>
+      <c r="E1299" s="25"/>
+      <c r="F1299" s="25"/>
+      <c r="G1299" s="25"/>
+      <c r="H1299" s="25"/>
+      <c r="I1299" s="25"/>
+      <c r="J1299" s="25"/>
+      <c r="K1299" s="25"/>
+      <c r="L1299" s="25"/>
+    </row>
+    <row r="1300" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1300" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1300" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1300" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="D1300" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="E1300" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1300" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1300" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H1300" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="I1300" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1300" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="K1300" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1300" s="25" t="s">
+        <v>872</v>
+      </c>
+      <c r="M1300" t="s">
+        <v>284</v>
+      </c>
+      <c r="N1300" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1301" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1301" s="28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C1301" s="30" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1301" s="30" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1301" s="30" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F1301" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1301" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="H1301" s="27" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I1301" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1301" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="K1301" s="27" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L1301" s="25">
+        <v>201555678</v>
+      </c>
+      <c r="M1301" s="27" t="s">
+        <v>1192</v>
+      </c>
+      <c r="N1301" s="27" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1303" s="29" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1303" s="25"/>
+      <c r="C1303" s="25"/>
+      <c r="D1303" s="25"/>
+      <c r="E1303" s="25"/>
+      <c r="F1303" s="25"/>
+      <c r="G1303" s="25"/>
+      <c r="H1303" s="25"/>
+      <c r="I1303" s="25"/>
+      <c r="J1303" s="25"/>
+      <c r="K1303" s="25"/>
+      <c r="L1303" s="25"/>
+      <c r="M1303" s="25"/>
+      <c r="N1303" s="25"/>
+      <c r="O1303" s="25"/>
+      <c r="P1303" s="25"/>
+    </row>
+    <row r="1304" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1304" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1304" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1304" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="D1304" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="E1304" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1304" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1304" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H1304" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="I1304" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="J1304" s="25" t="s">
+        <v>877</v>
+      </c>
+      <c r="K1304" s="25" t="s">
+        <v>872</v>
+      </c>
+      <c r="L1304" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="M1304" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="N1304" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1304" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="P1304" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q1304" t="s">
+        <v>1194</v>
+      </c>
+      <c r="R1304" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1305" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1305" s="28" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C1305" s="30" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1305" s="30" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1305" s="30" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F1305" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1305" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="H1305" s="27" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I1305" s="27"/>
+      <c r="J1305" s="25" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K1305" s="25">
+        <v>201555678</v>
+      </c>
+      <c r="L1305" s="25" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M1305" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N1305" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1305" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="P1305" s="27" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q1305" s="30" t="s">
+        <v>1213</v>
+      </c>
+      <c r="R1305" s="26" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1307" s="29" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1307" s="25"/>
+      <c r="C1307" s="25"/>
+      <c r="D1307" s="25"/>
+      <c r="E1307" s="25"/>
+      <c r="F1307" s="25"/>
+      <c r="G1307" s="25"/>
+      <c r="H1307" s="25"/>
+      <c r="I1307" s="25"/>
+      <c r="J1307" s="25"/>
+      <c r="K1307" s="25"/>
+      <c r="L1307" s="25"/>
+    </row>
+    <row r="1308" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1308" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1308" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1308" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="D1308" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="E1308" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1308" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1308" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H1308" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="I1308" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1308" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="K1308" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1308" s="25" t="s">
+        <v>872</v>
+      </c>
+      <c r="M1308" s="25" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N1308" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1309" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1309" s="28" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C1309" s="30" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1309" s="30" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1309" s="30" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F1309" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1309" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="H1309" s="27" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I1309" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1309" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="K1309" s="27" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L1309" s="25">
+        <v>201555678</v>
+      </c>
+      <c r="M1309" s="30" t="s">
+        <v>1211</v>
+      </c>
+      <c r="N1309" s="26" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1311" s="29" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1311" s="25"/>
+      <c r="C1311" s="25"/>
+      <c r="D1311" s="25"/>
+      <c r="E1311" s="25"/>
+      <c r="F1311" s="25"/>
+      <c r="G1311" s="25"/>
+      <c r="H1311" s="25"/>
+      <c r="I1311" s="25"/>
+      <c r="J1311" s="25"/>
+      <c r="K1311" s="25"/>
+      <c r="L1311" s="25"/>
+      <c r="M1311" s="25"/>
+      <c r="N1311" s="25"/>
+      <c r="O1311" s="25"/>
+      <c r="P1311" s="25"/>
+    </row>
+    <row r="1312" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1312" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1312" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1312" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="D1312" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="E1312" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1312" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1312" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H1312" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="I1312" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="J1312" s="25" t="s">
+        <v>877</v>
+      </c>
+      <c r="K1312" s="25" t="s">
+        <v>872</v>
+      </c>
+      <c r="L1312" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="M1312" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="N1312" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1312" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="P1312" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1313" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1313" s="28" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C1313" s="30" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1313" s="30" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1313" s="30" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F1313" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1313" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="H1313" s="27" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I1313" s="27"/>
+      <c r="J1313" s="25" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K1313" s="25">
+        <v>201555678</v>
+      </c>
+      <c r="L1313" s="25" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M1313" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N1313" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1313" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="P1313" s="27" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1315" s="29" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1315" s="25"/>
+      <c r="C1315" s="25"/>
+      <c r="D1315" s="25"/>
+      <c r="E1315" s="25"/>
+      <c r="F1315" s="25"/>
+      <c r="G1315" s="25"/>
+      <c r="H1315" s="25"/>
+      <c r="I1315" s="25"/>
+      <c r="J1315" s="25"/>
+      <c r="K1315" s="25"/>
+      <c r="L1315" s="25"/>
+      <c r="M1315" s="25"/>
+      <c r="N1315" s="25"/>
+      <c r="O1315" s="25"/>
+      <c r="P1315" s="25"/>
+    </row>
+    <row r="1316" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1316" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1316" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1316" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="D1316" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="E1316" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1316" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1316" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H1316" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1316" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="J1316" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1316" s="25" t="s">
+        <v>872</v>
+      </c>
+      <c r="L1316" s="25"/>
+      <c r="M1316" s="25"/>
+      <c r="N1316" s="25"/>
+      <c r="O1316" s="25"/>
+      <c r="P1316" s="25"/>
+    </row>
+    <row r="1317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1317" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1317" s="28" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C1317" s="30" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1317" s="30" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1317" s="30" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F1317" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1317" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="H1317" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1317" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J1317" s="27" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K1317" s="25">
+        <v>201555678</v>
+      </c>
+      <c r="L1317" s="25"/>
+      <c r="M1317" s="25"/>
+      <c r="N1317" s="25"/>
+      <c r="O1317" s="25"/>
+      <c r="P1317" s="27"/>
+    </row>
+    <row r="1319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1319" s="29" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1319" s="25"/>
+      <c r="C1319" s="25"/>
+      <c r="D1319" s="25"/>
+      <c r="E1319" s="25"/>
+      <c r="F1319" s="25"/>
+      <c r="G1319" s="25"/>
+      <c r="H1319" s="25"/>
+      <c r="I1319" s="25"/>
+      <c r="J1319" s="25"/>
+      <c r="K1319" s="25"/>
+    </row>
+    <row r="1320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1320" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1320" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1320" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="D1320" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="E1320" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1320" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1320" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H1320" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="I1320" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1320" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="K1320" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1320" s="25" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1321" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1321" s="28" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1321" s="30" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1321" s="30" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1321" s="30" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F1321" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1321" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="H1321" s="27" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I1321" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1321" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K1321" s="27" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L1321" s="25">
+        <v>201555678</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1323" s="29" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1323" s="25"/>
+      <c r="C1323" s="25"/>
+      <c r="D1323" s="25"/>
+      <c r="E1323" s="25"/>
+    </row>
+    <row r="1324" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1324" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1324" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1324" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="D1324" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1324" s="25" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1325" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1325" s="28" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C1325" s="30" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1325" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1325" s="25" t="s">
         <v>1011</v>
       </c>
     </row>
@@ -22941,9 +24723,46 @@
     <hyperlink ref="G189" r:id="rId79" xr:uid="{8137DD61-DFEC-4C19-87CA-D2C5AB5FBFDA}"/>
     <hyperlink ref="H189" r:id="rId80" xr:uid="{6F4FE2B2-C77E-4F7D-A73D-4E422ACDF027}"/>
     <hyperlink ref="C24" r:id="rId81" xr:uid="{18CE63C3-B1E5-4629-A742-E6E5A3999BBA}"/>
+    <hyperlink ref="D1261" r:id="rId82" xr:uid="{9D03106C-18F6-456E-8316-183374865397}"/>
+    <hyperlink ref="C1265" r:id="rId83" xr:uid="{7797AA0A-5648-494D-9FB2-1EEAC62F7100}"/>
+    <hyperlink ref="D1265" r:id="rId84" xr:uid="{466D58E2-3CA9-45C9-A1EA-C22830BB4113}"/>
+    <hyperlink ref="G1265" r:id="rId85" xr:uid="{E16A8A6C-D540-413C-9A80-D2CA7DC0FAA4}"/>
+    <hyperlink ref="C1269" r:id="rId86" xr:uid="{E320349E-9E5D-4FC9-9FCC-9A27EA2D91B8}"/>
+    <hyperlink ref="D1269" r:id="rId87" xr:uid="{789B2A2D-62C7-4420-B9E9-0B75A08C8488}"/>
+    <hyperlink ref="G1269" r:id="rId88" xr:uid="{34BF7680-3540-4B22-B72C-9C7236B004FD}"/>
+    <hyperlink ref="C1273" r:id="rId89" xr:uid="{46543A95-5BA3-46D4-B87F-ADAE30B7DF53}"/>
+    <hyperlink ref="D1273" r:id="rId90" xr:uid="{4CD0FED5-B390-4DC6-A55F-3085B7E5F190}"/>
+    <hyperlink ref="G1273" r:id="rId91" xr:uid="{9C1CD01F-ADEF-4FAB-938E-9B4BF4DF6469}"/>
+    <hyperlink ref="C1277" r:id="rId92" xr:uid="{CB0CA85E-CF18-486A-9F8F-FD5E73AC908D}"/>
+    <hyperlink ref="D1277" r:id="rId93" xr:uid="{9FB86CEB-772A-42D8-B8E0-5604EDCED863}"/>
+    <hyperlink ref="G1277" r:id="rId94" xr:uid="{0E835B6F-11C1-4282-B115-972F3D71D133}"/>
+    <hyperlink ref="C1281" r:id="rId95" xr:uid="{1FA4CEFB-2DCF-4C51-A616-55DA7113C0AF}"/>
+    <hyperlink ref="D1281" r:id="rId96" xr:uid="{973FB9B6-AF8C-4F43-B037-2A3BB18535D2}"/>
+    <hyperlink ref="G1281" r:id="rId97" xr:uid="{980024E8-CBB4-4DD4-955B-A30055CE2328}"/>
+    <hyperlink ref="F1293" r:id="rId98" xr:uid="{2562D868-62A4-4431-8CF3-8C9934B6C22E}"/>
+    <hyperlink ref="G1293" r:id="rId99" xr:uid="{BDC5EDA0-0586-44E8-B2FA-58A4D17DB94D}"/>
+    <hyperlink ref="E1301" r:id="rId100" xr:uid="{B1CC1B3F-8CB0-47B9-ABCE-9B0482F29C23}"/>
+    <hyperlink ref="F1305" r:id="rId101" xr:uid="{A571805C-3362-42E3-B97E-794BD481CB34}"/>
+    <hyperlink ref="R1305" r:id="rId102" xr:uid="{545A752F-EC4C-4496-A112-16C3467E08C5}"/>
+    <hyperlink ref="N1309" r:id="rId103" xr:uid="{E74E8AD1-AE54-47BE-8591-93B6C4FCC802}"/>
+    <hyperlink ref="F1313" r:id="rId104" xr:uid="{8F9955FE-39D5-4E6C-9348-D6CBEA041C6B}"/>
+    <hyperlink ref="F1317" r:id="rId105" xr:uid="{E19735ED-2589-4EA9-8C7A-ACF529DFB109}"/>
+    <hyperlink ref="C1325" r:id="rId106" xr:uid="{51A92C07-C9D4-41E2-A15F-16DFF4EE1665}"/>
+    <hyperlink ref="E1285" r:id="rId107" xr:uid="{6BB9886C-5FA4-48F7-818E-072D7DF73F96}"/>
+    <hyperlink ref="E1297" r:id="rId108" xr:uid="{C8A82D88-2D60-43C0-8BB1-8F7168E7AF35}"/>
+    <hyperlink ref="E1309" r:id="rId109" xr:uid="{61C2BC04-C3A7-436A-93BD-ED7CFA7C3AB6}"/>
+    <hyperlink ref="M1309" r:id="rId110" xr:uid="{F713DB6B-E7FE-4BC4-92B4-AA57079CD8A1}"/>
+    <hyperlink ref="E1305" r:id="rId111" xr:uid="{09A7A7BC-F8F0-459C-AA0A-D0BEE2BD5988}"/>
+    <hyperlink ref="Q1305" r:id="rId112" xr:uid="{1C631628-739B-419B-945D-E21A2302AFAF}"/>
+    <hyperlink ref="E1321" r:id="rId113" xr:uid="{E284B77F-C30E-437E-8953-119109072E2B}"/>
+    <hyperlink ref="E1313" r:id="rId114" xr:uid="{CE365FD5-F851-44E1-A5B5-6A6B6B358E2A}"/>
+    <hyperlink ref="E1317" r:id="rId115" xr:uid="{32DCB3FF-25F9-43E6-9C1A-B34A9D8DB1E9}"/>
+    <hyperlink ref="D801" r:id="rId116" xr:uid="{0922E324-9EB4-4807-89C4-D5CB75EE3A8B}"/>
+    <hyperlink ref="E805" r:id="rId117" xr:uid="{282FBE6E-E5EF-43F7-9E62-B1A0C92A0B24}"/>
+    <hyperlink ref="E801" r:id="rId118" xr:uid="{2F15F0E1-CC0B-4491-8E09-C0B0D6CCC306}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId82"/>
+  <pageSetup orientation="portrait" r:id="rId119"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BizligoAutomationTest\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bizligo_29thsep\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FADE32D-5CB1-4278-9D83-F966852C2053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76E3F83-5254-4C6A-B3CF-F17994A49CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="578" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="578" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14160" uniqueCount="2413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14160" uniqueCount="2417">
   <si>
     <t>TestCases</t>
   </si>
@@ -7630,13 +7630,25 @@
   <si>
     <t>@viswa</t>
   </si>
+  <si>
+    <t>Marshal Art</t>
+  </si>
+  <si>
+    <t>yogesh.bhor141@gmail.com</t>
+  </si>
+  <si>
+    <t>20-25</t>
+  </si>
+  <si>
+    <t>Business Analysttt1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -7940,7 +7952,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7959,17 +7971,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8258,8 +8260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E613"/>
   <sheetViews>
-    <sheetView topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="C617" sqref="C617"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14557,8 +14559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AW2676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2664" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1323" sqref="B1323"/>
+    <sheetView tabSelected="1" topLeftCell="C835" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G841" sqref="G841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -22460,19 +22462,19 @@
         <v>4</v>
       </c>
       <c r="D840" s="22" t="s">
-        <v>1901</v>
-      </c>
-      <c r="E840" s="22" t="s">
-        <v>1000</v>
+        <v>2413</v>
+      </c>
+      <c r="E840" s="23" t="s">
+        <v>2414</v>
       </c>
       <c r="F840" s="22" t="s">
         <v>10</v>
       </c>
       <c r="G840" s="22" t="s">
-        <v>392</v>
+        <v>2416</v>
       </c>
       <c r="H840" s="22" t="s">
-        <v>393</v>
+        <v>2415</v>
       </c>
       <c r="I840" s="22" t="s">
         <v>394</v>
@@ -63502,9 +63504,10 @@
     <hyperlink ref="D1465" r:id="rId592" xr:uid="{EFC252A8-41F3-4311-BAD8-CA829010953C}"/>
     <hyperlink ref="C1465" r:id="rId593" xr:uid="{6388703F-A692-4B70-8534-6A564E57E97A}"/>
     <hyperlink ref="E2676" r:id="rId594" xr:uid="{94A4F64C-BB71-4ACE-9D3A-9A88FEFD3D46}"/>
+    <hyperlink ref="E840" r:id="rId595" xr:uid="{3D6636E0-3DA2-4C9D-B1E9-D7C687928275}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId595"/>
+  <pageSetup orientation="portrait" r:id="rId596"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bizligo_29thsep\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FB4683-645A-405A-BF03-96AB0321BB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E00FAB2-0A37-4127-9EFA-AFF1179CD229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="578" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="578" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14173" uniqueCount="2422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16481" uniqueCount="2727">
   <si>
     <t>TestCases</t>
   </si>
@@ -7657,6 +7657,921 @@
   <si>
     <t>Edited post content</t>
   </si>
+  <si>
+    <t>TC1502_Verify_User_Able_To_Edit_Community_Post</t>
+  </si>
+  <si>
+    <t>TC1502</t>
+  </si>
+  <si>
+    <t>TC1502_Verify_User_Able_To_Delete_Community_Post</t>
+  </si>
+  <si>
+    <t>TC1261</t>
+  </si>
+  <si>
+    <t>Tc1261_verify_member_ableTo_send_messages_toConnectedMember</t>
+  </si>
+  <si>
+    <t>TC1262</t>
+  </si>
+  <si>
+    <t>TC1262_verify_unreadMessage_count_displaying_onDashboard</t>
+  </si>
+  <si>
+    <t>TC1263</t>
+  </si>
+  <si>
+    <t>TC1263_verify_unreadMessage_highlighted_toPrompt_userattention</t>
+  </si>
+  <si>
+    <t>TC1264</t>
+  </si>
+  <si>
+    <t>TC1264_verify_member_Not_ableto_send_Msg_toNonConnectedMember</t>
+  </si>
+  <si>
+    <t>TC1225</t>
+  </si>
+  <si>
+    <t>TC1225_verify_applicant_redirected_tothe_LoginPage_onClicking_AdvertiseYourBusiness_ifNot_loggedIn</t>
+  </si>
+  <si>
+    <t>TC1226</t>
+  </si>
+  <si>
+    <t>TC1226_verify_applicant_redirected_tothe_selectPlanPage_onclicking_AdvertiseUrBusiness_where_user_loggedIn</t>
+  </si>
+  <si>
+    <t>TC1227</t>
+  </si>
+  <si>
+    <t>TC1227_verify_AdvertiseUrBusiness_link_shouldnot_Work_for_TenantAdmin</t>
+  </si>
+  <si>
+    <t>TC1228</t>
+  </si>
+  <si>
+    <t>TC1228_verify_communityName_tobe_Display_in_AlphabeticOrder</t>
+  </si>
+  <si>
+    <t>TC1229</t>
+  </si>
+  <si>
+    <t>TC1229_verify_PopUpmsg_Displayed_whenTA_createAd_without_paymentGateway</t>
+  </si>
+  <si>
+    <t>TC1230</t>
+  </si>
+  <si>
+    <t>TC1230_verify_AdPlan_notTobe_Display_inHomePage_when_TA_rejectsPlan</t>
+  </si>
+  <si>
+    <t>TC1231</t>
+  </si>
+  <si>
+    <t>TC1231_verify_RevenueReport_updated_when_CA_purchase_AdPlan</t>
+  </si>
+  <si>
+    <t>TC1232</t>
+  </si>
+  <si>
+    <t>TC1232_verify_Errormsg_displayed_onEdit_when_globalmember_saved_Adplan_where_TA_inactiveplan</t>
+  </si>
+  <si>
+    <t>TC1233</t>
+  </si>
+  <si>
+    <t>TC1233_verify_GlobalAd_notDisplay_inHomePage_afterMember_purchase_requiresApproval</t>
+  </si>
+  <si>
+    <t>TC1234</t>
+  </si>
+  <si>
+    <t>TC1234_verify_inActiveCommunity_not_Displaying_inDropDown</t>
+  </si>
+  <si>
+    <t>TC1235</t>
+  </si>
+  <si>
+    <t>TC1235_verify_properErrormsg_display_onClicking_Cancel_after_filling_Details</t>
+  </si>
+  <si>
+    <t>TC1236</t>
+  </si>
+  <si>
+    <t>TC1236_verify_popUp_alertmsgBox_not_Displaying_when_ClickedCancel_withoutfillingDetails</t>
+  </si>
+  <si>
+    <t>TC1237</t>
+  </si>
+  <si>
+    <t>TC1237_verify_lastly_Updated_detail_notToBe_Displayed_inNew_AdForm</t>
+  </si>
+  <si>
+    <t>TC1238</t>
+  </si>
+  <si>
+    <t>TC1238_verify_communityAdPlans_Displaying_when_Clicking_AdvertisementLink</t>
+  </si>
+  <si>
+    <t>TC1239</t>
+  </si>
+  <si>
+    <t>TC1239_verify_image_notToBe_Display_inHomePage_when_InactivatePlan</t>
+  </si>
+  <si>
+    <t>TC1252</t>
+  </si>
+  <si>
+    <t>TC1252_verify_FieldValidation_of_CustomField</t>
+  </si>
+  <si>
+    <t>TC1253</t>
+  </si>
+  <si>
+    <t>TC1253_verify_TA_admin_ableto_create_customizedFiels_inEventCreation</t>
+  </si>
+  <si>
+    <t>TC1254</t>
+  </si>
+  <si>
+    <t>TC1254_verify_TACA_ceatedField_displaying_inEventRegistration</t>
+  </si>
+  <si>
+    <t>TC1266</t>
+  </si>
+  <si>
+    <t>TC1266_verify_TA_ableto_Enable_Disable_CreateCommunityFeature</t>
+  </si>
+  <si>
+    <t>TC1267</t>
+  </si>
+  <si>
+    <t>TC1267_verify_createCommunity_optionNotAccessible_toMember_IfTA_disable_createCommunity</t>
+  </si>
+  <si>
+    <t>TC1268</t>
+  </si>
+  <si>
+    <t>TC1268_verify_createCommunity_optionAccessible_toMember_IfTA_enable_createCommunity</t>
+  </si>
+  <si>
+    <t>TC1269</t>
+  </si>
+  <si>
+    <t>TC1269_verify_CA_unableto_access_ImportContact_when_TA_disable_IC</t>
+  </si>
+  <si>
+    <t>TC1270</t>
+  </si>
+  <si>
+    <t>TC1270_verify_SuperAdmin_canAbleto_EnableDisable_ImportContact</t>
+  </si>
+  <si>
+    <t>TC1271</t>
+  </si>
+  <si>
+    <t>TC1271_verify_ImportContact_accessible_toCA_if_TA_enable_importContact</t>
+  </si>
+  <si>
+    <t>TC1272</t>
+  </si>
+  <si>
+    <t>TC1272_verify_ImportContact_notAccessible_ThruURL_ifTA_disable_IC</t>
+  </si>
+  <si>
+    <t>TC1273</t>
+  </si>
+  <si>
+    <t>TC1273_verify_CreateCommunity_NotAccessible_through_URL_ifTA_disableIT</t>
+  </si>
+  <si>
+    <t>TC1274</t>
+  </si>
+  <si>
+    <t>TC1274_verify_FeatureConfiguration_andImportContact_NotAccessible_byTA_CA_ifSuperAdmin_disable</t>
+  </si>
+  <si>
+    <t>TC1255</t>
+  </si>
+  <si>
+    <t>TC1255_verify_TACA_createdField_displaying_attendeeRegForm_inEvent_checkin</t>
+  </si>
+  <si>
+    <t>TC1256</t>
+  </si>
+  <si>
+    <t>TC1256_verify_TACA_ableto_edit_customFields</t>
+  </si>
+  <si>
+    <t>TC1257</t>
+  </si>
+  <si>
+    <t>TC1257_verify_AllCustomField_exported_intoExcel_inAttendeesTab_forEvent</t>
+  </si>
+  <si>
+    <t>TC1258</t>
+  </si>
+  <si>
+    <t>TC1258_verify_CustomField_NonEditble_After_oneTicket_Sold</t>
+  </si>
+  <si>
+    <t>TC1244</t>
+  </si>
+  <si>
+    <t>TC1244_verify_DynamicMenu_displaying_inBizligosite_after_Bizligo_creatd</t>
+  </si>
+  <si>
+    <t>TC1245</t>
+  </si>
+  <si>
+    <t>TC1245_verify_inactive_Menu_notDisplaying_inBizligo</t>
+  </si>
+  <si>
+    <t>TC1246</t>
+  </si>
+  <si>
+    <t>TC1246_verify_updatedMenu_displaying_inBizligo_afterBizligoUpdated</t>
+  </si>
+  <si>
+    <t>TC1247</t>
+  </si>
+  <si>
+    <t>TC1247_verify_Discard_popUpmsg_displaying_after_cancel_byEditing_details</t>
+  </si>
+  <si>
+    <t>TC1248</t>
+  </si>
+  <si>
+    <t>TC1248_verify_navigate_toURLlink_ifClick_onMenu</t>
+  </si>
+  <si>
+    <t>TC1249</t>
+  </si>
+  <si>
+    <t>TC1249_verify_navigating_togiven_Page_after_clicking_Menu</t>
+  </si>
+  <si>
+    <t>TC1250</t>
+  </si>
+  <si>
+    <t>TC1250_verify_addedMenu_displaying_under_ParentMenu</t>
+  </si>
+  <si>
+    <t>TC1251</t>
+  </si>
+  <si>
+    <t>TC1251_verify_added_Menu_displaying_inAll_Pages</t>
+  </si>
+  <si>
+    <t>TC1275</t>
+  </si>
+  <si>
+    <t>TC1275_Verify_TA_ableto_create_MembershipPlan_for_User_signUp</t>
+  </si>
+  <si>
+    <t>TC1277</t>
+  </si>
+  <si>
+    <t>TC1277_verify_TA_ableto_Inactivate_MembershipPlan</t>
+  </si>
+  <si>
+    <t>TC1276</t>
+  </si>
+  <si>
+    <t>TC1276_verify_TA_ableto_update_membershipPlan</t>
+  </si>
+  <si>
+    <t>TC1278</t>
+  </si>
+  <si>
+    <t>TC1278_verify_user_not_allowed_toAccess_PricingPlan_throught_URL</t>
+  </si>
+  <si>
+    <t>TC1279</t>
+  </si>
+  <si>
+    <t>TC1279_verify_user_cannot_ableto_create_sameCommunityName_whenStatus_Pending</t>
+  </si>
+  <si>
+    <t>TC1280</t>
+  </si>
+  <si>
+    <t>TC1280_verify_user_ableto_use_RejectedCommunityName_for_creatingCommuity</t>
+  </si>
+  <si>
+    <t>TC1281</t>
+  </si>
+  <si>
+    <t>TC1281_verify_TA_ableto_create_pricingPlan</t>
+  </si>
+  <si>
+    <t>TC1282</t>
+  </si>
+  <si>
+    <t>TC1282_verify_TA_ableto_create_Free_PricingPlan</t>
+  </si>
+  <si>
+    <t>TC1283</t>
+  </si>
+  <si>
+    <t>TC1283_verify_TA_ableto_Search_PricingPlan</t>
+  </si>
+  <si>
+    <t>TC1284</t>
+  </si>
+  <si>
+    <t>TC1284_verify_TA_alertWith_msg_when_creating_PricingPlan_withSame_Name</t>
+  </si>
+  <si>
+    <t>TC1285</t>
+  </si>
+  <si>
+    <t>TC1285_Verify_Accepting_More_NoOfAdmin_less_NoOfMembers</t>
+  </si>
+  <si>
+    <t>TC1286</t>
+  </si>
+  <si>
+    <t>TC1286_verify_PricingPlan_display_asPer_configuration</t>
+  </si>
+  <si>
+    <t>TC1287</t>
+  </si>
+  <si>
+    <t>TC1287_verify_TA_ableto_Update_PricingPlan_IfNO_user_purchase</t>
+  </si>
+  <si>
+    <t>TC1288</t>
+  </si>
+  <si>
+    <t>TC1288_verify_TA_cannot_ableto_update_plan_if_user_purchasePlan</t>
+  </si>
+  <si>
+    <t>TC1289</t>
+  </si>
+  <si>
+    <t>TC1289_verify_TA_ableto_inactivate_paymentGateway_when_AllpricingPlan_inactive</t>
+  </si>
+  <si>
+    <t>TC2150</t>
+  </si>
+  <si>
+    <t>TC2150_Verify_Inactive_communities_notdisplayed_community_dropdownmenu_Add_Update_form</t>
+  </si>
+  <si>
+    <t>TC2151</t>
+  </si>
+  <si>
+    <t>TC2151_Verify_community_name_displayed_in_disable_mode_when_TA_edits_community</t>
+  </si>
+  <si>
+    <t>TC2152</t>
+  </si>
+  <si>
+    <t>TC2152_Verify_Promocode_details_not_saved_if_cancelled_after_filling_details</t>
+  </si>
+  <si>
+    <t>TC2153</t>
+  </si>
+  <si>
+    <t>TC2153_Verify_TA_created_promo_code_dislayed_respective_community_promoCodesPage</t>
+  </si>
+  <si>
+    <t>TC2154</t>
+  </si>
+  <si>
+    <t>TC2154_Verify_Promocode_details_added_TA_dashboard_when_createdBy_CA</t>
+  </si>
+  <si>
+    <t>TC2155</t>
+  </si>
+  <si>
+    <t>TC2155_Verify_CA_able_to_edit_PromoCode_details_when_Created_by_TA</t>
+  </si>
+  <si>
+    <t>TC2180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC2180_Verify_member_able_send_connection_requests_from_Community_and_group </t>
+  </si>
+  <si>
+    <t>TC2181</t>
+  </si>
+  <si>
+    <t>TC2181_Verify_Connection_status_display_same_in_Communities_and_groupDetails</t>
+  </si>
+  <si>
+    <t>TC2182</t>
+  </si>
+  <si>
+    <t>TC2182_Verify_Connection_status_changes_to_Connect_member_cancel_request</t>
+  </si>
+  <si>
+    <t>TC2183</t>
+  </si>
+  <si>
+    <t>TC2183_Verify_status_changes_to_Connected_icon_on_member_card_member_accept_request</t>
+  </si>
+  <si>
+    <t>TC2184</t>
+  </si>
+  <si>
+    <t>TC2184_Verify_what_happens_when_member_reject_connection_request</t>
+  </si>
+  <si>
+    <t>TC2185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC2185_Verify_connect_button_not_displayed_Admins_section_for_Groups_and_community_page </t>
+  </si>
+  <si>
+    <t>TC2186</t>
+  </si>
+  <si>
+    <t>TC2186_verify_details_except_contact_email_visible_memberCard_when_profile_private</t>
+  </si>
+  <si>
+    <t>TC2187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC2187_Verify_Member_details_show_consistency_BusinessDirectory_CommunityDetailsPage_GroupPage </t>
+  </si>
+  <si>
+    <t>TC2188</t>
+  </si>
+  <si>
+    <t>TC2188_Verify_member_able_send_connection_adding_notes_Global_members</t>
+  </si>
+  <si>
+    <t>TC2189</t>
+  </si>
+  <si>
+    <t>TC2189_Verify_connection_note_displaying_New_Connection_Requests_of_connection_page</t>
+  </si>
+  <si>
+    <t>TC2190</t>
+  </si>
+  <si>
+    <t>TC2190_Verify_receiver_not_able_edit_connection_notes</t>
+  </si>
+  <si>
+    <t>TC2191</t>
+  </si>
+  <si>
+    <t>TC2191_Verify_seeMore_option_displaying_when_more_than_50_characters</t>
+  </si>
+  <si>
+    <t>TC2192</t>
+  </si>
+  <si>
+    <t>TC2192_Verify_Add_note_PopUp_displaying_user_clicks_send_connection_request</t>
+  </si>
+  <si>
+    <t>TC2156</t>
+  </si>
+  <si>
+    <t>TC2156_Verify_member_able_Apply_promo_code_after_Community_active</t>
+  </si>
+  <si>
+    <t>TC2157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC2157_Verify_Promocode_not_applied_when_used_by_otherCA_or_members </t>
+  </si>
+  <si>
+    <t>TC2158</t>
+  </si>
+  <si>
+    <t>TC2158_Verify_Member_able_redeem_active_promoCode_while_registering_an_event</t>
+  </si>
+  <si>
+    <t>TC2159</t>
+  </si>
+  <si>
+    <t>TC2159_Verify_member_cannot_redeem_used_promoCode_exhausted_usage</t>
+  </si>
+  <si>
+    <t>TC2160</t>
+  </si>
+  <si>
+    <t>TC2160_Verify_Member_cannot_redeem_discount_entering_inactivated_promoCode</t>
+  </si>
+  <si>
+    <t>TC2161</t>
+  </si>
+  <si>
+    <t>TC2161_Verify_PromoCode_canNot_duplicate_while_creating_new_code</t>
+  </si>
+  <si>
+    <t>TC2162</t>
+  </si>
+  <si>
+    <t>TC2162_Verify_Member_getting_correct_discount_if_discount_configured_percentage</t>
+  </si>
+  <si>
+    <t>TC2120</t>
+  </si>
+  <si>
+    <t>TC2120_Verify_Member_Register_event_and_event_dispalyed_in_MyEventsPage</t>
+  </si>
+  <si>
+    <t>TC2121</t>
+  </si>
+  <si>
+    <t>TC2121_Verify_Search_by_date_working_in_MyEvents</t>
+  </si>
+  <si>
+    <t>TC2122</t>
+  </si>
+  <si>
+    <t>TC2122_Verify_Events_displaying_in_MyEvents_when_guest_user_registered</t>
+  </si>
+  <si>
+    <t>TC2123</t>
+  </si>
+  <si>
+    <t>TC2123_Verify_Events_registered_from_other_members_displaying_in_MyEventsPage_for_Registered_member</t>
+  </si>
+  <si>
+    <t>TC2124</t>
+  </si>
+  <si>
+    <t>TC2124_Verify_Member_Register_paid_event_and_event_dispalyed_in_MyEventsPage</t>
+  </si>
+  <si>
+    <t>TC2130</t>
+  </si>
+  <si>
+    <t>TC2130_Verify_list_of_features_mentioned_present_loyalty_details_page</t>
+  </si>
+  <si>
+    <t>TC2131</t>
+  </si>
+  <si>
+    <t>TC2131_Verify_tooltip_message_added_towards_each_feature_messages_are_externalized</t>
+  </si>
+  <si>
+    <t>TC2132</t>
+  </si>
+  <si>
+    <t>TC2132_Verify_loyalty_point_text_box_disabled_mode_until_checkbox_against_feature_checked</t>
+  </si>
+  <si>
+    <t>TC2133</t>
+  </si>
+  <si>
+    <t>TC2133_Verify_TA_able_add_loyalty_point_when_checkbox_checked</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>Hi there</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>TestPlan@1</t>
+  </si>
+  <si>
+    <t>WAITING_FOR_APPROVAL</t>
+  </si>
+  <si>
+    <t>TestPlan@2</t>
+  </si>
+  <si>
+    <t>TestPlan_33</t>
+  </si>
+  <si>
+    <t>TestPlan_4</t>
+  </si>
+  <si>
+    <t>TestPlan@5</t>
+  </si>
+  <si>
+    <t>TestPlan@6</t>
+  </si>
+  <si>
+    <t>EventTitle</t>
+  </si>
+  <si>
+    <t>EventCategory</t>
+  </si>
+  <si>
+    <t>ticketquantity</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>OptionName</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>order1</t>
+  </si>
+  <si>
+    <t>type1</t>
+  </si>
+  <si>
+    <t>type2</t>
+  </si>
+  <si>
+    <t>type4</t>
+  </si>
+  <si>
+    <t>Event_2</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>10255 West Zemke Boulevard, Chicago, IL, USA</t>
+  </si>
+  <si>
+    <t>This is description</t>
+  </si>
+  <si>
+    <t>ticket_1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Textarea</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Radio Buttons</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Event_3</t>
+  </si>
+  <si>
+    <t>Eventname</t>
+  </si>
+  <si>
+    <t>lengthm</t>
+  </si>
+  <si>
+    <t>lengthM</t>
+  </si>
+  <si>
+    <t>lengthM1</t>
+  </si>
+  <si>
+    <t>lengthM2</t>
+  </si>
+  <si>
+    <t>Event_11</t>
+  </si>
+  <si>
+    <t>Create Community</t>
+  </si>
+  <si>
+    <t>Import Contacts to Community Admin</t>
+  </si>
+  <si>
+    <t>Import Contacts</t>
+  </si>
+  <si>
+    <t>feature1</t>
+  </si>
+  <si>
+    <t>eventname</t>
+  </si>
+  <si>
+    <t>NameF</t>
+  </si>
+  <si>
+    <t>NameL</t>
+  </si>
+  <si>
+    <t>Vishwanand@gmsil.com</t>
+  </si>
+  <si>
+    <t>Ronak</t>
+  </si>
+  <si>
+    <t>Tambe</t>
+  </si>
+  <si>
+    <t>Event_4</t>
+  </si>
+  <si>
+    <t>Vishwanand1@gmsil.com</t>
+  </si>
+  <si>
+    <t>Ronak1</t>
+  </si>
+  <si>
+    <t>Tambe1</t>
+  </si>
+  <si>
+    <t>aexibition</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Menu1</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Blogs</t>
+  </si>
+  <si>
+    <t>subMenu</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>GoldenT</t>
+  </si>
+  <si>
+    <t>Tgolden</t>
+  </si>
+  <si>
+    <t>20 Jan community</t>
+  </si>
+  <si>
+    <t>communityname</t>
+  </si>
+  <si>
+    <t>20 Jan</t>
+  </si>
+  <si>
+    <t>No Needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is text </t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>adminNo</t>
+  </si>
+  <si>
+    <t>groupNo</t>
+  </si>
+  <si>
+    <t>memberNo</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>1Day(s)</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>PROMO_to_be_cancelled</t>
+  </si>
+  <si>
+    <t>PromoCodeByTA</t>
+  </si>
+  <si>
+    <t>PromoCodeByCA</t>
+  </si>
+  <si>
+    <t>Please accept my connection request</t>
+  </si>
+  <si>
+    <t>Please accept my connection request sir. We are already mutual friends in face book. Lets Connect and grow together within the company</t>
+  </si>
+  <si>
+    <t>100PROMO</t>
+  </si>
+  <si>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t>INACTIVEPC</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>BIZLIGO</t>
+  </si>
+  <si>
+    <t>UpcomingEvent</t>
+  </si>
+  <si>
+    <t>UpcomingPaidEvent</t>
+  </si>
+  <si>
+    <t>Testing Event Aug</t>
+  </si>
+  <si>
+    <t>Testing Event Paid</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Shourish</t>
+  </si>
+  <si>
+    <t>Shakakers</t>
+  </si>
+  <si>
+    <t>D:\Bizligo_29thsep\src\test\resources\testImages\Event_Image.png</t>
+  </si>
+  <si>
+    <t>TC2163</t>
+  </si>
+  <si>
+    <t>TC2163_Verify_what_happens_applying_expired_PromoCode_events_Advertisement</t>
+  </si>
+  <si>
+    <t>EXPIREDCODE</t>
+  </si>
+  <si>
+    <t>TC2164</t>
+  </si>
+  <si>
+    <t>TC2164_Verify_PromoCode_not_applicable_for_any_Event_if_configured_for_specificEvent</t>
+  </si>
+  <si>
+    <t>EVENTPROMO</t>
+  </si>
+  <si>
+    <t>Paid Durga Pooja</t>
+  </si>
+  <si>
+    <t>TC2165</t>
+  </si>
+  <si>
+    <t>TC2165_Verify_Member_getting_correct_discount_when_configured_in_Price</t>
+  </si>
+  <si>
+    <t>TC2166</t>
+  </si>
+  <si>
+    <t>TC2166_Verify_applied_promo_Code_info_cleared_when_refresh_after_applying_PC</t>
+  </si>
+  <si>
+    <t>TC2167</t>
+  </si>
+  <si>
+    <t>TC2167_Verify_promoCode_details_editable_user_aborted_payment_process_after_applying_PC</t>
+  </si>
+  <si>
+    <t>TC1504_Verify_User_Able_To_Unsubscribe_The_Community_Post</t>
+  </si>
+  <si>
+    <t>TC1504</t>
+  </si>
+  <si>
+    <t>TC1505</t>
+  </si>
+  <si>
+    <t>TC1505_Verify_User_Able_To_Subscribe_The_Community_Post</t>
+  </si>
 </sst>
 </file>
 
@@ -7665,7 +8580,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7823,8 +8738,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF73879C"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7847,6 +8767,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF9F9F9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -7878,7 +8804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -7980,6 +8906,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8273,17 +9211,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E614"/>
+  <dimension ref="A1:E715"/>
   <sheetViews>
-    <sheetView topLeftCell="A609" workbookViewId="0">
-      <selection activeCell="C616" sqref="C616"/>
+    <sheetView tabSelected="1" topLeftCell="A702" workbookViewId="0">
+      <selection activeCell="E716" sqref="E716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="110.7109375" style="22" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
@@ -9449,7 +10387,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="30">
+    <row r="128" spans="1:3">
       <c r="A128" s="22" t="s">
         <v>181</v>
       </c>
@@ -9742,7 +10680,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="30">
+    <row r="162" spans="1:3">
       <c r="A162" s="22" t="s">
         <v>590</v>
       </c>
@@ -9761,7 +10699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="30">
+    <row r="164" spans="1:3">
       <c r="A164" s="22" t="s">
         <v>638</v>
       </c>
@@ -11601,7 +12539,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="30">
+    <row r="352" spans="1:3">
       <c r="A352" s="22" t="s">
         <v>1381</v>
       </c>
@@ -12063,7 +13001,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="30">
+    <row r="394" spans="1:3">
       <c r="A394" s="22" t="s">
         <v>1462</v>
       </c>
@@ -14572,6 +15510,1117 @@
       </c>
       <c r="C614" s="24" t="s">
         <v>2419</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" s="32" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B615" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C615" s="24" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" s="22" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B616" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C616" s="22" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" s="22" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B617" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C617" s="22" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" s="22" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B618" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C618" s="22" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" s="22" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B619" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C619" s="22" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" s="22" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B620" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C620" s="22" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" s="22" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B621" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C621" s="22" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="22" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B622" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C622" s="22" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" s="22" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B623" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C623" s="22" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" s="22" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B624" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C624" s="22" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" s="22" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B625" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C625" s="22" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="22" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B626" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C626" s="22" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" s="22" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B627" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C627" s="22" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" s="22" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B628" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C628" s="22" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" s="22" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B629" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C629" s="22" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" s="22" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B630" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C630" s="22" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" s="22" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B631" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C631" s="22" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" s="22" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B632" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C632" s="22" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" s="22" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B633" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C633" s="22" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" s="22" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B634" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C634" s="22" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="22" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B635" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C635" s="22" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" s="22" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B636" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C636" s="22" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" s="22" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B637" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C637" s="22" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B638" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C638" s="24" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" s="22" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B639" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C639" s="22" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" s="22" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B640" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C640" s="22" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" s="22" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B641" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C641" s="22" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" s="22" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B642" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C642" s="22" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" s="22" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B643" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C643" s="22" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" s="22" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B644" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C644" s="22" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" s="22" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B645" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C645" s="22" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="22" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B646" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C646" s="22" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" s="22" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B647" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C647" s="22" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="22" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B648" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C648" s="22" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" s="22" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B649" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C649" s="24" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" s="22" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B650" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C650" s="22" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="22" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B651" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C651" s="22" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" s="22" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B652" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C652" s="22" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" s="22" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B653" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C653" s="22" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" s="22" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B654" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C654" s="22" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" s="22" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B655" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C655" s="22" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" s="22" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B656" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C656" s="24" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" s="22" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B657" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C657" s="22" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" s="22" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B658" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C658" s="22" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" s="22" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B659" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C659" s="24" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" s="22" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B660" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C660" s="22" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" s="22" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B661" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C661" s="22" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" s="22" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B662" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C662" s="22" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" s="22" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B663" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C663" s="22" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" s="22" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B664" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C664" s="22" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" s="22" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B665" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C665" s="22" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" s="22" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B666" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C666" s="22" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" s="22" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B667" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C667" s="24" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" s="22" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B668" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C668" s="22" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" s="22" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B669" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C669" s="22" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670" s="22" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B670" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C670" s="22" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671" s="22" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B671" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C671" s="22" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672" s="22" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B672" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C672" s="22" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673" s="22" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B673" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C673" s="22" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674" s="22" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B674" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C674" s="22" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675" s="22" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B675" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C675" s="22" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="A676" s="22" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B676" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C676" s="22" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677" s="22" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B677" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C677" s="22" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678" s="22" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B678" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C678" s="22" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679" s="22" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B679" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C679" s="22" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680" s="22" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B680" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C680" s="22" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681" s="22" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B681" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C681" s="22" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3">
+      <c r="A682" s="22" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B682" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C682" s="22" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3">
+      <c r="A683" s="22" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B683" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C683" s="22" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3">
+      <c r="A684" s="22" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B684" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C684" s="22" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3">
+      <c r="A685" s="22" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B685" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C685" s="22" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3">
+      <c r="A686" s="22" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B686" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C686" s="22" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3">
+      <c r="A687" s="22" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B687" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C687" s="22" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3">
+      <c r="A688" s="22" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B688" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C688" s="22" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3">
+      <c r="A689" s="22" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B689" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C689" s="22" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3">
+      <c r="A690" s="22" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B690" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C690" s="22" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3">
+      <c r="A691" s="22" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B691" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C691" s="22" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3">
+      <c r="A692" s="22" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B692" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C692" s="22" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3">
+      <c r="A693" s="22" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B693" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C693" s="22" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3">
+      <c r="A694" s="22" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B694" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C694" s="22" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3">
+      <c r="A695" s="22" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B695" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C695" s="22" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3">
+      <c r="A696" s="22" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B696" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C696" s="22" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3">
+      <c r="A697" s="22" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B697" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C697" s="22" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3">
+      <c r="A698" s="22" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B698" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C698" s="22" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3">
+      <c r="A699" s="22" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B699" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C699" s="22" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3">
+      <c r="A700" s="22" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B700" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C700" s="22" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3">
+      <c r="A701" s="22" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B701" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C701" s="22" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3">
+      <c r="A702" s="22" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B702" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C702" s="22" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3">
+      <c r="A703" s="22" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B703" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C703" s="22" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3">
+      <c r="A704" s="22" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B704" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C704" s="22" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3">
+      <c r="A705" s="22" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B705" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C705" s="22" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3">
+      <c r="A706" s="22" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B706" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C706" s="22" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3">
+      <c r="A707" s="22" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B707" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C707" s="22" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3">
+      <c r="A708" s="22" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B708" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C708" s="22" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3">
+      <c r="A709" s="22" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B709" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C709" s="22" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3">
+      <c r="A710" s="22" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B710" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C710" s="22" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3">
+      <c r="A711" s="22" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B711" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C711" s="22" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3">
+      <c r="A712" s="22" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B712" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C712" s="22" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3">
+      <c r="A713" s="22" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B713" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C713" s="22" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3">
+      <c r="A714" s="22" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B714" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C714" s="22" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3">
+      <c r="A715" s="22" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B715" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C715" s="24" t="s">
+        <v>2726</v>
       </c>
     </row>
   </sheetData>
@@ -14583,10 +16632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AW2680"/>
+  <dimension ref="A1:AW3080"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2667" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2682" sqref="B2682"/>
+    <sheetView topLeftCell="A3063" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3080" sqref="B3080"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -62275,8 +64324,8 @@
       <c r="T2660" s="22" t="s">
         <v>2182</v>
       </c>
-      <c r="U2660" s="44" t="s">
-        <v>2186</v>
+      <c r="U2660" s="28" t="s">
+        <v>2709</v>
       </c>
       <c r="V2660" s="22" t="s">
         <v>292</v>
@@ -62962,6 +65011,6844 @@
       </c>
       <c r="K2680" s="3" t="s">
         <v>2421</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:11">
+      <c r="A2682" s="22" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:11">
+      <c r="A2683" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2683" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2683" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2683" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2683" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2683" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2683" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2683" s="22" t="s">
+        <v>2407</v>
+      </c>
+      <c r="I2683" s="22" t="s">
+        <v>2408</v>
+      </c>
+      <c r="J2683" s="22" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:11">
+      <c r="A2684" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2684" s="24" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C2684" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2684" s="23" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E2684" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2684" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2684" s="32" t="s">
+        <v>2335</v>
+      </c>
+      <c r="H2684" s="22" t="s">
+        <v>2415</v>
+      </c>
+      <c r="I2684" s="3" t="s">
+        <v>2416</v>
+      </c>
+      <c r="J2684" s="3" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:11">
+      <c r="A2686" s="22" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:11">
+      <c r="A2687" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2687" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2687" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2687" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2687" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2687" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2687" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2687" s="22" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:11">
+      <c r="A2688" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2688" s="24" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C2688" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2688" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2688" s="26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F2688" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2688" s="22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H2688" s="22" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:10">
+      <c r="A2690" s="22" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:10">
+      <c r="A2691" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2691" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2691" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2691" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2691" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2691" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2691" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2691" s="22" t="s">
+        <v>2611</v>
+      </c>
+      <c r="I2691" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2691" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:10">
+      <c r="A2692" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2692" s="24" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C2692" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2692" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2692" s="26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F2692" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2692" s="22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H2692" s="22" t="s">
+        <v>2612</v>
+      </c>
+      <c r="I2692" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J2692" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:10">
+      <c r="A2694" s="22" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:10">
+      <c r="A2695" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2695" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2695" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2695" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2695" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2695" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2695" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2695" s="22" t="s">
+        <v>2611</v>
+      </c>
+      <c r="I2695" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2695" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:10">
+      <c r="A2696" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2696" s="24" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C2696" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2696" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2696" s="26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F2696" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2696" s="22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H2696" s="22" t="s">
+        <v>2612</v>
+      </c>
+      <c r="I2696" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J2696" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:10">
+      <c r="A2698" s="22" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:10">
+      <c r="A2699" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2699" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2699" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2699" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2699" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2699" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2699" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:10">
+      <c r="A2700" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2700" s="24" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C2700" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2700" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2700" s="26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F2700" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2700" s="22" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:10">
+      <c r="A2702" s="22" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:10">
+      <c r="A2703" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2703" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2703" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2703" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:10" ht="30">
+      <c r="A2704" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2704" s="24" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C2704" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2704" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:7">
+      <c r="A2706" s="22" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:7">
+      <c r="A2707" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2707" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2707" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2707" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2707" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2707" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:7" ht="30">
+      <c r="A2708" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2708" s="24" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C2708" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2708" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E2708" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F2708" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:7">
+      <c r="A2710" s="22" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:7">
+      <c r="A2711" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2711" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2711" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2711" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2711" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2711" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:7" ht="30">
+      <c r="A2712" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2712" s="24" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C2712" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2712" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2712" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2712" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:7">
+      <c r="A2714" s="22" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:7">
+      <c r="A2715" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2715" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2715" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2715" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2715" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2715" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:7">
+      <c r="A2716" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2716" s="24" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C2716" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2716" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2716" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2716" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:7">
+      <c r="A2718" s="22" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:7">
+      <c r="A2719" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2719" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2719" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2719" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2719" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2719" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2719" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:7" ht="30">
+      <c r="A2720" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2720" s="24" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C2720" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2720" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2720" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2720" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2720" s="22" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:22">
+      <c r="A2722" s="22" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:22">
+      <c r="A2723" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2723" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2723" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2723" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2723" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2723" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2723" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2723" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2723" s="22" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J2723" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="K2723" s="22" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L2723" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2723" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="N2723" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="O2723" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="P2723" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q2723" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2723" s="22" t="s">
+        <v>2401</v>
+      </c>
+      <c r="S2723" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="T2723" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="U2723" s="22" t="s">
+        <v>2096</v>
+      </c>
+      <c r="V2723" s="22" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:22" s="28" customFormat="1" ht="30">
+      <c r="A2724" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2724" s="54" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C2724" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2724" s="55" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2724" s="55" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2724" s="28" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2724" s="28" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H2724" s="28" t="s">
+        <v>2614</v>
+      </c>
+      <c r="I2724" s="28">
+        <v>12</v>
+      </c>
+      <c r="J2724" s="28" t="s">
+        <v>2193</v>
+      </c>
+      <c r="K2724" s="28">
+        <v>1</v>
+      </c>
+      <c r="L2724" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="M2724" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="N2724" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="O2724" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="P2724" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2724" s="28" t="s">
+        <v>1208</v>
+      </c>
+      <c r="R2724" s="28" t="s">
+        <v>2084</v>
+      </c>
+      <c r="S2724" s="28" t="s">
+        <v>2614</v>
+      </c>
+      <c r="T2724" s="28" t="s">
+        <v>2182</v>
+      </c>
+      <c r="U2724" s="28" t="s">
+        <v>2709</v>
+      </c>
+      <c r="V2724" s="28" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:22">
+      <c r="A2726" s="22" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:22">
+      <c r="A2727" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2727" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2727" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2727" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2727" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2727" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2727" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2727" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2727" s="22" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J2727" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="K2727" s="22" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L2727" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2727" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="N2727" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="O2727" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="P2727" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q2727" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2727" s="22" t="s">
+        <v>2401</v>
+      </c>
+      <c r="S2727" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="T2727" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="U2727" s="22" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:22">
+      <c r="A2728" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2728" s="24" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C2728" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2728" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2728" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2728" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2728" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H2728" s="22" t="s">
+        <v>2616</v>
+      </c>
+      <c r="I2728" s="22">
+        <v>12</v>
+      </c>
+      <c r="J2728" s="22" t="s">
+        <v>2193</v>
+      </c>
+      <c r="K2728" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2728" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="M2728" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="N2728" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="O2728" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="P2728" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="Q2728" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="R2728" s="22" t="s">
+        <v>2084</v>
+      </c>
+      <c r="S2728" s="22" t="s">
+        <v>2616</v>
+      </c>
+      <c r="T2728" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="U2728" s="22" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:22">
+      <c r="A2730" s="22" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:22">
+      <c r="A2731" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2731" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2731" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2731" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2731" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2731" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2731" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2731" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2731" s="22" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J2731" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="K2731" s="22" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L2731" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2731" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="N2731" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="O2731" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="P2731" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q2731" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2731" s="22" t="s">
+        <v>2401</v>
+      </c>
+      <c r="S2731" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="T2731" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="U2731" s="22" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:22" ht="30">
+      <c r="A2732" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2732" s="24" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C2732" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2732" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2732" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2732" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2732" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H2732" s="22" t="s">
+        <v>2617</v>
+      </c>
+      <c r="I2732" s="22">
+        <v>12</v>
+      </c>
+      <c r="J2732" s="22" t="s">
+        <v>2193</v>
+      </c>
+      <c r="K2732" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2732" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="M2732" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="N2732" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="O2732" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="P2732" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2732" s="22" t="s">
+        <v>1208</v>
+      </c>
+      <c r="R2732" s="22" t="s">
+        <v>2084</v>
+      </c>
+      <c r="S2732" s="22" t="s">
+        <v>2617</v>
+      </c>
+      <c r="T2732" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="U2732" s="22" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:22">
+      <c r="A2734" s="22" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:22">
+      <c r="A2735" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2735" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2735" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2735" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2735" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2735" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2735" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2735" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2735" s="22" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J2735" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="K2735" s="22" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L2735" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2735" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="N2735" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="O2735" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="P2735" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q2735" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2735" s="22" t="s">
+        <v>2401</v>
+      </c>
+      <c r="S2735" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="T2735" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="U2735" s="22" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:22" ht="30">
+      <c r="A2736" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2736" s="24" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C2736" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2736" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2736" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2736" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2736" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H2736" s="22" t="s">
+        <v>2618</v>
+      </c>
+      <c r="I2736" s="22">
+        <v>12</v>
+      </c>
+      <c r="J2736" s="22" t="s">
+        <v>2193</v>
+      </c>
+      <c r="K2736" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2736" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="M2736" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="N2736" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="O2736" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="P2736" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2736" s="22" t="s">
+        <v>1208</v>
+      </c>
+      <c r="R2736" s="22" t="s">
+        <v>2084</v>
+      </c>
+      <c r="S2736" s="22" t="s">
+        <v>2618</v>
+      </c>
+      <c r="T2736" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="U2736" s="22" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:21">
+      <c r="A2738" s="22" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:21">
+      <c r="A2739" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2739" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2739" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2739" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2739" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2739" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:21">
+      <c r="A2740" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2740" s="24" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C2740" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2740" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2740" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2740" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:21">
+      <c r="A2742" s="22" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:21">
+      <c r="A2743" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2743" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2743" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2743" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2743" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2743" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2743" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2743" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2743" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="J2743" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="K2743" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="L2743" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2743" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="N2743" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="O2743" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:21" ht="30">
+      <c r="A2744" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2744" s="24" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C2744" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2744" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2744" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2744" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2744" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H2744" s="22" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I2744" s="22">
+        <v>12</v>
+      </c>
+      <c r="J2744" s="22" t="s">
+        <v>2193</v>
+      </c>
+      <c r="K2744" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2744" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="M2744" s="22" t="s">
+        <v>2393</v>
+      </c>
+      <c r="N2744" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="O2744" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:21">
+      <c r="A2746" s="22" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:21">
+      <c r="A2747" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2747" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2747" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2747" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2747" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2747" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:21" ht="30">
+      <c r="A2748" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2748" s="24" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C2748" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2748" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2748" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2748" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:21">
+      <c r="A2750" s="22" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:21">
+      <c r="A2751" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2751" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2751" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2751" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2751" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2751" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2751" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2751" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2751" s="22" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J2751" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="K2751" s="22" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L2751" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2751" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="N2751" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="O2751" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="P2751" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q2751" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2751" s="22" t="s">
+        <v>2401</v>
+      </c>
+      <c r="S2751" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="T2751" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="U2751" s="22" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:21">
+      <c r="A2752" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2752" s="24" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C2752" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2752" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2752" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2752" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2752" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H2752" s="22" t="s">
+        <v>2620</v>
+      </c>
+      <c r="I2752" s="22">
+        <v>12</v>
+      </c>
+      <c r="J2752" s="22" t="s">
+        <v>2193</v>
+      </c>
+      <c r="K2752" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2752" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="M2752" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="N2752" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="O2752" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="P2752" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2752" s="22" t="s">
+        <v>1208</v>
+      </c>
+      <c r="R2752" s="22" t="s">
+        <v>2084</v>
+      </c>
+      <c r="S2752" s="22" t="s">
+        <v>2620</v>
+      </c>
+      <c r="T2752" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="U2752" s="22" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:22">
+      <c r="A2754" s="22" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:22">
+      <c r="A2755" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2755" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2755" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2755" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2755" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2755" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2755" s="22" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:22" ht="30">
+      <c r="A2756" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2756" s="24" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C2756" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2756" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2756" s="26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F2756" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2756" s="22" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:22">
+      <c r="A2758" s="22" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:22">
+      <c r="A2759" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2759" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2759" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2759" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2759" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2759" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2759" s="22" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:22">
+      <c r="A2760" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2760" s="24" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C2760" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2760" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2760" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2760" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2760" s="22" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:22">
+      <c r="A2762" s="22" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:22">
+      <c r="A2763" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2763" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2763" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2763" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2763" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2763" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2763" s="22" t="s">
+        <v>2621</v>
+      </c>
+      <c r="H2763" s="22" t="s">
+        <v>2622</v>
+      </c>
+      <c r="I2763" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J2763" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2763" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="L2763" s="22" t="s">
+        <v>2623</v>
+      </c>
+      <c r="M2763" s="22" t="s">
+        <v>2624</v>
+      </c>
+      <c r="N2763" s="22" t="s">
+        <v>2625</v>
+      </c>
+      <c r="O2763" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2763" s="22" t="s">
+        <v>2626</v>
+      </c>
+      <c r="Q2763" s="22" t="s">
+        <v>2627</v>
+      </c>
+      <c r="R2763" s="22" t="s">
+        <v>2628</v>
+      </c>
+      <c r="S2763" s="22" t="s">
+        <v>2629</v>
+      </c>
+      <c r="T2763" s="22" t="s">
+        <v>2630</v>
+      </c>
+      <c r="U2763" s="22" t="s">
+        <v>2125</v>
+      </c>
+      <c r="V2763" s="22" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:22">
+      <c r="A2764" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2764" s="24" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C2764" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2764" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E2764" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F2764" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2764" s="22" t="s">
+        <v>2632</v>
+      </c>
+      <c r="H2764" s="22" t="s">
+        <v>2633</v>
+      </c>
+      <c r="I2764" s="22" t="s">
+        <v>2634</v>
+      </c>
+      <c r="J2764" s="22" t="s">
+        <v>2635</v>
+      </c>
+      <c r="K2764" s="22" t="s">
+        <v>2636</v>
+      </c>
+      <c r="L2764" s="22">
+        <v>2</v>
+      </c>
+      <c r="M2764" s="22" t="s">
+        <v>2637</v>
+      </c>
+      <c r="N2764" s="22">
+        <v>1</v>
+      </c>
+      <c r="O2764" s="22" t="s">
+        <v>2638</v>
+      </c>
+      <c r="P2764" s="22" t="s">
+        <v>2639</v>
+      </c>
+      <c r="Q2764" s="22">
+        <v>1</v>
+      </c>
+      <c r="R2764" s="22">
+        <v>1</v>
+      </c>
+      <c r="S2764" s="22" t="s">
+        <v>2640</v>
+      </c>
+      <c r="T2764" s="22" t="s">
+        <v>2641</v>
+      </c>
+      <c r="U2764" s="22" t="s">
+        <v>2642</v>
+      </c>
+      <c r="V2764" s="22" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:22">
+      <c r="A2766" s="22" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:22">
+      <c r="A2767" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2767" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2767" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2767" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2767" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2767" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2767" s="22" t="s">
+        <v>2621</v>
+      </c>
+      <c r="H2767" s="22" t="s">
+        <v>2622</v>
+      </c>
+      <c r="I2767" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J2767" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2767" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="L2767" s="22" t="s">
+        <v>2623</v>
+      </c>
+      <c r="M2767" s="22" t="s">
+        <v>2624</v>
+      </c>
+      <c r="N2767" s="22" t="s">
+        <v>2625</v>
+      </c>
+      <c r="O2767" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2767" s="22" t="s">
+        <v>2626</v>
+      </c>
+      <c r="Q2767" s="22" t="s">
+        <v>2627</v>
+      </c>
+      <c r="R2767" s="22" t="s">
+        <v>2628</v>
+      </c>
+      <c r="S2767" s="22" t="s">
+        <v>2629</v>
+      </c>
+      <c r="T2767" s="22" t="s">
+        <v>2630</v>
+      </c>
+      <c r="U2767" s="22" t="s">
+        <v>2125</v>
+      </c>
+      <c r="V2767" s="22" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:22">
+      <c r="A2768" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2768" s="24" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C2768" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2768" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E2768" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F2768" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2768" s="22" t="s">
+        <v>2643</v>
+      </c>
+      <c r="H2768" s="22" t="s">
+        <v>2633</v>
+      </c>
+      <c r="I2768" s="22" t="s">
+        <v>2634</v>
+      </c>
+      <c r="J2768" s="22" t="s">
+        <v>2635</v>
+      </c>
+      <c r="K2768" s="22" t="s">
+        <v>2636</v>
+      </c>
+      <c r="L2768" s="22">
+        <v>2</v>
+      </c>
+      <c r="M2768" s="22" t="s">
+        <v>2637</v>
+      </c>
+      <c r="N2768" s="22">
+        <v>1</v>
+      </c>
+      <c r="O2768" s="22" t="s">
+        <v>2638</v>
+      </c>
+      <c r="P2768" s="22" t="s">
+        <v>2639</v>
+      </c>
+      <c r="Q2768" s="22">
+        <v>1</v>
+      </c>
+      <c r="R2768" s="22">
+        <v>1</v>
+      </c>
+      <c r="S2768" s="22" t="s">
+        <v>2640</v>
+      </c>
+      <c r="T2768" s="22" t="s">
+        <v>2641</v>
+      </c>
+      <c r="U2768" s="22" t="s">
+        <v>2642</v>
+      </c>
+      <c r="V2768" s="22" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:14">
+      <c r="A2770" s="22" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:14">
+      <c r="A2771" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2771" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2771" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2771" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2771" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2771" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2771" s="22" t="s">
+        <v>2644</v>
+      </c>
+      <c r="H2771" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="I2771" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2771" s="22" t="s">
+        <v>2645</v>
+      </c>
+      <c r="K2771" s="22" t="s">
+        <v>2646</v>
+      </c>
+      <c r="L2771" s="22" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M2771" s="22" t="s">
+        <v>2647</v>
+      </c>
+      <c r="N2771" s="22" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:14">
+      <c r="A2772" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2772" s="24" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C2772" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2772" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E2772" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F2772" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2772" s="22" t="s">
+        <v>2632</v>
+      </c>
+      <c r="H2772" s="22" t="s">
+        <v>2649</v>
+      </c>
+      <c r="I2772" s="22" t="s">
+        <v>2634</v>
+      </c>
+      <c r="K2772" s="22">
+        <v>5000</v>
+      </c>
+      <c r="L2772" s="22" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M2772" s="22">
+        <v>3995</v>
+      </c>
+      <c r="N2772" s="22">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:14">
+      <c r="A2774" s="22" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:14">
+      <c r="A2775" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2775" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2775" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2775" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2775" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2775" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2775" s="22" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:14">
+      <c r="A2776" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2776" s="24" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C2776" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2776" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2776" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2776" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2776" s="22" t="s">
+        <v>2650</v>
+      </c>
+      <c r="H2776" s="26"/>
+      <c r="I2776" s="26"/>
+    </row>
+    <row r="2778" spans="1:14">
+      <c r="A2778" s="22" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:14">
+      <c r="A2779" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2779" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2779" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2779" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2779" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2779" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2779" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="H2779" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2779" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:14" ht="30">
+      <c r="A2780" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2780" s="24" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C2780" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2780" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2780" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2780" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2780" s="22" t="s">
+        <v>2650</v>
+      </c>
+      <c r="H2780" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="I2780" s="26" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:14">
+      <c r="A2782" s="22" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:14">
+      <c r="A2783" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2783" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2783" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2783" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2783" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2783" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2783" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="H2783" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2783" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:14" ht="30">
+      <c r="A2784" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2784" s="24" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C2784" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2784" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2784" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2784" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2784" s="22" t="s">
+        <v>2650</v>
+      </c>
+      <c r="H2784" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="I2784" s="26" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:10">
+      <c r="A2786" s="22" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:10">
+      <c r="A2787" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2787" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2787" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2787" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2787" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2787" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2787" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="H2787" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2787" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:10">
+      <c r="A2788" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2788" s="24" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C2788" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2788" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2788" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2788" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2788" s="22" t="s">
+        <v>2651</v>
+      </c>
+      <c r="H2788" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I2788" s="26" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:10">
+      <c r="A2790" s="22" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:10">
+      <c r="A2791" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2791" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2791" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2791" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2791" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2791" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2791" s="22" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:10">
+      <c r="A2792" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2792" s="24" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C2792" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2792" s="26" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E2792" s="26" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F2792" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2792" s="39" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:10">
+      <c r="A2794" s="22" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:10">
+      <c r="A2795" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2795" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2795" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2795" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2795" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2795" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2795" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="H2795" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2795" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:10" ht="30">
+      <c r="A2796" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2796" s="24" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C2796" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2796" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2796" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2796" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2796" s="22" t="s">
+        <v>2651</v>
+      </c>
+      <c r="H2796" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I2796" s="26" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:10">
+      <c r="A2798" s="22" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:10">
+      <c r="A2799" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2799" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2799" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2799" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2799" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2799" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2799" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="H2799" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2799" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="J2799" s="22" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:10">
+      <c r="A2800" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2800" s="24" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C2800" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2800" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2800" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2800" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2800" s="22" t="s">
+        <v>2651</v>
+      </c>
+      <c r="H2800" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I2800" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J2800" s="22" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:12">
+      <c r="A2802" s="22" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:12">
+      <c r="A2803" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2803" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2803" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2803" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2803" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2803" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2803" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="H2803" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2803" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="J2803" s="22" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:12" ht="30">
+      <c r="A2804" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2804" s="24" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C2804" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2804" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2804" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2804" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2804" s="22" t="s">
+        <v>2650</v>
+      </c>
+      <c r="H2804" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="I2804" s="26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J2804" s="22" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:12">
+      <c r="A2806" s="22" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:12">
+      <c r="A2807" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2807" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2807" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2807" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2807" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2807" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2807" s="22" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2807" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="I2807" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="J2807" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2807" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="L2807" s="22" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:12" ht="30">
+      <c r="A2808" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2808" s="24" t="s">
+        <v>2486</v>
+      </c>
+      <c r="C2808" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2808" s="26" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E2808" s="26" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F2808" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2808" s="39" t="s">
+        <v>2652</v>
+      </c>
+      <c r="H2808" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I2808" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J2808" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="K2808" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="L2808" s="22" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:12">
+      <c r="A2810" s="22" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:12">
+      <c r="A2811" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2811" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2811" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2811" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2811" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2811" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2811" s="22" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H2811" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2811" s="22" t="s">
+        <v>2655</v>
+      </c>
+      <c r="J2811" s="22" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:12" ht="30">
+      <c r="A2812" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2812" s="24" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C2812" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2812" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E2812" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F2812" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2812" s="22" t="s">
+        <v>2649</v>
+      </c>
+      <c r="H2812" s="23" t="s">
+        <v>2657</v>
+      </c>
+      <c r="I2812" s="22" t="s">
+        <v>2658</v>
+      </c>
+      <c r="J2812" s="22" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:12">
+      <c r="A2814" s="22" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:12">
+      <c r="A2815" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2815" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2815" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2815" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2815" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2815" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2815" s="22" t="s">
+        <v>2621</v>
+      </c>
+      <c r="H2815" s="22" t="s">
+        <v>2622</v>
+      </c>
+      <c r="I2815" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J2815" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2815" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="L2815" s="22" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:12">
+      <c r="A2816" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2816" s="24" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C2816" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2816" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E2816" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F2816" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2816" s="22" t="s">
+        <v>2643</v>
+      </c>
+      <c r="H2816" s="22" t="s">
+        <v>2633</v>
+      </c>
+      <c r="I2816" s="22" t="s">
+        <v>2634</v>
+      </c>
+      <c r="J2816" s="22" t="s">
+        <v>2635</v>
+      </c>
+      <c r="K2816" s="22" t="s">
+        <v>2636</v>
+      </c>
+      <c r="L2816" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:19">
+      <c r="A2818" s="22" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:19">
+      <c r="A2819" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2819" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2819" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2819" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2819" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2819" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2819" s="22" t="s">
+        <v>2621</v>
+      </c>
+      <c r="H2819" s="22" t="s">
+        <v>2622</v>
+      </c>
+      <c r="I2819" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J2819" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2819" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="L2819" s="22" t="s">
+        <v>2623</v>
+      </c>
+      <c r="M2819" s="22" t="s">
+        <v>2624</v>
+      </c>
+      <c r="N2819" s="22" t="s">
+        <v>2625</v>
+      </c>
+      <c r="O2819" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2819" s="22" t="s">
+        <v>2654</v>
+      </c>
+      <c r="Q2819" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="R2819" s="22" t="s">
+        <v>2655</v>
+      </c>
+      <c r="S2819" s="22" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:19" ht="30">
+      <c r="A2820" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2820" s="24" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C2820" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2820" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E2820" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F2820" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2820" s="22" t="s">
+        <v>2660</v>
+      </c>
+      <c r="H2820" s="22" t="s">
+        <v>2633</v>
+      </c>
+      <c r="I2820" s="22" t="s">
+        <v>2634</v>
+      </c>
+      <c r="J2820" s="22" t="s">
+        <v>2635</v>
+      </c>
+      <c r="K2820" s="22" t="s">
+        <v>2636</v>
+      </c>
+      <c r="L2820" s="22">
+        <v>2</v>
+      </c>
+      <c r="M2820" s="22" t="s">
+        <v>2637</v>
+      </c>
+      <c r="N2820" s="22">
+        <v>1</v>
+      </c>
+      <c r="O2820" s="22" t="s">
+        <v>2638</v>
+      </c>
+      <c r="P2820" s="22" t="s">
+        <v>2660</v>
+      </c>
+      <c r="Q2820" s="23" t="s">
+        <v>2661</v>
+      </c>
+      <c r="R2820" s="22" t="s">
+        <v>2662</v>
+      </c>
+      <c r="S2820" s="22" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:19">
+      <c r="A2822" s="22" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:19">
+      <c r="A2823" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2823" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2823" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2823" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2823" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2823" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2823" s="22" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:19">
+      <c r="A2824" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2824" s="24" t="s">
+        <v>2494</v>
+      </c>
+      <c r="C2824" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2824" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E2824" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F2824" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2824" s="22" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:19">
+      <c r="A2826" s="22" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:19">
+      <c r="A2827" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2827" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2827" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2827" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2827" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2827" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2827" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2827" s="22" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I2827" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:19">
+      <c r="A2828" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2828" s="24" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C2828" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2828" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2828" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2828" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2828" s="22" t="s">
+        <v>2666</v>
+      </c>
+      <c r="H2828" s="22">
+        <v>2</v>
+      </c>
+      <c r="I2828" s="22" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:19">
+      <c r="A2830" s="22" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:19">
+      <c r="A2831" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2831" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2831" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2831" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2831" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2831" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2831" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2831" s="22" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I2831" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:19">
+      <c r="A2832" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2832" s="24" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C2832" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2832" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2832" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2832" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2832" s="22" t="s">
+        <v>2666</v>
+      </c>
+      <c r="H2832" s="22">
+        <v>2</v>
+      </c>
+      <c r="I2832" s="22" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:10">
+      <c r="A2834" s="22" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:10">
+      <c r="A2835" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2835" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2835" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2835" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2835" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2835" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2835" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2835" s="22" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I2835" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:10">
+      <c r="A2836" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2836" s="24" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C2836" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2836" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2836" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2836" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2836" s="22" t="s">
+        <v>2667</v>
+      </c>
+      <c r="H2836" s="22">
+        <v>2</v>
+      </c>
+      <c r="I2836" s="22" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:10">
+      <c r="A2838" s="22" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:10">
+      <c r="A2839" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2839" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2839" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2839" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2839" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2839" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2839" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2839" s="22" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I2839" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:10" ht="30">
+      <c r="A2840" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2840" s="24" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C2840" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2840" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2840" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2840" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2840" s="22" t="s">
+        <v>2667</v>
+      </c>
+      <c r="H2840" s="22">
+        <v>2</v>
+      </c>
+      <c r="I2840" s="22" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:10">
+      <c r="A2842" s="22" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:10">
+      <c r="A2843" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2843" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2843" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2843" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2843" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2843" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2843" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2843" s="22" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I2843" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:10">
+      <c r="A2844" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2844" s="24" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C2844" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2844" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2844" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2844" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2844" s="22" t="s">
+        <v>2668</v>
+      </c>
+      <c r="H2844" s="22">
+        <v>2</v>
+      </c>
+      <c r="I2844" s="22" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:10">
+      <c r="A2846" s="22" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:10">
+      <c r="A2847" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2847" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2847" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2847" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2847" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2847" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2847" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2847" s="22" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I2847" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2847" s="22" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:10">
+      <c r="A2848" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2848" s="24" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C2848" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2848" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2848" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2848" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2848" s="22" t="s">
+        <v>2666</v>
+      </c>
+      <c r="H2848" s="22">
+        <v>2</v>
+      </c>
+      <c r="I2848" s="22" t="s">
+        <v>2063</v>
+      </c>
+      <c r="J2848" s="22" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:11">
+      <c r="A2850" s="22" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:11">
+      <c r="A2851" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2851" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2851" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2851" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2851" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2851" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2851" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2851" s="22" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I2851" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2851" s="22" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:11">
+      <c r="A2852" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2852" s="24" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C2852" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2852" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2852" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2852" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2852" s="22" t="s">
+        <v>2671</v>
+      </c>
+      <c r="H2852" s="22">
+        <v>2</v>
+      </c>
+      <c r="I2852" s="22" t="s">
+        <v>2063</v>
+      </c>
+      <c r="J2852" s="22" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:11">
+      <c r="A2854" s="22" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:11">
+      <c r="A2855" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2855" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2855" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2855" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2855" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2855" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2855" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2855" s="22" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I2855" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:11">
+      <c r="A2856" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2856" s="24" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C2856" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2856" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2856" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2856" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2856" s="22" t="s">
+        <v>2668</v>
+      </c>
+      <c r="H2856" s="22">
+        <v>2</v>
+      </c>
+      <c r="I2856" s="22" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:11">
+      <c r="A2858" s="22" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:11">
+      <c r="A2859" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2859" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2859" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2859" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2859" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2859" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2859" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2859" s="22" t="s">
+        <v>2672</v>
+      </c>
+      <c r="I2859" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2859" s="22" t="s">
+        <v>2673</v>
+      </c>
+      <c r="K2859" s="22" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:11">
+      <c r="A2860" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2860" s="24" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C2860" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2860" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2860" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2860" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2860" s="22" t="s">
+        <v>2674</v>
+      </c>
+      <c r="H2860" s="22">
+        <v>12</v>
+      </c>
+      <c r="I2860" s="22" t="s">
+        <v>2635</v>
+      </c>
+      <c r="J2860" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2860" s="22" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:11">
+      <c r="A2862" s="22" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:11">
+      <c r="A2863" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2863" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2863" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2863" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2863" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2863" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2863" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2863" s="22" t="s">
+        <v>2672</v>
+      </c>
+      <c r="I2863" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2863" s="22" t="s">
+        <v>2673</v>
+      </c>
+      <c r="K2863" s="22" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:11">
+      <c r="A2864" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2864" s="24" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C2864" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2864" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2864" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2864" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2864" s="22" t="s">
+        <v>2675</v>
+      </c>
+      <c r="H2864" s="22">
+        <v>12</v>
+      </c>
+      <c r="I2864" s="22" t="s">
+        <v>2635</v>
+      </c>
+      <c r="J2864" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2864" s="22" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:15">
+      <c r="A2866" s="22" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:15">
+      <c r="A2867" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2867" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2867" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2867" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2867" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2867" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2867" s="22" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:15">
+      <c r="A2868" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2868" s="24" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C2868" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2868" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2868" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2868" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2868" s="22" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:15">
+      <c r="A2870" s="22" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:15">
+      <c r="A2871" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2871" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2871" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2871" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2871" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2871" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:15">
+      <c r="A2872" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2872" s="24" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C2872" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2872" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2872" s="26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F2872" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:15">
+      <c r="A2874" s="22" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:15">
+      <c r="A2875" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2875" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2875" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2875" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2875" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2875" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2875" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:15" ht="30">
+      <c r="A2876" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2876" s="24" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C2876" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2876" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E2876" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F2876" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2876" s="50" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:15">
+      <c r="A2878" s="22" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:15">
+      <c r="A2879" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2879" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2879" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2879" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2879" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2879" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2879" s="22" t="s">
+        <v>2677</v>
+      </c>
+      <c r="H2879" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2879" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2879" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2879" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2879" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2879" s="22" t="s">
+        <v>2069</v>
+      </c>
+      <c r="N2879" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="O2879" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:15" ht="30">
+      <c r="A2880" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2880" s="24" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C2880" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2880" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2880" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2880" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2880" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="H2880" s="22" t="s">
+        <v>2679</v>
+      </c>
+      <c r="I2880" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="J2880" s="22" t="s">
+        <v>2680</v>
+      </c>
+      <c r="K2880" s="50" t="s">
+        <v>2129</v>
+      </c>
+      <c r="L2880" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2880" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="N2880" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="O2880" s="26" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:13">
+      <c r="A2882" s="22" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:13">
+      <c r="A2883" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2883" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2883" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2883" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2883" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2883" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2883" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2883" s="22" t="s">
+        <v>2672</v>
+      </c>
+      <c r="I2883" s="22" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J2883" s="22" t="s">
+        <v>2682</v>
+      </c>
+      <c r="K2883" s="22" t="s">
+        <v>2683</v>
+      </c>
+      <c r="L2883" s="22" t="s">
+        <v>2684</v>
+      </c>
+      <c r="M2883" s="22" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:13">
+      <c r="A2884" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2884" s="24" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C2884" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2884" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2884" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2884" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2884" s="22" t="s">
+        <v>2685</v>
+      </c>
+      <c r="H2884" s="22">
+        <v>100</v>
+      </c>
+      <c r="I2884" s="22">
+        <v>2</v>
+      </c>
+      <c r="J2884" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2884" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2884" s="22">
+        <v>5</v>
+      </c>
+      <c r="M2884" s="22" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:13">
+      <c r="A2886" s="22" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:13">
+      <c r="A2887" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2887" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2887" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2887" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2887" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2887" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2887" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2887" s="22" t="s">
+        <v>2672</v>
+      </c>
+      <c r="I2887" s="22" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J2887" s="22" t="s">
+        <v>2682</v>
+      </c>
+      <c r="K2887" s="22" t="s">
+        <v>2683</v>
+      </c>
+      <c r="L2887" s="22" t="s">
+        <v>2684</v>
+      </c>
+      <c r="M2887" s="22" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:13">
+      <c r="A2888" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2888" s="24" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C2888" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2888" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2888" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2888" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2888" s="22" t="s">
+        <v>2686</v>
+      </c>
+      <c r="H2888" s="22">
+        <v>0</v>
+      </c>
+      <c r="I2888" s="22">
+        <v>2</v>
+      </c>
+      <c r="J2888" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2888" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2888" s="22">
+        <v>5</v>
+      </c>
+      <c r="M2888" s="22" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:13">
+      <c r="A2890" s="22" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:13">
+      <c r="A2891" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2891" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2891" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2891" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2891" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2891" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2891" s="22" t="s">
+        <v>880</v>
+      </c>
+      <c r="H2891" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2891" s="22" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:13">
+      <c r="A2892" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2892" s="24" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C2892" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2892" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2892" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2892" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2892" s="51" t="s">
+        <v>2685</v>
+      </c>
+      <c r="H2892" s="22" t="s">
+        <v>2687</v>
+      </c>
+      <c r="I2892" s="39" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:13">
+      <c r="A2894" s="22" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:13">
+      <c r="A2895" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2895" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2895" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2895" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2895" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2895" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2895" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2895" s="22" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:13" ht="30">
+      <c r="A2896" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2896" s="24" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C2896" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2896" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2896" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2896" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2896" s="22" t="s">
+        <v>2688</v>
+      </c>
+      <c r="H2896" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:13">
+      <c r="A2898" s="22" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:13">
+      <c r="A2899" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2899" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2899" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2899" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2899" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2899" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2899" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2899" s="22" t="s">
+        <v>2672</v>
+      </c>
+      <c r="I2899" s="22" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J2899" s="22" t="s">
+        <v>2682</v>
+      </c>
+      <c r="K2899" s="22" t="s">
+        <v>2683</v>
+      </c>
+      <c r="L2899" s="22" t="s">
+        <v>2684</v>
+      </c>
+      <c r="M2899" s="22" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:13">
+      <c r="A2900" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2900" s="24" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C2900" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2900" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2900" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2900" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2900" s="22" t="s">
+        <v>2239</v>
+      </c>
+      <c r="H2900" s="22">
+        <v>100</v>
+      </c>
+      <c r="I2900" s="22">
+        <v>2</v>
+      </c>
+      <c r="J2900" s="22">
+        <v>3</v>
+      </c>
+      <c r="K2900" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2900" s="22">
+        <v>1</v>
+      </c>
+      <c r="M2900" s="22" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:13">
+      <c r="A2902" s="22" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:13">
+      <c r="A2903" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2903" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2903" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2903" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2903" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2903" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2903" s="22" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:13">
+      <c r="A2904" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2904" s="24" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C2904" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2904" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2904" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2904" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2904" s="22" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:13">
+      <c r="A2906" s="22" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:13">
+      <c r="A2907" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2907" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2907" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2907" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2907" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2907" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2907" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2907" s="22" t="s">
+        <v>2672</v>
+      </c>
+      <c r="I2907" s="22" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J2907" s="22" t="s">
+        <v>2682</v>
+      </c>
+      <c r="K2907" s="22" t="s">
+        <v>2683</v>
+      </c>
+      <c r="L2907" s="22" t="s">
+        <v>2684</v>
+      </c>
+      <c r="M2907" s="22" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:13">
+      <c r="A2908" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2908" s="24" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C2908" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2908" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2908" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2908" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2908" s="22" t="s">
+        <v>2239</v>
+      </c>
+      <c r="H2908" s="22">
+        <v>100</v>
+      </c>
+      <c r="I2908" s="22">
+        <v>2</v>
+      </c>
+      <c r="J2908" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2908" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2908" s="22">
+        <v>1</v>
+      </c>
+      <c r="M2908" s="22" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:13">
+      <c r="A2910" s="22" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:13">
+      <c r="A2911" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2911" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2911" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2911" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2911" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2911" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2911" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:13">
+      <c r="A2912" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2912" s="24" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C2912" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2912" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2912" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2912" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2912" s="22" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:25">
+      <c r="A2914" s="22" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:25">
+      <c r="A2915" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2915" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2915" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2915" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2915" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2915" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:25" ht="30">
+      <c r="A2916" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2916" s="24" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C2916" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2916" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2916" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2916" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:25">
+      <c r="A2918" s="22" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:25">
+      <c r="A2919" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2919" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2919" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2919" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2919" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2919" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2919" s="22" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:25" ht="30">
+      <c r="A2920" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2920" s="24" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C2920" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2920" s="22" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2920" s="22" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2920" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2920" s="22" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:25">
+      <c r="A2922" s="22" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:25">
+      <c r="A2923" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2923" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2923" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2923" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2923" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2923" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:25" ht="30">
+      <c r="A2924" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2924" s="24" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C2924" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2924" s="22" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2924" s="22" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2924" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:25">
+      <c r="A2926" s="22" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:25">
+      <c r="A2927" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2927" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2927" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2927" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2927" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2927" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2927" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="H2927" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="I2927" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="J2927" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="K2927" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="L2927" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="M2927" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="N2927" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="O2927" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="P2927" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q2927" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="R2927" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="S2927" s="22" t="s">
+        <v>717</v>
+      </c>
+      <c r="T2927" s="22" t="s">
+        <v>718</v>
+      </c>
+      <c r="U2927" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="V2927" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="W2927" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="X2927" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y2927" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:25" ht="30">
+      <c r="A2928" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2928" s="24" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C2928" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2928" s="22" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2928" s="22" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2928" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2928" s="22" t="s">
+        <v>2689</v>
+      </c>
+      <c r="H2928" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="I2928" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="J2928" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="K2928" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="L2928" s="22">
+        <v>50</v>
+      </c>
+      <c r="M2928" s="22">
+        <v>50</v>
+      </c>
+      <c r="N2928" s="22">
+        <v>100</v>
+      </c>
+      <c r="O2928" s="22">
+        <v>3</v>
+      </c>
+      <c r="P2928" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q2928" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="R2928" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="S2928" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="T2928" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="U2928" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="V2928" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="W2928" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="X2928" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y2928" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:25">
+      <c r="A2930" s="22" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:25">
+      <c r="A2931" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2931" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2931" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2931" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2931" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2931" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2931" s="22" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:25" ht="30">
+      <c r="A2932" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2932" s="24" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C2932" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2932" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E2932" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F2932" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2932" s="22" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:25">
+      <c r="A2934" s="22" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:25">
+      <c r="A2935" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2935" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2935" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2935" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2935" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2935" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2935" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="H2935" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="I2935" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="J2935" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="K2935" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="L2935" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="M2935" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="N2935" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="O2935" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="P2935" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q2935" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="R2935" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="S2935" s="22" t="s">
+        <v>717</v>
+      </c>
+      <c r="T2935" s="22" t="s">
+        <v>718</v>
+      </c>
+      <c r="U2935" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="V2935" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="W2935" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="X2935" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y2935" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:25" ht="30">
+      <c r="A2936" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2936" s="24" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C2936" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2936" s="22" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2936" s="22" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2936" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2936" s="22" t="s">
+        <v>2691</v>
+      </c>
+      <c r="H2936" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="I2936" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="J2936" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="K2936" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="L2936" s="22">
+        <v>50</v>
+      </c>
+      <c r="M2936" s="22">
+        <v>50</v>
+      </c>
+      <c r="N2936" s="22">
+        <v>100</v>
+      </c>
+      <c r="O2936" s="22">
+        <v>3</v>
+      </c>
+      <c r="P2936" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q2936" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="R2936" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="S2936" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="T2936" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="U2936" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="V2936" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="W2936" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="X2936" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y2936" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:25">
+      <c r="A2938" s="22" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:25">
+      <c r="A2939" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2939" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2939" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2939" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2939" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2939" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2939" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="H2939" s="22" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:25">
+      <c r="A2940" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2940" s="24" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C2940" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2940" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E2940" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F2940" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2940" s="22" t="s">
+        <v>2690</v>
+      </c>
+      <c r="H2940" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:25">
+      <c r="A2942" s="22" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:25">
+      <c r="A2943" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2943" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2943" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2943" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2943" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2943" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2943" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:25" ht="30">
+      <c r="A2944" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2944" s="24" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2944" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2944" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2944" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2944" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2944" s="22" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:9">
+      <c r="A2946" s="22" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:9">
+      <c r="A2947" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2947" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2947" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2947" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2947" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2947" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2947" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:9" ht="30">
+      <c r="A2948" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2948" s="24" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2948" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2948" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2948" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2948" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2948" s="22" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:9">
+      <c r="A2950" s="22" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:9">
+      <c r="A2951" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2951" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2951" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2951" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2951" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2951" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2951" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:9" ht="30">
+      <c r="A2952" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2952" s="24" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C2952" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2952" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2952" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2952" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2952" s="22" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:9">
+      <c r="A2954" s="22" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:9">
+      <c r="A2955" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2955" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2955" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2955" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2955" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2955" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2955" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2955" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2955" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:9">
+      <c r="A2956" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2956" s="24" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C2956" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2956" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2956" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2956" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2956" s="22" t="s">
+        <v>1995</v>
+      </c>
+      <c r="H2956" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I2956" s="22" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:9">
+      <c r="A2958" s="22" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:9">
+      <c r="A2959" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2959" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2959" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2959" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2959" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2959" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2959" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2959" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2959" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:9" ht="30">
+      <c r="A2960" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2960" s="24" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C2960" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2960" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2960" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2960" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2960" s="22" t="s">
+        <v>2233</v>
+      </c>
+      <c r="H2960" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I2960" s="22" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:10">
+      <c r="A2962" s="22" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:10">
+      <c r="A2963" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2963" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2963" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2963" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2963" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2963" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2963" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:10" ht="30">
+      <c r="A2964" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2964" s="24" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C2964" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2964" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2964" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2964" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2964" s="22" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:10">
+      <c r="A2966" s="22" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:10">
+      <c r="A2967" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2967" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2967" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2967" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2967" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2967" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2967" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:10" ht="30">
+      <c r="A2968" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2968" s="24" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C2968" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2968" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2968" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2968" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2968" s="22" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:10">
+      <c r="A2970" s="22" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:10">
+      <c r="A2971" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2971" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2971" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2971" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2971" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2971" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2971" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2971" s="22" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:10" ht="30">
+      <c r="A2972" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2972" s="24" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C2972" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2972" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2972" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2972" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2972" s="22" t="s">
+        <v>2081</v>
+      </c>
+      <c r="H2972" s="22" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:10">
+      <c r="A2974" s="22" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:10">
+      <c r="A2975" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2975" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2975" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2975" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2975" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2975" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2975" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2975" s="22" t="s">
+        <v>2346</v>
+      </c>
+      <c r="I2975" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2975" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:10">
+      <c r="A2976" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2976" s="22" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C2976" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2976" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2976" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2976" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2976" s="22" t="s">
+        <v>1995</v>
+      </c>
+      <c r="H2976" s="22" t="s">
+        <v>2692</v>
+      </c>
+      <c r="I2976" s="22" t="s">
+        <v>1999</v>
+      </c>
+      <c r="J2976" s="22" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:10">
+      <c r="A2978" s="22" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:10">
+      <c r="A2979" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2979" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2979" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2979" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2979" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2979" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2979" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2979" s="22" t="s">
+        <v>2346</v>
+      </c>
+      <c r="I2979" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2979" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:10">
+      <c r="A2980" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2980" s="22" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C2980" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2980" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2980" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2980" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2980" s="22" t="s">
+        <v>1995</v>
+      </c>
+      <c r="H2980" s="22" t="s">
+        <v>2692</v>
+      </c>
+      <c r="I2980" s="22" t="s">
+        <v>1999</v>
+      </c>
+      <c r="J2980" s="22" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:10">
+      <c r="A2982" s="22" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:10">
+      <c r="A2983" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2983" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2983" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2983" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2983" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2983" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2983" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2983" s="22" t="s">
+        <v>2346</v>
+      </c>
+      <c r="I2983" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2983" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:10">
+      <c r="A2984" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2984" s="22" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C2984" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2984" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2984" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2984" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2984" s="22" t="s">
+        <v>1995</v>
+      </c>
+      <c r="H2984" s="32" t="s">
+        <v>2693</v>
+      </c>
+      <c r="I2984" s="22" t="s">
+        <v>1999</v>
+      </c>
+      <c r="J2984" s="22" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:10">
+      <c r="A2986" s="22" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:10">
+      <c r="A2987" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2987" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2987" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2987" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2987" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2987" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2987" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:10">
+      <c r="A2988" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2988" s="22" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C2988" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2988" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2988" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2988" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2988" s="22" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:10">
+      <c r="A2990" s="22" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:10">
+      <c r="A2991" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2991" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2991" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2991" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2991" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2991" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2991" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="H2991" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:10">
+      <c r="A2992" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2992" s="22" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C2992" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2992" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E2992" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F2992" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2992" s="22" t="s">
+        <v>2694</v>
+      </c>
+      <c r="H2992" s="22" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:8">
+      <c r="A2994" s="22" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:8">
+      <c r="A2995" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2995" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2995" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2995" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2995" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2995" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2995" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="H2995" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:8">
+      <c r="A2996" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2996" s="22" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C2996" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2996" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E2996" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F2996" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2996" s="22" t="s">
+        <v>2694</v>
+      </c>
+      <c r="H2996" s="22" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:8">
+      <c r="A2998" s="22" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:8">
+      <c r="A2999" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2999" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2999" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2999" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2999" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2999" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2999" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="H2999" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:8">
+      <c r="A3000" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3000" s="22" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C3000" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3000" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3000" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3000" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3000" s="22" t="s">
+        <v>2694</v>
+      </c>
+      <c r="H3000" s="22" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:8">
+      <c r="A3002" s="22" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:8">
+      <c r="A3003" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3003" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3003" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3003" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3003" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3003" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3003" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="H3003" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:8">
+      <c r="A3004" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3004" s="22" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C3004" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3004" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3004" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3004" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3004" s="22" t="s">
+        <v>2695</v>
+      </c>
+      <c r="H3004" s="22" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:8">
+      <c r="A3006" s="22" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:8">
+      <c r="A3007" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3007" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3007" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3007" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3007" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3007" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3007" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="H3007" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:8">
+      <c r="A3008" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3008" s="22" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C3008" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3008" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3008" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3008" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3008" s="22" t="s">
+        <v>2696</v>
+      </c>
+      <c r="H3008" s="22" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:11">
+      <c r="A3010" s="22" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:11">
+      <c r="A3011" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3011" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3011" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3011" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3011" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3011" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3011" s="22" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:11">
+      <c r="A3012" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3012" s="22" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C3012" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3012" s="22" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E3012" s="22" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F3012" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3012" s="22" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:11">
+      <c r="A3014" s="22" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:11">
+      <c r="A3015" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3015" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3015" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3015" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3015" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3015" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3015" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="H3015" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:11">
+      <c r="A3016" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3016" s="22" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C3016" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3016" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3016" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3016" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3016" s="22" t="s">
+        <v>2698</v>
+      </c>
+      <c r="H3016" s="22" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:11">
+      <c r="A3018" s="22" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:11">
+      <c r="A3019" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3019" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3019" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3019" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3019" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3019" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3019" s="22" t="s">
+        <v>2699</v>
+      </c>
+      <c r="H3019" s="22" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:11">
+      <c r="A3020" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3020" s="22" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C3020" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3020" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3020" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3020" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3020" s="23" t="s">
+        <v>2701</v>
+      </c>
+      <c r="H3020" s="23" t="s">
+        <v>2702</v>
+      </c>
+      <c r="I3020" s="23"/>
+      <c r="K3020" s="3"/>
+    </row>
+    <row r="3022" spans="1:11">
+      <c r="A3022" s="22" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:11">
+      <c r="A3023" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3023" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3023" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3023" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3023" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3023" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3023" s="22" t="s">
+        <v>2699</v>
+      </c>
+      <c r="H3023" s="22" t="s">
+        <v>2703</v>
+      </c>
+      <c r="I3023" s="22" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:11">
+      <c r="A3024" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3024" s="52" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C3024" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3024" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3024" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3024" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3024" s="23" t="s">
+        <v>2701</v>
+      </c>
+      <c r="H3024" s="53">
+        <v>44415</v>
+      </c>
+      <c r="I3024" s="53">
+        <v>44469</v>
+      </c>
+      <c r="K3024" s="3"/>
+    </row>
+    <row r="3026" spans="1:11">
+      <c r="A3026" s="22" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:11">
+      <c r="A3027" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3027" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3027" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3027" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3027" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3027" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3027" s="22" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:11">
+      <c r="A3028" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3028" s="22" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C3028" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3028" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3028" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3028" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3028" s="23" t="s">
+        <v>2701</v>
+      </c>
+      <c r="H3028" s="53"/>
+      <c r="I3028" s="53"/>
+      <c r="K3028" s="3"/>
+    </row>
+    <row r="3030" spans="1:11">
+      <c r="A3030" s="22" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:11">
+      <c r="A3031" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3031" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3031" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3031" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3031" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3031" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3031" s="22" t="s">
+        <v>2699</v>
+      </c>
+      <c r="H3031" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3031" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="J3031" s="22" t="s">
+        <v>2705</v>
+      </c>
+      <c r="K3031" s="22" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:11">
+      <c r="A3032" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3032" s="52" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C3032" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3032" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3032" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3032" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3032" s="23" t="s">
+        <v>2701</v>
+      </c>
+      <c r="H3032" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3032" s="53" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J3032" s="22" t="s">
+        <v>2707</v>
+      </c>
+      <c r="K3032" s="3" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:11">
+      <c r="A3034" s="22" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:11">
+      <c r="A3035" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3035" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3035" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3035" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3035" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3035" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3035" s="22" t="s">
+        <v>2699</v>
+      </c>
+      <c r="H3035" s="22" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:11">
+      <c r="A3036" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3036" s="22" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C3036" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3036" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3036" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3036" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3036" s="23" t="s">
+        <v>2701</v>
+      </c>
+      <c r="H3036" s="23" t="s">
+        <v>2702</v>
+      </c>
+      <c r="I3036" s="23"/>
+      <c r="K3036" s="3"/>
+    </row>
+    <row r="3038" spans="1:11">
+      <c r="A3038" s="22" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:11">
+      <c r="A3039" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3039" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3039" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3039" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3039" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3039" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:11">
+      <c r="A3040" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3040" s="52" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C3040" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3040" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E3040" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F3040" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:8">
+      <c r="A3042" s="22" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:8">
+      <c r="A3043" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3043" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3043" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3043" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3043" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3043" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:8">
+      <c r="A3044" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3044" s="22" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C3044" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3044" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E3044" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F3044" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:8">
+      <c r="A3046" s="22" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:8">
+      <c r="A3047" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3047" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3047" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3047" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3047" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3047" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:8">
+      <c r="A3048" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3048" s="52" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C3048" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3048" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E3048" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F3048" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:8">
+      <c r="A3050" s="22" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:8">
+      <c r="A3051" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3051" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3051" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3051" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3051" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3051" s="22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:8">
+      <c r="A3052" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3052" s="22" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C3052" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3052" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E3052" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F3052" s="22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:8">
+      <c r="B3053" s="22"/>
+    </row>
+    <row r="3054" spans="1:8">
+      <c r="A3054" s="22" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:8">
+      <c r="A3055" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3055" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3055" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3055" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3055" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3055" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3055" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="H3055" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:8">
+      <c r="A3056" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3056" s="22" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C3056" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3056" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3056" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3056" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3056" s="22" t="s">
+        <v>2712</v>
+      </c>
+      <c r="H3056" s="22" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:9">
+      <c r="A3058" s="22" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:9">
+      <c r="A3059" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3059" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3059" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3059" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3059" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3059" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3059" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="H3059" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3059" s="22" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:9">
+      <c r="A3060" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3060" s="22" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C3060" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3060" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3060" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3060" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3060" s="22" t="s">
+        <v>2715</v>
+      </c>
+      <c r="H3060" s="22" t="s">
+        <v>2085</v>
+      </c>
+      <c r="I3060" s="22" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:9">
+      <c r="A3062" s="22" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:9">
+      <c r="A3063" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3063" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3063" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3063" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3063" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3063" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3063" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="H3063" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:9">
+      <c r="A3064" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3064" s="22" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C3064" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3064" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3064" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3064" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3064" s="22" t="s">
+        <v>2698</v>
+      </c>
+      <c r="H3064" s="22" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:9">
+      <c r="A3066" s="22" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:9">
+      <c r="A3067" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3067" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3067" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3067" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3067" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3067" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3067" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="H3067" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:9">
+      <c r="A3068" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3068" s="22" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C3068" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3068" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3068" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3068" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3068" s="22" t="s">
+        <v>2698</v>
+      </c>
+      <c r="H3068" s="22" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:9">
+      <c r="A3070" s="22" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:9">
+      <c r="A3071" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3071" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3071" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3071" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3071" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3071" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3071" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="H3071" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:9">
+      <c r="A3072" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3072" s="22" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C3072" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3072" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E3072" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F3072" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3072" s="22" t="s">
+        <v>2698</v>
+      </c>
+      <c r="H3072" s="22" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:10">
+      <c r="A3074" s="22" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:10">
+      <c r="A3075" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3075" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3075" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3075" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3075" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3075" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3075" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3075" s="22" t="s">
+        <v>2407</v>
+      </c>
+      <c r="I3075" s="22" t="s">
+        <v>2408</v>
+      </c>
+      <c r="J3075" s="22" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:10">
+      <c r="A3076" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3076" s="24" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C3076" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3076" s="22" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E3076" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3076" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3076" s="32" t="s">
+        <v>2335</v>
+      </c>
+      <c r="H3076" s="22" t="s">
+        <v>2415</v>
+      </c>
+      <c r="I3076" s="3" t="s">
+        <v>2416</v>
+      </c>
+      <c r="J3076" s="3" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:10">
+      <c r="A3078" s="22" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:10">
+      <c r="A3079" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3079" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3079" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3079" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3079" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3079" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="G3079" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3079" s="22" t="s">
+        <v>2407</v>
+      </c>
+      <c r="I3079" s="22" t="s">
+        <v>2408</v>
+      </c>
+      <c r="J3079" s="22" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:10">
+      <c r="A3080" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3080" s="24" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C3080" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3080" s="22" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E3080" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3080" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3080" s="32" t="s">
+        <v>2335</v>
+      </c>
+      <c r="H3080" s="22" t="s">
+        <v>2415</v>
+      </c>
+      <c r="I3080" s="3" t="s">
+        <v>2416</v>
+      </c>
+      <c r="J3080" s="3" t="s">
+        <v>2417</v>
       </c>
     </row>
   </sheetData>
@@ -63570,9 +72457,35 @@
     <hyperlink ref="D2676" r:id="rId598" xr:uid="{170A8316-9FD5-4B5B-A687-B5FBF8EDA41B}"/>
     <hyperlink ref="E2680" r:id="rId599" xr:uid="{AA6D0B94-497E-4DD8-9BDE-4FFB6030F0F7}"/>
     <hyperlink ref="D2680" r:id="rId600" xr:uid="{78AB1BFB-5059-48EA-BC8D-5E0A003133A0}"/>
+    <hyperlink ref="E2684" r:id="rId601" xr:uid="{0B34854A-DBA7-4192-80AE-88FBCFDF600C}"/>
+    <hyperlink ref="D2684" r:id="rId602" xr:uid="{FD2E82FD-5E4B-45FD-B63B-99F3E3979A9A}"/>
+    <hyperlink ref="D2792" r:id="rId603" xr:uid="{31D8157D-8C3C-4621-870C-2ED6C35F23A5}"/>
+    <hyperlink ref="D2808" r:id="rId604" xr:uid="{372511E5-EBD3-4A55-91FA-750782B8514F}"/>
+    <hyperlink ref="H2812" r:id="rId605" xr:uid="{8B461A28-CB05-4A4D-A6E0-0E7FBF7E13F8}"/>
+    <hyperlink ref="Q2820" r:id="rId606" xr:uid="{2B65A885-BEEF-426A-A5DE-D38D819AA831}"/>
+    <hyperlink ref="E2988" r:id="rId607" xr:uid="{10230F9E-3998-424B-BAF6-24DB63277009}"/>
+    <hyperlink ref="E3020" r:id="rId608" xr:uid="{17710B5E-5A1C-4581-BF90-994EBB210B43}"/>
+    <hyperlink ref="D3020" r:id="rId609" xr:uid="{DCA402D0-E665-4440-B9E8-AE00FB54A683}"/>
+    <hyperlink ref="G3020" r:id="rId610" tooltip="Click to edit the event" display="https://tenant1.bizligotest.com/community/17/events/create/364" xr:uid="{96D097EA-4E06-4DFF-A468-DF28DBC7D025}"/>
+    <hyperlink ref="E3024" r:id="rId611" xr:uid="{3A205098-0EC1-43B7-9435-FC0591620294}"/>
+    <hyperlink ref="D3024" r:id="rId612" xr:uid="{AF6CF113-EE3B-45C9-A05B-2A9F64493E10}"/>
+    <hyperlink ref="G3024" r:id="rId613" tooltip="Click to edit the event" display="https://tenant1.bizligotest.com/community/17/events/create/364" xr:uid="{87200B7B-F793-4A79-BC1D-0AB6A99CEE91}"/>
+    <hyperlink ref="E3028" r:id="rId614" xr:uid="{F41DA6DB-F98D-4DCD-A3C9-66037BC1C56F}"/>
+    <hyperlink ref="D3028" r:id="rId615" xr:uid="{389E419C-7F1F-4DBF-9D4D-D1246C4F38D6}"/>
+    <hyperlink ref="G3028" r:id="rId616" tooltip="Click to edit the event" display="https://tenant1.bizligotest.com/community/17/events/create/364" xr:uid="{CFC8D1A0-D03C-457E-BB7E-BDEFF8A2CE88}"/>
+    <hyperlink ref="E3032" r:id="rId617" xr:uid="{45B1AD23-C170-4BB2-9A67-C0BD6D0242FD}"/>
+    <hyperlink ref="D3032" r:id="rId618" xr:uid="{4643D1C5-1EB7-453D-9263-9E5525536793}"/>
+    <hyperlink ref="G3032" r:id="rId619" tooltip="Click to edit the event" display="https://tenant1.bizligotest.com/community/17/events/create/364" xr:uid="{24735876-5248-44F6-BE00-65EC2075170B}"/>
+    <hyperlink ref="E3036" r:id="rId620" xr:uid="{4C1F6892-F783-48B1-BA09-A3ECA93E71CE}"/>
+    <hyperlink ref="D3036" r:id="rId621" xr:uid="{4AD80FE5-5A42-4F7F-8423-8CEC33FFCD87}"/>
+    <hyperlink ref="G3036" r:id="rId622" tooltip="Click to edit the event" display="https://tenant1.bizligotest.com/community/17/events/create/364" xr:uid="{DD7E19EE-F564-4946-806C-E350CB267B5F}"/>
+    <hyperlink ref="E3076" r:id="rId623" xr:uid="{099E231C-B07F-4F64-AF3F-2399AF6E6AF1}"/>
+    <hyperlink ref="D3076" r:id="rId624" xr:uid="{742DC341-9429-4E0E-B734-5B1BA776C4D5}"/>
+    <hyperlink ref="E3080" r:id="rId625" xr:uid="{CE99CACC-F2D1-4D22-BB2F-0B6F9DB7A6B4}"/>
+    <hyperlink ref="D3080" r:id="rId626" xr:uid="{BE38A59B-1D80-473E-AF4F-A9782039DDB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId601"/>
+  <pageSetup orientation="portrait" r:id="rId627"/>
 </worksheet>
 </file>
 
